--- a/Data/fake_nocalib.xlsx
+++ b/Data/fake_nocalib.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SD4"/>
+  <dimension ref="A1:SF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,1495 +437,1501 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="2" t="n">
-        <v>0</v>
+        <v>2023</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>1</v>
+        <v>2024</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>2</v>
+        <v>2025</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>3</v>
+        <v>2026</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>4</v>
+        <v>2027</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>5</v>
+        <v>2028</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>6</v>
+        <v>2029</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>7</v>
+        <v>2030</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>8</v>
+        <v>2031</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>9</v>
+        <v>2032</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>10</v>
+        <v>2033</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>11</v>
+        <v>2034</v>
       </c>
       <c r="N1" s="2" t="n">
-        <v>12</v>
+        <v>2035</v>
       </c>
       <c r="O1" s="2" t="n">
-        <v>13</v>
+        <v>2036</v>
       </c>
       <c r="P1" s="2" t="n">
-        <v>14</v>
+        <v>2037</v>
       </c>
       <c r="Q1" s="2" t="n">
-        <v>15</v>
+        <v>2038</v>
       </c>
       <c r="R1" s="2" t="n">
-        <v>16</v>
+        <v>2039</v>
       </c>
       <c r="S1" s="2" t="n">
-        <v>17</v>
+        <v>2040</v>
       </c>
       <c r="T1" s="2" t="n">
-        <v>18</v>
+        <v>2041</v>
       </c>
       <c r="U1" s="2" t="n">
-        <v>19</v>
+        <v>2042</v>
       </c>
       <c r="V1" s="2" t="n">
-        <v>20</v>
+        <v>2043</v>
       </c>
       <c r="W1" s="2" t="n">
-        <v>21</v>
+        <v>2044</v>
       </c>
       <c r="X1" s="2" t="n">
-        <v>22</v>
+        <v>2045</v>
       </c>
       <c r="Y1" s="2" t="n">
-        <v>23</v>
+        <v>2046</v>
       </c>
       <c r="Z1" s="2" t="n">
-        <v>24</v>
+        <v>2047</v>
       </c>
       <c r="AA1" s="2" t="n">
-        <v>25</v>
+        <v>2048</v>
       </c>
       <c r="AB1" s="2" t="n">
-        <v>26</v>
+        <v>2049</v>
       </c>
       <c r="AC1" s="2" t="n">
-        <v>27</v>
+        <v>2050</v>
       </c>
       <c r="AD1" s="2" t="n">
-        <v>28</v>
+        <v>2051</v>
       </c>
       <c r="AE1" s="2" t="n">
-        <v>29</v>
+        <v>2052</v>
       </c>
       <c r="AF1" s="2" t="n">
-        <v>30</v>
+        <v>2053</v>
       </c>
       <c r="AG1" s="2" t="n">
-        <v>31</v>
+        <v>2054</v>
       </c>
       <c r="AH1" s="2" t="n">
-        <v>32</v>
+        <v>2055</v>
       </c>
       <c r="AI1" s="2" t="n">
-        <v>33</v>
+        <v>2056</v>
       </c>
       <c r="AJ1" s="2" t="n">
-        <v>34</v>
+        <v>2057</v>
       </c>
       <c r="AK1" s="2" t="n">
-        <v>35</v>
+        <v>2058</v>
       </c>
       <c r="AL1" s="2" t="n">
-        <v>36</v>
+        <v>2059</v>
       </c>
       <c r="AM1" s="2" t="n">
-        <v>37</v>
+        <v>2060</v>
       </c>
       <c r="AN1" s="2" t="n">
-        <v>38</v>
+        <v>2061</v>
       </c>
       <c r="AO1" s="2" t="n">
-        <v>39</v>
+        <v>2062</v>
       </c>
       <c r="AP1" s="2" t="n">
-        <v>40</v>
+        <v>2063</v>
       </c>
       <c r="AQ1" s="2" t="n">
-        <v>41</v>
+        <v>2064</v>
       </c>
       <c r="AR1" s="2" t="n">
-        <v>42</v>
+        <v>2065</v>
       </c>
       <c r="AS1" s="2" t="n">
-        <v>43</v>
+        <v>2066</v>
       </c>
       <c r="AT1" s="2" t="n">
-        <v>44</v>
+        <v>2067</v>
       </c>
       <c r="AU1" s="2" t="n">
-        <v>45</v>
+        <v>2068</v>
       </c>
       <c r="AV1" s="2" t="n">
-        <v>46</v>
+        <v>2069</v>
       </c>
       <c r="AW1" s="2" t="n">
-        <v>47</v>
+        <v>2070</v>
       </c>
       <c r="AX1" s="2" t="n">
-        <v>48</v>
+        <v>2071</v>
       </c>
       <c r="AY1" s="2" t="n">
-        <v>49</v>
+        <v>2072</v>
       </c>
       <c r="AZ1" s="2" t="n">
-        <v>50</v>
+        <v>2073</v>
       </c>
       <c r="BA1" s="2" t="n">
-        <v>51</v>
+        <v>2074</v>
       </c>
       <c r="BB1" s="2" t="n">
-        <v>52</v>
+        <v>2075</v>
       </c>
       <c r="BC1" s="2" t="n">
-        <v>53</v>
+        <v>2076</v>
       </c>
       <c r="BD1" s="2" t="n">
-        <v>54</v>
+        <v>2077</v>
       </c>
       <c r="BE1" s="2" t="n">
-        <v>55</v>
+        <v>2078</v>
       </c>
       <c r="BF1" s="2" t="n">
-        <v>56</v>
+        <v>2079</v>
       </c>
       <c r="BG1" s="2" t="n">
-        <v>57</v>
+        <v>2080</v>
       </c>
       <c r="BH1" s="2" t="n">
-        <v>58</v>
+        <v>2081</v>
       </c>
       <c r="BI1" s="2" t="n">
-        <v>59</v>
+        <v>2082</v>
       </c>
       <c r="BJ1" s="2" t="n">
-        <v>60</v>
+        <v>2083</v>
       </c>
       <c r="BK1" s="2" t="n">
-        <v>61</v>
+        <v>2084</v>
       </c>
       <c r="BL1" s="2" t="n">
-        <v>62</v>
+        <v>2085</v>
       </c>
       <c r="BM1" s="2" t="n">
-        <v>63</v>
+        <v>2086</v>
       </c>
       <c r="BN1" s="2" t="n">
-        <v>64</v>
+        <v>2087</v>
       </c>
       <c r="BO1" s="2" t="n">
-        <v>65</v>
+        <v>2088</v>
       </c>
       <c r="BP1" s="2" t="n">
-        <v>66</v>
+        <v>2089</v>
       </c>
       <c r="BQ1" s="2" t="n">
-        <v>67</v>
+        <v>2090</v>
       </c>
       <c r="BR1" s="2" t="n">
-        <v>68</v>
+        <v>2091</v>
       </c>
       <c r="BS1" s="2" t="n">
-        <v>69</v>
+        <v>2092</v>
       </c>
       <c r="BT1" s="2" t="n">
-        <v>70</v>
+        <v>2093</v>
       </c>
       <c r="BU1" s="2" t="n">
-        <v>71</v>
+        <v>2094</v>
       </c>
       <c r="BV1" s="2" t="n">
-        <v>72</v>
+        <v>2095</v>
       </c>
       <c r="BW1" s="2" t="n">
-        <v>73</v>
+        <v>2096</v>
       </c>
       <c r="BX1" s="2" t="n">
-        <v>74</v>
+        <v>2097</v>
       </c>
       <c r="BY1" s="2" t="n">
-        <v>75</v>
+        <v>2098</v>
       </c>
       <c r="BZ1" s="2" t="n">
-        <v>76</v>
+        <v>2099</v>
       </c>
       <c r="CA1" s="2" t="n">
-        <v>77</v>
+        <v>2100</v>
       </c>
       <c r="CB1" s="2" t="n">
-        <v>78</v>
+        <v>2101</v>
       </c>
       <c r="CC1" s="2" t="n">
-        <v>79</v>
+        <v>2102</v>
       </c>
       <c r="CD1" s="2" t="n">
-        <v>80</v>
+        <v>2103</v>
       </c>
       <c r="CE1" s="2" t="n">
-        <v>81</v>
+        <v>2104</v>
       </c>
       <c r="CF1" s="2" t="n">
-        <v>82</v>
+        <v>2105</v>
       </c>
       <c r="CG1" s="2" t="n">
-        <v>83</v>
+        <v>2106</v>
       </c>
       <c r="CH1" s="2" t="n">
-        <v>84</v>
+        <v>2107</v>
       </c>
       <c r="CI1" s="2" t="n">
-        <v>85</v>
+        <v>2108</v>
       </c>
       <c r="CJ1" s="2" t="n">
-        <v>86</v>
+        <v>2109</v>
       </c>
       <c r="CK1" s="2" t="n">
-        <v>87</v>
+        <v>2110</v>
       </c>
       <c r="CL1" s="2" t="n">
-        <v>88</v>
+        <v>2111</v>
       </c>
       <c r="CM1" s="2" t="n">
-        <v>89</v>
+        <v>2112</v>
       </c>
       <c r="CN1" s="2" t="n">
-        <v>90</v>
+        <v>2113</v>
       </c>
       <c r="CO1" s="2" t="n">
-        <v>91</v>
+        <v>2114</v>
       </c>
       <c r="CP1" s="2" t="n">
-        <v>92</v>
+        <v>2115</v>
       </c>
       <c r="CQ1" s="2" t="n">
-        <v>93</v>
+        <v>2116</v>
       </c>
       <c r="CR1" s="2" t="n">
-        <v>94</v>
+        <v>2117</v>
       </c>
       <c r="CS1" s="2" t="n">
-        <v>95</v>
+        <v>2118</v>
       </c>
       <c r="CT1" s="2" t="n">
-        <v>96</v>
+        <v>2119</v>
       </c>
       <c r="CU1" s="2" t="n">
-        <v>97</v>
+        <v>2120</v>
       </c>
       <c r="CV1" s="2" t="n">
-        <v>98</v>
+        <v>2121</v>
       </c>
       <c r="CW1" s="2" t="n">
-        <v>99</v>
+        <v>2122</v>
       </c>
       <c r="CX1" s="2" t="n">
-        <v>100</v>
+        <v>2123</v>
       </c>
       <c r="CY1" s="2" t="n">
-        <v>101</v>
+        <v>2124</v>
       </c>
       <c r="CZ1" s="2" t="n">
-        <v>102</v>
+        <v>2125</v>
       </c>
       <c r="DA1" s="2" t="n">
-        <v>103</v>
+        <v>2126</v>
       </c>
       <c r="DB1" s="2" t="n">
-        <v>104</v>
+        <v>2127</v>
       </c>
       <c r="DC1" s="2" t="n">
-        <v>105</v>
+        <v>2128</v>
       </c>
       <c r="DD1" s="2" t="n">
-        <v>106</v>
+        <v>2129</v>
       </c>
       <c r="DE1" s="2" t="n">
-        <v>107</v>
+        <v>2130</v>
       </c>
       <c r="DF1" s="2" t="n">
-        <v>108</v>
+        <v>2131</v>
       </c>
       <c r="DG1" s="2" t="n">
-        <v>109</v>
+        <v>2132</v>
       </c>
       <c r="DH1" s="2" t="n">
-        <v>110</v>
+        <v>2133</v>
       </c>
       <c r="DI1" s="2" t="n">
-        <v>111</v>
+        <v>2134</v>
       </c>
       <c r="DJ1" s="2" t="n">
-        <v>112</v>
+        <v>2135</v>
       </c>
       <c r="DK1" s="2" t="n">
-        <v>113</v>
+        <v>2136</v>
       </c>
       <c r="DL1" s="2" t="n">
-        <v>114</v>
+        <v>2137</v>
       </c>
       <c r="DM1" s="2" t="n">
-        <v>115</v>
+        <v>2138</v>
       </c>
       <c r="DN1" s="2" t="n">
-        <v>116</v>
+        <v>2139</v>
       </c>
       <c r="DO1" s="2" t="n">
-        <v>117</v>
+        <v>2140</v>
       </c>
       <c r="DP1" s="2" t="n">
-        <v>118</v>
+        <v>2141</v>
       </c>
       <c r="DQ1" s="2" t="n">
-        <v>119</v>
+        <v>2142</v>
       </c>
       <c r="DR1" s="2" t="n">
-        <v>120</v>
+        <v>2143</v>
       </c>
       <c r="DS1" s="2" t="n">
-        <v>121</v>
+        <v>2144</v>
       </c>
       <c r="DT1" s="2" t="n">
-        <v>122</v>
+        <v>2145</v>
       </c>
       <c r="DU1" s="2" t="n">
-        <v>123</v>
+        <v>2146</v>
       </c>
       <c r="DV1" s="2" t="n">
-        <v>124</v>
+        <v>2147</v>
       </c>
       <c r="DW1" s="2" t="n">
-        <v>125</v>
+        <v>2148</v>
       </c>
       <c r="DX1" s="2" t="n">
-        <v>126</v>
+        <v>2149</v>
       </c>
       <c r="DY1" s="2" t="n">
-        <v>127</v>
+        <v>2150</v>
       </c>
       <c r="DZ1" s="2" t="n">
-        <v>128</v>
+        <v>2151</v>
       </c>
       <c r="EA1" s="2" t="n">
-        <v>129</v>
+        <v>2152</v>
       </c>
       <c r="EB1" s="2" t="n">
-        <v>130</v>
+        <v>2153</v>
       </c>
       <c r="EC1" s="2" t="n">
-        <v>131</v>
+        <v>2154</v>
       </c>
       <c r="ED1" s="2" t="n">
-        <v>132</v>
+        <v>2155</v>
       </c>
       <c r="EE1" s="2" t="n">
-        <v>133</v>
+        <v>2156</v>
       </c>
       <c r="EF1" s="2" t="n">
-        <v>134</v>
+        <v>2157</v>
       </c>
       <c r="EG1" s="2" t="n">
-        <v>135</v>
+        <v>2158</v>
       </c>
       <c r="EH1" s="2" t="n">
-        <v>136</v>
+        <v>2159</v>
       </c>
       <c r="EI1" s="2" t="n">
-        <v>137</v>
+        <v>2160</v>
       </c>
       <c r="EJ1" s="2" t="n">
-        <v>138</v>
+        <v>2161</v>
       </c>
       <c r="EK1" s="2" t="n">
-        <v>139</v>
+        <v>2162</v>
       </c>
       <c r="EL1" s="2" t="n">
-        <v>140</v>
+        <v>2163</v>
       </c>
       <c r="EM1" s="2" t="n">
-        <v>141</v>
+        <v>2164</v>
       </c>
       <c r="EN1" s="2" t="n">
-        <v>142</v>
+        <v>2165</v>
       </c>
       <c r="EO1" s="2" t="n">
-        <v>143</v>
+        <v>2166</v>
       </c>
       <c r="EP1" s="2" t="n">
-        <v>144</v>
+        <v>2167</v>
       </c>
       <c r="EQ1" s="2" t="n">
-        <v>145</v>
+        <v>2168</v>
       </c>
       <c r="ER1" s="2" t="n">
-        <v>146</v>
+        <v>2169</v>
       </c>
       <c r="ES1" s="2" t="n">
-        <v>147</v>
+        <v>2170</v>
       </c>
       <c r="ET1" s="2" t="n">
-        <v>148</v>
+        <v>2171</v>
       </c>
       <c r="EU1" s="2" t="n">
-        <v>149</v>
+        <v>2172</v>
       </c>
       <c r="EV1" s="2" t="n">
-        <v>150</v>
+        <v>2173</v>
       </c>
       <c r="EW1" s="2" t="n">
-        <v>151</v>
+        <v>2174</v>
       </c>
       <c r="EX1" s="2" t="n">
-        <v>152</v>
+        <v>2175</v>
       </c>
       <c r="EY1" s="2" t="n">
-        <v>153</v>
+        <v>2176</v>
       </c>
       <c r="EZ1" s="2" t="n">
-        <v>154</v>
+        <v>2177</v>
       </c>
       <c r="FA1" s="2" t="n">
-        <v>155</v>
+        <v>2178</v>
       </c>
       <c r="FB1" s="2" t="n">
-        <v>156</v>
+        <v>2179</v>
       </c>
       <c r="FC1" s="2" t="n">
-        <v>157</v>
+        <v>2180</v>
       </c>
       <c r="FD1" s="2" t="n">
-        <v>158</v>
+        <v>2181</v>
       </c>
       <c r="FE1" s="2" t="n">
-        <v>159</v>
+        <v>2182</v>
       </c>
       <c r="FF1" s="2" t="n">
-        <v>160</v>
+        <v>2183</v>
       </c>
       <c r="FG1" s="2" t="n">
-        <v>161</v>
+        <v>2184</v>
       </c>
       <c r="FH1" s="2" t="n">
-        <v>162</v>
+        <v>2185</v>
       </c>
       <c r="FI1" s="2" t="n">
-        <v>163</v>
+        <v>2186</v>
       </c>
       <c r="FJ1" s="2" t="n">
-        <v>164</v>
+        <v>2187</v>
       </c>
       <c r="FK1" s="2" t="n">
-        <v>165</v>
+        <v>2188</v>
       </c>
       <c r="FL1" s="2" t="n">
-        <v>166</v>
+        <v>2189</v>
       </c>
       <c r="FM1" s="2" t="n">
-        <v>167</v>
+        <v>2190</v>
       </c>
       <c r="FN1" s="2" t="n">
-        <v>168</v>
+        <v>2191</v>
       </c>
       <c r="FO1" s="2" t="n">
-        <v>169</v>
+        <v>2192</v>
       </c>
       <c r="FP1" s="2" t="n">
-        <v>170</v>
+        <v>2193</v>
       </c>
       <c r="FQ1" s="2" t="n">
-        <v>171</v>
+        <v>2194</v>
       </c>
       <c r="FR1" s="2" t="n">
-        <v>172</v>
+        <v>2195</v>
       </c>
       <c r="FS1" s="2" t="n">
-        <v>173</v>
+        <v>2196</v>
       </c>
       <c r="FT1" s="2" t="n">
-        <v>174</v>
+        <v>2197</v>
       </c>
       <c r="FU1" s="2" t="n">
-        <v>175</v>
+        <v>2198</v>
       </c>
       <c r="FV1" s="2" t="n">
-        <v>176</v>
+        <v>2199</v>
       </c>
       <c r="FW1" s="2" t="n">
-        <v>177</v>
+        <v>2200</v>
       </c>
       <c r="FX1" s="2" t="n">
-        <v>178</v>
+        <v>2201</v>
       </c>
       <c r="FY1" s="2" t="n">
-        <v>179</v>
+        <v>2202</v>
       </c>
       <c r="FZ1" s="2" t="n">
-        <v>180</v>
+        <v>2203</v>
       </c>
       <c r="GA1" s="2" t="n">
-        <v>181</v>
+        <v>2204</v>
       </c>
       <c r="GB1" s="2" t="n">
-        <v>182</v>
+        <v>2205</v>
       </c>
       <c r="GC1" s="2" t="n">
-        <v>183</v>
+        <v>2206</v>
       </c>
       <c r="GD1" s="2" t="n">
-        <v>184</v>
+        <v>2207</v>
       </c>
       <c r="GE1" s="2" t="n">
-        <v>185</v>
+        <v>2208</v>
       </c>
       <c r="GF1" s="2" t="n">
-        <v>186</v>
+        <v>2209</v>
       </c>
       <c r="GG1" s="2" t="n">
-        <v>187</v>
+        <v>2210</v>
       </c>
       <c r="GH1" s="2" t="n">
-        <v>188</v>
+        <v>2211</v>
       </c>
       <c r="GI1" s="2" t="n">
-        <v>189</v>
+        <v>2212</v>
       </c>
       <c r="GJ1" s="2" t="n">
-        <v>190</v>
+        <v>2213</v>
       </c>
       <c r="GK1" s="2" t="n">
-        <v>191</v>
+        <v>2214</v>
       </c>
       <c r="GL1" s="2" t="n">
-        <v>192</v>
+        <v>2215</v>
       </c>
       <c r="GM1" s="2" t="n">
-        <v>193</v>
+        <v>2216</v>
       </c>
       <c r="GN1" s="2" t="n">
-        <v>194</v>
+        <v>2217</v>
       </c>
       <c r="GO1" s="2" t="n">
-        <v>195</v>
+        <v>2218</v>
       </c>
       <c r="GP1" s="2" t="n">
-        <v>196</v>
+        <v>2219</v>
       </c>
       <c r="GQ1" s="2" t="n">
-        <v>197</v>
+        <v>2220</v>
       </c>
       <c r="GR1" s="2" t="n">
-        <v>198</v>
+        <v>2221</v>
       </c>
       <c r="GS1" s="2" t="n">
-        <v>199</v>
+        <v>2222</v>
       </c>
       <c r="GT1" s="2" t="n">
-        <v>200</v>
+        <v>2223</v>
       </c>
       <c r="GU1" s="2" t="n">
-        <v>201</v>
+        <v>2224</v>
       </c>
       <c r="GV1" s="2" t="n">
-        <v>202</v>
+        <v>2225</v>
       </c>
       <c r="GW1" s="2" t="n">
-        <v>203</v>
+        <v>2226</v>
       </c>
       <c r="GX1" s="2" t="n">
-        <v>204</v>
+        <v>2227</v>
       </c>
       <c r="GY1" s="2" t="n">
-        <v>205</v>
+        <v>2228</v>
       </c>
       <c r="GZ1" s="2" t="n">
-        <v>206</v>
+        <v>2229</v>
       </c>
       <c r="HA1" s="2" t="n">
-        <v>207</v>
+        <v>2230</v>
       </c>
       <c r="HB1" s="2" t="n">
-        <v>208</v>
+        <v>2231</v>
       </c>
       <c r="HC1" s="2" t="n">
-        <v>209</v>
+        <v>2232</v>
       </c>
       <c r="HD1" s="2" t="n">
-        <v>210</v>
+        <v>2233</v>
       </c>
       <c r="HE1" s="2" t="n">
-        <v>211</v>
+        <v>2234</v>
       </c>
       <c r="HF1" s="2" t="n">
-        <v>212</v>
+        <v>2235</v>
       </c>
       <c r="HG1" s="2" t="n">
-        <v>213</v>
+        <v>2236</v>
       </c>
       <c r="HH1" s="2" t="n">
-        <v>214</v>
+        <v>2237</v>
       </c>
       <c r="HI1" s="2" t="n">
-        <v>215</v>
+        <v>2238</v>
       </c>
       <c r="HJ1" s="2" t="n">
-        <v>216</v>
+        <v>2239</v>
       </c>
       <c r="HK1" s="2" t="n">
-        <v>217</v>
+        <v>2240</v>
       </c>
       <c r="HL1" s="2" t="n">
-        <v>218</v>
+        <v>2241</v>
       </c>
       <c r="HM1" s="2" t="n">
-        <v>219</v>
+        <v>2242</v>
       </c>
       <c r="HN1" s="2" t="n">
-        <v>220</v>
+        <v>2243</v>
       </c>
       <c r="HO1" s="2" t="n">
-        <v>221</v>
+        <v>2244</v>
       </c>
       <c r="HP1" s="2" t="n">
-        <v>222</v>
+        <v>2245</v>
       </c>
       <c r="HQ1" s="2" t="n">
-        <v>223</v>
+        <v>2246</v>
       </c>
       <c r="HR1" s="2" t="n">
-        <v>224</v>
+        <v>2247</v>
       </c>
       <c r="HS1" s="2" t="n">
-        <v>225</v>
+        <v>2248</v>
       </c>
       <c r="HT1" s="2" t="n">
-        <v>226</v>
+        <v>2249</v>
       </c>
       <c r="HU1" s="2" t="n">
-        <v>227</v>
+        <v>2250</v>
       </c>
       <c r="HV1" s="2" t="n">
-        <v>228</v>
+        <v>2251</v>
       </c>
       <c r="HW1" s="2" t="n">
-        <v>229</v>
+        <v>2252</v>
       </c>
       <c r="HX1" s="2" t="n">
-        <v>230</v>
+        <v>2253</v>
       </c>
       <c r="HY1" s="2" t="n">
-        <v>231</v>
+        <v>2254</v>
       </c>
       <c r="HZ1" s="2" t="n">
-        <v>232</v>
+        <v>2255</v>
       </c>
       <c r="IA1" s="2" t="n">
-        <v>233</v>
+        <v>2256</v>
       </c>
       <c r="IB1" s="2" t="n">
-        <v>234</v>
+        <v>2257</v>
       </c>
       <c r="IC1" s="2" t="n">
-        <v>235</v>
+        <v>2258</v>
       </c>
       <c r="ID1" s="2" t="n">
-        <v>236</v>
+        <v>2259</v>
       </c>
       <c r="IE1" s="2" t="n">
-        <v>237</v>
+        <v>2260</v>
       </c>
       <c r="IF1" s="2" t="n">
-        <v>238</v>
+        <v>2261</v>
       </c>
       <c r="IG1" s="2" t="n">
-        <v>239</v>
+        <v>2262</v>
       </c>
       <c r="IH1" s="2" t="n">
-        <v>240</v>
+        <v>2263</v>
       </c>
       <c r="II1" s="2" t="n">
-        <v>241</v>
+        <v>2264</v>
       </c>
       <c r="IJ1" s="2" t="n">
-        <v>242</v>
+        <v>2265</v>
       </c>
       <c r="IK1" s="2" t="n">
-        <v>243</v>
+        <v>2266</v>
       </c>
       <c r="IL1" s="2" t="n">
-        <v>244</v>
+        <v>2267</v>
       </c>
       <c r="IM1" s="2" t="n">
-        <v>245</v>
+        <v>2268</v>
       </c>
       <c r="IN1" s="2" t="n">
-        <v>246</v>
+        <v>2269</v>
       </c>
       <c r="IO1" s="2" t="n">
-        <v>247</v>
+        <v>2270</v>
       </c>
       <c r="IP1" s="2" t="n">
-        <v>248</v>
+        <v>2271</v>
       </c>
       <c r="IQ1" s="2" t="n">
-        <v>249</v>
+        <v>2272</v>
       </c>
       <c r="IR1" s="2" t="n">
-        <v>250</v>
+        <v>2273</v>
       </c>
       <c r="IS1" s="2" t="n">
-        <v>251</v>
+        <v>2274</v>
       </c>
       <c r="IT1" s="2" t="n">
-        <v>252</v>
+        <v>2275</v>
       </c>
       <c r="IU1" s="2" t="n">
-        <v>253</v>
+        <v>2276</v>
       </c>
       <c r="IV1" s="2" t="n">
-        <v>254</v>
+        <v>2277</v>
       </c>
       <c r="IW1" s="2" t="n">
-        <v>255</v>
+        <v>2278</v>
       </c>
       <c r="IX1" s="2" t="n">
-        <v>256</v>
+        <v>2279</v>
       </c>
       <c r="IY1" s="2" t="n">
-        <v>257</v>
+        <v>2280</v>
       </c>
       <c r="IZ1" s="2" t="n">
-        <v>258</v>
+        <v>2281</v>
       </c>
       <c r="JA1" s="2" t="n">
-        <v>259</v>
+        <v>2282</v>
       </c>
       <c r="JB1" s="2" t="n">
-        <v>260</v>
+        <v>2283</v>
       </c>
       <c r="JC1" s="2" t="n">
-        <v>261</v>
+        <v>2284</v>
       </c>
       <c r="JD1" s="2" t="n">
-        <v>262</v>
+        <v>2285</v>
       </c>
       <c r="JE1" s="2" t="n">
-        <v>263</v>
+        <v>2286</v>
       </c>
       <c r="JF1" s="2" t="n">
-        <v>264</v>
+        <v>2287</v>
       </c>
       <c r="JG1" s="2" t="n">
-        <v>265</v>
+        <v>2288</v>
       </c>
       <c r="JH1" s="2" t="n">
-        <v>266</v>
+        <v>2289</v>
       </c>
       <c r="JI1" s="2" t="n">
-        <v>267</v>
+        <v>2290</v>
       </c>
       <c r="JJ1" s="2" t="n">
-        <v>268</v>
+        <v>2291</v>
       </c>
       <c r="JK1" s="2" t="n">
-        <v>269</v>
+        <v>2292</v>
       </c>
       <c r="JL1" s="2" t="n">
-        <v>270</v>
+        <v>2293</v>
       </c>
       <c r="JM1" s="2" t="n">
-        <v>271</v>
+        <v>2294</v>
       </c>
       <c r="JN1" s="2" t="n">
-        <v>272</v>
+        <v>2295</v>
       </c>
       <c r="JO1" s="2" t="n">
-        <v>273</v>
+        <v>2296</v>
       </c>
       <c r="JP1" s="2" t="n">
-        <v>274</v>
+        <v>2297</v>
       </c>
       <c r="JQ1" s="2" t="n">
-        <v>275</v>
+        <v>2298</v>
       </c>
       <c r="JR1" s="2" t="n">
-        <v>276</v>
+        <v>2299</v>
       </c>
       <c r="JS1" s="2" t="n">
-        <v>277</v>
+        <v>2300</v>
       </c>
       <c r="JT1" s="2" t="n">
-        <v>278</v>
+        <v>2301</v>
       </c>
       <c r="JU1" s="2" t="n">
-        <v>279</v>
+        <v>2302</v>
       </c>
       <c r="JV1" s="2" t="n">
-        <v>280</v>
+        <v>2303</v>
       </c>
       <c r="JW1" s="2" t="n">
-        <v>281</v>
+        <v>2304</v>
       </c>
       <c r="JX1" s="2" t="n">
-        <v>282</v>
+        <v>2305</v>
       </c>
       <c r="JY1" s="2" t="n">
-        <v>283</v>
+        <v>2306</v>
       </c>
       <c r="JZ1" s="2" t="n">
-        <v>284</v>
+        <v>2307</v>
       </c>
       <c r="KA1" s="2" t="n">
-        <v>285</v>
+        <v>2308</v>
       </c>
       <c r="KB1" s="2" t="n">
-        <v>286</v>
+        <v>2309</v>
       </c>
       <c r="KC1" s="2" t="n">
-        <v>287</v>
+        <v>2310</v>
       </c>
       <c r="KD1" s="2" t="n">
-        <v>288</v>
+        <v>2311</v>
       </c>
       <c r="KE1" s="2" t="n">
-        <v>289</v>
+        <v>2312</v>
       </c>
       <c r="KF1" s="2" t="n">
-        <v>290</v>
+        <v>2313</v>
       </c>
       <c r="KG1" s="2" t="n">
-        <v>291</v>
+        <v>2314</v>
       </c>
       <c r="KH1" s="2" t="n">
-        <v>292</v>
+        <v>2315</v>
       </c>
       <c r="KI1" s="2" t="n">
-        <v>293</v>
+        <v>2316</v>
       </c>
       <c r="KJ1" s="2" t="n">
-        <v>294</v>
+        <v>2317</v>
       </c>
       <c r="KK1" s="2" t="n">
-        <v>295</v>
+        <v>2318</v>
       </c>
       <c r="KL1" s="2" t="n">
-        <v>296</v>
+        <v>2319</v>
       </c>
       <c r="KM1" s="2" t="n">
-        <v>297</v>
+        <v>2320</v>
       </c>
       <c r="KN1" s="2" t="n">
-        <v>298</v>
+        <v>2321</v>
       </c>
       <c r="KO1" s="2" t="n">
-        <v>299</v>
+        <v>2322</v>
       </c>
       <c r="KP1" s="2" t="n">
-        <v>300</v>
+        <v>2323</v>
       </c>
       <c r="KQ1" s="2" t="n">
-        <v>301</v>
+        <v>2324</v>
       </c>
       <c r="KR1" s="2" t="n">
-        <v>302</v>
+        <v>2325</v>
       </c>
       <c r="KS1" s="2" t="n">
-        <v>303</v>
+        <v>2326</v>
       </c>
       <c r="KT1" s="2" t="n">
-        <v>304</v>
+        <v>2327</v>
       </c>
       <c r="KU1" s="2" t="n">
-        <v>305</v>
+        <v>2328</v>
       </c>
       <c r="KV1" s="2" t="n">
-        <v>306</v>
+        <v>2329</v>
       </c>
       <c r="KW1" s="2" t="n">
-        <v>307</v>
+        <v>2330</v>
       </c>
       <c r="KX1" s="2" t="n">
-        <v>308</v>
+        <v>2331</v>
       </c>
       <c r="KY1" s="2" t="n">
-        <v>309</v>
+        <v>2332</v>
       </c>
       <c r="KZ1" s="2" t="n">
-        <v>310</v>
+        <v>2333</v>
       </c>
       <c r="LA1" s="2" t="n">
-        <v>311</v>
+        <v>2334</v>
       </c>
       <c r="LB1" s="2" t="n">
-        <v>312</v>
+        <v>2335</v>
       </c>
       <c r="LC1" s="2" t="n">
-        <v>313</v>
+        <v>2336</v>
       </c>
       <c r="LD1" s="2" t="n">
-        <v>314</v>
+        <v>2337</v>
       </c>
       <c r="LE1" s="2" t="n">
-        <v>315</v>
+        <v>2338</v>
       </c>
       <c r="LF1" s="2" t="n">
-        <v>316</v>
+        <v>2339</v>
       </c>
       <c r="LG1" s="2" t="n">
-        <v>317</v>
+        <v>2340</v>
       </c>
       <c r="LH1" s="2" t="n">
-        <v>318</v>
+        <v>2341</v>
       </c>
       <c r="LI1" s="2" t="n">
-        <v>319</v>
+        <v>2342</v>
       </c>
       <c r="LJ1" s="2" t="n">
-        <v>320</v>
+        <v>2343</v>
       </c>
       <c r="LK1" s="2" t="n">
-        <v>321</v>
+        <v>2344</v>
       </c>
       <c r="LL1" s="2" t="n">
-        <v>322</v>
+        <v>2345</v>
       </c>
       <c r="LM1" s="2" t="n">
-        <v>323</v>
+        <v>2346</v>
       </c>
       <c r="LN1" s="2" t="n">
-        <v>324</v>
+        <v>2347</v>
       </c>
       <c r="LO1" s="2" t="n">
-        <v>325</v>
+        <v>2348</v>
       </c>
       <c r="LP1" s="2" t="n">
-        <v>326</v>
+        <v>2349</v>
       </c>
       <c r="LQ1" s="2" t="n">
-        <v>327</v>
+        <v>2350</v>
       </c>
       <c r="LR1" s="2" t="n">
-        <v>328</v>
+        <v>2351</v>
       </c>
       <c r="LS1" s="2" t="n">
-        <v>329</v>
+        <v>2352</v>
       </c>
       <c r="LT1" s="2" t="n">
-        <v>330</v>
+        <v>2353</v>
       </c>
       <c r="LU1" s="2" t="n">
-        <v>331</v>
+        <v>2354</v>
       </c>
       <c r="LV1" s="2" t="n">
-        <v>332</v>
+        <v>2355</v>
       </c>
       <c r="LW1" s="2" t="n">
-        <v>333</v>
+        <v>2356</v>
       </c>
       <c r="LX1" s="2" t="n">
-        <v>334</v>
+        <v>2357</v>
       </c>
       <c r="LY1" s="2" t="n">
-        <v>335</v>
+        <v>2358</v>
       </c>
       <c r="LZ1" s="2" t="n">
-        <v>336</v>
+        <v>2359</v>
       </c>
       <c r="MA1" s="2" t="n">
-        <v>337</v>
+        <v>2360</v>
       </c>
       <c r="MB1" s="2" t="n">
-        <v>338</v>
+        <v>2361</v>
       </c>
       <c r="MC1" s="2" t="n">
-        <v>339</v>
+        <v>2362</v>
       </c>
       <c r="MD1" s="2" t="n">
-        <v>340</v>
+        <v>2363</v>
       </c>
       <c r="ME1" s="2" t="n">
-        <v>341</v>
+        <v>2364</v>
       </c>
       <c r="MF1" s="2" t="n">
-        <v>342</v>
+        <v>2365</v>
       </c>
       <c r="MG1" s="2" t="n">
-        <v>343</v>
+        <v>2366</v>
       </c>
       <c r="MH1" s="2" t="n">
-        <v>344</v>
+        <v>2367</v>
       </c>
       <c r="MI1" s="2" t="n">
-        <v>345</v>
+        <v>2368</v>
       </c>
       <c r="MJ1" s="2" t="n">
-        <v>346</v>
+        <v>2369</v>
       </c>
       <c r="MK1" s="2" t="n">
-        <v>347</v>
+        <v>2370</v>
       </c>
       <c r="ML1" s="2" t="n">
-        <v>348</v>
+        <v>2371</v>
       </c>
       <c r="MM1" s="2" t="n">
-        <v>349</v>
+        <v>2372</v>
       </c>
       <c r="MN1" s="2" t="n">
-        <v>350</v>
+        <v>2373</v>
       </c>
       <c r="MO1" s="2" t="n">
-        <v>351</v>
+        <v>2374</v>
       </c>
       <c r="MP1" s="2" t="n">
-        <v>352</v>
+        <v>2375</v>
       </c>
       <c r="MQ1" s="2" t="n">
-        <v>353</v>
+        <v>2376</v>
       </c>
       <c r="MR1" s="2" t="n">
-        <v>354</v>
+        <v>2377</v>
       </c>
       <c r="MS1" s="2" t="n">
-        <v>355</v>
+        <v>2378</v>
       </c>
       <c r="MT1" s="2" t="n">
-        <v>356</v>
+        <v>2379</v>
       </c>
       <c r="MU1" s="2" t="n">
-        <v>357</v>
+        <v>2380</v>
       </c>
       <c r="MV1" s="2" t="n">
-        <v>358</v>
+        <v>2381</v>
       </c>
       <c r="MW1" s="2" t="n">
-        <v>359</v>
+        <v>2382</v>
       </c>
       <c r="MX1" s="2" t="n">
-        <v>360</v>
+        <v>2383</v>
       </c>
       <c r="MY1" s="2" t="n">
-        <v>361</v>
+        <v>2384</v>
       </c>
       <c r="MZ1" s="2" t="n">
-        <v>362</v>
+        <v>2385</v>
       </c>
       <c r="NA1" s="2" t="n">
-        <v>363</v>
+        <v>2386</v>
       </c>
       <c r="NB1" s="2" t="n">
-        <v>364</v>
+        <v>2387</v>
       </c>
       <c r="NC1" s="2" t="n">
-        <v>365</v>
+        <v>2388</v>
       </c>
       <c r="ND1" s="2" t="n">
-        <v>366</v>
+        <v>2389</v>
       </c>
       <c r="NE1" s="2" t="n">
-        <v>367</v>
+        <v>2390</v>
       </c>
       <c r="NF1" s="2" t="n">
-        <v>368</v>
+        <v>2391</v>
       </c>
       <c r="NG1" s="2" t="n">
-        <v>369</v>
+        <v>2392</v>
       </c>
       <c r="NH1" s="2" t="n">
-        <v>370</v>
+        <v>2393</v>
       </c>
       <c r="NI1" s="2" t="n">
-        <v>371</v>
+        <v>2394</v>
       </c>
       <c r="NJ1" s="2" t="n">
-        <v>372</v>
+        <v>2395</v>
       </c>
       <c r="NK1" s="2" t="n">
-        <v>373</v>
+        <v>2396</v>
       </c>
       <c r="NL1" s="2" t="n">
-        <v>374</v>
+        <v>2397</v>
       </c>
       <c r="NM1" s="2" t="n">
-        <v>375</v>
+        <v>2398</v>
       </c>
       <c r="NN1" s="2" t="n">
-        <v>376</v>
+        <v>2399</v>
       </c>
       <c r="NO1" s="2" t="n">
-        <v>377</v>
+        <v>2400</v>
       </c>
       <c r="NP1" s="2" t="n">
-        <v>378</v>
+        <v>2401</v>
       </c>
       <c r="NQ1" s="2" t="n">
-        <v>379</v>
+        <v>2402</v>
       </c>
       <c r="NR1" s="2" t="n">
-        <v>380</v>
+        <v>2403</v>
       </c>
       <c r="NS1" s="2" t="n">
-        <v>381</v>
+        <v>2404</v>
       </c>
       <c r="NT1" s="2" t="n">
-        <v>382</v>
+        <v>2405</v>
       </c>
       <c r="NU1" s="2" t="n">
-        <v>383</v>
+        <v>2406</v>
       </c>
       <c r="NV1" s="2" t="n">
-        <v>384</v>
+        <v>2407</v>
       </c>
       <c r="NW1" s="2" t="n">
-        <v>385</v>
+        <v>2408</v>
       </c>
       <c r="NX1" s="2" t="n">
-        <v>386</v>
+        <v>2409</v>
       </c>
       <c r="NY1" s="2" t="n">
-        <v>387</v>
+        <v>2410</v>
       </c>
       <c r="NZ1" s="2" t="n">
-        <v>388</v>
+        <v>2411</v>
       </c>
       <c r="OA1" s="2" t="n">
-        <v>389</v>
+        <v>2412</v>
       </c>
       <c r="OB1" s="2" t="n">
-        <v>390</v>
+        <v>2413</v>
       </c>
       <c r="OC1" s="2" t="n">
-        <v>391</v>
+        <v>2414</v>
       </c>
       <c r="OD1" s="2" t="n">
-        <v>392</v>
+        <v>2415</v>
       </c>
       <c r="OE1" s="2" t="n">
-        <v>393</v>
+        <v>2416</v>
       </c>
       <c r="OF1" s="2" t="n">
-        <v>394</v>
+        <v>2417</v>
       </c>
       <c r="OG1" s="2" t="n">
-        <v>395</v>
+        <v>2418</v>
       </c>
       <c r="OH1" s="2" t="n">
-        <v>396</v>
+        <v>2419</v>
       </c>
       <c r="OI1" s="2" t="n">
-        <v>397</v>
+        <v>2420</v>
       </c>
       <c r="OJ1" s="2" t="n">
-        <v>398</v>
+        <v>2421</v>
       </c>
       <c r="OK1" s="2" t="n">
-        <v>399</v>
+        <v>2422</v>
       </c>
       <c r="OL1" s="2" t="n">
-        <v>400</v>
+        <v>2423</v>
       </c>
       <c r="OM1" s="2" t="n">
-        <v>401</v>
+        <v>2424</v>
       </c>
       <c r="ON1" s="2" t="n">
-        <v>402</v>
+        <v>2425</v>
       </c>
       <c r="OO1" s="2" t="n">
-        <v>403</v>
+        <v>2426</v>
       </c>
       <c r="OP1" s="2" t="n">
-        <v>404</v>
+        <v>2427</v>
       </c>
       <c r="OQ1" s="2" t="n">
-        <v>405</v>
+        <v>2428</v>
       </c>
       <c r="OR1" s="2" t="n">
-        <v>406</v>
+        <v>2429</v>
       </c>
       <c r="OS1" s="2" t="n">
-        <v>407</v>
+        <v>2430</v>
       </c>
       <c r="OT1" s="2" t="n">
-        <v>408</v>
+        <v>2431</v>
       </c>
       <c r="OU1" s="2" t="n">
-        <v>409</v>
+        <v>2432</v>
       </c>
       <c r="OV1" s="2" t="n">
-        <v>410</v>
+        <v>2433</v>
       </c>
       <c r="OW1" s="2" t="n">
-        <v>411</v>
+        <v>2434</v>
       </c>
       <c r="OX1" s="2" t="n">
-        <v>412</v>
+        <v>2435</v>
       </c>
       <c r="OY1" s="2" t="n">
-        <v>413</v>
+        <v>2436</v>
       </c>
       <c r="OZ1" s="2" t="n">
-        <v>414</v>
+        <v>2437</v>
       </c>
       <c r="PA1" s="2" t="n">
-        <v>415</v>
+        <v>2438</v>
       </c>
       <c r="PB1" s="2" t="n">
-        <v>416</v>
+        <v>2439</v>
       </c>
       <c r="PC1" s="2" t="n">
-        <v>417</v>
+        <v>2440</v>
       </c>
       <c r="PD1" s="2" t="n">
-        <v>418</v>
+        <v>2441</v>
       </c>
       <c r="PE1" s="2" t="n">
-        <v>419</v>
+        <v>2442</v>
       </c>
       <c r="PF1" s="2" t="n">
-        <v>420</v>
+        <v>2443</v>
       </c>
       <c r="PG1" s="2" t="n">
-        <v>421</v>
+        <v>2444</v>
       </c>
       <c r="PH1" s="2" t="n">
-        <v>422</v>
+        <v>2445</v>
       </c>
       <c r="PI1" s="2" t="n">
-        <v>423</v>
+        <v>2446</v>
       </c>
       <c r="PJ1" s="2" t="n">
-        <v>424</v>
+        <v>2447</v>
       </c>
       <c r="PK1" s="2" t="n">
-        <v>425</v>
+        <v>2448</v>
       </c>
       <c r="PL1" s="2" t="n">
-        <v>426</v>
+        <v>2449</v>
       </c>
       <c r="PM1" s="2" t="n">
-        <v>427</v>
+        <v>2450</v>
       </c>
       <c r="PN1" s="2" t="n">
-        <v>428</v>
+        <v>2451</v>
       </c>
       <c r="PO1" s="2" t="n">
-        <v>429</v>
+        <v>2452</v>
       </c>
       <c r="PP1" s="2" t="n">
-        <v>430</v>
+        <v>2453</v>
       </c>
       <c r="PQ1" s="2" t="n">
-        <v>431</v>
+        <v>2454</v>
       </c>
       <c r="PR1" s="2" t="n">
-        <v>432</v>
+        <v>2455</v>
       </c>
       <c r="PS1" s="2" t="n">
-        <v>433</v>
+        <v>2456</v>
       </c>
       <c r="PT1" s="2" t="n">
-        <v>434</v>
+        <v>2457</v>
       </c>
       <c r="PU1" s="2" t="n">
-        <v>435</v>
+        <v>2458</v>
       </c>
       <c r="PV1" s="2" t="n">
-        <v>436</v>
+        <v>2459</v>
       </c>
       <c r="PW1" s="2" t="n">
-        <v>437</v>
+        <v>2460</v>
       </c>
       <c r="PX1" s="2" t="n">
-        <v>438</v>
+        <v>2461</v>
       </c>
       <c r="PY1" s="2" t="n">
-        <v>439</v>
+        <v>2462</v>
       </c>
       <c r="PZ1" s="2" t="n">
-        <v>440</v>
+        <v>2463</v>
       </c>
       <c r="QA1" s="2" t="n">
-        <v>441</v>
+        <v>2464</v>
       </c>
       <c r="QB1" s="2" t="n">
-        <v>442</v>
+        <v>2465</v>
       </c>
       <c r="QC1" s="2" t="n">
-        <v>443</v>
+        <v>2466</v>
       </c>
       <c r="QD1" s="2" t="n">
-        <v>444</v>
+        <v>2467</v>
       </c>
       <c r="QE1" s="2" t="n">
-        <v>445</v>
+        <v>2468</v>
       </c>
       <c r="QF1" s="2" t="n">
-        <v>446</v>
+        <v>2469</v>
       </c>
       <c r="QG1" s="2" t="n">
-        <v>447</v>
+        <v>2470</v>
       </c>
       <c r="QH1" s="2" t="n">
-        <v>448</v>
+        <v>2471</v>
       </c>
       <c r="QI1" s="2" t="n">
-        <v>449</v>
+        <v>2472</v>
       </c>
       <c r="QJ1" s="2" t="n">
-        <v>450</v>
+        <v>2473</v>
       </c>
       <c r="QK1" s="2" t="n">
-        <v>451</v>
+        <v>2474</v>
       </c>
       <c r="QL1" s="2" t="n">
-        <v>452</v>
+        <v>2475</v>
       </c>
       <c r="QM1" s="2" t="n">
-        <v>453</v>
+        <v>2476</v>
       </c>
       <c r="QN1" s="2" t="n">
-        <v>454</v>
+        <v>2477</v>
       </c>
       <c r="QO1" s="2" t="n">
-        <v>455</v>
+        <v>2478</v>
       </c>
       <c r="QP1" s="2" t="n">
-        <v>456</v>
+        <v>2479</v>
       </c>
       <c r="QQ1" s="2" t="n">
-        <v>457</v>
+        <v>2480</v>
       </c>
       <c r="QR1" s="2" t="n">
-        <v>458</v>
+        <v>2481</v>
       </c>
       <c r="QS1" s="2" t="n">
-        <v>459</v>
+        <v>2482</v>
       </c>
       <c r="QT1" s="2" t="n">
-        <v>460</v>
+        <v>2483</v>
       </c>
       <c r="QU1" s="2" t="n">
-        <v>461</v>
+        <v>2484</v>
       </c>
       <c r="QV1" s="2" t="n">
-        <v>462</v>
+        <v>2485</v>
       </c>
       <c r="QW1" s="2" t="n">
-        <v>463</v>
+        <v>2486</v>
       </c>
       <c r="QX1" s="2" t="n">
-        <v>464</v>
+        <v>2487</v>
       </c>
       <c r="QY1" s="2" t="n">
-        <v>465</v>
+        <v>2488</v>
       </c>
       <c r="QZ1" s="2" t="n">
-        <v>466</v>
+        <v>2489</v>
       </c>
       <c r="RA1" s="2" t="n">
-        <v>467</v>
+        <v>2490</v>
       </c>
       <c r="RB1" s="2" t="n">
-        <v>468</v>
+        <v>2491</v>
       </c>
       <c r="RC1" s="2" t="n">
-        <v>469</v>
+        <v>2492</v>
       </c>
       <c r="RD1" s="2" t="n">
-        <v>470</v>
+        <v>2493</v>
       </c>
       <c r="RE1" s="2" t="n">
-        <v>471</v>
+        <v>2494</v>
       </c>
       <c r="RF1" s="2" t="n">
-        <v>472</v>
+        <v>2495</v>
       </c>
       <c r="RG1" s="2" t="n">
-        <v>473</v>
+        <v>2496</v>
       </c>
       <c r="RH1" s="2" t="n">
-        <v>474</v>
+        <v>2497</v>
       </c>
       <c r="RI1" s="2" t="n">
-        <v>475</v>
+        <v>2498</v>
       </c>
       <c r="RJ1" s="2" t="n">
-        <v>476</v>
+        <v>2499</v>
       </c>
       <c r="RK1" s="2" t="n">
-        <v>477</v>
+        <v>2500</v>
       </c>
       <c r="RL1" s="2" t="n">
-        <v>478</v>
+        <v>2501</v>
       </c>
       <c r="RM1" s="2" t="n">
-        <v>479</v>
+        <v>2502</v>
       </c>
       <c r="RN1" s="2" t="n">
-        <v>480</v>
+        <v>2503</v>
       </c>
       <c r="RO1" s="2" t="n">
-        <v>481</v>
+        <v>2504</v>
       </c>
       <c r="RP1" s="2" t="n">
-        <v>482</v>
+        <v>2505</v>
       </c>
       <c r="RQ1" s="2" t="n">
-        <v>483</v>
+        <v>2506</v>
       </c>
       <c r="RR1" s="2" t="n">
-        <v>484</v>
+        <v>2507</v>
       </c>
       <c r="RS1" s="2" t="n">
-        <v>485</v>
+        <v>2508</v>
       </c>
       <c r="RT1" s="2" t="n">
-        <v>486</v>
+        <v>2509</v>
       </c>
       <c r="RU1" s="2" t="n">
-        <v>487</v>
+        <v>2510</v>
       </c>
       <c r="RV1" s="2" t="n">
-        <v>488</v>
+        <v>2511</v>
       </c>
       <c r="RW1" s="2" t="n">
-        <v>489</v>
+        <v>2512</v>
       </c>
       <c r="RX1" s="2" t="n">
-        <v>490</v>
+        <v>2513</v>
       </c>
       <c r="RY1" s="2" t="n">
-        <v>491</v>
+        <v>2514</v>
       </c>
       <c r="RZ1" s="2" t="n">
-        <v>492</v>
+        <v>2515</v>
       </c>
       <c r="SA1" s="2" t="n">
-        <v>493</v>
+        <v>2516</v>
       </c>
       <c r="SB1" s="2" t="n">
-        <v>494</v>
+        <v>2517</v>
       </c>
       <c r="SC1" s="2" t="n">
-        <v>495</v>
+        <v>2518</v>
       </c>
       <c r="SD1" s="2" t="n">
-        <v>496</v>
+        <v>2519</v>
+      </c>
+      <c r="SE1" s="2" t="n">
+        <v>2520</v>
+      </c>
+      <c r="SF1" s="2" t="n">
+        <v>2521</v>
       </c>
     </row>
     <row r="2">
@@ -1935,61 +1941,61 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7121715800531093</v>
+        <v>0.34</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9682901718545269</v>
+        <v>0.4191338609297701</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9946638796173608</v>
+        <v>0.5583096414636474</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999603980368551</v>
+        <v>0.6075738260184688</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999888158989848</v>
+        <v>0.5690193021793856</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9999987630695105</v>
+        <v>0.6067106011253892</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999616701603</v>
+        <v>0.2165607880480358</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999999999767172</v>
+        <v>0.4167827895044908</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9999999999992387</v>
+        <v>0.7277496845214747</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9999999999999979</v>
+        <v>0.9460959484845357</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0.9999280391624003</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0.9999955885782713</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0.9999978859458895</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0.9999999989567695</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0.9999999999750734</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0.999999999998692</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0.9999999999997918</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0.9999999999999933</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U2" t="n">
         <v>1</v>
@@ -3423,6 +3429,12 @@
         <v>1</v>
       </c>
       <c r="SD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="SE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="SF2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3433,394 +3445,394 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2565073671991639</v>
+        <v>0.33</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03155178998366658</v>
+        <v>0.3234857030618779</v>
       </c>
       <c r="D3" t="n">
-        <v>0.005333418697141997</v>
+        <v>0.288299579686091</v>
       </c>
       <c r="E3" t="n">
-        <v>3.960027026958974e-05</v>
+        <v>0.2803722436314497</v>
       </c>
       <c r="F3" t="n">
-        <v>1.118404552703609e-05</v>
+        <v>0.3485631116229937</v>
       </c>
       <c r="G3" t="n">
-        <v>1.236930192150137e-06</v>
+        <v>0.3646793575703084</v>
       </c>
       <c r="H3" t="n">
-        <v>3.832983916645343e-08</v>
+        <v>0.7329340126820582</v>
       </c>
       <c r="I3" t="n">
-        <v>2.328281637612924e-11</v>
+        <v>0.5804020504524197</v>
       </c>
       <c r="J3" t="n">
-        <v>7.612276474302485e-13</v>
+        <v>0.2721616033383013</v>
       </c>
       <c r="K3" t="n">
-        <v>2.175906444915994e-15</v>
+        <v>0.05390112320007086</v>
       </c>
       <c r="L3" t="n">
-        <v>9.165699370156969e-18</v>
+        <v>7.196078596052048e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>3.915164774409447e-19</v>
+        <v>4.411420983598544e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.355134698804412e-22</v>
+        <v>2.114054005972167e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>3.244286439494524e-24</v>
+        <v>1.04323049911104e-09</v>
       </c>
       <c r="P3" t="n">
-        <v>2.858245005613339e-27</v>
+        <v>2.492668347337439e-11</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.854818071349605e-29</v>
+        <v>1.308062193634111e-12</v>
       </c>
       <c r="R3" t="n">
-        <v>8.499020938727302e-32</v>
+        <v>2.082702511900697e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>1.581167438435045e-34</v>
+        <v>6.651342602489323e-15</v>
       </c>
       <c r="T3" t="n">
-        <v>6.123413483283892e-37</v>
+        <v>9.114575554034432e-17</v>
       </c>
       <c r="U3" t="n">
-        <v>8.775958825794831e-39</v>
+        <v>1.481340228913605e-18</v>
       </c>
       <c r="V3" t="n">
-        <v>6.545953602830268e-41</v>
+        <v>4.069254003906313e-20</v>
       </c>
       <c r="W3" t="n">
-        <v>7.216585419307244e-44</v>
+        <v>4.572467076391615e-23</v>
       </c>
       <c r="X3" t="n">
-        <v>1.372130644690815e-45</v>
+        <v>3.040302373072632e-24</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.599669284773893e-49</v>
+        <v>5.784687452324598e-27</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.631911581078449e-50</v>
+        <v>1.264047686737349e-28</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.912718260425121e-54</v>
+        <v>5.751171783533423e-31</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.349551035483338e-56</v>
+        <v>2.773105531217298e-32</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.705718095345556e-59</v>
+        <v>1.919004159020582e-33</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.468326206742192e-62</v>
+        <v>8.575658962042758e-38</v>
       </c>
       <c r="AE3" t="n">
-        <v>9.961463826916128e-65</v>
+        <v>3.282294285377687e-40</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.716564820801473e-66</v>
+        <v>5.199586038388624e-42</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.428947498924222e-70</v>
+        <v>4.781532972286441e-44</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.744967848787558e-72</v>
+        <v>5.506672334959914e-47</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.106593738138749e-74</v>
+        <v>1.106822682033676e-48</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4.089202090760779e-78</v>
+        <v>1.114448871497159e-51</v>
       </c>
       <c r="AK3" t="n">
-        <v>7.945262009989156e-81</v>
+        <v>8.996237137759929e-53</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.665367901664305e-83</v>
+        <v>2.038338781323308e-54</v>
       </c>
       <c r="AM3" t="n">
-        <v>8.503926451435806e-86</v>
+        <v>6.538081574269666e-57</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.366332769362561e-89</v>
+        <v>4.102538179529724e-59</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.689013065329836e-92</v>
+        <v>8.526564246499187e-62</v>
       </c>
       <c r="AP3" t="n">
-        <v>6.881385712290232e-95</v>
+        <v>1.088944771442766e-63</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9.599438133388455e-98</v>
+        <v>2.421709779127509e-67</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.926122843023417e-100</v>
+        <v>3.99749755211013e-70</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.422154462791251e-103</v>
+        <v>4.035023766253999e-72</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.760369241996839e-106</v>
+        <v>3.289620342221218e-73</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.484714141185973e-109</v>
+        <v>4.240685460583728e-76</v>
       </c>
       <c r="AV3" t="n">
-        <v>4.088981173336053e-112</v>
+        <v>6.656228495286984e-79</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.254339109890406e-114</v>
+        <v>3.060224854363575e-79</v>
       </c>
       <c r="AX3" t="n">
-        <v>7.576395441358951e-118</v>
+        <v>9.623894251470976e-83</v>
       </c>
       <c r="AY3" t="n">
-        <v>6.325787708892086e-121</v>
+        <v>1.764535093347632e-84</v>
       </c>
       <c r="AZ3" t="n">
-        <v>5.488928283289173e-124</v>
+        <v>6.926835365805598e-88</v>
       </c>
       <c r="BA3" t="n">
-        <v>9.861467393236604e-127</v>
+        <v>6.449401993761933e-90</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.458523080811344e-129</v>
+        <v>3.445482512948137e-92</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.166365970085488e-132</v>
+        <v>2.270697869347225e-95</v>
       </c>
       <c r="BD3" t="n">
-        <v>8.394941556556567e-136</v>
+        <v>1.725949465794997e-97</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.003667784554138e-138</v>
+        <v>1.689023167538591e-100</v>
       </c>
       <c r="BF3" t="n">
-        <v>9.09684071819561e-142</v>
+        <v>1.228980764607718e-102</v>
       </c>
       <c r="BG3" t="n">
-        <v>6.084889528455903e-145</v>
+        <v>1.771997520949944e-104</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.315656346986779e-147</v>
+        <v>2.051379880551536e-107</v>
       </c>
       <c r="BI3" t="n">
-        <v>8.556031066459893e-151</v>
+        <v>6.892031351389175e-110</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1.123380366763724e-153</v>
+        <v>3.848033896510568e-112</v>
       </c>
       <c r="BK3" t="n">
-        <v>9.147814095511037e-157</v>
+        <v>9.959347035988782e-116</v>
       </c>
       <c r="BL3" t="n">
-        <v>9.552297836391074e-160</v>
+        <v>3.820778863252351e-118</v>
       </c>
       <c r="BM3" t="n">
-        <v>2.004139826156274e-162</v>
+        <v>3.527909187648578e-120</v>
       </c>
       <c r="BN3" t="n">
-        <v>3.726674288612879e-165</v>
+        <v>1.896463127363947e-122</v>
       </c>
       <c r="BO3" t="n">
-        <v>1.324259651605091e-167</v>
+        <v>4.328144627282255e-125</v>
       </c>
       <c r="BP3" t="n">
-        <v>3.145967077683983e-170</v>
+        <v>1.015393990986166e-128</v>
       </c>
       <c r="BQ3" t="n">
-        <v>3.840477521161721e-173</v>
+        <v>2.950568166403277e-131</v>
       </c>
       <c r="BR3" t="n">
-        <v>1.806068664586597e-175</v>
+        <v>2.049203460066984e-133</v>
       </c>
       <c r="BS3" t="n">
-        <v>7.713510698075955e-179</v>
+        <v>4.302941553204693e-136</v>
       </c>
       <c r="BT3" t="n">
-        <v>7.737297352188047e-182</v>
+        <v>2.313167626414338e-138</v>
       </c>
       <c r="BU3" t="n">
-        <v>3.966372610708454e-184</v>
+        <v>6.909476480860414e-141</v>
       </c>
       <c r="BV3" t="n">
-        <v>7.056882835896372e-187</v>
+        <v>1.516475489364675e-143</v>
       </c>
       <c r="BW3" t="n">
-        <v>7.075521067842182e-190</v>
+        <v>9.409170228132339e-146</v>
       </c>
       <c r="BX3" t="n">
-        <v>9.142077899674959e-193</v>
+        <v>6.423843551427064e-149</v>
       </c>
       <c r="BY3" t="n">
-        <v>7.623607621051071e-196</v>
+        <v>8.782315625315234e-152</v>
       </c>
       <c r="BZ3" t="n">
-        <v>3.680827399497705e-199</v>
+        <v>3.149715168426196e-154</v>
       </c>
       <c r="CA3" t="n">
-        <v>2.635107956702602e-202</v>
+        <v>8.429613061641768e-157</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.903912634040872e-205</v>
+        <v>7.896810222126366e-160</v>
       </c>
       <c r="CC3" t="n">
-        <v>4.862898169293312e-208</v>
+        <v>1.46679257177332e-162</v>
       </c>
       <c r="CD3" t="n">
-        <v>2.819515765473749e-211</v>
+        <v>9.958186530563662e-166</v>
       </c>
       <c r="CE3" t="n">
-        <v>5.827349139569714e-213</v>
+        <v>1.291414272148889e-168</v>
       </c>
       <c r="CF3" t="n">
-        <v>1.821672075355995e-216</v>
+        <v>6.925479061486237e-172</v>
       </c>
       <c r="CG3" t="n">
-        <v>1.410168881519477e-219</v>
+        <v>9.984643484709576e-175</v>
       </c>
       <c r="CH3" t="n">
-        <v>6.820859509359225e-223</v>
+        <v>3.407479320888232e-177</v>
       </c>
       <c r="CI3" t="n">
-        <v>5.376393965130102e-226</v>
+        <v>4.001678153682664e-180</v>
       </c>
       <c r="CJ3" t="n">
-        <v>1.014629618844015e-228</v>
+        <v>2.167387946851962e-182</v>
       </c>
       <c r="CK3" t="n">
-        <v>4.420386035313024e-230</v>
+        <v>2.426137163341782e-185</v>
       </c>
       <c r="CL3" t="n">
-        <v>1.426304093969682e-233</v>
+        <v>3.446113708678388e-188</v>
       </c>
       <c r="CM3" t="n">
-        <v>7.353634187151799e-237</v>
+        <v>1.203868782925009e-190</v>
       </c>
       <c r="CN3" t="n">
-        <v>9.016826565361547e-240</v>
+        <v>6.013532507205709e-193</v>
       </c>
       <c r="CO3" t="n">
-        <v>6.740830856980408e-243</v>
+        <v>4.81066479505085e-196</v>
       </c>
       <c r="CP3" t="n">
-        <v>5.986292990741225e-246</v>
+        <v>4.955113583294613e-198</v>
       </c>
       <c r="CQ3" t="n">
-        <v>2.461069392967766e-249</v>
+        <v>3.888582385705325e-201</v>
       </c>
       <c r="CR3" t="n">
-        <v>9.956296897357886e-252</v>
+        <v>1.056708804837002e-203</v>
       </c>
       <c r="CS3" t="n">
-        <v>3.539441569885536e-255</v>
+        <v>2.925188306728098e-206</v>
       </c>
       <c r="CT3" t="n">
-        <v>1.621491016966722e-258</v>
+        <v>2.264652184476244e-209</v>
       </c>
       <c r="CU3" t="n">
-        <v>1.035156924489327e-261</v>
+        <v>1.947253762467009e-212</v>
       </c>
       <c r="CV3" t="n">
-        <v>8.625999587836238e-265</v>
+        <v>8.79078154799603e-216</v>
       </c>
       <c r="CW3" t="n">
-        <v>3.715699540161536e-268</v>
+        <v>1.93297402524706e-218</v>
       </c>
       <c r="CX3" t="n">
-        <v>5.417504290064847e-271</v>
+        <v>8.37560088110331e-221</v>
       </c>
       <c r="CY3" t="n">
-        <v>4.563898720517337e-274</v>
+        <v>1.563889412666692e-223</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.732593324793664e-277</v>
+        <v>1.843074198370208e-226</v>
       </c>
       <c r="DA3" t="n">
-        <v>9.67102747948014e-281</v>
+        <v>1.20883684771995e-229</v>
       </c>
       <c r="DB3" t="n">
-        <v>4.585177481872261e-284</v>
+        <v>1.080605946471258e-232</v>
       </c>
       <c r="DC3" t="n">
-        <v>1.828237671687016e-287</v>
+        <v>4.335203640161579e-235</v>
       </c>
       <c r="DD3" t="n">
-        <v>9.105358576510573e-291</v>
+        <v>1.807272497214012e-236</v>
       </c>
       <c r="DE3" t="n">
-        <v>1.240633818344336e-292</v>
+        <v>1.510512892024061e-239</v>
       </c>
       <c r="DF3" t="n">
-        <v>6.027220366720515e-296</v>
+        <v>1.220750433426468e-242</v>
       </c>
       <c r="DG3" t="n">
-        <v>4.365875397925229e-299</v>
+        <v>1.184334668916831e-245</v>
       </c>
       <c r="DH3" t="n">
-        <v>1.109525324643172e-301</v>
+        <v>2.774742215357097e-248</v>
       </c>
       <c r="DI3" t="n">
-        <v>7.544633786031628e-305</v>
+        <v>2.629586098178897e-251</v>
       </c>
       <c r="DJ3" t="n">
-        <v>2.808334565679305e-308</v>
+        <v>2.907834819977946e-254</v>
       </c>
       <c r="DK3" t="n">
-        <v>0</v>
+        <v>1.455259476826532e-257</v>
       </c>
       <c r="DL3" t="n">
-        <v>0</v>
+        <v>4.889114804855755e-260</v>
       </c>
       <c r="DM3" t="n">
-        <v>0</v>
+        <v>6.045134277724531e-263</v>
       </c>
       <c r="DN3" t="n">
-        <v>0</v>
+        <v>2.981391265807844e-266</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>2.357874101890774e-269</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>1.296580024409511e-272</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0</v>
+        <v>1.890306226988819e-275</v>
       </c>
       <c r="DR3" t="n">
-        <v>0</v>
+        <v>3.249783805796397e-278</v>
       </c>
       <c r="DS3" t="n">
-        <v>0</v>
+        <v>5.312629226643776e-281</v>
       </c>
       <c r="DT3" t="n">
-        <v>0</v>
+        <v>3.822648077554142e-284</v>
       </c>
       <c r="DU3" t="n">
-        <v>0</v>
+        <v>1.948770548110138e-287</v>
       </c>
       <c r="DV3" t="n">
-        <v>0</v>
+        <v>2.289688688565028e-290</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>6.265432392356884e-293</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>1.184402853694744e-295</v>
       </c>
       <c r="DY3" t="n">
-        <v>0</v>
+        <v>3.047732755217711e-299</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0</v>
+        <v>2.886823452113357e-302</v>
       </c>
       <c r="EA3" t="n">
-        <v>0</v>
+        <v>5.962705892664113e-305</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
@@ -4921,6 +4933,12 @@
         <v>0</v>
       </c>
       <c r="SD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="SE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="SF3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4931,352 +4949,352 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03132105274772676</v>
+        <v>0.33</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001580381618066876</v>
+        <v>0.257380436008352</v>
       </c>
       <c r="D4" t="n">
-        <v>2.701685497197296e-06</v>
+        <v>0.1533907788502616</v>
       </c>
       <c r="E4" t="n">
-        <v>1.692875209688099e-09</v>
+        <v>0.1120539303500815</v>
       </c>
       <c r="F4" t="n">
-        <v>5.548821641733286e-11</v>
+        <v>0.08241758619762067</v>
       </c>
       <c r="G4" t="n">
-        <v>2.971433278564694e-13</v>
+        <v>0.0286100413043022</v>
       </c>
       <c r="H4" t="n">
-        <v>4.836574461855963e-16</v>
+        <v>0.05050519926990599</v>
       </c>
       <c r="I4" t="n">
-        <v>1.031445650432747e-19</v>
+        <v>0.002815160043089418</v>
       </c>
       <c r="J4" t="n">
-        <v>4.333395161902623e-22</v>
+        <v>8.871214022408411e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.094447420746159e-25</v>
+        <v>2.928315393474193e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>3.699767159635956e-28</v>
+        <v>5.163920156145053e-11</v>
       </c>
       <c r="M4" t="n">
-        <v>2.136850984198487e-30</v>
+        <v>7.450184611619742e-13</v>
       </c>
       <c r="N4" t="n">
-        <v>8.431167085926155e-34</v>
+        <v>1.045844258248846e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.575789200164153e-36</v>
+        <v>5.780087600346684e-18</v>
       </c>
       <c r="P4" t="n">
-        <v>8.075538138978681e-40</v>
+        <v>2.587922458215427e-20</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.059391717262239e-42</v>
+        <v>3.886103721138013e-22</v>
       </c>
       <c r="R4" t="n">
-        <v>1.592364386779992e-45</v>
+        <v>1.336089337701366e-23</v>
       </c>
       <c r="S4" t="n">
-        <v>1.109226683775986e-48</v>
+        <v>9.110605811051798e-26</v>
       </c>
       <c r="T4" t="n">
-        <v>5.979619101537167e-51</v>
+        <v>3.085612646268759e-28</v>
       </c>
       <c r="U4" t="n">
-        <v>1.785256179454482e-53</v>
+        <v>8.733501072733999e-31</v>
       </c>
       <c r="V4" t="n">
-        <v>3.279084279822997e-56</v>
+        <v>4.943442603094118e-33</v>
       </c>
       <c r="W4" t="n">
-        <v>1.769629851754193e-59</v>
+        <v>3.664269943407732e-36</v>
       </c>
       <c r="X4" t="n">
-        <v>7.1286614607829e-62</v>
+        <v>3.842218911395243e-38</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.999095398936656e-65</v>
+        <v>2.903684069933693e-41</v>
       </c>
       <c r="Z4" t="n">
-        <v>4.273405114212734e-67</v>
+        <v>1.443947326348998e-43</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.262957927946252e-70</v>
+        <v>3.247516777751882e-46</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.594153388763983e-73</v>
+        <v>3.713583442990786e-48</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.378892617814173e-76</v>
+        <v>4.076403799956477e-50</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.3999115814565e-80</v>
+        <v>8.174458301167994e-54</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.162340940226295e-83</v>
+        <v>1.178863022117241e-56</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.179129339618053e-85</v>
+        <v>6.737370529717939e-59</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.672949175090686e-89</v>
+        <v>1.641190914867157e-61</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.680028815388047e-92</v>
+        <v>1.676185603223421e-64</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.584436175929406e-94</v>
+        <v>7.336435419556468e-67</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6.473764952337621e-98</v>
+        <v>1.371274493221073e-69</v>
       </c>
       <c r="AK4" t="n">
-        <v>4.595566671585514e-101</v>
+        <v>1.925469773047183e-71</v>
       </c>
       <c r="AL4" t="n">
-        <v>3.488888912174293e-104</v>
+        <v>9.105540324607929e-74</v>
       </c>
       <c r="AM4" t="n">
-        <v>6.158031413035601e-107</v>
+        <v>1.183913682815772e-76</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.159828868756129e-110</v>
+        <v>2.178566128404293e-79</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.278394378541596e-113</v>
+        <v>2.488307346212303e-82</v>
       </c>
       <c r="AP4" t="n">
-        <v>5.955296945340749e-117</v>
+        <v>7.772603067444147e-85</v>
       </c>
       <c r="AQ4" t="n">
-        <v>4.975314575068192e-120</v>
+        <v>3.37806781793934e-88</v>
       </c>
       <c r="AR4" t="n">
-        <v>3.648554702882813e-123</v>
+        <v>3.20967296110021e-91</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.35103757431918e-126</v>
+        <v>8.138420504487484e-94</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.374850427965307e-129</v>
+        <v>1.217252972741222e-95</v>
       </c>
       <c r="AU4" t="n">
-        <v>5.431689577953789e-133</v>
+        <v>1.046601108860346e-98</v>
       </c>
       <c r="AV4" t="n">
-        <v>3.028150079803757e-136</v>
+        <v>8.843052887219143e-102</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.03340990034539e-139</v>
+        <v>6.819686804061328e-103</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.040125742637021e-142</v>
+        <v>3.053042442922998e-106</v>
       </c>
       <c r="AY4" t="n">
-        <v>4.087690510329422e-146</v>
+        <v>1.233173745737082e-108</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.658585680890394e-149</v>
+        <v>6.390880675791291e-112</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.125496087250097e-152</v>
+        <v>1.528607768399657e-114</v>
       </c>
       <c r="BB4" t="n">
-        <v>7.64581861146864e-156</v>
+        <v>2.674699033269893e-117</v>
       </c>
       <c r="BC4" t="n">
-        <v>3.05412722931361e-159</v>
+        <v>2.027772663856374e-120</v>
       </c>
       <c r="BD4" t="n">
-        <v>1.303263996518797e-162</v>
+        <v>4.132582093854624e-123</v>
       </c>
       <c r="BE4" t="n">
-        <v>6.136378849203863e-166</v>
+        <v>3.10771222041119e-126</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.460441820410363e-169</v>
+        <v>7.300144744514906e-129</v>
       </c>
       <c r="BG4" t="n">
-        <v>8.572819413460228e-173</v>
+        <v>2.762748771546907e-131</v>
       </c>
       <c r="BH4" t="n">
-        <v>6.59532549840169e-176</v>
+        <v>3.304897192870537e-134</v>
       </c>
       <c r="BI4" t="n">
-        <v>3.153495574450945e-179</v>
+        <v>3.817889033892446e-137</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1.618585588604314e-182</v>
+        <v>6.436531499554002e-140</v>
       </c>
       <c r="BK4" t="n">
-        <v>5.852159173878667e-186</v>
+        <v>3.513033781057269e-143</v>
       </c>
       <c r="BL4" t="n">
-        <v>2.667638225185298e-189</v>
+        <v>5.418267242384247e-146</v>
       </c>
       <c r="BM4" t="n">
-        <v>2.23511765105021e-192</v>
+        <v>4.263389992166138e-148</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.836395629279763e-195</v>
+        <v>7.451817285206974e-151</v>
       </c>
       <c r="BO4" t="n">
-        <v>6.310776834504067e-198</v>
+        <v>6.58051246655233e-154</v>
       </c>
       <c r="BP4" t="n">
-        <v>4.783413946903338e-201</v>
+        <v>2.575763465030965e-157</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2.569752422918216e-204</v>
+        <v>3.271300590867878e-160</v>
       </c>
       <c r="BR4" t="n">
-        <v>4.665202371289968e-207</v>
+        <v>6.182802363628907e-163</v>
       </c>
       <c r="BS4" t="n">
-        <v>1.272178074667638e-210</v>
+        <v>6.082052047012701e-166</v>
       </c>
       <c r="BT4" t="n">
-        <v>6.99245366668671e-214</v>
+        <v>9.385542632306946e-169</v>
       </c>
       <c r="BU4" t="n">
-        <v>2.008927022185611e-216</v>
+        <v>1.251104767658341e-171</v>
       </c>
       <c r="BV4" t="n">
-        <v>1.522205742728873e-219</v>
+        <v>1.265197141396324e-174</v>
       </c>
       <c r="BW4" t="n">
-        <v>6.492960477614287e-223</v>
+        <v>2.219641175303755e-177</v>
       </c>
       <c r="BX4" t="n">
-        <v>3.257415983963006e-226</v>
+        <v>1.093280741301559e-180</v>
       </c>
       <c r="BY4" t="n">
-        <v>1.265671293184159e-229</v>
+        <v>1.847304186478146e-183</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3.260807414675888e-233</v>
+        <v>2.483829719992466e-186</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.058412669055658e-236</v>
+        <v>2.664531863918213e-189</v>
       </c>
       <c r="CB4" t="n">
-        <v>3.334393990256957e-240</v>
+        <v>1.432952370970346e-192</v>
       </c>
       <c r="CC4" t="n">
-        <v>3.309707141742028e-243</v>
+        <v>1.138044521555616e-195</v>
       </c>
       <c r="CD4" t="n">
-        <v>1.340361927119191e-246</v>
+        <v>9.571594187885709e-199</v>
       </c>
       <c r="CE4" t="n">
-        <v>8.908051968360497e-249</v>
+        <v>5.812302961455871e-202</v>
       </c>
       <c r="CF4" t="n">
-        <v>2.085504717985425e-252</v>
+        <v>2.437987204254546e-205</v>
       </c>
       <c r="CG4" t="n">
-        <v>6.763003184038123e-256</v>
+        <v>1.562842481624089e-208</v>
       </c>
       <c r="CH4" t="n">
-        <v>1.651173609456151e-259</v>
+        <v>3.603072278917492e-211</v>
       </c>
       <c r="CI4" t="n">
-        <v>7.06070001427392e-263</v>
+        <v>2.462781008750336e-214</v>
       </c>
       <c r="CJ4" t="n">
-        <v>4.891842459528053e-266</v>
+        <v>3.945277233624979e-217</v>
       </c>
       <c r="CK4" t="n">
-        <v>8.078414595640498e-268</v>
+        <v>2.120360188324329e-220</v>
       </c>
       <c r="CL4" t="n">
-        <v>1.849034966462264e-271</v>
+        <v>3.946061870691089e-223</v>
       </c>
       <c r="CM4" t="n">
-        <v>5.072957950880071e-275</v>
+        <v>4.749623136614965e-226</v>
       </c>
       <c r="CN4" t="n">
-        <v>3.394631471228932e-278</v>
+        <v>7.325506983791312e-229</v>
       </c>
       <c r="CO4" t="n">
-        <v>1.055176283283252e-281</v>
+        <v>3.332740677462081e-232</v>
       </c>
       <c r="CP4" t="n">
-        <v>4.167391260517992e-285</v>
+        <v>9.084221959426779e-235</v>
       </c>
       <c r="CQ4" t="n">
-        <v>9.076468963349115e-289</v>
+        <v>4.519774275980414e-238</v>
       </c>
       <c r="CR4" t="n">
-        <v>1.373484937863022e-291</v>
+        <v>7.361190262887773e-241</v>
       </c>
       <c r="CS4" t="n">
-        <v>2.872603584439574e-295</v>
+        <v>6.816784418715309e-244</v>
       </c>
       <c r="CT4" t="n">
-        <v>6.663382611526575e-299</v>
+        <v>3.115162607352926e-247</v>
       </c>
       <c r="CU4" t="n">
-        <v>2.152775770551041e-302</v>
+        <v>1.548532795543576e-250</v>
       </c>
       <c r="CV4" t="n">
-        <v>5.594852240659821e-306</v>
+        <v>6.078110356544677e-254</v>
       </c>
       <c r="CW4" t="n">
-        <v>1.198937579701199e-309</v>
+        <v>5.040049160054227e-257</v>
       </c>
       <c r="CX4" t="n">
-        <v>0</v>
+        <v>1.312769605165485e-259</v>
       </c>
       <c r="CY4" t="n">
-        <v>0</v>
+        <v>1.284078441206241e-262</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0</v>
+        <v>7.041343643232261e-266</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>3.001418150215576e-269</v>
       </c>
       <c r="DB4" t="n">
-        <v>0</v>
+        <v>1.331100682122903e-272</v>
       </c>
       <c r="DC4" t="n">
-        <v>0</v>
+        <v>1.9103275502714e-275</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>2.636056270627561e-277</v>
       </c>
       <c r="DE4" t="n">
-        <v>0</v>
+        <v>1.202103301116029e-280</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>5.015925273512777e-284</v>
       </c>
       <c r="DG4" t="n">
-        <v>0</v>
+        <v>4.541296840907018e-287</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>4.161559111554993e-290</v>
       </c>
       <c r="DI4" t="n">
-        <v>0</v>
+        <v>2.218894670929109e-293</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>1.079398431187477e-296</v>
       </c>
       <c r="DK4" t="n">
-        <v>0</v>
+        <v>3.96672595745341e-300</v>
       </c>
       <c r="DL4" t="n">
-        <v>0</v>
+        <v>4.17982350927754e-303</v>
       </c>
       <c r="DM4" t="n">
-        <v>0</v>
+        <v>2.940158594367175e-306</v>
       </c>
       <c r="DN4" t="n">
         <v>0</v>
@@ -6419,6 +6437,12 @@
         <v>0</v>
       </c>
       <c r="SD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6433,7 +6457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SD4"/>
+  <dimension ref="A1:SF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6443,1495 +6467,1501 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="2" t="n">
-        <v>0</v>
+        <v>2023</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>1</v>
+        <v>2024</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>2</v>
+        <v>2025</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>3</v>
+        <v>2026</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>4</v>
+        <v>2027</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>5</v>
+        <v>2028</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>6</v>
+        <v>2029</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>7</v>
+        <v>2030</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>8</v>
+        <v>2031</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>9</v>
+        <v>2032</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>10</v>
+        <v>2033</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>11</v>
+        <v>2034</v>
       </c>
       <c r="N1" s="2" t="n">
-        <v>12</v>
+        <v>2035</v>
       </c>
       <c r="O1" s="2" t="n">
-        <v>13</v>
+        <v>2036</v>
       </c>
       <c r="P1" s="2" t="n">
-        <v>14</v>
+        <v>2037</v>
       </c>
       <c r="Q1" s="2" t="n">
-        <v>15</v>
+        <v>2038</v>
       </c>
       <c r="R1" s="2" t="n">
-        <v>16</v>
+        <v>2039</v>
       </c>
       <c r="S1" s="2" t="n">
-        <v>17</v>
+        <v>2040</v>
       </c>
       <c r="T1" s="2" t="n">
-        <v>18</v>
+        <v>2041</v>
       </c>
       <c r="U1" s="2" t="n">
-        <v>19</v>
+        <v>2042</v>
       </c>
       <c r="V1" s="2" t="n">
-        <v>20</v>
+        <v>2043</v>
       </c>
       <c r="W1" s="2" t="n">
-        <v>21</v>
+        <v>2044</v>
       </c>
       <c r="X1" s="2" t="n">
-        <v>22</v>
+        <v>2045</v>
       </c>
       <c r="Y1" s="2" t="n">
-        <v>23</v>
+        <v>2046</v>
       </c>
       <c r="Z1" s="2" t="n">
-        <v>24</v>
+        <v>2047</v>
       </c>
       <c r="AA1" s="2" t="n">
-        <v>25</v>
+        <v>2048</v>
       </c>
       <c r="AB1" s="2" t="n">
-        <v>26</v>
+        <v>2049</v>
       </c>
       <c r="AC1" s="2" t="n">
-        <v>27</v>
+        <v>2050</v>
       </c>
       <c r="AD1" s="2" t="n">
-        <v>28</v>
+        <v>2051</v>
       </c>
       <c r="AE1" s="2" t="n">
-        <v>29</v>
+        <v>2052</v>
       </c>
       <c r="AF1" s="2" t="n">
-        <v>30</v>
+        <v>2053</v>
       </c>
       <c r="AG1" s="2" t="n">
-        <v>31</v>
+        <v>2054</v>
       </c>
       <c r="AH1" s="2" t="n">
-        <v>32</v>
+        <v>2055</v>
       </c>
       <c r="AI1" s="2" t="n">
-        <v>33</v>
+        <v>2056</v>
       </c>
       <c r="AJ1" s="2" t="n">
-        <v>34</v>
+        <v>2057</v>
       </c>
       <c r="AK1" s="2" t="n">
-        <v>35</v>
+        <v>2058</v>
       </c>
       <c r="AL1" s="2" t="n">
-        <v>36</v>
+        <v>2059</v>
       </c>
       <c r="AM1" s="2" t="n">
-        <v>37</v>
+        <v>2060</v>
       </c>
       <c r="AN1" s="2" t="n">
-        <v>38</v>
+        <v>2061</v>
       </c>
       <c r="AO1" s="2" t="n">
-        <v>39</v>
+        <v>2062</v>
       </c>
       <c r="AP1" s="2" t="n">
-        <v>40</v>
+        <v>2063</v>
       </c>
       <c r="AQ1" s="2" t="n">
-        <v>41</v>
+        <v>2064</v>
       </c>
       <c r="AR1" s="2" t="n">
-        <v>42</v>
+        <v>2065</v>
       </c>
       <c r="AS1" s="2" t="n">
-        <v>43</v>
+        <v>2066</v>
       </c>
       <c r="AT1" s="2" t="n">
-        <v>44</v>
+        <v>2067</v>
       </c>
       <c r="AU1" s="2" t="n">
-        <v>45</v>
+        <v>2068</v>
       </c>
       <c r="AV1" s="2" t="n">
-        <v>46</v>
+        <v>2069</v>
       </c>
       <c r="AW1" s="2" t="n">
-        <v>47</v>
+        <v>2070</v>
       </c>
       <c r="AX1" s="2" t="n">
-        <v>48</v>
+        <v>2071</v>
       </c>
       <c r="AY1" s="2" t="n">
-        <v>49</v>
+        <v>2072</v>
       </c>
       <c r="AZ1" s="2" t="n">
-        <v>50</v>
+        <v>2073</v>
       </c>
       <c r="BA1" s="2" t="n">
-        <v>51</v>
+        <v>2074</v>
       </c>
       <c r="BB1" s="2" t="n">
-        <v>52</v>
+        <v>2075</v>
       </c>
       <c r="BC1" s="2" t="n">
-        <v>53</v>
+        <v>2076</v>
       </c>
       <c r="BD1" s="2" t="n">
-        <v>54</v>
+        <v>2077</v>
       </c>
       <c r="BE1" s="2" t="n">
-        <v>55</v>
+        <v>2078</v>
       </c>
       <c r="BF1" s="2" t="n">
-        <v>56</v>
+        <v>2079</v>
       </c>
       <c r="BG1" s="2" t="n">
-        <v>57</v>
+        <v>2080</v>
       </c>
       <c r="BH1" s="2" t="n">
-        <v>58</v>
+        <v>2081</v>
       </c>
       <c r="BI1" s="2" t="n">
-        <v>59</v>
+        <v>2082</v>
       </c>
       <c r="BJ1" s="2" t="n">
-        <v>60</v>
+        <v>2083</v>
       </c>
       <c r="BK1" s="2" t="n">
-        <v>61</v>
+        <v>2084</v>
       </c>
       <c r="BL1" s="2" t="n">
-        <v>62</v>
+        <v>2085</v>
       </c>
       <c r="BM1" s="2" t="n">
-        <v>63</v>
+        <v>2086</v>
       </c>
       <c r="BN1" s="2" t="n">
-        <v>64</v>
+        <v>2087</v>
       </c>
       <c r="BO1" s="2" t="n">
-        <v>65</v>
+        <v>2088</v>
       </c>
       <c r="BP1" s="2" t="n">
-        <v>66</v>
+        <v>2089</v>
       </c>
       <c r="BQ1" s="2" t="n">
-        <v>67</v>
+        <v>2090</v>
       </c>
       <c r="BR1" s="2" t="n">
-        <v>68</v>
+        <v>2091</v>
       </c>
       <c r="BS1" s="2" t="n">
-        <v>69</v>
+        <v>2092</v>
       </c>
       <c r="BT1" s="2" t="n">
-        <v>70</v>
+        <v>2093</v>
       </c>
       <c r="BU1" s="2" t="n">
-        <v>71</v>
+        <v>2094</v>
       </c>
       <c r="BV1" s="2" t="n">
-        <v>72</v>
+        <v>2095</v>
       </c>
       <c r="BW1" s="2" t="n">
-        <v>73</v>
+        <v>2096</v>
       </c>
       <c r="BX1" s="2" t="n">
-        <v>74</v>
+        <v>2097</v>
       </c>
       <c r="BY1" s="2" t="n">
-        <v>75</v>
+        <v>2098</v>
       </c>
       <c r="BZ1" s="2" t="n">
-        <v>76</v>
+        <v>2099</v>
       </c>
       <c r="CA1" s="2" t="n">
-        <v>77</v>
+        <v>2100</v>
       </c>
       <c r="CB1" s="2" t="n">
-        <v>78</v>
+        <v>2101</v>
       </c>
       <c r="CC1" s="2" t="n">
-        <v>79</v>
+        <v>2102</v>
       </c>
       <c r="CD1" s="2" t="n">
-        <v>80</v>
+        <v>2103</v>
       </c>
       <c r="CE1" s="2" t="n">
-        <v>81</v>
+        <v>2104</v>
       </c>
       <c r="CF1" s="2" t="n">
-        <v>82</v>
+        <v>2105</v>
       </c>
       <c r="CG1" s="2" t="n">
-        <v>83</v>
+        <v>2106</v>
       </c>
       <c r="CH1" s="2" t="n">
-        <v>84</v>
+        <v>2107</v>
       </c>
       <c r="CI1" s="2" t="n">
-        <v>85</v>
+        <v>2108</v>
       </c>
       <c r="CJ1" s="2" t="n">
-        <v>86</v>
+        <v>2109</v>
       </c>
       <c r="CK1" s="2" t="n">
-        <v>87</v>
+        <v>2110</v>
       </c>
       <c r="CL1" s="2" t="n">
-        <v>88</v>
+        <v>2111</v>
       </c>
       <c r="CM1" s="2" t="n">
-        <v>89</v>
+        <v>2112</v>
       </c>
       <c r="CN1" s="2" t="n">
-        <v>90</v>
+        <v>2113</v>
       </c>
       <c r="CO1" s="2" t="n">
-        <v>91</v>
+        <v>2114</v>
       </c>
       <c r="CP1" s="2" t="n">
-        <v>92</v>
+        <v>2115</v>
       </c>
       <c r="CQ1" s="2" t="n">
-        <v>93</v>
+        <v>2116</v>
       </c>
       <c r="CR1" s="2" t="n">
-        <v>94</v>
+        <v>2117</v>
       </c>
       <c r="CS1" s="2" t="n">
-        <v>95</v>
+        <v>2118</v>
       </c>
       <c r="CT1" s="2" t="n">
-        <v>96</v>
+        <v>2119</v>
       </c>
       <c r="CU1" s="2" t="n">
-        <v>97</v>
+        <v>2120</v>
       </c>
       <c r="CV1" s="2" t="n">
-        <v>98</v>
+        <v>2121</v>
       </c>
       <c r="CW1" s="2" t="n">
-        <v>99</v>
+        <v>2122</v>
       </c>
       <c r="CX1" s="2" t="n">
-        <v>100</v>
+        <v>2123</v>
       </c>
       <c r="CY1" s="2" t="n">
-        <v>101</v>
+        <v>2124</v>
       </c>
       <c r="CZ1" s="2" t="n">
-        <v>102</v>
+        <v>2125</v>
       </c>
       <c r="DA1" s="2" t="n">
-        <v>103</v>
+        <v>2126</v>
       </c>
       <c r="DB1" s="2" t="n">
-        <v>104</v>
+        <v>2127</v>
       </c>
       <c r="DC1" s="2" t="n">
-        <v>105</v>
+        <v>2128</v>
       </c>
       <c r="DD1" s="2" t="n">
-        <v>106</v>
+        <v>2129</v>
       </c>
       <c r="DE1" s="2" t="n">
-        <v>107</v>
+        <v>2130</v>
       </c>
       <c r="DF1" s="2" t="n">
-        <v>108</v>
+        <v>2131</v>
       </c>
       <c r="DG1" s="2" t="n">
-        <v>109</v>
+        <v>2132</v>
       </c>
       <c r="DH1" s="2" t="n">
-        <v>110</v>
+        <v>2133</v>
       </c>
       <c r="DI1" s="2" t="n">
-        <v>111</v>
+        <v>2134</v>
       </c>
       <c r="DJ1" s="2" t="n">
-        <v>112</v>
+        <v>2135</v>
       </c>
       <c r="DK1" s="2" t="n">
-        <v>113</v>
+        <v>2136</v>
       </c>
       <c r="DL1" s="2" t="n">
-        <v>114</v>
+        <v>2137</v>
       </c>
       <c r="DM1" s="2" t="n">
-        <v>115</v>
+        <v>2138</v>
       </c>
       <c r="DN1" s="2" t="n">
-        <v>116</v>
+        <v>2139</v>
       </c>
       <c r="DO1" s="2" t="n">
-        <v>117</v>
+        <v>2140</v>
       </c>
       <c r="DP1" s="2" t="n">
-        <v>118</v>
+        <v>2141</v>
       </c>
       <c r="DQ1" s="2" t="n">
-        <v>119</v>
+        <v>2142</v>
       </c>
       <c r="DR1" s="2" t="n">
-        <v>120</v>
+        <v>2143</v>
       </c>
       <c r="DS1" s="2" t="n">
-        <v>121</v>
+        <v>2144</v>
       </c>
       <c r="DT1" s="2" t="n">
-        <v>122</v>
+        <v>2145</v>
       </c>
       <c r="DU1" s="2" t="n">
-        <v>123</v>
+        <v>2146</v>
       </c>
       <c r="DV1" s="2" t="n">
-        <v>124</v>
+        <v>2147</v>
       </c>
       <c r="DW1" s="2" t="n">
-        <v>125</v>
+        <v>2148</v>
       </c>
       <c r="DX1" s="2" t="n">
-        <v>126</v>
+        <v>2149</v>
       </c>
       <c r="DY1" s="2" t="n">
-        <v>127</v>
+        <v>2150</v>
       </c>
       <c r="DZ1" s="2" t="n">
-        <v>128</v>
+        <v>2151</v>
       </c>
       <c r="EA1" s="2" t="n">
-        <v>129</v>
+        <v>2152</v>
       </c>
       <c r="EB1" s="2" t="n">
-        <v>130</v>
+        <v>2153</v>
       </c>
       <c r="EC1" s="2" t="n">
-        <v>131</v>
+        <v>2154</v>
       </c>
       <c r="ED1" s="2" t="n">
-        <v>132</v>
+        <v>2155</v>
       </c>
       <c r="EE1" s="2" t="n">
-        <v>133</v>
+        <v>2156</v>
       </c>
       <c r="EF1" s="2" t="n">
-        <v>134</v>
+        <v>2157</v>
       </c>
       <c r="EG1" s="2" t="n">
-        <v>135</v>
+        <v>2158</v>
       </c>
       <c r="EH1" s="2" t="n">
-        <v>136</v>
+        <v>2159</v>
       </c>
       <c r="EI1" s="2" t="n">
-        <v>137</v>
+        <v>2160</v>
       </c>
       <c r="EJ1" s="2" t="n">
-        <v>138</v>
+        <v>2161</v>
       </c>
       <c r="EK1" s="2" t="n">
-        <v>139</v>
+        <v>2162</v>
       </c>
       <c r="EL1" s="2" t="n">
-        <v>140</v>
+        <v>2163</v>
       </c>
       <c r="EM1" s="2" t="n">
-        <v>141</v>
+        <v>2164</v>
       </c>
       <c r="EN1" s="2" t="n">
-        <v>142</v>
+        <v>2165</v>
       </c>
       <c r="EO1" s="2" t="n">
-        <v>143</v>
+        <v>2166</v>
       </c>
       <c r="EP1" s="2" t="n">
-        <v>144</v>
+        <v>2167</v>
       </c>
       <c r="EQ1" s="2" t="n">
-        <v>145</v>
+        <v>2168</v>
       </c>
       <c r="ER1" s="2" t="n">
-        <v>146</v>
+        <v>2169</v>
       </c>
       <c r="ES1" s="2" t="n">
-        <v>147</v>
+        <v>2170</v>
       </c>
       <c r="ET1" s="2" t="n">
-        <v>148</v>
+        <v>2171</v>
       </c>
       <c r="EU1" s="2" t="n">
-        <v>149</v>
+        <v>2172</v>
       </c>
       <c r="EV1" s="2" t="n">
-        <v>150</v>
+        <v>2173</v>
       </c>
       <c r="EW1" s="2" t="n">
-        <v>151</v>
+        <v>2174</v>
       </c>
       <c r="EX1" s="2" t="n">
-        <v>152</v>
+        <v>2175</v>
       </c>
       <c r="EY1" s="2" t="n">
-        <v>153</v>
+        <v>2176</v>
       </c>
       <c r="EZ1" s="2" t="n">
-        <v>154</v>
+        <v>2177</v>
       </c>
       <c r="FA1" s="2" t="n">
-        <v>155</v>
+        <v>2178</v>
       </c>
       <c r="FB1" s="2" t="n">
-        <v>156</v>
+        <v>2179</v>
       </c>
       <c r="FC1" s="2" t="n">
-        <v>157</v>
+        <v>2180</v>
       </c>
       <c r="FD1" s="2" t="n">
-        <v>158</v>
+        <v>2181</v>
       </c>
       <c r="FE1" s="2" t="n">
-        <v>159</v>
+        <v>2182</v>
       </c>
       <c r="FF1" s="2" t="n">
-        <v>160</v>
+        <v>2183</v>
       </c>
       <c r="FG1" s="2" t="n">
-        <v>161</v>
+        <v>2184</v>
       </c>
       <c r="FH1" s="2" t="n">
-        <v>162</v>
+        <v>2185</v>
       </c>
       <c r="FI1" s="2" t="n">
-        <v>163</v>
+        <v>2186</v>
       </c>
       <c r="FJ1" s="2" t="n">
-        <v>164</v>
+        <v>2187</v>
       </c>
       <c r="FK1" s="2" t="n">
-        <v>165</v>
+        <v>2188</v>
       </c>
       <c r="FL1" s="2" t="n">
-        <v>166</v>
+        <v>2189</v>
       </c>
       <c r="FM1" s="2" t="n">
-        <v>167</v>
+        <v>2190</v>
       </c>
       <c r="FN1" s="2" t="n">
-        <v>168</v>
+        <v>2191</v>
       </c>
       <c r="FO1" s="2" t="n">
-        <v>169</v>
+        <v>2192</v>
       </c>
       <c r="FP1" s="2" t="n">
-        <v>170</v>
+        <v>2193</v>
       </c>
       <c r="FQ1" s="2" t="n">
-        <v>171</v>
+        <v>2194</v>
       </c>
       <c r="FR1" s="2" t="n">
-        <v>172</v>
+        <v>2195</v>
       </c>
       <c r="FS1" s="2" t="n">
-        <v>173</v>
+        <v>2196</v>
       </c>
       <c r="FT1" s="2" t="n">
-        <v>174</v>
+        <v>2197</v>
       </c>
       <c r="FU1" s="2" t="n">
-        <v>175</v>
+        <v>2198</v>
       </c>
       <c r="FV1" s="2" t="n">
-        <v>176</v>
+        <v>2199</v>
       </c>
       <c r="FW1" s="2" t="n">
-        <v>177</v>
+        <v>2200</v>
       </c>
       <c r="FX1" s="2" t="n">
-        <v>178</v>
+        <v>2201</v>
       </c>
       <c r="FY1" s="2" t="n">
-        <v>179</v>
+        <v>2202</v>
       </c>
       <c r="FZ1" s="2" t="n">
-        <v>180</v>
+        <v>2203</v>
       </c>
       <c r="GA1" s="2" t="n">
-        <v>181</v>
+        <v>2204</v>
       </c>
       <c r="GB1" s="2" t="n">
-        <v>182</v>
+        <v>2205</v>
       </c>
       <c r="GC1" s="2" t="n">
-        <v>183</v>
+        <v>2206</v>
       </c>
       <c r="GD1" s="2" t="n">
-        <v>184</v>
+        <v>2207</v>
       </c>
       <c r="GE1" s="2" t="n">
-        <v>185</v>
+        <v>2208</v>
       </c>
       <c r="GF1" s="2" t="n">
-        <v>186</v>
+        <v>2209</v>
       </c>
       <c r="GG1" s="2" t="n">
-        <v>187</v>
+        <v>2210</v>
       </c>
       <c r="GH1" s="2" t="n">
-        <v>188</v>
+        <v>2211</v>
       </c>
       <c r="GI1" s="2" t="n">
-        <v>189</v>
+        <v>2212</v>
       </c>
       <c r="GJ1" s="2" t="n">
-        <v>190</v>
+        <v>2213</v>
       </c>
       <c r="GK1" s="2" t="n">
-        <v>191</v>
+        <v>2214</v>
       </c>
       <c r="GL1" s="2" t="n">
-        <v>192</v>
+        <v>2215</v>
       </c>
       <c r="GM1" s="2" t="n">
-        <v>193</v>
+        <v>2216</v>
       </c>
       <c r="GN1" s="2" t="n">
-        <v>194</v>
+        <v>2217</v>
       </c>
       <c r="GO1" s="2" t="n">
-        <v>195</v>
+        <v>2218</v>
       </c>
       <c r="GP1" s="2" t="n">
-        <v>196</v>
+        <v>2219</v>
       </c>
       <c r="GQ1" s="2" t="n">
-        <v>197</v>
+        <v>2220</v>
       </c>
       <c r="GR1" s="2" t="n">
-        <v>198</v>
+        <v>2221</v>
       </c>
       <c r="GS1" s="2" t="n">
-        <v>199</v>
+        <v>2222</v>
       </c>
       <c r="GT1" s="2" t="n">
-        <v>200</v>
+        <v>2223</v>
       </c>
       <c r="GU1" s="2" t="n">
-        <v>201</v>
+        <v>2224</v>
       </c>
       <c r="GV1" s="2" t="n">
-        <v>202</v>
+        <v>2225</v>
       </c>
       <c r="GW1" s="2" t="n">
-        <v>203</v>
+        <v>2226</v>
       </c>
       <c r="GX1" s="2" t="n">
-        <v>204</v>
+        <v>2227</v>
       </c>
       <c r="GY1" s="2" t="n">
-        <v>205</v>
+        <v>2228</v>
       </c>
       <c r="GZ1" s="2" t="n">
-        <v>206</v>
+        <v>2229</v>
       </c>
       <c r="HA1" s="2" t="n">
-        <v>207</v>
+        <v>2230</v>
       </c>
       <c r="HB1" s="2" t="n">
-        <v>208</v>
+        <v>2231</v>
       </c>
       <c r="HC1" s="2" t="n">
-        <v>209</v>
+        <v>2232</v>
       </c>
       <c r="HD1" s="2" t="n">
-        <v>210</v>
+        <v>2233</v>
       </c>
       <c r="HE1" s="2" t="n">
-        <v>211</v>
+        <v>2234</v>
       </c>
       <c r="HF1" s="2" t="n">
-        <v>212</v>
+        <v>2235</v>
       </c>
       <c r="HG1" s="2" t="n">
-        <v>213</v>
+        <v>2236</v>
       </c>
       <c r="HH1" s="2" t="n">
-        <v>214</v>
+        <v>2237</v>
       </c>
       <c r="HI1" s="2" t="n">
-        <v>215</v>
+        <v>2238</v>
       </c>
       <c r="HJ1" s="2" t="n">
-        <v>216</v>
+        <v>2239</v>
       </c>
       <c r="HK1" s="2" t="n">
-        <v>217</v>
+        <v>2240</v>
       </c>
       <c r="HL1" s="2" t="n">
-        <v>218</v>
+        <v>2241</v>
       </c>
       <c r="HM1" s="2" t="n">
-        <v>219</v>
+        <v>2242</v>
       </c>
       <c r="HN1" s="2" t="n">
-        <v>220</v>
+        <v>2243</v>
       </c>
       <c r="HO1" s="2" t="n">
-        <v>221</v>
+        <v>2244</v>
       </c>
       <c r="HP1" s="2" t="n">
-        <v>222</v>
+        <v>2245</v>
       </c>
       <c r="HQ1" s="2" t="n">
-        <v>223</v>
+        <v>2246</v>
       </c>
       <c r="HR1" s="2" t="n">
-        <v>224</v>
+        <v>2247</v>
       </c>
       <c r="HS1" s="2" t="n">
-        <v>225</v>
+        <v>2248</v>
       </c>
       <c r="HT1" s="2" t="n">
-        <v>226</v>
+        <v>2249</v>
       </c>
       <c r="HU1" s="2" t="n">
-        <v>227</v>
+        <v>2250</v>
       </c>
       <c r="HV1" s="2" t="n">
-        <v>228</v>
+        <v>2251</v>
       </c>
       <c r="HW1" s="2" t="n">
-        <v>229</v>
+        <v>2252</v>
       </c>
       <c r="HX1" s="2" t="n">
-        <v>230</v>
+        <v>2253</v>
       </c>
       <c r="HY1" s="2" t="n">
-        <v>231</v>
+        <v>2254</v>
       </c>
       <c r="HZ1" s="2" t="n">
-        <v>232</v>
+        <v>2255</v>
       </c>
       <c r="IA1" s="2" t="n">
-        <v>233</v>
+        <v>2256</v>
       </c>
       <c r="IB1" s="2" t="n">
-        <v>234</v>
+        <v>2257</v>
       </c>
       <c r="IC1" s="2" t="n">
-        <v>235</v>
+        <v>2258</v>
       </c>
       <c r="ID1" s="2" t="n">
-        <v>236</v>
+        <v>2259</v>
       </c>
       <c r="IE1" s="2" t="n">
-        <v>237</v>
+        <v>2260</v>
       </c>
       <c r="IF1" s="2" t="n">
-        <v>238</v>
+        <v>2261</v>
       </c>
       <c r="IG1" s="2" t="n">
-        <v>239</v>
+        <v>2262</v>
       </c>
       <c r="IH1" s="2" t="n">
-        <v>240</v>
+        <v>2263</v>
       </c>
       <c r="II1" s="2" t="n">
-        <v>241</v>
+        <v>2264</v>
       </c>
       <c r="IJ1" s="2" t="n">
-        <v>242</v>
+        <v>2265</v>
       </c>
       <c r="IK1" s="2" t="n">
-        <v>243</v>
+        <v>2266</v>
       </c>
       <c r="IL1" s="2" t="n">
-        <v>244</v>
+        <v>2267</v>
       </c>
       <c r="IM1" s="2" t="n">
-        <v>245</v>
+        <v>2268</v>
       </c>
       <c r="IN1" s="2" t="n">
-        <v>246</v>
+        <v>2269</v>
       </c>
       <c r="IO1" s="2" t="n">
-        <v>247</v>
+        <v>2270</v>
       </c>
       <c r="IP1" s="2" t="n">
-        <v>248</v>
+        <v>2271</v>
       </c>
       <c r="IQ1" s="2" t="n">
-        <v>249</v>
+        <v>2272</v>
       </c>
       <c r="IR1" s="2" t="n">
-        <v>250</v>
+        <v>2273</v>
       </c>
       <c r="IS1" s="2" t="n">
-        <v>251</v>
+        <v>2274</v>
       </c>
       <c r="IT1" s="2" t="n">
-        <v>252</v>
+        <v>2275</v>
       </c>
       <c r="IU1" s="2" t="n">
-        <v>253</v>
+        <v>2276</v>
       </c>
       <c r="IV1" s="2" t="n">
-        <v>254</v>
+        <v>2277</v>
       </c>
       <c r="IW1" s="2" t="n">
-        <v>255</v>
+        <v>2278</v>
       </c>
       <c r="IX1" s="2" t="n">
-        <v>256</v>
+        <v>2279</v>
       </c>
       <c r="IY1" s="2" t="n">
-        <v>257</v>
+        <v>2280</v>
       </c>
       <c r="IZ1" s="2" t="n">
-        <v>258</v>
+        <v>2281</v>
       </c>
       <c r="JA1" s="2" t="n">
-        <v>259</v>
+        <v>2282</v>
       </c>
       <c r="JB1" s="2" t="n">
-        <v>260</v>
+        <v>2283</v>
       </c>
       <c r="JC1" s="2" t="n">
-        <v>261</v>
+        <v>2284</v>
       </c>
       <c r="JD1" s="2" t="n">
-        <v>262</v>
+        <v>2285</v>
       </c>
       <c r="JE1" s="2" t="n">
-        <v>263</v>
+        <v>2286</v>
       </c>
       <c r="JF1" s="2" t="n">
-        <v>264</v>
+        <v>2287</v>
       </c>
       <c r="JG1" s="2" t="n">
-        <v>265</v>
+        <v>2288</v>
       </c>
       <c r="JH1" s="2" t="n">
-        <v>266</v>
+        <v>2289</v>
       </c>
       <c r="JI1" s="2" t="n">
-        <v>267</v>
+        <v>2290</v>
       </c>
       <c r="JJ1" s="2" t="n">
-        <v>268</v>
+        <v>2291</v>
       </c>
       <c r="JK1" s="2" t="n">
-        <v>269</v>
+        <v>2292</v>
       </c>
       <c r="JL1" s="2" t="n">
-        <v>270</v>
+        <v>2293</v>
       </c>
       <c r="JM1" s="2" t="n">
-        <v>271</v>
+        <v>2294</v>
       </c>
       <c r="JN1" s="2" t="n">
-        <v>272</v>
+        <v>2295</v>
       </c>
       <c r="JO1" s="2" t="n">
-        <v>273</v>
+        <v>2296</v>
       </c>
       <c r="JP1" s="2" t="n">
-        <v>274</v>
+        <v>2297</v>
       </c>
       <c r="JQ1" s="2" t="n">
-        <v>275</v>
+        <v>2298</v>
       </c>
       <c r="JR1" s="2" t="n">
-        <v>276</v>
+        <v>2299</v>
       </c>
       <c r="JS1" s="2" t="n">
-        <v>277</v>
+        <v>2300</v>
       </c>
       <c r="JT1" s="2" t="n">
-        <v>278</v>
+        <v>2301</v>
       </c>
       <c r="JU1" s="2" t="n">
-        <v>279</v>
+        <v>2302</v>
       </c>
       <c r="JV1" s="2" t="n">
-        <v>280</v>
+        <v>2303</v>
       </c>
       <c r="JW1" s="2" t="n">
-        <v>281</v>
+        <v>2304</v>
       </c>
       <c r="JX1" s="2" t="n">
-        <v>282</v>
+        <v>2305</v>
       </c>
       <c r="JY1" s="2" t="n">
-        <v>283</v>
+        <v>2306</v>
       </c>
       <c r="JZ1" s="2" t="n">
-        <v>284</v>
+        <v>2307</v>
       </c>
       <c r="KA1" s="2" t="n">
-        <v>285</v>
+        <v>2308</v>
       </c>
       <c r="KB1" s="2" t="n">
-        <v>286</v>
+        <v>2309</v>
       </c>
       <c r="KC1" s="2" t="n">
-        <v>287</v>
+        <v>2310</v>
       </c>
       <c r="KD1" s="2" t="n">
-        <v>288</v>
+        <v>2311</v>
       </c>
       <c r="KE1" s="2" t="n">
-        <v>289</v>
+        <v>2312</v>
       </c>
       <c r="KF1" s="2" t="n">
-        <v>290</v>
+        <v>2313</v>
       </c>
       <c r="KG1" s="2" t="n">
-        <v>291</v>
+        <v>2314</v>
       </c>
       <c r="KH1" s="2" t="n">
-        <v>292</v>
+        <v>2315</v>
       </c>
       <c r="KI1" s="2" t="n">
-        <v>293</v>
+        <v>2316</v>
       </c>
       <c r="KJ1" s="2" t="n">
-        <v>294</v>
+        <v>2317</v>
       </c>
       <c r="KK1" s="2" t="n">
-        <v>295</v>
+        <v>2318</v>
       </c>
       <c r="KL1" s="2" t="n">
-        <v>296</v>
+        <v>2319</v>
       </c>
       <c r="KM1" s="2" t="n">
-        <v>297</v>
+        <v>2320</v>
       </c>
       <c r="KN1" s="2" t="n">
-        <v>298</v>
+        <v>2321</v>
       </c>
       <c r="KO1" s="2" t="n">
-        <v>299</v>
+        <v>2322</v>
       </c>
       <c r="KP1" s="2" t="n">
-        <v>300</v>
+        <v>2323</v>
       </c>
       <c r="KQ1" s="2" t="n">
-        <v>301</v>
+        <v>2324</v>
       </c>
       <c r="KR1" s="2" t="n">
-        <v>302</v>
+        <v>2325</v>
       </c>
       <c r="KS1" s="2" t="n">
-        <v>303</v>
+        <v>2326</v>
       </c>
       <c r="KT1" s="2" t="n">
-        <v>304</v>
+        <v>2327</v>
       </c>
       <c r="KU1" s="2" t="n">
-        <v>305</v>
+        <v>2328</v>
       </c>
       <c r="KV1" s="2" t="n">
-        <v>306</v>
+        <v>2329</v>
       </c>
       <c r="KW1" s="2" t="n">
-        <v>307</v>
+        <v>2330</v>
       </c>
       <c r="KX1" s="2" t="n">
-        <v>308</v>
+        <v>2331</v>
       </c>
       <c r="KY1" s="2" t="n">
-        <v>309</v>
+        <v>2332</v>
       </c>
       <c r="KZ1" s="2" t="n">
-        <v>310</v>
+        <v>2333</v>
       </c>
       <c r="LA1" s="2" t="n">
-        <v>311</v>
+        <v>2334</v>
       </c>
       <c r="LB1" s="2" t="n">
-        <v>312</v>
+        <v>2335</v>
       </c>
       <c r="LC1" s="2" t="n">
-        <v>313</v>
+        <v>2336</v>
       </c>
       <c r="LD1" s="2" t="n">
-        <v>314</v>
+        <v>2337</v>
       </c>
       <c r="LE1" s="2" t="n">
-        <v>315</v>
+        <v>2338</v>
       </c>
       <c r="LF1" s="2" t="n">
-        <v>316</v>
+        <v>2339</v>
       </c>
       <c r="LG1" s="2" t="n">
-        <v>317</v>
+        <v>2340</v>
       </c>
       <c r="LH1" s="2" t="n">
-        <v>318</v>
+        <v>2341</v>
       </c>
       <c r="LI1" s="2" t="n">
-        <v>319</v>
+        <v>2342</v>
       </c>
       <c r="LJ1" s="2" t="n">
-        <v>320</v>
+        <v>2343</v>
       </c>
       <c r="LK1" s="2" t="n">
-        <v>321</v>
+        <v>2344</v>
       </c>
       <c r="LL1" s="2" t="n">
-        <v>322</v>
+        <v>2345</v>
       </c>
       <c r="LM1" s="2" t="n">
-        <v>323</v>
+        <v>2346</v>
       </c>
       <c r="LN1" s="2" t="n">
-        <v>324</v>
+        <v>2347</v>
       </c>
       <c r="LO1" s="2" t="n">
-        <v>325</v>
+        <v>2348</v>
       </c>
       <c r="LP1" s="2" t="n">
-        <v>326</v>
+        <v>2349</v>
       </c>
       <c r="LQ1" s="2" t="n">
-        <v>327</v>
+        <v>2350</v>
       </c>
       <c r="LR1" s="2" t="n">
-        <v>328</v>
+        <v>2351</v>
       </c>
       <c r="LS1" s="2" t="n">
-        <v>329</v>
+        <v>2352</v>
       </c>
       <c r="LT1" s="2" t="n">
-        <v>330</v>
+        <v>2353</v>
       </c>
       <c r="LU1" s="2" t="n">
-        <v>331</v>
+        <v>2354</v>
       </c>
       <c r="LV1" s="2" t="n">
-        <v>332</v>
+        <v>2355</v>
       </c>
       <c r="LW1" s="2" t="n">
-        <v>333</v>
+        <v>2356</v>
       </c>
       <c r="LX1" s="2" t="n">
-        <v>334</v>
+        <v>2357</v>
       </c>
       <c r="LY1" s="2" t="n">
-        <v>335</v>
+        <v>2358</v>
       </c>
       <c r="LZ1" s="2" t="n">
-        <v>336</v>
+        <v>2359</v>
       </c>
       <c r="MA1" s="2" t="n">
-        <v>337</v>
+        <v>2360</v>
       </c>
       <c r="MB1" s="2" t="n">
-        <v>338</v>
+        <v>2361</v>
       </c>
       <c r="MC1" s="2" t="n">
-        <v>339</v>
+        <v>2362</v>
       </c>
       <c r="MD1" s="2" t="n">
-        <v>340</v>
+        <v>2363</v>
       </c>
       <c r="ME1" s="2" t="n">
-        <v>341</v>
+        <v>2364</v>
       </c>
       <c r="MF1" s="2" t="n">
-        <v>342</v>
+        <v>2365</v>
       </c>
       <c r="MG1" s="2" t="n">
-        <v>343</v>
+        <v>2366</v>
       </c>
       <c r="MH1" s="2" t="n">
-        <v>344</v>
+        <v>2367</v>
       </c>
       <c r="MI1" s="2" t="n">
-        <v>345</v>
+        <v>2368</v>
       </c>
       <c r="MJ1" s="2" t="n">
-        <v>346</v>
+        <v>2369</v>
       </c>
       <c r="MK1" s="2" t="n">
-        <v>347</v>
+        <v>2370</v>
       </c>
       <c r="ML1" s="2" t="n">
-        <v>348</v>
+        <v>2371</v>
       </c>
       <c r="MM1" s="2" t="n">
-        <v>349</v>
+        <v>2372</v>
       </c>
       <c r="MN1" s="2" t="n">
-        <v>350</v>
+        <v>2373</v>
       </c>
       <c r="MO1" s="2" t="n">
-        <v>351</v>
+        <v>2374</v>
       </c>
       <c r="MP1" s="2" t="n">
-        <v>352</v>
+        <v>2375</v>
       </c>
       <c r="MQ1" s="2" t="n">
-        <v>353</v>
+        <v>2376</v>
       </c>
       <c r="MR1" s="2" t="n">
-        <v>354</v>
+        <v>2377</v>
       </c>
       <c r="MS1" s="2" t="n">
-        <v>355</v>
+        <v>2378</v>
       </c>
       <c r="MT1" s="2" t="n">
-        <v>356</v>
+        <v>2379</v>
       </c>
       <c r="MU1" s="2" t="n">
-        <v>357</v>
+        <v>2380</v>
       </c>
       <c r="MV1" s="2" t="n">
-        <v>358</v>
+        <v>2381</v>
       </c>
       <c r="MW1" s="2" t="n">
-        <v>359</v>
+        <v>2382</v>
       </c>
       <c r="MX1" s="2" t="n">
-        <v>360</v>
+        <v>2383</v>
       </c>
       <c r="MY1" s="2" t="n">
-        <v>361</v>
+        <v>2384</v>
       </c>
       <c r="MZ1" s="2" t="n">
-        <v>362</v>
+        <v>2385</v>
       </c>
       <c r="NA1" s="2" t="n">
-        <v>363</v>
+        <v>2386</v>
       </c>
       <c r="NB1" s="2" t="n">
-        <v>364</v>
+        <v>2387</v>
       </c>
       <c r="NC1" s="2" t="n">
-        <v>365</v>
+        <v>2388</v>
       </c>
       <c r="ND1" s="2" t="n">
-        <v>366</v>
+        <v>2389</v>
       </c>
       <c r="NE1" s="2" t="n">
-        <v>367</v>
+        <v>2390</v>
       </c>
       <c r="NF1" s="2" t="n">
-        <v>368</v>
+        <v>2391</v>
       </c>
       <c r="NG1" s="2" t="n">
-        <v>369</v>
+        <v>2392</v>
       </c>
       <c r="NH1" s="2" t="n">
-        <v>370</v>
+        <v>2393</v>
       </c>
       <c r="NI1" s="2" t="n">
-        <v>371</v>
+        <v>2394</v>
       </c>
       <c r="NJ1" s="2" t="n">
-        <v>372</v>
+        <v>2395</v>
       </c>
       <c r="NK1" s="2" t="n">
-        <v>373</v>
+        <v>2396</v>
       </c>
       <c r="NL1" s="2" t="n">
-        <v>374</v>
+        <v>2397</v>
       </c>
       <c r="NM1" s="2" t="n">
-        <v>375</v>
+        <v>2398</v>
       </c>
       <c r="NN1" s="2" t="n">
-        <v>376</v>
+        <v>2399</v>
       </c>
       <c r="NO1" s="2" t="n">
-        <v>377</v>
+        <v>2400</v>
       </c>
       <c r="NP1" s="2" t="n">
-        <v>378</v>
+        <v>2401</v>
       </c>
       <c r="NQ1" s="2" t="n">
-        <v>379</v>
+        <v>2402</v>
       </c>
       <c r="NR1" s="2" t="n">
-        <v>380</v>
+        <v>2403</v>
       </c>
       <c r="NS1" s="2" t="n">
-        <v>381</v>
+        <v>2404</v>
       </c>
       <c r="NT1" s="2" t="n">
-        <v>382</v>
+        <v>2405</v>
       </c>
       <c r="NU1" s="2" t="n">
-        <v>383</v>
+        <v>2406</v>
       </c>
       <c r="NV1" s="2" t="n">
-        <v>384</v>
+        <v>2407</v>
       </c>
       <c r="NW1" s="2" t="n">
-        <v>385</v>
+        <v>2408</v>
       </c>
       <c r="NX1" s="2" t="n">
-        <v>386</v>
+        <v>2409</v>
       </c>
       <c r="NY1" s="2" t="n">
-        <v>387</v>
+        <v>2410</v>
       </c>
       <c r="NZ1" s="2" t="n">
-        <v>388</v>
+        <v>2411</v>
       </c>
       <c r="OA1" s="2" t="n">
-        <v>389</v>
+        <v>2412</v>
       </c>
       <c r="OB1" s="2" t="n">
-        <v>390</v>
+        <v>2413</v>
       </c>
       <c r="OC1" s="2" t="n">
-        <v>391</v>
+        <v>2414</v>
       </c>
       <c r="OD1" s="2" t="n">
-        <v>392</v>
+        <v>2415</v>
       </c>
       <c r="OE1" s="2" t="n">
-        <v>393</v>
+        <v>2416</v>
       </c>
       <c r="OF1" s="2" t="n">
-        <v>394</v>
+        <v>2417</v>
       </c>
       <c r="OG1" s="2" t="n">
-        <v>395</v>
+        <v>2418</v>
       </c>
       <c r="OH1" s="2" t="n">
-        <v>396</v>
+        <v>2419</v>
       </c>
       <c r="OI1" s="2" t="n">
-        <v>397</v>
+        <v>2420</v>
       </c>
       <c r="OJ1" s="2" t="n">
-        <v>398</v>
+        <v>2421</v>
       </c>
       <c r="OK1" s="2" t="n">
-        <v>399</v>
+        <v>2422</v>
       </c>
       <c r="OL1" s="2" t="n">
-        <v>400</v>
+        <v>2423</v>
       </c>
       <c r="OM1" s="2" t="n">
-        <v>401</v>
+        <v>2424</v>
       </c>
       <c r="ON1" s="2" t="n">
-        <v>402</v>
+        <v>2425</v>
       </c>
       <c r="OO1" s="2" t="n">
-        <v>403</v>
+        <v>2426</v>
       </c>
       <c r="OP1" s="2" t="n">
-        <v>404</v>
+        <v>2427</v>
       </c>
       <c r="OQ1" s="2" t="n">
-        <v>405</v>
+        <v>2428</v>
       </c>
       <c r="OR1" s="2" t="n">
-        <v>406</v>
+        <v>2429</v>
       </c>
       <c r="OS1" s="2" t="n">
-        <v>407</v>
+        <v>2430</v>
       </c>
       <c r="OT1" s="2" t="n">
-        <v>408</v>
+        <v>2431</v>
       </c>
       <c r="OU1" s="2" t="n">
-        <v>409</v>
+        <v>2432</v>
       </c>
       <c r="OV1" s="2" t="n">
-        <v>410</v>
+        <v>2433</v>
       </c>
       <c r="OW1" s="2" t="n">
-        <v>411</v>
+        <v>2434</v>
       </c>
       <c r="OX1" s="2" t="n">
-        <v>412</v>
+        <v>2435</v>
       </c>
       <c r="OY1" s="2" t="n">
-        <v>413</v>
+        <v>2436</v>
       </c>
       <c r="OZ1" s="2" t="n">
-        <v>414</v>
+        <v>2437</v>
       </c>
       <c r="PA1" s="2" t="n">
-        <v>415</v>
+        <v>2438</v>
       </c>
       <c r="PB1" s="2" t="n">
-        <v>416</v>
+        <v>2439</v>
       </c>
       <c r="PC1" s="2" t="n">
-        <v>417</v>
+        <v>2440</v>
       </c>
       <c r="PD1" s="2" t="n">
-        <v>418</v>
+        <v>2441</v>
       </c>
       <c r="PE1" s="2" t="n">
-        <v>419</v>
+        <v>2442</v>
       </c>
       <c r="PF1" s="2" t="n">
-        <v>420</v>
+        <v>2443</v>
       </c>
       <c r="PG1" s="2" t="n">
-        <v>421</v>
+        <v>2444</v>
       </c>
       <c r="PH1" s="2" t="n">
-        <v>422</v>
+        <v>2445</v>
       </c>
       <c r="PI1" s="2" t="n">
-        <v>423</v>
+        <v>2446</v>
       </c>
       <c r="PJ1" s="2" t="n">
-        <v>424</v>
+        <v>2447</v>
       </c>
       <c r="PK1" s="2" t="n">
-        <v>425</v>
+        <v>2448</v>
       </c>
       <c r="PL1" s="2" t="n">
-        <v>426</v>
+        <v>2449</v>
       </c>
       <c r="PM1" s="2" t="n">
-        <v>427</v>
+        <v>2450</v>
       </c>
       <c r="PN1" s="2" t="n">
-        <v>428</v>
+        <v>2451</v>
       </c>
       <c r="PO1" s="2" t="n">
-        <v>429</v>
+        <v>2452</v>
       </c>
       <c r="PP1" s="2" t="n">
-        <v>430</v>
+        <v>2453</v>
       </c>
       <c r="PQ1" s="2" t="n">
-        <v>431</v>
+        <v>2454</v>
       </c>
       <c r="PR1" s="2" t="n">
-        <v>432</v>
+        <v>2455</v>
       </c>
       <c r="PS1" s="2" t="n">
-        <v>433</v>
+        <v>2456</v>
       </c>
       <c r="PT1" s="2" t="n">
-        <v>434</v>
+        <v>2457</v>
       </c>
       <c r="PU1" s="2" t="n">
-        <v>435</v>
+        <v>2458</v>
       </c>
       <c r="PV1" s="2" t="n">
-        <v>436</v>
+        <v>2459</v>
       </c>
       <c r="PW1" s="2" t="n">
-        <v>437</v>
+        <v>2460</v>
       </c>
       <c r="PX1" s="2" t="n">
-        <v>438</v>
+        <v>2461</v>
       </c>
       <c r="PY1" s="2" t="n">
-        <v>439</v>
+        <v>2462</v>
       </c>
       <c r="PZ1" s="2" t="n">
-        <v>440</v>
+        <v>2463</v>
       </c>
       <c r="QA1" s="2" t="n">
-        <v>441</v>
+        <v>2464</v>
       </c>
       <c r="QB1" s="2" t="n">
-        <v>442</v>
+        <v>2465</v>
       </c>
       <c r="QC1" s="2" t="n">
-        <v>443</v>
+        <v>2466</v>
       </c>
       <c r="QD1" s="2" t="n">
-        <v>444</v>
+        <v>2467</v>
       </c>
       <c r="QE1" s="2" t="n">
-        <v>445</v>
+        <v>2468</v>
       </c>
       <c r="QF1" s="2" t="n">
-        <v>446</v>
+        <v>2469</v>
       </c>
       <c r="QG1" s="2" t="n">
-        <v>447</v>
+        <v>2470</v>
       </c>
       <c r="QH1" s="2" t="n">
-        <v>448</v>
+        <v>2471</v>
       </c>
       <c r="QI1" s="2" t="n">
-        <v>449</v>
+        <v>2472</v>
       </c>
       <c r="QJ1" s="2" t="n">
-        <v>450</v>
+        <v>2473</v>
       </c>
       <c r="QK1" s="2" t="n">
-        <v>451</v>
+        <v>2474</v>
       </c>
       <c r="QL1" s="2" t="n">
-        <v>452</v>
+        <v>2475</v>
       </c>
       <c r="QM1" s="2" t="n">
-        <v>453</v>
+        <v>2476</v>
       </c>
       <c r="QN1" s="2" t="n">
-        <v>454</v>
+        <v>2477</v>
       </c>
       <c r="QO1" s="2" t="n">
-        <v>455</v>
+        <v>2478</v>
       </c>
       <c r="QP1" s="2" t="n">
-        <v>456</v>
+        <v>2479</v>
       </c>
       <c r="QQ1" s="2" t="n">
-        <v>457</v>
+        <v>2480</v>
       </c>
       <c r="QR1" s="2" t="n">
-        <v>458</v>
+        <v>2481</v>
       </c>
       <c r="QS1" s="2" t="n">
-        <v>459</v>
+        <v>2482</v>
       </c>
       <c r="QT1" s="2" t="n">
-        <v>460</v>
+        <v>2483</v>
       </c>
       <c r="QU1" s="2" t="n">
-        <v>461</v>
+        <v>2484</v>
       </c>
       <c r="QV1" s="2" t="n">
-        <v>462</v>
+        <v>2485</v>
       </c>
       <c r="QW1" s="2" t="n">
-        <v>463</v>
+        <v>2486</v>
       </c>
       <c r="QX1" s="2" t="n">
-        <v>464</v>
+        <v>2487</v>
       </c>
       <c r="QY1" s="2" t="n">
-        <v>465</v>
+        <v>2488</v>
       </c>
       <c r="QZ1" s="2" t="n">
-        <v>466</v>
+        <v>2489</v>
       </c>
       <c r="RA1" s="2" t="n">
-        <v>467</v>
+        <v>2490</v>
       </c>
       <c r="RB1" s="2" t="n">
-        <v>468</v>
+        <v>2491</v>
       </c>
       <c r="RC1" s="2" t="n">
-        <v>469</v>
+        <v>2492</v>
       </c>
       <c r="RD1" s="2" t="n">
-        <v>470</v>
+        <v>2493</v>
       </c>
       <c r="RE1" s="2" t="n">
-        <v>471</v>
+        <v>2494</v>
       </c>
       <c r="RF1" s="2" t="n">
-        <v>472</v>
+        <v>2495</v>
       </c>
       <c r="RG1" s="2" t="n">
-        <v>473</v>
+        <v>2496</v>
       </c>
       <c r="RH1" s="2" t="n">
-        <v>474</v>
+        <v>2497</v>
       </c>
       <c r="RI1" s="2" t="n">
-        <v>475</v>
+        <v>2498</v>
       </c>
       <c r="RJ1" s="2" t="n">
-        <v>476</v>
+        <v>2499</v>
       </c>
       <c r="RK1" s="2" t="n">
-        <v>477</v>
+        <v>2500</v>
       </c>
       <c r="RL1" s="2" t="n">
-        <v>478</v>
+        <v>2501</v>
       </c>
       <c r="RM1" s="2" t="n">
-        <v>479</v>
+        <v>2502</v>
       </c>
       <c r="RN1" s="2" t="n">
-        <v>480</v>
+        <v>2503</v>
       </c>
       <c r="RO1" s="2" t="n">
-        <v>481</v>
+        <v>2504</v>
       </c>
       <c r="RP1" s="2" t="n">
-        <v>482</v>
+        <v>2505</v>
       </c>
       <c r="RQ1" s="2" t="n">
-        <v>483</v>
+        <v>2506</v>
       </c>
       <c r="RR1" s="2" t="n">
-        <v>484</v>
+        <v>2507</v>
       </c>
       <c r="RS1" s="2" t="n">
-        <v>485</v>
+        <v>2508</v>
       </c>
       <c r="RT1" s="2" t="n">
-        <v>486</v>
+        <v>2509</v>
       </c>
       <c r="RU1" s="2" t="n">
-        <v>487</v>
+        <v>2510</v>
       </c>
       <c r="RV1" s="2" t="n">
-        <v>488</v>
+        <v>2511</v>
       </c>
       <c r="RW1" s="2" t="n">
-        <v>489</v>
+        <v>2512</v>
       </c>
       <c r="RX1" s="2" t="n">
-        <v>490</v>
+        <v>2513</v>
       </c>
       <c r="RY1" s="2" t="n">
-        <v>491</v>
+        <v>2514</v>
       </c>
       <c r="RZ1" s="2" t="n">
-        <v>492</v>
+        <v>2515</v>
       </c>
       <c r="SA1" s="2" t="n">
-        <v>493</v>
+        <v>2516</v>
       </c>
       <c r="SB1" s="2" t="n">
-        <v>494</v>
+        <v>2517</v>
       </c>
       <c r="SC1" s="2" t="n">
-        <v>495</v>
+        <v>2518</v>
       </c>
       <c r="SD1" s="2" t="n">
-        <v>496</v>
+        <v>2519</v>
+      </c>
+      <c r="SE1" s="2" t="n">
+        <v>2520</v>
+      </c>
+      <c r="SF1" s="2" t="n">
+        <v>2521</v>
       </c>
     </row>
     <row r="2">
@@ -7941,415 +7971,415 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3936168375934471</v>
+        <v>0.3400000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>2.993889420887096e-05</v>
+        <v>0.3737990010649987</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006988983342939094</v>
+        <v>0.4967069968957108</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0003226056932098524</v>
+        <v>0.4003900367609493</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0002267561944636628</v>
+        <v>0.6248943208091761</v>
       </c>
       <c r="G2" t="n">
-        <v>1.630523705181167e-06</v>
+        <v>0.5416850500010489</v>
       </c>
       <c r="H2" t="n">
-        <v>3.509019025981434e-08</v>
+        <v>0.5051374094731473</v>
       </c>
       <c r="I2" t="n">
-        <v>7.990363166518766e-10</v>
+        <v>0.4485402500012159</v>
       </c>
       <c r="J2" t="n">
-        <v>8.394100398212816e-13</v>
+        <v>0.05235529559516616</v>
       </c>
       <c r="K2" t="n">
-        <v>1.104971768060218e-14</v>
+        <v>0.02340093209856329</v>
       </c>
       <c r="L2" t="n">
-        <v>5.049856240594516e-16</v>
+        <v>0.0273650432317778</v>
       </c>
       <c r="M2" t="n">
-        <v>3.381520727920364e-18</v>
+        <v>0.0008831283251668485</v>
       </c>
       <c r="N2" t="n">
-        <v>4.097002593323482e-21</v>
+        <v>7.838304533879286e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>7.712718286924463e-24</v>
+        <v>1.520263762580036e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.409287267356666e-25</v>
+        <v>1.119728918709498e-06</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.03759600040585e-29</v>
+        <v>1.826789801905538e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>1.166188413261287e-31</v>
+        <v>1.169573124112852e-09</v>
       </c>
       <c r="S2" t="n">
-        <v>4.322920501284604e-34</v>
+        <v>1.686931778649659e-10</v>
       </c>
       <c r="T2" t="n">
-        <v>6.908996591688288e-36</v>
+        <v>6.394419611710038e-12</v>
       </c>
       <c r="U2" t="n">
-        <v>7.62675301832508e-39</v>
+        <v>1.516715113292629e-13</v>
       </c>
       <c r="V2" t="n">
-        <v>6.006679295465076e-37</v>
+        <v>1.020805052911603e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>5.102206687770595e-44</v>
+        <v>2.418013164679917e-16</v>
       </c>
       <c r="X2" t="n">
-        <v>1.861919971690111e-45</v>
+        <v>1.293735701960954e-17</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.065238588867551e-48</v>
+        <v>3.646108179712359e-20</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.467825085552966e-51</v>
+        <v>9.083792223258793e-21</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.623598004735104e-54</v>
+        <v>7.07780413621599e-23</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.648886115752128e-56</v>
+        <v>5.16140401255943e-25</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.808077419146412e-60</v>
+        <v>3.547283207544002e-27</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.304935424813234e-62</v>
+        <v>1.886730792672441e-28</v>
       </c>
       <c r="AE2" t="n">
-        <v>6.58756865584061e-65</v>
+        <v>1.809573476807328e-30</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.051451461804509e-67</v>
+        <v>4.266534068393013e-33</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.204339651232794e-70</v>
+        <v>1.631725847752653e-35</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.656323881522448e-72</v>
+        <v>1.700927815063104e-37</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.583425228439624e-75</v>
+        <v>2.935025702710306e-39</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.978150050127821e-78</v>
+        <v>2.37063142158157e-41</v>
       </c>
       <c r="AK2" t="n">
-        <v>6.349124839995178e-81</v>
+        <v>4.644896744531083e-43</v>
       </c>
       <c r="AL2" t="n">
-        <v>3.562445892993556e-84</v>
+        <v>5.05787387703171e-46</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.345637167040333e-87</v>
+        <v>2.726740615305811e-48</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.145660119190837e-90</v>
+        <v>3.55525903755116e-48</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.871435847220775e-92</v>
+        <v>6.370154473905442e-53</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.770966026218377e-95</v>
+        <v>1.916953109102302e-53</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.772687032401799e-98</v>
+        <v>1.682377690668892e-56</v>
       </c>
       <c r="AR2" t="n">
-        <v>5.26984935443881e-101</v>
+        <v>9.560072258567347e-60</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.085183734397591e-104</v>
+        <v>5.262860844737634e-62</v>
       </c>
       <c r="AT2" t="n">
-        <v>5.635383083655464e-107</v>
+        <v>5.599989160100215e-64</v>
       </c>
       <c r="AU2" t="n">
-        <v>3.868009787127091e-109</v>
+        <v>5.765235600469575e-65</v>
       </c>
       <c r="AV2" t="n">
-        <v>2.034915794553066e-112</v>
+        <v>4.472814114687165e-68</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.335259107215422e-115</v>
+        <v>1.434150560030124e-69</v>
       </c>
       <c r="AX2" t="n">
-        <v>2.205381492926503e-118</v>
+        <v>8.695173080212812e-72</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.45919463189697e-121</v>
+        <v>1.319690966633378e-74</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2.211661211588924e-124</v>
+        <v>4.904843581416169e-77</v>
       </c>
       <c r="BA2" t="n">
-        <v>3.418208326323041e-127</v>
+        <v>9.661822289337311e-80</v>
       </c>
       <c r="BB2" t="n">
-        <v>4.483037230809079e-130</v>
+        <v>6.575603578804386e-81</v>
       </c>
       <c r="BC2" t="n">
-        <v>2.192964799404461e-133</v>
+        <v>7.593294516426209e-85</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.410012051911884e-136</v>
+        <v>5.649863695002554e-87</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.245393840250672e-139</v>
+        <v>9.323396025462571e-89</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.000595910470067e-142</v>
+        <v>5.669227962683873e-92</v>
       </c>
       <c r="BG2" t="n">
-        <v>7.434668320468565e-146</v>
+        <v>4.841622911259237e-94</v>
       </c>
       <c r="BH2" t="n">
-        <v>3.531273068778187e-149</v>
+        <v>4.024028036421313e-95</v>
       </c>
       <c r="BI2" t="n">
-        <v>3.966883012163225e-152</v>
+        <v>1.637834746150178e-96</v>
       </c>
       <c r="BJ2" t="n">
-        <v>2.684581371290147e-155</v>
+        <v>1.15653713951882e-99</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.382177059699744e-158</v>
+        <v>3.975011823781732e-102</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.782908654515942e-161</v>
+        <v>1.334765651855974e-104</v>
       </c>
       <c r="BM2" t="n">
-        <v>2.322544463022018e-164</v>
+        <v>2.044952074188779e-107</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.443312599777673e-167</v>
+        <v>5.681929217017981e-110</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.831026297723115e-170</v>
+        <v>1.195450630640361e-112</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.996920300145668e-173</v>
+        <v>2.809376641416066e-115</v>
       </c>
       <c r="BQ2" t="n">
-        <v>9.436148533351073e-177</v>
+        <v>3.120726719805123e-117</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.200598289235227e-179</v>
+        <v>3.397168248219558e-120</v>
       </c>
       <c r="BS2" t="n">
-        <v>6.006482038673966e-183</v>
+        <v>9.721223479289832e-123</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.297570475485088e-185</v>
+        <v>1.838175754117392e-125</v>
       </c>
       <c r="BU2" t="n">
-        <v>5.096880723400872e-189</v>
+        <v>6.155565877695931e-128</v>
       </c>
       <c r="BV2" t="n">
-        <v>4.653028058224523e-192</v>
+        <v>1.777618759435743e-130</v>
       </c>
       <c r="BW2" t="n">
-        <v>8.25679412751203e-195</v>
+        <v>8.386227445319385e-133</v>
       </c>
       <c r="BX2" t="n">
-        <v>3.209184545105561e-198</v>
+        <v>6.853479877040797e-136</v>
       </c>
       <c r="BY2" t="n">
-        <v>2.596718648167143e-201</v>
+        <v>8.638342247259386e-138</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.52745851533671e-204</v>
+        <v>6.728103924580017e-141</v>
       </c>
       <c r="CA2" t="n">
-        <v>6.567560964834862e-208</v>
+        <v>4.531120419247886e-143</v>
       </c>
       <c r="CB2" t="n">
-        <v>3.200740646008584e-211</v>
+        <v>3.564208470765192e-146</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.439212797369724e-214</v>
+        <v>1.048948899728364e-148</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.229720244111013e-217</v>
+        <v>2.109267877752464e-151</v>
       </c>
       <c r="CE2" t="n">
-        <v>5.767106580402052e-221</v>
+        <v>2.514386498978565e-154</v>
       </c>
       <c r="CF2" t="n">
-        <v>2.692652574122328e-224</v>
+        <v>3.32318179952351e-157</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.076588452242431e-227</v>
+        <v>5.152431627998352e-160</v>
       </c>
       <c r="CH2" t="n">
-        <v>7.313281788337769e-231</v>
+        <v>1.045371278268696e-162</v>
       </c>
       <c r="CI2" t="n">
-        <v>4.62079594672066e-234</v>
+        <v>5.126610397212649e-165</v>
       </c>
       <c r="CJ2" t="n">
-        <v>3.90323585938517e-237</v>
+        <v>2.594183426041524e-167</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.599364529090814e-240</v>
+        <v>2.852533120889667e-170</v>
       </c>
       <c r="CL2" t="n">
-        <v>6.723689851800618e-244</v>
+        <v>1.285391738267445e-172</v>
       </c>
       <c r="CM2" t="n">
-        <v>3.445114360471963e-247</v>
+        <v>2.223963043624645e-175</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.138482503214283e-249</v>
+        <v>1.685649526911871e-178</v>
       </c>
       <c r="CO2" t="n">
-        <v>4.013258672628262e-252</v>
+        <v>2.670086915342163e-181</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.283462449561896e-255</v>
+        <v>2.330661698602036e-184</v>
       </c>
       <c r="CQ2" t="n">
-        <v>5.24602699005914e-259</v>
+        <v>4.900750135356906e-187</v>
       </c>
       <c r="CR2" t="n">
-        <v>2.568814701965712e-262</v>
+        <v>5.046544752156317e-190</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.309584054296341e-265</v>
+        <v>9.249710140435574e-193</v>
       </c>
       <c r="CT2" t="n">
-        <v>4.994980601522074e-269</v>
+        <v>1.751824138533092e-195</v>
       </c>
       <c r="CU2" t="n">
-        <v>9.492866620290944e-272</v>
+        <v>2.634234804591644e-198</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.899090088045099e-274</v>
+        <v>5.160943191261716e-201</v>
       </c>
       <c r="CW2" t="n">
-        <v>6.135702726014762e-278</v>
+        <v>1.526587657135688e-203</v>
       </c>
       <c r="CX2" t="n">
-        <v>3.001351171396033e-281</v>
+        <v>2.552104786716484e-206</v>
       </c>
       <c r="CY2" t="n">
-        <v>2.452818345773919e-284</v>
+        <v>5.40436278756897e-209</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.95841283868438e-287</v>
+        <v>1.349116172050441e-211</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.829924536376068e-290</v>
+        <v>1.105545631806793e-214</v>
       </c>
       <c r="DB2" t="n">
-        <v>6.046311566839198e-294</v>
+        <v>1.342261136627342e-217</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.753910651680839e-297</v>
+        <v>9.544316092727889e-220</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.134260474618778e-300</v>
+        <v>3.567005714088845e-222</v>
       </c>
       <c r="DE2" t="n">
-        <v>4.282452839157435e-304</v>
+        <v>2.397942911524217e-225</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>2.586948296380725e-228</v>
       </c>
       <c r="DG2" t="n">
-        <v>0</v>
+        <v>9.06188210253464e-231</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>3.886614858212058e-233</v>
       </c>
       <c r="DI2" t="n">
-        <v>0</v>
+        <v>8.791275100119018e-236</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0</v>
+        <v>1.414562812630237e-238</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>2.387324601335643e-241</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>2.897498312560437e-244</v>
       </c>
       <c r="DM2" t="n">
-        <v>0</v>
+        <v>5.108776753395392e-247</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>3.511160701587145e-249</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>2.871754232587332e-252</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>2.800672027790661e-255</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0</v>
+        <v>9.143291690508602e-258</v>
       </c>
       <c r="DR2" t="n">
-        <v>0</v>
+        <v>7.117681272461723e-261</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>4.572417750726473e-264</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>4.466262677812194e-266</v>
       </c>
       <c r="DU2" t="n">
-        <v>0</v>
+        <v>6.021315133415379e-269</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>1.340466769810262e-271</v>
       </c>
       <c r="DW2" t="n">
-        <v>0</v>
+        <v>1.202469662596311e-274</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>8.785781265792055e-278</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>2.352839701462913e-280</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>3.775816374673988e-283</v>
       </c>
       <c r="EA2" t="n">
-        <v>0</v>
+        <v>3.130521832559127e-286</v>
       </c>
       <c r="EB2" t="n">
-        <v>0</v>
+        <v>7.081626247678845e-289</v>
       </c>
       <c r="EC2" t="n">
-        <v>0</v>
+        <v>8.087904774296174e-292</v>
       </c>
       <c r="ED2" t="n">
-        <v>0</v>
+        <v>1.157207881367494e-294</v>
       </c>
       <c r="EE2" t="n">
-        <v>0</v>
+        <v>7.58025253922219e-298</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>1.36358826846082e-300</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>1.806331120430708e-303</v>
       </c>
       <c r="EH2" t="n">
-        <v>0</v>
+        <v>2.506772969496655e-306</v>
       </c>
       <c r="EI2" t="n">
         <v>0</v>
@@ -9429,6 +9459,12 @@
         <v>0</v>
       </c>
       <c r="SD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="SE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="SF2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9439,70 +9475,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4755491370510415</v>
+        <v>0.33</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01586384426985646</v>
+        <v>0.3327291070190232</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9455790154144479</v>
+        <v>0.3286702834046455</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9849578543018462</v>
+        <v>0.400695257314418</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9996873253361444</v>
+        <v>0.3248977292540809</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9999914401371973</v>
+        <v>0.4156430742620588</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9999998340775498</v>
+        <v>0.4849786520966848</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9999999974325353</v>
+        <v>0.5502521606608423</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9999999998866935</v>
+        <v>0.9457124655483301</v>
       </c>
       <c r="K3" t="n">
-        <v>0.999999999999451</v>
+        <v>0.9764598068335671</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9999999999999988</v>
+        <v>0.9726335092367744</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.9991164317218874</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.9999215600965287</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0.9999847961935276</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.9999988801002351</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0.9999998173178443</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.999999998822563</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0.9999999998312392</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0.9999999999936036</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.9999999999998483</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.9999999999999899</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="X3" t="n">
         <v>1</v>
@@ -10927,6 +10963,12 @@
         <v>1</v>
       </c>
       <c r="SD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="SE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="SF3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10937,403 +10979,403 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1308340253555113</v>
+        <v>0.33</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9841062168359347</v>
+        <v>0.2934718919159781</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04743200124261299</v>
+        <v>0.1746227196996436</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01471954000494392</v>
+        <v>0.1989147059246327</v>
       </c>
       <c r="F4" t="n">
-        <v>8.59184693917438e-05</v>
+        <v>0.05020794993674293</v>
       </c>
       <c r="G4" t="n">
-        <v>6.929339097481148e-06</v>
+        <v>0.04267187573689227</v>
       </c>
       <c r="H4" t="n">
-        <v>1.308322601518701e-07</v>
+        <v>0.009883938430167825</v>
       </c>
       <c r="I4" t="n">
-        <v>1.768428320517124e-09</v>
+        <v>0.001207589337941767</v>
       </c>
       <c r="J4" t="n">
-        <v>1.124671398371476e-10</v>
+        <v>0.001932238856503659</v>
       </c>
       <c r="K4" t="n">
-        <v>5.379170911872274e-13</v>
+        <v>0.0001392610678694548</v>
       </c>
       <c r="L4" t="n">
-        <v>6.841675646078493e-16</v>
+        <v>1.447531447874394e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>6.492206416651552e-18</v>
+        <v>4.399529457649207e-07</v>
       </c>
       <c r="N4" t="n">
-        <v>8.359411316486346e-20</v>
+        <v>5.68581325138369e-08</v>
       </c>
       <c r="O4" t="n">
-        <v>6.743535043306194e-22</v>
+        <v>1.168846649693126e-09</v>
       </c>
       <c r="P4" t="n">
-        <v>8.840419605704954e-25</v>
+        <v>1.708460860463424e-10</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.154528063694609e-26</v>
+        <v>3.175444751622856e-12</v>
       </c>
       <c r="R4" t="n">
-        <v>1.657605523520895e-28</v>
+        <v>7.86388704955431e-12</v>
       </c>
       <c r="S4" t="n">
-        <v>3.810381713945682e-31</v>
+        <v>6.761626764408629e-14</v>
       </c>
       <c r="T4" t="n">
-        <v>3.484664550668505e-34</v>
+        <v>1.894693582123516e-15</v>
       </c>
       <c r="U4" t="n">
-        <v>1.570327959020552e-36</v>
+        <v>7.116882472480206e-17</v>
       </c>
       <c r="V4" t="n">
-        <v>1.08890908925611e-37</v>
+        <v>1.901975470578566e-19</v>
       </c>
       <c r="W4" t="n">
-        <v>2.253143769723215e-38</v>
+        <v>3.46359222055276e-21</v>
       </c>
       <c r="X4" t="n">
-        <v>9.91972906843849e-43</v>
+        <v>6.45963370310888e-24</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.915327500216682e-45</v>
+        <v>2.672361831083019e-25</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.127937281852147e-47</v>
+        <v>6.599429044236994e-28</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.896274152396304e-50</v>
+        <v>1.812413197120713e-29</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.787873282076225e-53</v>
+        <v>2.433487253497114e-31</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.617090677160292e-55</v>
+        <v>1.287534276494063e-32</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.187399761186611e-58</v>
+        <v>1.162112438690706e-35</v>
       </c>
       <c r="AE4" t="n">
-        <v>4.692205019915976e-61</v>
+        <v>7.043746047473071e-38</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.747426209528656e-64</v>
+        <v>1.147228571501236e-39</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.581151928285498e-66</v>
+        <v>1.983572724601819e-41</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.032314279323445e-69</v>
+        <v>1.099214109290753e-43</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.019960176351918e-71</v>
+        <v>2.753577324747715e-46</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3.121868780875178e-74</v>
+        <v>4.128410444001617e-48</v>
       </c>
       <c r="AK4" t="n">
-        <v>4.520004713357079e-77</v>
+        <v>5.408322062599134e-51</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.159155470424281e-79</v>
+        <v>1.128194102924419e-52</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.617573665117569e-82</v>
+        <v>1.176073079430912e-54</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.034567413231828e-85</v>
+        <v>3.59473117229043e-57</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.345508506511829e-88</v>
+        <v>3.955841454995551e-58</v>
       </c>
       <c r="AP4" t="n">
-        <v>7.557460474418391e-91</v>
+        <v>5.588501152717967e-61</v>
       </c>
       <c r="AQ4" t="n">
-        <v>7.181600808351461e-93</v>
+        <v>8.374322135468768e-63</v>
       </c>
       <c r="AR4" t="n">
-        <v>3.086852194130421e-96</v>
+        <v>1.170954020367575e-64</v>
       </c>
       <c r="AS4" t="n">
-        <v>3.821836037371302e-98</v>
+        <v>4.165203301552408e-67</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.664553205432154e-101</v>
+        <v>6.840071322667045e-68</v>
       </c>
       <c r="AU4" t="n">
-        <v>5.657579701408681e-104</v>
+        <v>7.509938836129474e-73</v>
       </c>
       <c r="AV4" t="n">
-        <v>9.484941807083362e-107</v>
+        <v>1.794431073572376e-74</v>
       </c>
       <c r="AW4" t="n">
-        <v>9.959082187476704e-110</v>
+        <v>7.934446767047143e-78</v>
       </c>
       <c r="AX4" t="n">
-        <v>3.368606651774826e-112</v>
+        <v>1.890286845989091e-80</v>
       </c>
       <c r="AY4" t="n">
-        <v>2.717264211659151e-115</v>
+        <v>1.922388487024399e-82</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2.164876788460852e-118</v>
+        <v>6.759695188862616e-85</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.762271554219809e-121</v>
+        <v>1.022115541205165e-86</v>
       </c>
       <c r="BB4" t="n">
-        <v>2.646704729891601e-124</v>
+        <v>8.15597464979384e-90</v>
       </c>
       <c r="BC4" t="n">
-        <v>3.615137209692884e-127</v>
+        <v>1.306667323894053e-91</v>
       </c>
       <c r="BD4" t="n">
-        <v>5.07297742010783e-130</v>
+        <v>3.323888211622727e-94</v>
       </c>
       <c r="BE4" t="n">
-        <v>3.560292300361415e-133</v>
+        <v>6.789449334868529e-97</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.816333787551314e-136</v>
+        <v>3.304345423416374e-98</v>
       </c>
       <c r="BG4" t="n">
-        <v>2.611466519042595e-139</v>
+        <v>1.047162245219669e-100</v>
       </c>
       <c r="BH4" t="n">
-        <v>3.399510923412609e-142</v>
+        <v>4.200837885334507e-100</v>
       </c>
       <c r="BI4" t="n">
-        <v>2.481278684583439e-145</v>
+        <v>8.0238037069988e-105</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2.675162724309771e-148</v>
+        <v>8.021244705274809e-107</v>
       </c>
       <c r="BK4" t="n">
-        <v>5.443647936529534e-151</v>
+        <v>1.284578624691279e-109</v>
       </c>
       <c r="BL4" t="n">
-        <v>1.147758417910806e-153</v>
+        <v>1.362619168872853e-112</v>
       </c>
       <c r="BM4" t="n">
-        <v>5.565172753240928e-157</v>
+        <v>3.10840489727995e-115</v>
       </c>
       <c r="BN4" t="n">
-        <v>4.276336413430639e-160</v>
+        <v>3.94015670739698e-118</v>
       </c>
       <c r="BO4" t="n">
-        <v>4.57829973833027e-163</v>
+        <v>7.174904233602555e-121</v>
       </c>
       <c r="BP4" t="n">
-        <v>6.16126330140139e-166</v>
+        <v>1.65394283701487e-123</v>
       </c>
       <c r="BQ4" t="n">
-        <v>5.945547035300392e-169</v>
+        <v>1.393700613642396e-126</v>
       </c>
       <c r="BR4" t="n">
-        <v>4.927470081949294e-172</v>
+        <v>3.681224700517526e-129</v>
       </c>
       <c r="BS4" t="n">
-        <v>1.159490861805589e-174</v>
+        <v>3.780670197610212e-132</v>
       </c>
       <c r="BT4" t="n">
-        <v>7.30122478006775e-178</v>
+        <v>7.824634245398888e-135</v>
       </c>
       <c r="BU4" t="n">
-        <v>9.030983007965465e-181</v>
+        <v>8.856594167187765e-138</v>
       </c>
       <c r="BV4" t="n">
-        <v>1.137042168901451e-183</v>
+        <v>8.447204974820219e-141</v>
       </c>
       <c r="BW4" t="n">
-        <v>6.856910289861549e-187</v>
+        <v>2.106507408812045e-143</v>
       </c>
       <c r="BX4" t="n">
-        <v>9.578675962811407e-190</v>
+        <v>7.125622997247849e-146</v>
       </c>
       <c r="BY4" t="n">
-        <v>4.889252853944907e-193</v>
+        <v>3.005642044490487e-149</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3.598529309594552e-196</v>
+        <v>8.281568711863723e-152</v>
       </c>
       <c r="CA4" t="n">
-        <v>2.810707413266437e-199</v>
+        <v>1.014054656588591e-154</v>
       </c>
       <c r="CB4" t="n">
-        <v>1.768223705063497e-202</v>
+        <v>2.707846781535603e-157</v>
       </c>
       <c r="CC4" t="n">
-        <v>1.535904643591331e-205</v>
+        <v>5.825999961756438e-159</v>
       </c>
       <c r="CD4" t="n">
-        <v>8.806312668115212e-209</v>
+        <v>5.450129234568065e-162</v>
       </c>
       <c r="CE4" t="n">
-        <v>5.958837443071075e-212</v>
+        <v>8.946829952066779e-165</v>
       </c>
       <c r="CF4" t="n">
-        <v>4.054402811121176e-215</v>
+        <v>1.182410964260344e-167</v>
       </c>
       <c r="CG4" t="n">
-        <v>3.471840477701498e-218</v>
+        <v>1.745824681547715e-170</v>
       </c>
       <c r="CH4" t="n">
-        <v>1.754036891240553e-221</v>
+        <v>5.262749043452874e-173</v>
       </c>
       <c r="CI4" t="n">
-        <v>4.419988669867037e-224</v>
+        <v>9.510175286545521e-175</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1.760598952197506e-227</v>
+        <v>2.771205793643455e-178</v>
       </c>
       <c r="CK4" t="n">
-        <v>1.147328338964033e-230</v>
+        <v>4.110327655304359e-181</v>
       </c>
       <c r="CL4" t="n">
-        <v>8.491207162748224e-234</v>
+        <v>5.748867512423151e-184</v>
       </c>
       <c r="CM4" t="n">
-        <v>5.708321932232663e-237</v>
+        <v>1.286747940702386e-186</v>
       </c>
       <c r="CN4" t="n">
-        <v>8.195894878444317e-240</v>
+        <v>4.367074232609134e-189</v>
       </c>
       <c r="CO4" t="n">
-        <v>2.449094180209406e-242</v>
+        <v>4.68406775929644e-192</v>
       </c>
       <c r="CP4" t="n">
-        <v>2.576452435742691e-245</v>
+        <v>9.058775753730011e-195</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1.727099656053199e-248</v>
+        <v>9.965445684509347e-198</v>
       </c>
       <c r="CR4" t="n">
-        <v>7.567017773877021e-252</v>
+        <v>1.690799731206525e-200</v>
       </c>
       <c r="CS4" t="n">
-        <v>3.770242517989977e-255</v>
+        <v>3.642096643563485e-203</v>
       </c>
       <c r="CT4" t="n">
-        <v>2.208323846241591e-258</v>
+        <v>5.856246746296492e-206</v>
       </c>
       <c r="CU4" t="n">
-        <v>1.15772143501133e-260</v>
+        <v>2.371559931838471e-208</v>
       </c>
       <c r="CV4" t="n">
-        <v>7.706921296560829e-264</v>
+        <v>1.654795909867353e-211</v>
       </c>
       <c r="CW4" t="n">
-        <v>6.320952120772747e-267</v>
+        <v>1.050879710266396e-214</v>
       </c>
       <c r="CX4" t="n">
-        <v>2.711853740058661e-270</v>
+        <v>5.729761813267457e-217</v>
       </c>
       <c r="CY4" t="n">
-        <v>5.320051190056272e-273</v>
+        <v>9.680732203962379e-220</v>
       </c>
       <c r="CZ4" t="n">
-        <v>4.762124347926076e-276</v>
+        <v>5.662604877710034e-223</v>
       </c>
       <c r="DA4" t="n">
-        <v>2.229170114598254e-279</v>
+        <v>8.549577750446851e-226</v>
       </c>
       <c r="DB4" t="n">
-        <v>1.572865461015983e-282</v>
+        <v>8.689352992265192e-229</v>
       </c>
       <c r="DC4" t="n">
-        <v>6.888705854383002e-286</v>
+        <v>3.383306040085875e-230</v>
       </c>
       <c r="DD4" t="n">
-        <v>4.347804971290132e-289</v>
+        <v>1.012716696497363e-233</v>
       </c>
       <c r="DE4" t="n">
-        <v>2.423767468008149e-292</v>
+        <v>1.480207697629124e-236</v>
       </c>
       <c r="DF4" t="n">
-        <v>1.62223643139905e-295</v>
+        <v>2.106788064684261e-239</v>
       </c>
       <c r="DG4" t="n">
-        <v>6.578606178362177e-299</v>
+        <v>5.121871843313264e-241</v>
       </c>
       <c r="DH4" t="n">
-        <v>3.067913341724143e-302</v>
+        <v>3.212664794471243e-243</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.410707412906759e-305</v>
+        <v>2.429718214040557e-246</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>2.423632800281966e-249</v>
       </c>
       <c r="DK4" t="n">
-        <v>0</v>
+        <v>7.17523289911708e-252</v>
       </c>
       <c r="DL4" t="n">
-        <v>0</v>
+        <v>4.967049568737269e-255</v>
       </c>
       <c r="DM4" t="n">
-        <v>0</v>
+        <v>9.431066031375601e-258</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>1.813645329375176e-260</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>3.555549705778225e-263</v>
       </c>
       <c r="DP4" t="n">
-        <v>0</v>
+        <v>2.729454316992975e-266</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0</v>
+        <v>2.201666110653078e-269</v>
       </c>
       <c r="DR4" t="n">
-        <v>0</v>
+        <v>3.173827055327821e-272</v>
       </c>
       <c r="DS4" t="n">
-        <v>0</v>
+        <v>3.57958060557292e-275</v>
       </c>
       <c r="DT4" t="n">
-        <v>0</v>
+        <v>8.515301252240871e-278</v>
       </c>
       <c r="DU4" t="n">
-        <v>0</v>
+        <v>1.482201934909117e-279</v>
       </c>
       <c r="DV4" t="n">
-        <v>0</v>
+        <v>6.282589688810167e-283</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>4.786108627990092e-286</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>4.191674514531038e-289</v>
       </c>
       <c r="DY4" t="n">
-        <v>0</v>
+        <v>3.414217685590051e-291</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>2.169606142166873e-294</v>
       </c>
       <c r="EA4" t="n">
-        <v>0</v>
+        <v>1.623096623675233e-297</v>
       </c>
       <c r="EB4" t="n">
-        <v>0</v>
+        <v>1.143468684840539e-300</v>
       </c>
       <c r="EC4" t="n">
-        <v>0</v>
+        <v>1.085615662410139e-303</v>
       </c>
       <c r="ED4" t="n">
-        <v>0</v>
+        <v>1.789013449720053e-306</v>
       </c>
       <c r="EE4" t="n">
         <v>0</v>
@@ -12425,6 +12467,12 @@
         <v>0</v>
       </c>
       <c r="SD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12439,7 +12487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SD4"/>
+  <dimension ref="A1:SF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12449,1495 +12497,1501 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="2" t="n">
-        <v>0</v>
+        <v>2023</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>1</v>
+        <v>2024</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>2</v>
+        <v>2025</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>3</v>
+        <v>2026</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>4</v>
+        <v>2027</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>5</v>
+        <v>2028</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>6</v>
+        <v>2029</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>7</v>
+        <v>2030</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>8</v>
+        <v>2031</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>9</v>
+        <v>2032</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>10</v>
+        <v>2033</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>11</v>
+        <v>2034</v>
       </c>
       <c r="N1" s="2" t="n">
-        <v>12</v>
+        <v>2035</v>
       </c>
       <c r="O1" s="2" t="n">
-        <v>13</v>
+        <v>2036</v>
       </c>
       <c r="P1" s="2" t="n">
-        <v>14</v>
+        <v>2037</v>
       </c>
       <c r="Q1" s="2" t="n">
-        <v>15</v>
+        <v>2038</v>
       </c>
       <c r="R1" s="2" t="n">
-        <v>16</v>
+        <v>2039</v>
       </c>
       <c r="S1" s="2" t="n">
-        <v>17</v>
+        <v>2040</v>
       </c>
       <c r="T1" s="2" t="n">
-        <v>18</v>
+        <v>2041</v>
       </c>
       <c r="U1" s="2" t="n">
-        <v>19</v>
+        <v>2042</v>
       </c>
       <c r="V1" s="2" t="n">
-        <v>20</v>
+        <v>2043</v>
       </c>
       <c r="W1" s="2" t="n">
-        <v>21</v>
+        <v>2044</v>
       </c>
       <c r="X1" s="2" t="n">
-        <v>22</v>
+        <v>2045</v>
       </c>
       <c r="Y1" s="2" t="n">
-        <v>23</v>
+        <v>2046</v>
       </c>
       <c r="Z1" s="2" t="n">
-        <v>24</v>
+        <v>2047</v>
       </c>
       <c r="AA1" s="2" t="n">
-        <v>25</v>
+        <v>2048</v>
       </c>
       <c r="AB1" s="2" t="n">
-        <v>26</v>
+        <v>2049</v>
       </c>
       <c r="AC1" s="2" t="n">
-        <v>27</v>
+        <v>2050</v>
       </c>
       <c r="AD1" s="2" t="n">
-        <v>28</v>
+        <v>2051</v>
       </c>
       <c r="AE1" s="2" t="n">
-        <v>29</v>
+        <v>2052</v>
       </c>
       <c r="AF1" s="2" t="n">
-        <v>30</v>
+        <v>2053</v>
       </c>
       <c r="AG1" s="2" t="n">
-        <v>31</v>
+        <v>2054</v>
       </c>
       <c r="AH1" s="2" t="n">
-        <v>32</v>
+        <v>2055</v>
       </c>
       <c r="AI1" s="2" t="n">
-        <v>33</v>
+        <v>2056</v>
       </c>
       <c r="AJ1" s="2" t="n">
-        <v>34</v>
+        <v>2057</v>
       </c>
       <c r="AK1" s="2" t="n">
-        <v>35</v>
+        <v>2058</v>
       </c>
       <c r="AL1" s="2" t="n">
-        <v>36</v>
+        <v>2059</v>
       </c>
       <c r="AM1" s="2" t="n">
-        <v>37</v>
+        <v>2060</v>
       </c>
       <c r="AN1" s="2" t="n">
-        <v>38</v>
+        <v>2061</v>
       </c>
       <c r="AO1" s="2" t="n">
-        <v>39</v>
+        <v>2062</v>
       </c>
       <c r="AP1" s="2" t="n">
-        <v>40</v>
+        <v>2063</v>
       </c>
       <c r="AQ1" s="2" t="n">
-        <v>41</v>
+        <v>2064</v>
       </c>
       <c r="AR1" s="2" t="n">
-        <v>42</v>
+        <v>2065</v>
       </c>
       <c r="AS1" s="2" t="n">
-        <v>43</v>
+        <v>2066</v>
       </c>
       <c r="AT1" s="2" t="n">
-        <v>44</v>
+        <v>2067</v>
       </c>
       <c r="AU1" s="2" t="n">
-        <v>45</v>
+        <v>2068</v>
       </c>
       <c r="AV1" s="2" t="n">
-        <v>46</v>
+        <v>2069</v>
       </c>
       <c r="AW1" s="2" t="n">
-        <v>47</v>
+        <v>2070</v>
       </c>
       <c r="AX1" s="2" t="n">
-        <v>48</v>
+        <v>2071</v>
       </c>
       <c r="AY1" s="2" t="n">
-        <v>49</v>
+        <v>2072</v>
       </c>
       <c r="AZ1" s="2" t="n">
-        <v>50</v>
+        <v>2073</v>
       </c>
       <c r="BA1" s="2" t="n">
-        <v>51</v>
+        <v>2074</v>
       </c>
       <c r="BB1" s="2" t="n">
-        <v>52</v>
+        <v>2075</v>
       </c>
       <c r="BC1" s="2" t="n">
-        <v>53</v>
+        <v>2076</v>
       </c>
       <c r="BD1" s="2" t="n">
-        <v>54</v>
+        <v>2077</v>
       </c>
       <c r="BE1" s="2" t="n">
-        <v>55</v>
+        <v>2078</v>
       </c>
       <c r="BF1" s="2" t="n">
-        <v>56</v>
+        <v>2079</v>
       </c>
       <c r="BG1" s="2" t="n">
-        <v>57</v>
+        <v>2080</v>
       </c>
       <c r="BH1" s="2" t="n">
-        <v>58</v>
+        <v>2081</v>
       </c>
       <c r="BI1" s="2" t="n">
-        <v>59</v>
+        <v>2082</v>
       </c>
       <c r="BJ1" s="2" t="n">
-        <v>60</v>
+        <v>2083</v>
       </c>
       <c r="BK1" s="2" t="n">
-        <v>61</v>
+        <v>2084</v>
       </c>
       <c r="BL1" s="2" t="n">
-        <v>62</v>
+        <v>2085</v>
       </c>
       <c r="BM1" s="2" t="n">
-        <v>63</v>
+        <v>2086</v>
       </c>
       <c r="BN1" s="2" t="n">
-        <v>64</v>
+        <v>2087</v>
       </c>
       <c r="BO1" s="2" t="n">
-        <v>65</v>
+        <v>2088</v>
       </c>
       <c r="BP1" s="2" t="n">
-        <v>66</v>
+        <v>2089</v>
       </c>
       <c r="BQ1" s="2" t="n">
-        <v>67</v>
+        <v>2090</v>
       </c>
       <c r="BR1" s="2" t="n">
-        <v>68</v>
+        <v>2091</v>
       </c>
       <c r="BS1" s="2" t="n">
-        <v>69</v>
+        <v>2092</v>
       </c>
       <c r="BT1" s="2" t="n">
-        <v>70</v>
+        <v>2093</v>
       </c>
       <c r="BU1" s="2" t="n">
-        <v>71</v>
+        <v>2094</v>
       </c>
       <c r="BV1" s="2" t="n">
-        <v>72</v>
+        <v>2095</v>
       </c>
       <c r="BW1" s="2" t="n">
-        <v>73</v>
+        <v>2096</v>
       </c>
       <c r="BX1" s="2" t="n">
-        <v>74</v>
+        <v>2097</v>
       </c>
       <c r="BY1" s="2" t="n">
-        <v>75</v>
+        <v>2098</v>
       </c>
       <c r="BZ1" s="2" t="n">
-        <v>76</v>
+        <v>2099</v>
       </c>
       <c r="CA1" s="2" t="n">
-        <v>77</v>
+        <v>2100</v>
       </c>
       <c r="CB1" s="2" t="n">
-        <v>78</v>
+        <v>2101</v>
       </c>
       <c r="CC1" s="2" t="n">
-        <v>79</v>
+        <v>2102</v>
       </c>
       <c r="CD1" s="2" t="n">
-        <v>80</v>
+        <v>2103</v>
       </c>
       <c r="CE1" s="2" t="n">
-        <v>81</v>
+        <v>2104</v>
       </c>
       <c r="CF1" s="2" t="n">
-        <v>82</v>
+        <v>2105</v>
       </c>
       <c r="CG1" s="2" t="n">
-        <v>83</v>
+        <v>2106</v>
       </c>
       <c r="CH1" s="2" t="n">
-        <v>84</v>
+        <v>2107</v>
       </c>
       <c r="CI1" s="2" t="n">
-        <v>85</v>
+        <v>2108</v>
       </c>
       <c r="CJ1" s="2" t="n">
-        <v>86</v>
+        <v>2109</v>
       </c>
       <c r="CK1" s="2" t="n">
-        <v>87</v>
+        <v>2110</v>
       </c>
       <c r="CL1" s="2" t="n">
-        <v>88</v>
+        <v>2111</v>
       </c>
       <c r="CM1" s="2" t="n">
-        <v>89</v>
+        <v>2112</v>
       </c>
       <c r="CN1" s="2" t="n">
-        <v>90</v>
+        <v>2113</v>
       </c>
       <c r="CO1" s="2" t="n">
-        <v>91</v>
+        <v>2114</v>
       </c>
       <c r="CP1" s="2" t="n">
-        <v>92</v>
+        <v>2115</v>
       </c>
       <c r="CQ1" s="2" t="n">
-        <v>93</v>
+        <v>2116</v>
       </c>
       <c r="CR1" s="2" t="n">
-        <v>94</v>
+        <v>2117</v>
       </c>
       <c r="CS1" s="2" t="n">
-        <v>95</v>
+        <v>2118</v>
       </c>
       <c r="CT1" s="2" t="n">
-        <v>96</v>
+        <v>2119</v>
       </c>
       <c r="CU1" s="2" t="n">
-        <v>97</v>
+        <v>2120</v>
       </c>
       <c r="CV1" s="2" t="n">
-        <v>98</v>
+        <v>2121</v>
       </c>
       <c r="CW1" s="2" t="n">
-        <v>99</v>
+        <v>2122</v>
       </c>
       <c r="CX1" s="2" t="n">
-        <v>100</v>
+        <v>2123</v>
       </c>
       <c r="CY1" s="2" t="n">
-        <v>101</v>
+        <v>2124</v>
       </c>
       <c r="CZ1" s="2" t="n">
-        <v>102</v>
+        <v>2125</v>
       </c>
       <c r="DA1" s="2" t="n">
-        <v>103</v>
+        <v>2126</v>
       </c>
       <c r="DB1" s="2" t="n">
-        <v>104</v>
+        <v>2127</v>
       </c>
       <c r="DC1" s="2" t="n">
-        <v>105</v>
+        <v>2128</v>
       </c>
       <c r="DD1" s="2" t="n">
-        <v>106</v>
+        <v>2129</v>
       </c>
       <c r="DE1" s="2" t="n">
-        <v>107</v>
+        <v>2130</v>
       </c>
       <c r="DF1" s="2" t="n">
-        <v>108</v>
+        <v>2131</v>
       </c>
       <c r="DG1" s="2" t="n">
-        <v>109</v>
+        <v>2132</v>
       </c>
       <c r="DH1" s="2" t="n">
-        <v>110</v>
+        <v>2133</v>
       </c>
       <c r="DI1" s="2" t="n">
-        <v>111</v>
+        <v>2134</v>
       </c>
       <c r="DJ1" s="2" t="n">
-        <v>112</v>
+        <v>2135</v>
       </c>
       <c r="DK1" s="2" t="n">
-        <v>113</v>
+        <v>2136</v>
       </c>
       <c r="DL1" s="2" t="n">
-        <v>114</v>
+        <v>2137</v>
       </c>
       <c r="DM1" s="2" t="n">
-        <v>115</v>
+        <v>2138</v>
       </c>
       <c r="DN1" s="2" t="n">
-        <v>116</v>
+        <v>2139</v>
       </c>
       <c r="DO1" s="2" t="n">
-        <v>117</v>
+        <v>2140</v>
       </c>
       <c r="DP1" s="2" t="n">
-        <v>118</v>
+        <v>2141</v>
       </c>
       <c r="DQ1" s="2" t="n">
-        <v>119</v>
+        <v>2142</v>
       </c>
       <c r="DR1" s="2" t="n">
-        <v>120</v>
+        <v>2143</v>
       </c>
       <c r="DS1" s="2" t="n">
-        <v>121</v>
+        <v>2144</v>
       </c>
       <c r="DT1" s="2" t="n">
-        <v>122</v>
+        <v>2145</v>
       </c>
       <c r="DU1" s="2" t="n">
-        <v>123</v>
+        <v>2146</v>
       </c>
       <c r="DV1" s="2" t="n">
-        <v>124</v>
+        <v>2147</v>
       </c>
       <c r="DW1" s="2" t="n">
-        <v>125</v>
+        <v>2148</v>
       </c>
       <c r="DX1" s="2" t="n">
-        <v>126</v>
+        <v>2149</v>
       </c>
       <c r="DY1" s="2" t="n">
-        <v>127</v>
+        <v>2150</v>
       </c>
       <c r="DZ1" s="2" t="n">
-        <v>128</v>
+        <v>2151</v>
       </c>
       <c r="EA1" s="2" t="n">
-        <v>129</v>
+        <v>2152</v>
       </c>
       <c r="EB1" s="2" t="n">
-        <v>130</v>
+        <v>2153</v>
       </c>
       <c r="EC1" s="2" t="n">
-        <v>131</v>
+        <v>2154</v>
       </c>
       <c r="ED1" s="2" t="n">
-        <v>132</v>
+        <v>2155</v>
       </c>
       <c r="EE1" s="2" t="n">
-        <v>133</v>
+        <v>2156</v>
       </c>
       <c r="EF1" s="2" t="n">
-        <v>134</v>
+        <v>2157</v>
       </c>
       <c r="EG1" s="2" t="n">
-        <v>135</v>
+        <v>2158</v>
       </c>
       <c r="EH1" s="2" t="n">
-        <v>136</v>
+        <v>2159</v>
       </c>
       <c r="EI1" s="2" t="n">
-        <v>137</v>
+        <v>2160</v>
       </c>
       <c r="EJ1" s="2" t="n">
-        <v>138</v>
+        <v>2161</v>
       </c>
       <c r="EK1" s="2" t="n">
-        <v>139</v>
+        <v>2162</v>
       </c>
       <c r="EL1" s="2" t="n">
-        <v>140</v>
+        <v>2163</v>
       </c>
       <c r="EM1" s="2" t="n">
-        <v>141</v>
+        <v>2164</v>
       </c>
       <c r="EN1" s="2" t="n">
-        <v>142</v>
+        <v>2165</v>
       </c>
       <c r="EO1" s="2" t="n">
-        <v>143</v>
+        <v>2166</v>
       </c>
       <c r="EP1" s="2" t="n">
-        <v>144</v>
+        <v>2167</v>
       </c>
       <c r="EQ1" s="2" t="n">
-        <v>145</v>
+        <v>2168</v>
       </c>
       <c r="ER1" s="2" t="n">
-        <v>146</v>
+        <v>2169</v>
       </c>
       <c r="ES1" s="2" t="n">
-        <v>147</v>
+        <v>2170</v>
       </c>
       <c r="ET1" s="2" t="n">
-        <v>148</v>
+        <v>2171</v>
       </c>
       <c r="EU1" s="2" t="n">
-        <v>149</v>
+        <v>2172</v>
       </c>
       <c r="EV1" s="2" t="n">
-        <v>150</v>
+        <v>2173</v>
       </c>
       <c r="EW1" s="2" t="n">
-        <v>151</v>
+        <v>2174</v>
       </c>
       <c r="EX1" s="2" t="n">
-        <v>152</v>
+        <v>2175</v>
       </c>
       <c r="EY1" s="2" t="n">
-        <v>153</v>
+        <v>2176</v>
       </c>
       <c r="EZ1" s="2" t="n">
-        <v>154</v>
+        <v>2177</v>
       </c>
       <c r="FA1" s="2" t="n">
-        <v>155</v>
+        <v>2178</v>
       </c>
       <c r="FB1" s="2" t="n">
-        <v>156</v>
+        <v>2179</v>
       </c>
       <c r="FC1" s="2" t="n">
-        <v>157</v>
+        <v>2180</v>
       </c>
       <c r="FD1" s="2" t="n">
-        <v>158</v>
+        <v>2181</v>
       </c>
       <c r="FE1" s="2" t="n">
-        <v>159</v>
+        <v>2182</v>
       </c>
       <c r="FF1" s="2" t="n">
-        <v>160</v>
+        <v>2183</v>
       </c>
       <c r="FG1" s="2" t="n">
-        <v>161</v>
+        <v>2184</v>
       </c>
       <c r="FH1" s="2" t="n">
-        <v>162</v>
+        <v>2185</v>
       </c>
       <c r="FI1" s="2" t="n">
-        <v>163</v>
+        <v>2186</v>
       </c>
       <c r="FJ1" s="2" t="n">
-        <v>164</v>
+        <v>2187</v>
       </c>
       <c r="FK1" s="2" t="n">
-        <v>165</v>
+        <v>2188</v>
       </c>
       <c r="FL1" s="2" t="n">
-        <v>166</v>
+        <v>2189</v>
       </c>
       <c r="FM1" s="2" t="n">
-        <v>167</v>
+        <v>2190</v>
       </c>
       <c r="FN1" s="2" t="n">
-        <v>168</v>
+        <v>2191</v>
       </c>
       <c r="FO1" s="2" t="n">
-        <v>169</v>
+        <v>2192</v>
       </c>
       <c r="FP1" s="2" t="n">
-        <v>170</v>
+        <v>2193</v>
       </c>
       <c r="FQ1" s="2" t="n">
-        <v>171</v>
+        <v>2194</v>
       </c>
       <c r="FR1" s="2" t="n">
-        <v>172</v>
+        <v>2195</v>
       </c>
       <c r="FS1" s="2" t="n">
-        <v>173</v>
+        <v>2196</v>
       </c>
       <c r="FT1" s="2" t="n">
-        <v>174</v>
+        <v>2197</v>
       </c>
       <c r="FU1" s="2" t="n">
-        <v>175</v>
+        <v>2198</v>
       </c>
       <c r="FV1" s="2" t="n">
-        <v>176</v>
+        <v>2199</v>
       </c>
       <c r="FW1" s="2" t="n">
-        <v>177</v>
+        <v>2200</v>
       </c>
       <c r="FX1" s="2" t="n">
-        <v>178</v>
+        <v>2201</v>
       </c>
       <c r="FY1" s="2" t="n">
-        <v>179</v>
+        <v>2202</v>
       </c>
       <c r="FZ1" s="2" t="n">
-        <v>180</v>
+        <v>2203</v>
       </c>
       <c r="GA1" s="2" t="n">
-        <v>181</v>
+        <v>2204</v>
       </c>
       <c r="GB1" s="2" t="n">
-        <v>182</v>
+        <v>2205</v>
       </c>
       <c r="GC1" s="2" t="n">
-        <v>183</v>
+        <v>2206</v>
       </c>
       <c r="GD1" s="2" t="n">
-        <v>184</v>
+        <v>2207</v>
       </c>
       <c r="GE1" s="2" t="n">
-        <v>185</v>
+        <v>2208</v>
       </c>
       <c r="GF1" s="2" t="n">
-        <v>186</v>
+        <v>2209</v>
       </c>
       <c r="GG1" s="2" t="n">
-        <v>187</v>
+        <v>2210</v>
       </c>
       <c r="GH1" s="2" t="n">
-        <v>188</v>
+        <v>2211</v>
       </c>
       <c r="GI1" s="2" t="n">
-        <v>189</v>
+        <v>2212</v>
       </c>
       <c r="GJ1" s="2" t="n">
-        <v>190</v>
+        <v>2213</v>
       </c>
       <c r="GK1" s="2" t="n">
-        <v>191</v>
+        <v>2214</v>
       </c>
       <c r="GL1" s="2" t="n">
-        <v>192</v>
+        <v>2215</v>
       </c>
       <c r="GM1" s="2" t="n">
-        <v>193</v>
+        <v>2216</v>
       </c>
       <c r="GN1" s="2" t="n">
-        <v>194</v>
+        <v>2217</v>
       </c>
       <c r="GO1" s="2" t="n">
-        <v>195</v>
+        <v>2218</v>
       </c>
       <c r="GP1" s="2" t="n">
-        <v>196</v>
+        <v>2219</v>
       </c>
       <c r="GQ1" s="2" t="n">
-        <v>197</v>
+        <v>2220</v>
       </c>
       <c r="GR1" s="2" t="n">
-        <v>198</v>
+        <v>2221</v>
       </c>
       <c r="GS1" s="2" t="n">
-        <v>199</v>
+        <v>2222</v>
       </c>
       <c r="GT1" s="2" t="n">
-        <v>200</v>
+        <v>2223</v>
       </c>
       <c r="GU1" s="2" t="n">
-        <v>201</v>
+        <v>2224</v>
       </c>
       <c r="GV1" s="2" t="n">
-        <v>202</v>
+        <v>2225</v>
       </c>
       <c r="GW1" s="2" t="n">
-        <v>203</v>
+        <v>2226</v>
       </c>
       <c r="GX1" s="2" t="n">
-        <v>204</v>
+        <v>2227</v>
       </c>
       <c r="GY1" s="2" t="n">
-        <v>205</v>
+        <v>2228</v>
       </c>
       <c r="GZ1" s="2" t="n">
-        <v>206</v>
+        <v>2229</v>
       </c>
       <c r="HA1" s="2" t="n">
-        <v>207</v>
+        <v>2230</v>
       </c>
       <c r="HB1" s="2" t="n">
-        <v>208</v>
+        <v>2231</v>
       </c>
       <c r="HC1" s="2" t="n">
-        <v>209</v>
+        <v>2232</v>
       </c>
       <c r="HD1" s="2" t="n">
-        <v>210</v>
+        <v>2233</v>
       </c>
       <c r="HE1" s="2" t="n">
-        <v>211</v>
+        <v>2234</v>
       </c>
       <c r="HF1" s="2" t="n">
-        <v>212</v>
+        <v>2235</v>
       </c>
       <c r="HG1" s="2" t="n">
-        <v>213</v>
+        <v>2236</v>
       </c>
       <c r="HH1" s="2" t="n">
-        <v>214</v>
+        <v>2237</v>
       </c>
       <c r="HI1" s="2" t="n">
-        <v>215</v>
+        <v>2238</v>
       </c>
       <c r="HJ1" s="2" t="n">
-        <v>216</v>
+        <v>2239</v>
       </c>
       <c r="HK1" s="2" t="n">
-        <v>217</v>
+        <v>2240</v>
       </c>
       <c r="HL1" s="2" t="n">
-        <v>218</v>
+        <v>2241</v>
       </c>
       <c r="HM1" s="2" t="n">
-        <v>219</v>
+        <v>2242</v>
       </c>
       <c r="HN1" s="2" t="n">
-        <v>220</v>
+        <v>2243</v>
       </c>
       <c r="HO1" s="2" t="n">
-        <v>221</v>
+        <v>2244</v>
       </c>
       <c r="HP1" s="2" t="n">
-        <v>222</v>
+        <v>2245</v>
       </c>
       <c r="HQ1" s="2" t="n">
-        <v>223</v>
+        <v>2246</v>
       </c>
       <c r="HR1" s="2" t="n">
-        <v>224</v>
+        <v>2247</v>
       </c>
       <c r="HS1" s="2" t="n">
-        <v>225</v>
+        <v>2248</v>
       </c>
       <c r="HT1" s="2" t="n">
-        <v>226</v>
+        <v>2249</v>
       </c>
       <c r="HU1" s="2" t="n">
-        <v>227</v>
+        <v>2250</v>
       </c>
       <c r="HV1" s="2" t="n">
-        <v>228</v>
+        <v>2251</v>
       </c>
       <c r="HW1" s="2" t="n">
-        <v>229</v>
+        <v>2252</v>
       </c>
       <c r="HX1" s="2" t="n">
-        <v>230</v>
+        <v>2253</v>
       </c>
       <c r="HY1" s="2" t="n">
-        <v>231</v>
+        <v>2254</v>
       </c>
       <c r="HZ1" s="2" t="n">
-        <v>232</v>
+        <v>2255</v>
       </c>
       <c r="IA1" s="2" t="n">
-        <v>233</v>
+        <v>2256</v>
       </c>
       <c r="IB1" s="2" t="n">
-        <v>234</v>
+        <v>2257</v>
       </c>
       <c r="IC1" s="2" t="n">
-        <v>235</v>
+        <v>2258</v>
       </c>
       <c r="ID1" s="2" t="n">
-        <v>236</v>
+        <v>2259</v>
       </c>
       <c r="IE1" s="2" t="n">
-        <v>237</v>
+        <v>2260</v>
       </c>
       <c r="IF1" s="2" t="n">
-        <v>238</v>
+        <v>2261</v>
       </c>
       <c r="IG1" s="2" t="n">
-        <v>239</v>
+        <v>2262</v>
       </c>
       <c r="IH1" s="2" t="n">
-        <v>240</v>
+        <v>2263</v>
       </c>
       <c r="II1" s="2" t="n">
-        <v>241</v>
+        <v>2264</v>
       </c>
       <c r="IJ1" s="2" t="n">
-        <v>242</v>
+        <v>2265</v>
       </c>
       <c r="IK1" s="2" t="n">
-        <v>243</v>
+        <v>2266</v>
       </c>
       <c r="IL1" s="2" t="n">
-        <v>244</v>
+        <v>2267</v>
       </c>
       <c r="IM1" s="2" t="n">
-        <v>245</v>
+        <v>2268</v>
       </c>
       <c r="IN1" s="2" t="n">
-        <v>246</v>
+        <v>2269</v>
       </c>
       <c r="IO1" s="2" t="n">
-        <v>247</v>
+        <v>2270</v>
       </c>
       <c r="IP1" s="2" t="n">
-        <v>248</v>
+        <v>2271</v>
       </c>
       <c r="IQ1" s="2" t="n">
-        <v>249</v>
+        <v>2272</v>
       </c>
       <c r="IR1" s="2" t="n">
-        <v>250</v>
+        <v>2273</v>
       </c>
       <c r="IS1" s="2" t="n">
-        <v>251</v>
+        <v>2274</v>
       </c>
       <c r="IT1" s="2" t="n">
-        <v>252</v>
+        <v>2275</v>
       </c>
       <c r="IU1" s="2" t="n">
-        <v>253</v>
+        <v>2276</v>
       </c>
       <c r="IV1" s="2" t="n">
-        <v>254</v>
+        <v>2277</v>
       </c>
       <c r="IW1" s="2" t="n">
-        <v>255</v>
+        <v>2278</v>
       </c>
       <c r="IX1" s="2" t="n">
-        <v>256</v>
+        <v>2279</v>
       </c>
       <c r="IY1" s="2" t="n">
-        <v>257</v>
+        <v>2280</v>
       </c>
       <c r="IZ1" s="2" t="n">
-        <v>258</v>
+        <v>2281</v>
       </c>
       <c r="JA1" s="2" t="n">
-        <v>259</v>
+        <v>2282</v>
       </c>
       <c r="JB1" s="2" t="n">
-        <v>260</v>
+        <v>2283</v>
       </c>
       <c r="JC1" s="2" t="n">
-        <v>261</v>
+        <v>2284</v>
       </c>
       <c r="JD1" s="2" t="n">
-        <v>262</v>
+        <v>2285</v>
       </c>
       <c r="JE1" s="2" t="n">
-        <v>263</v>
+        <v>2286</v>
       </c>
       <c r="JF1" s="2" t="n">
-        <v>264</v>
+        <v>2287</v>
       </c>
       <c r="JG1" s="2" t="n">
-        <v>265</v>
+        <v>2288</v>
       </c>
       <c r="JH1" s="2" t="n">
-        <v>266</v>
+        <v>2289</v>
       </c>
       <c r="JI1" s="2" t="n">
-        <v>267</v>
+        <v>2290</v>
       </c>
       <c r="JJ1" s="2" t="n">
-        <v>268</v>
+        <v>2291</v>
       </c>
       <c r="JK1" s="2" t="n">
-        <v>269</v>
+        <v>2292</v>
       </c>
       <c r="JL1" s="2" t="n">
-        <v>270</v>
+        <v>2293</v>
       </c>
       <c r="JM1" s="2" t="n">
-        <v>271</v>
+        <v>2294</v>
       </c>
       <c r="JN1" s="2" t="n">
-        <v>272</v>
+        <v>2295</v>
       </c>
       <c r="JO1" s="2" t="n">
-        <v>273</v>
+        <v>2296</v>
       </c>
       <c r="JP1" s="2" t="n">
-        <v>274</v>
+        <v>2297</v>
       </c>
       <c r="JQ1" s="2" t="n">
-        <v>275</v>
+        <v>2298</v>
       </c>
       <c r="JR1" s="2" t="n">
-        <v>276</v>
+        <v>2299</v>
       </c>
       <c r="JS1" s="2" t="n">
-        <v>277</v>
+        <v>2300</v>
       </c>
       <c r="JT1" s="2" t="n">
-        <v>278</v>
+        <v>2301</v>
       </c>
       <c r="JU1" s="2" t="n">
-        <v>279</v>
+        <v>2302</v>
       </c>
       <c r="JV1" s="2" t="n">
-        <v>280</v>
+        <v>2303</v>
       </c>
       <c r="JW1" s="2" t="n">
-        <v>281</v>
+        <v>2304</v>
       </c>
       <c r="JX1" s="2" t="n">
-        <v>282</v>
+        <v>2305</v>
       </c>
       <c r="JY1" s="2" t="n">
-        <v>283</v>
+        <v>2306</v>
       </c>
       <c r="JZ1" s="2" t="n">
-        <v>284</v>
+        <v>2307</v>
       </c>
       <c r="KA1" s="2" t="n">
-        <v>285</v>
+        <v>2308</v>
       </c>
       <c r="KB1" s="2" t="n">
-        <v>286</v>
+        <v>2309</v>
       </c>
       <c r="KC1" s="2" t="n">
-        <v>287</v>
+        <v>2310</v>
       </c>
       <c r="KD1" s="2" t="n">
-        <v>288</v>
+        <v>2311</v>
       </c>
       <c r="KE1" s="2" t="n">
-        <v>289</v>
+        <v>2312</v>
       </c>
       <c r="KF1" s="2" t="n">
-        <v>290</v>
+        <v>2313</v>
       </c>
       <c r="KG1" s="2" t="n">
-        <v>291</v>
+        <v>2314</v>
       </c>
       <c r="KH1" s="2" t="n">
-        <v>292</v>
+        <v>2315</v>
       </c>
       <c r="KI1" s="2" t="n">
-        <v>293</v>
+        <v>2316</v>
       </c>
       <c r="KJ1" s="2" t="n">
-        <v>294</v>
+        <v>2317</v>
       </c>
       <c r="KK1" s="2" t="n">
-        <v>295</v>
+        <v>2318</v>
       </c>
       <c r="KL1" s="2" t="n">
-        <v>296</v>
+        <v>2319</v>
       </c>
       <c r="KM1" s="2" t="n">
-        <v>297</v>
+        <v>2320</v>
       </c>
       <c r="KN1" s="2" t="n">
-        <v>298</v>
+        <v>2321</v>
       </c>
       <c r="KO1" s="2" t="n">
-        <v>299</v>
+        <v>2322</v>
       </c>
       <c r="KP1" s="2" t="n">
-        <v>300</v>
+        <v>2323</v>
       </c>
       <c r="KQ1" s="2" t="n">
-        <v>301</v>
+        <v>2324</v>
       </c>
       <c r="KR1" s="2" t="n">
-        <v>302</v>
+        <v>2325</v>
       </c>
       <c r="KS1" s="2" t="n">
-        <v>303</v>
+        <v>2326</v>
       </c>
       <c r="KT1" s="2" t="n">
-        <v>304</v>
+        <v>2327</v>
       </c>
       <c r="KU1" s="2" t="n">
-        <v>305</v>
+        <v>2328</v>
       </c>
       <c r="KV1" s="2" t="n">
-        <v>306</v>
+        <v>2329</v>
       </c>
       <c r="KW1" s="2" t="n">
-        <v>307</v>
+        <v>2330</v>
       </c>
       <c r="KX1" s="2" t="n">
-        <v>308</v>
+        <v>2331</v>
       </c>
       <c r="KY1" s="2" t="n">
-        <v>309</v>
+        <v>2332</v>
       </c>
       <c r="KZ1" s="2" t="n">
-        <v>310</v>
+        <v>2333</v>
       </c>
       <c r="LA1" s="2" t="n">
-        <v>311</v>
+        <v>2334</v>
       </c>
       <c r="LB1" s="2" t="n">
-        <v>312</v>
+        <v>2335</v>
       </c>
       <c r="LC1" s="2" t="n">
-        <v>313</v>
+        <v>2336</v>
       </c>
       <c r="LD1" s="2" t="n">
-        <v>314</v>
+        <v>2337</v>
       </c>
       <c r="LE1" s="2" t="n">
-        <v>315</v>
+        <v>2338</v>
       </c>
       <c r="LF1" s="2" t="n">
-        <v>316</v>
+        <v>2339</v>
       </c>
       <c r="LG1" s="2" t="n">
-        <v>317</v>
+        <v>2340</v>
       </c>
       <c r="LH1" s="2" t="n">
-        <v>318</v>
+        <v>2341</v>
       </c>
       <c r="LI1" s="2" t="n">
-        <v>319</v>
+        <v>2342</v>
       </c>
       <c r="LJ1" s="2" t="n">
-        <v>320</v>
+        <v>2343</v>
       </c>
       <c r="LK1" s="2" t="n">
-        <v>321</v>
+        <v>2344</v>
       </c>
       <c r="LL1" s="2" t="n">
-        <v>322</v>
+        <v>2345</v>
       </c>
       <c r="LM1" s="2" t="n">
-        <v>323</v>
+        <v>2346</v>
       </c>
       <c r="LN1" s="2" t="n">
-        <v>324</v>
+        <v>2347</v>
       </c>
       <c r="LO1" s="2" t="n">
-        <v>325</v>
+        <v>2348</v>
       </c>
       <c r="LP1" s="2" t="n">
-        <v>326</v>
+        <v>2349</v>
       </c>
       <c r="LQ1" s="2" t="n">
-        <v>327</v>
+        <v>2350</v>
       </c>
       <c r="LR1" s="2" t="n">
-        <v>328</v>
+        <v>2351</v>
       </c>
       <c r="LS1" s="2" t="n">
-        <v>329</v>
+        <v>2352</v>
       </c>
       <c r="LT1" s="2" t="n">
-        <v>330</v>
+        <v>2353</v>
       </c>
       <c r="LU1" s="2" t="n">
-        <v>331</v>
+        <v>2354</v>
       </c>
       <c r="LV1" s="2" t="n">
-        <v>332</v>
+        <v>2355</v>
       </c>
       <c r="LW1" s="2" t="n">
-        <v>333</v>
+        <v>2356</v>
       </c>
       <c r="LX1" s="2" t="n">
-        <v>334</v>
+        <v>2357</v>
       </c>
       <c r="LY1" s="2" t="n">
-        <v>335</v>
+        <v>2358</v>
       </c>
       <c r="LZ1" s="2" t="n">
-        <v>336</v>
+        <v>2359</v>
       </c>
       <c r="MA1" s="2" t="n">
-        <v>337</v>
+        <v>2360</v>
       </c>
       <c r="MB1" s="2" t="n">
-        <v>338</v>
+        <v>2361</v>
       </c>
       <c r="MC1" s="2" t="n">
-        <v>339</v>
+        <v>2362</v>
       </c>
       <c r="MD1" s="2" t="n">
-        <v>340</v>
+        <v>2363</v>
       </c>
       <c r="ME1" s="2" t="n">
-        <v>341</v>
+        <v>2364</v>
       </c>
       <c r="MF1" s="2" t="n">
-        <v>342</v>
+        <v>2365</v>
       </c>
       <c r="MG1" s="2" t="n">
-        <v>343</v>
+        <v>2366</v>
       </c>
       <c r="MH1" s="2" t="n">
-        <v>344</v>
+        <v>2367</v>
       </c>
       <c r="MI1" s="2" t="n">
-        <v>345</v>
+        <v>2368</v>
       </c>
       <c r="MJ1" s="2" t="n">
-        <v>346</v>
+        <v>2369</v>
       </c>
       <c r="MK1" s="2" t="n">
-        <v>347</v>
+        <v>2370</v>
       </c>
       <c r="ML1" s="2" t="n">
-        <v>348</v>
+        <v>2371</v>
       </c>
       <c r="MM1" s="2" t="n">
-        <v>349</v>
+        <v>2372</v>
       </c>
       <c r="MN1" s="2" t="n">
-        <v>350</v>
+        <v>2373</v>
       </c>
       <c r="MO1" s="2" t="n">
-        <v>351</v>
+        <v>2374</v>
       </c>
       <c r="MP1" s="2" t="n">
-        <v>352</v>
+        <v>2375</v>
       </c>
       <c r="MQ1" s="2" t="n">
-        <v>353</v>
+        <v>2376</v>
       </c>
       <c r="MR1" s="2" t="n">
-        <v>354</v>
+        <v>2377</v>
       </c>
       <c r="MS1" s="2" t="n">
-        <v>355</v>
+        <v>2378</v>
       </c>
       <c r="MT1" s="2" t="n">
-        <v>356</v>
+        <v>2379</v>
       </c>
       <c r="MU1" s="2" t="n">
-        <v>357</v>
+        <v>2380</v>
       </c>
       <c r="MV1" s="2" t="n">
-        <v>358</v>
+        <v>2381</v>
       </c>
       <c r="MW1" s="2" t="n">
-        <v>359</v>
+        <v>2382</v>
       </c>
       <c r="MX1" s="2" t="n">
-        <v>360</v>
+        <v>2383</v>
       </c>
       <c r="MY1" s="2" t="n">
-        <v>361</v>
+        <v>2384</v>
       </c>
       <c r="MZ1" s="2" t="n">
-        <v>362</v>
+        <v>2385</v>
       </c>
       <c r="NA1" s="2" t="n">
-        <v>363</v>
+        <v>2386</v>
       </c>
       <c r="NB1" s="2" t="n">
-        <v>364</v>
+        <v>2387</v>
       </c>
       <c r="NC1" s="2" t="n">
-        <v>365</v>
+        <v>2388</v>
       </c>
       <c r="ND1" s="2" t="n">
-        <v>366</v>
+        <v>2389</v>
       </c>
       <c r="NE1" s="2" t="n">
-        <v>367</v>
+        <v>2390</v>
       </c>
       <c r="NF1" s="2" t="n">
-        <v>368</v>
+        <v>2391</v>
       </c>
       <c r="NG1" s="2" t="n">
-        <v>369</v>
+        <v>2392</v>
       </c>
       <c r="NH1" s="2" t="n">
-        <v>370</v>
+        <v>2393</v>
       </c>
       <c r="NI1" s="2" t="n">
-        <v>371</v>
+        <v>2394</v>
       </c>
       <c r="NJ1" s="2" t="n">
-        <v>372</v>
+        <v>2395</v>
       </c>
       <c r="NK1" s="2" t="n">
-        <v>373</v>
+        <v>2396</v>
       </c>
       <c r="NL1" s="2" t="n">
-        <v>374</v>
+        <v>2397</v>
       </c>
       <c r="NM1" s="2" t="n">
-        <v>375</v>
+        <v>2398</v>
       </c>
       <c r="NN1" s="2" t="n">
-        <v>376</v>
+        <v>2399</v>
       </c>
       <c r="NO1" s="2" t="n">
-        <v>377</v>
+        <v>2400</v>
       </c>
       <c r="NP1" s="2" t="n">
-        <v>378</v>
+        <v>2401</v>
       </c>
       <c r="NQ1" s="2" t="n">
-        <v>379</v>
+        <v>2402</v>
       </c>
       <c r="NR1" s="2" t="n">
-        <v>380</v>
+        <v>2403</v>
       </c>
       <c r="NS1" s="2" t="n">
-        <v>381</v>
+        <v>2404</v>
       </c>
       <c r="NT1" s="2" t="n">
-        <v>382</v>
+        <v>2405</v>
       </c>
       <c r="NU1" s="2" t="n">
-        <v>383</v>
+        <v>2406</v>
       </c>
       <c r="NV1" s="2" t="n">
-        <v>384</v>
+        <v>2407</v>
       </c>
       <c r="NW1" s="2" t="n">
-        <v>385</v>
+        <v>2408</v>
       </c>
       <c r="NX1" s="2" t="n">
-        <v>386</v>
+        <v>2409</v>
       </c>
       <c r="NY1" s="2" t="n">
-        <v>387</v>
+        <v>2410</v>
       </c>
       <c r="NZ1" s="2" t="n">
-        <v>388</v>
+        <v>2411</v>
       </c>
       <c r="OA1" s="2" t="n">
-        <v>389</v>
+        <v>2412</v>
       </c>
       <c r="OB1" s="2" t="n">
-        <v>390</v>
+        <v>2413</v>
       </c>
       <c r="OC1" s="2" t="n">
-        <v>391</v>
+        <v>2414</v>
       </c>
       <c r="OD1" s="2" t="n">
-        <v>392</v>
+        <v>2415</v>
       </c>
       <c r="OE1" s="2" t="n">
-        <v>393</v>
+        <v>2416</v>
       </c>
       <c r="OF1" s="2" t="n">
-        <v>394</v>
+        <v>2417</v>
       </c>
       <c r="OG1" s="2" t="n">
-        <v>395</v>
+        <v>2418</v>
       </c>
       <c r="OH1" s="2" t="n">
-        <v>396</v>
+        <v>2419</v>
       </c>
       <c r="OI1" s="2" t="n">
-        <v>397</v>
+        <v>2420</v>
       </c>
       <c r="OJ1" s="2" t="n">
-        <v>398</v>
+        <v>2421</v>
       </c>
       <c r="OK1" s="2" t="n">
-        <v>399</v>
+        <v>2422</v>
       </c>
       <c r="OL1" s="2" t="n">
-        <v>400</v>
+        <v>2423</v>
       </c>
       <c r="OM1" s="2" t="n">
-        <v>401</v>
+        <v>2424</v>
       </c>
       <c r="ON1" s="2" t="n">
-        <v>402</v>
+        <v>2425</v>
       </c>
       <c r="OO1" s="2" t="n">
-        <v>403</v>
+        <v>2426</v>
       </c>
       <c r="OP1" s="2" t="n">
-        <v>404</v>
+        <v>2427</v>
       </c>
       <c r="OQ1" s="2" t="n">
-        <v>405</v>
+        <v>2428</v>
       </c>
       <c r="OR1" s="2" t="n">
-        <v>406</v>
+        <v>2429</v>
       </c>
       <c r="OS1" s="2" t="n">
-        <v>407</v>
+        <v>2430</v>
       </c>
       <c r="OT1" s="2" t="n">
-        <v>408</v>
+        <v>2431</v>
       </c>
       <c r="OU1" s="2" t="n">
-        <v>409</v>
+        <v>2432</v>
       </c>
       <c r="OV1" s="2" t="n">
-        <v>410</v>
+        <v>2433</v>
       </c>
       <c r="OW1" s="2" t="n">
-        <v>411</v>
+        <v>2434</v>
       </c>
       <c r="OX1" s="2" t="n">
-        <v>412</v>
+        <v>2435</v>
       </c>
       <c r="OY1" s="2" t="n">
-        <v>413</v>
+        <v>2436</v>
       </c>
       <c r="OZ1" s="2" t="n">
-        <v>414</v>
+        <v>2437</v>
       </c>
       <c r="PA1" s="2" t="n">
-        <v>415</v>
+        <v>2438</v>
       </c>
       <c r="PB1" s="2" t="n">
-        <v>416</v>
+        <v>2439</v>
       </c>
       <c r="PC1" s="2" t="n">
-        <v>417</v>
+        <v>2440</v>
       </c>
       <c r="PD1" s="2" t="n">
-        <v>418</v>
+        <v>2441</v>
       </c>
       <c r="PE1" s="2" t="n">
-        <v>419</v>
+        <v>2442</v>
       </c>
       <c r="PF1" s="2" t="n">
-        <v>420</v>
+        <v>2443</v>
       </c>
       <c r="PG1" s="2" t="n">
-        <v>421</v>
+        <v>2444</v>
       </c>
       <c r="PH1" s="2" t="n">
-        <v>422</v>
+        <v>2445</v>
       </c>
       <c r="PI1" s="2" t="n">
-        <v>423</v>
+        <v>2446</v>
       </c>
       <c r="PJ1" s="2" t="n">
-        <v>424</v>
+        <v>2447</v>
       </c>
       <c r="PK1" s="2" t="n">
-        <v>425</v>
+        <v>2448</v>
       </c>
       <c r="PL1" s="2" t="n">
-        <v>426</v>
+        <v>2449</v>
       </c>
       <c r="PM1" s="2" t="n">
-        <v>427</v>
+        <v>2450</v>
       </c>
       <c r="PN1" s="2" t="n">
-        <v>428</v>
+        <v>2451</v>
       </c>
       <c r="PO1" s="2" t="n">
-        <v>429</v>
+        <v>2452</v>
       </c>
       <c r="PP1" s="2" t="n">
-        <v>430</v>
+        <v>2453</v>
       </c>
       <c r="PQ1" s="2" t="n">
-        <v>431</v>
+        <v>2454</v>
       </c>
       <c r="PR1" s="2" t="n">
-        <v>432</v>
+        <v>2455</v>
       </c>
       <c r="PS1" s="2" t="n">
-        <v>433</v>
+        <v>2456</v>
       </c>
       <c r="PT1" s="2" t="n">
-        <v>434</v>
+        <v>2457</v>
       </c>
       <c r="PU1" s="2" t="n">
-        <v>435</v>
+        <v>2458</v>
       </c>
       <c r="PV1" s="2" t="n">
-        <v>436</v>
+        <v>2459</v>
       </c>
       <c r="PW1" s="2" t="n">
-        <v>437</v>
+        <v>2460</v>
       </c>
       <c r="PX1" s="2" t="n">
-        <v>438</v>
+        <v>2461</v>
       </c>
       <c r="PY1" s="2" t="n">
-        <v>439</v>
+        <v>2462</v>
       </c>
       <c r="PZ1" s="2" t="n">
-        <v>440</v>
+        <v>2463</v>
       </c>
       <c r="QA1" s="2" t="n">
-        <v>441</v>
+        <v>2464</v>
       </c>
       <c r="QB1" s="2" t="n">
-        <v>442</v>
+        <v>2465</v>
       </c>
       <c r="QC1" s="2" t="n">
-        <v>443</v>
+        <v>2466</v>
       </c>
       <c r="QD1" s="2" t="n">
-        <v>444</v>
+        <v>2467</v>
       </c>
       <c r="QE1" s="2" t="n">
-        <v>445</v>
+        <v>2468</v>
       </c>
       <c r="QF1" s="2" t="n">
-        <v>446</v>
+        <v>2469</v>
       </c>
       <c r="QG1" s="2" t="n">
-        <v>447</v>
+        <v>2470</v>
       </c>
       <c r="QH1" s="2" t="n">
-        <v>448</v>
+        <v>2471</v>
       </c>
       <c r="QI1" s="2" t="n">
-        <v>449</v>
+        <v>2472</v>
       </c>
       <c r="QJ1" s="2" t="n">
-        <v>450</v>
+        <v>2473</v>
       </c>
       <c r="QK1" s="2" t="n">
-        <v>451</v>
+        <v>2474</v>
       </c>
       <c r="QL1" s="2" t="n">
-        <v>452</v>
+        <v>2475</v>
       </c>
       <c r="QM1" s="2" t="n">
-        <v>453</v>
+        <v>2476</v>
       </c>
       <c r="QN1" s="2" t="n">
-        <v>454</v>
+        <v>2477</v>
       </c>
       <c r="QO1" s="2" t="n">
-        <v>455</v>
+        <v>2478</v>
       </c>
       <c r="QP1" s="2" t="n">
-        <v>456</v>
+        <v>2479</v>
       </c>
       <c r="QQ1" s="2" t="n">
-        <v>457</v>
+        <v>2480</v>
       </c>
       <c r="QR1" s="2" t="n">
-        <v>458</v>
+        <v>2481</v>
       </c>
       <c r="QS1" s="2" t="n">
-        <v>459</v>
+        <v>2482</v>
       </c>
       <c r="QT1" s="2" t="n">
-        <v>460</v>
+        <v>2483</v>
       </c>
       <c r="QU1" s="2" t="n">
-        <v>461</v>
+        <v>2484</v>
       </c>
       <c r="QV1" s="2" t="n">
-        <v>462</v>
+        <v>2485</v>
       </c>
       <c r="QW1" s="2" t="n">
-        <v>463</v>
+        <v>2486</v>
       </c>
       <c r="QX1" s="2" t="n">
-        <v>464</v>
+        <v>2487</v>
       </c>
       <c r="QY1" s="2" t="n">
-        <v>465</v>
+        <v>2488</v>
       </c>
       <c r="QZ1" s="2" t="n">
-        <v>466</v>
+        <v>2489</v>
       </c>
       <c r="RA1" s="2" t="n">
-        <v>467</v>
+        <v>2490</v>
       </c>
       <c r="RB1" s="2" t="n">
-        <v>468</v>
+        <v>2491</v>
       </c>
       <c r="RC1" s="2" t="n">
-        <v>469</v>
+        <v>2492</v>
       </c>
       <c r="RD1" s="2" t="n">
-        <v>470</v>
+        <v>2493</v>
       </c>
       <c r="RE1" s="2" t="n">
-        <v>471</v>
+        <v>2494</v>
       </c>
       <c r="RF1" s="2" t="n">
-        <v>472</v>
+        <v>2495</v>
       </c>
       <c r="RG1" s="2" t="n">
-        <v>473</v>
+        <v>2496</v>
       </c>
       <c r="RH1" s="2" t="n">
-        <v>474</v>
+        <v>2497</v>
       </c>
       <c r="RI1" s="2" t="n">
-        <v>475</v>
+        <v>2498</v>
       </c>
       <c r="RJ1" s="2" t="n">
-        <v>476</v>
+        <v>2499</v>
       </c>
       <c r="RK1" s="2" t="n">
-        <v>477</v>
+        <v>2500</v>
       </c>
       <c r="RL1" s="2" t="n">
-        <v>478</v>
+        <v>2501</v>
       </c>
       <c r="RM1" s="2" t="n">
-        <v>479</v>
+        <v>2502</v>
       </c>
       <c r="RN1" s="2" t="n">
-        <v>480</v>
+        <v>2503</v>
       </c>
       <c r="RO1" s="2" t="n">
-        <v>481</v>
+        <v>2504</v>
       </c>
       <c r="RP1" s="2" t="n">
-        <v>482</v>
+        <v>2505</v>
       </c>
       <c r="RQ1" s="2" t="n">
-        <v>483</v>
+        <v>2506</v>
       </c>
       <c r="RR1" s="2" t="n">
-        <v>484</v>
+        <v>2507</v>
       </c>
       <c r="RS1" s="2" t="n">
-        <v>485</v>
+        <v>2508</v>
       </c>
       <c r="RT1" s="2" t="n">
-        <v>486</v>
+        <v>2509</v>
       </c>
       <c r="RU1" s="2" t="n">
-        <v>487</v>
+        <v>2510</v>
       </c>
       <c r="RV1" s="2" t="n">
-        <v>488</v>
+        <v>2511</v>
       </c>
       <c r="RW1" s="2" t="n">
-        <v>489</v>
+        <v>2512</v>
       </c>
       <c r="RX1" s="2" t="n">
-        <v>490</v>
+        <v>2513</v>
       </c>
       <c r="RY1" s="2" t="n">
-        <v>491</v>
+        <v>2514</v>
       </c>
       <c r="RZ1" s="2" t="n">
-        <v>492</v>
+        <v>2515</v>
       </c>
       <c r="SA1" s="2" t="n">
-        <v>493</v>
+        <v>2516</v>
       </c>
       <c r="SB1" s="2" t="n">
-        <v>494</v>
+        <v>2517</v>
       </c>
       <c r="SC1" s="2" t="n">
-        <v>495</v>
+        <v>2518</v>
       </c>
       <c r="SD1" s="2" t="n">
-        <v>496</v>
+        <v>2519</v>
+      </c>
+      <c r="SE1" s="2" t="n">
+        <v>2520</v>
+      </c>
+      <c r="SF1" s="2" t="n">
+        <v>2521</v>
       </c>
     </row>
     <row r="2">
@@ -13947,352 +14001,352 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04531852334125894</v>
+        <v>0.34</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001355243050167775</v>
+        <v>0.3676571349839057</v>
       </c>
       <c r="D2" t="n">
-        <v>6.223725969326797e-07</v>
+        <v>0.4006098519506244</v>
       </c>
       <c r="E2" t="n">
-        <v>2.321011997402074e-08</v>
+        <v>0.2423473608918792</v>
       </c>
       <c r="F2" t="n">
-        <v>3.145273745079478e-10</v>
+        <v>0.02268495308171238</v>
       </c>
       <c r="G2" t="n">
-        <v>1.989290835496226e-13</v>
+        <v>0.01268835610165971</v>
       </c>
       <c r="H2" t="n">
-        <v>1.654053048302212e-15</v>
+        <v>0.03099267116505003</v>
       </c>
       <c r="I2" t="n">
-        <v>4.090181400109959e-17</v>
+        <v>0.009948915538846595</v>
       </c>
       <c r="J2" t="n">
-        <v>2.186056696806741e-20</v>
+        <v>0.0001427445120400899</v>
       </c>
       <c r="K2" t="n">
-        <v>3.809070425971881e-23</v>
+        <v>8.350859409576117e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>1.685235528328344e-26</v>
+        <v>1.793813948076547e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>2.588079282050938e-29</v>
+        <v>1.17454591044856e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.966953838194782e-32</v>
+        <v>1.297830605076371e-10</v>
       </c>
       <c r="O2" t="n">
-        <v>6.968297847194648e-35</v>
+        <v>2.898115082402115e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>5.976426702504973e-38</v>
+        <v>7.952612939999262e-15</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.97570168348683e-40</v>
+        <v>1.68501052430758e-17</v>
       </c>
       <c r="R2" t="n">
-        <v>8.788563029045334e-44</v>
+        <v>4.739925619732459e-19</v>
       </c>
       <c r="S2" t="n">
-        <v>1.975480168102404e-46</v>
+        <v>6.828860165763027e-20</v>
       </c>
       <c r="T2" t="n">
-        <v>6.222851964821601e-49</v>
+        <v>5.53491882716184e-24</v>
       </c>
       <c r="U2" t="n">
-        <v>7.874265033931335e-52</v>
+        <v>1.724064382523975e-25</v>
       </c>
       <c r="V2" t="n">
-        <v>4.473879698548752e-55</v>
+        <v>6.10514466965823e-29</v>
       </c>
       <c r="W2" t="n">
-        <v>6.889903284680948e-58</v>
+        <v>6.915364553185056e-31</v>
       </c>
       <c r="X2" t="n">
-        <v>2.955597897188885e-60</v>
+        <v>5.218535497882964e-31</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.548440351700006e-64</v>
+        <v>1.007992384536384e-35</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.000996317946308e-66</v>
+        <v>1.948264647643314e-38</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.635724695053284e-69</v>
+        <v>2.536305262914061e-41</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.088066327587089e-72</v>
+        <v>8.237644436436907e-44</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.116705338896473e-75</v>
+        <v>2.026601603424991e-46</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.110803065024051e-78</v>
+        <v>2.112923196315193e-49</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.277712933236889e-81</v>
+        <v>4.016849996807437e-52</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.694995697379883e-84</v>
+        <v>1.196757741862006e-54</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.45743316543824e-87</v>
+        <v>3.262048556706351e-57</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.133065990137777e-90</v>
+        <v>2.727778647377673e-59</v>
       </c>
       <c r="AI2" t="n">
-        <v>6.020434481890269e-94</v>
+        <v>2.459594798044638e-61</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3.895761884718578e-97</v>
+        <v>3.28646640851716e-64</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.730810256199702e-100</v>
+        <v>1.268192410089393e-66</v>
       </c>
       <c r="AL2" t="n">
-        <v>8.73734147196478e-104</v>
+        <v>2.62208814437253e-68</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.812973533592197e-107</v>
+        <v>7.915067813405226e-70</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.883227370233254e-110</v>
+        <v>2.107747891773615e-73</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.759328305088235e-114</v>
+        <v>1.529583940486025e-76</v>
       </c>
       <c r="AP2" t="n">
-        <v>4.281056726234391e-117</v>
+        <v>2.348285114831478e-79</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3.047453817508305e-120</v>
+        <v>6.067186801614679e-82</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.539000271180826e-123</v>
+        <v>1.247108575219159e-84</v>
       </c>
       <c r="AS2" t="n">
-        <v>5.767145189652806e-127</v>
+        <v>1.039834771654614e-87</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.919897510876317e-130</v>
+        <v>1.398003788550672e-90</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.894582760433698e-133</v>
+        <v>7.759914847322812e-93</v>
       </c>
       <c r="AV2" t="n">
-        <v>6.516127056571481e-137</v>
+        <v>5.209797048475954e-95</v>
       </c>
       <c r="AW2" t="n">
-        <v>2.65853041156428e-140</v>
+        <v>1.547695938174801e-97</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.508471136804496e-143</v>
+        <v>1.504278310471618e-100</v>
       </c>
       <c r="AY2" t="n">
-        <v>5.514858195285377e-147</v>
+        <v>4.341745189813476e-103</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2.767410650321983e-150</v>
+        <v>4.612284612856334e-106</v>
       </c>
       <c r="BA2" t="n">
-        <v>3.608959586014519e-153</v>
+        <v>6.040364678984049e-109</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.650203609623885e-156</v>
+        <v>1.101883142179365e-111</v>
       </c>
       <c r="BC2" t="n">
-        <v>6.26833650474791e-160</v>
+        <v>3.912839250382702e-114</v>
       </c>
       <c r="BD2" t="n">
-        <v>2.152307786031945e-163</v>
+        <v>7.555141229015933e-117</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.160560486545585e-165</v>
+        <v>4.48363813382798e-120</v>
       </c>
       <c r="BF2" t="n">
-        <v>7.589918666623952e-169</v>
+        <v>1.987980286339206e-122</v>
       </c>
       <c r="BG2" t="n">
-        <v>2.851128424908923e-172</v>
+        <v>8.302644353621824e-126</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.430023304096361e-175</v>
+        <v>9.849897356687213e-129</v>
       </c>
       <c r="BI2" t="n">
-        <v>5.908508031076548e-179</v>
+        <v>6.443259843621389e-132</v>
       </c>
       <c r="BJ2" t="n">
-        <v>3.132359629364568e-182</v>
+        <v>4.840809859530923e-135</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.288414375068267e-185</v>
+        <v>4.445662207489315e-138</v>
       </c>
       <c r="BL2" t="n">
-        <v>4.126087486660988e-189</v>
+        <v>1.968334626414918e-141</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.303928181073869e-192</v>
+        <v>1.782988283666289e-144</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.189216673847577e-195</v>
+        <v>1.517177203066844e-147</v>
       </c>
       <c r="BO2" t="n">
-        <v>2.4721553764592e-198</v>
+        <v>2.415114079337641e-150</v>
       </c>
       <c r="BP2" t="n">
-        <v>7.365201549567708e-202</v>
+        <v>2.985237358945942e-153</v>
       </c>
       <c r="BQ2" t="n">
-        <v>2.366391105572763e-205</v>
+        <v>1.64759079023519e-156</v>
       </c>
       <c r="BR2" t="n">
-        <v>7.681618207706645e-209</v>
+        <v>1.057060650820365e-159</v>
       </c>
       <c r="BS2" t="n">
-        <v>2.190337773638457e-212</v>
+        <v>8.177208810045492e-162</v>
       </c>
       <c r="BT2" t="n">
-        <v>6.232476975959902e-216</v>
+        <v>1.563622085342296e-164</v>
       </c>
       <c r="BU2" t="n">
-        <v>6.612728231261924e-219</v>
+        <v>9.895031976334979e-168</v>
       </c>
       <c r="BV2" t="n">
-        <v>3.049579564152383e-222</v>
+        <v>1.064897740169398e-170</v>
       </c>
       <c r="BW2" t="n">
-        <v>7.456775108844106e-225</v>
+        <v>1.068554129763722e-173</v>
       </c>
       <c r="BX2" t="n">
-        <v>2.535204054624647e-228</v>
+        <v>2.397476935727727e-176</v>
       </c>
       <c r="BY2" t="n">
-        <v>8.428807683995986e-232</v>
+        <v>1.140530286446095e-179</v>
       </c>
       <c r="BZ2" t="n">
-        <v>2.249774497057952e-234</v>
+        <v>1.358536379958916e-182</v>
       </c>
       <c r="CA2" t="n">
-        <v>5.417752779863062e-238</v>
+        <v>9.425366739227779e-186</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.427271848411303e-241</v>
+        <v>6.934391126967191e-189</v>
       </c>
       <c r="CC2" t="n">
-        <v>3.461164434547462e-245</v>
+        <v>4.352566155857013e-192</v>
       </c>
       <c r="CD2" t="n">
-        <v>9.577707636433462e-249</v>
+        <v>4.501671335829414e-195</v>
       </c>
       <c r="CE2" t="n">
-        <v>2.691099872242083e-252</v>
+        <v>7.754654973424365e-198</v>
       </c>
       <c r="CF2" t="n">
-        <v>3.375169961134324e-254</v>
+        <v>3.526402444046896e-200</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.685931847810704e-257</v>
+        <v>1.237659036374753e-203</v>
       </c>
       <c r="CH2" t="n">
-        <v>5.277522320365865e-261</v>
+        <v>7.067872064274835e-206</v>
       </c>
       <c r="CI2" t="n">
-        <v>2.349189003374216e-264</v>
+        <v>7.135507513572114e-209</v>
       </c>
       <c r="CJ2" t="n">
-        <v>5.44925894433704e-268</v>
+        <v>4.383979160069207e-212</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.812177589526664e-271</v>
+        <v>2.279220168062485e-215</v>
       </c>
       <c r="CL2" t="n">
-        <v>4.128209129755142e-275</v>
+        <v>1.244034213323286e-218</v>
       </c>
       <c r="CM2" t="n">
-        <v>9.056889774577527e-279</v>
+        <v>1.2368448475627e-221</v>
       </c>
       <c r="CN2" t="n">
-        <v>4.985514103635272e-281</v>
+        <v>2.197601222411756e-224</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.860861478907693e-284</v>
+        <v>1.27597666434243e-227</v>
       </c>
       <c r="CP2" t="n">
-        <v>3.994587893542257e-288</v>
+        <v>1.714124831361727e-230</v>
       </c>
       <c r="CQ2" t="n">
-        <v>3.869072162636324e-291</v>
+        <v>4.770512014101915e-233</v>
       </c>
       <c r="CR2" t="n">
-        <v>8.24216809077169e-295</v>
+        <v>9.165226396796583e-236</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.872459469947679e-298</v>
+        <v>4.019966079031388e-239</v>
       </c>
       <c r="CT2" t="n">
-        <v>5.605476824110622e-302</v>
+        <v>2.311015185638442e-242</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.912685235749498e-305</v>
+        <v>2.049122955059732e-245</v>
       </c>
       <c r="CV2" t="n">
-        <v>5.388665503767964e-309</v>
+        <v>9.041173188338012e-249</v>
       </c>
       <c r="CW2" t="n">
-        <v>0</v>
+        <v>3.970902485286937e-252</v>
       </c>
       <c r="CX2" t="n">
-        <v>0</v>
+        <v>2.397363876397826e-255</v>
       </c>
       <c r="CY2" t="n">
-        <v>0</v>
+        <v>1.585232506407631e-258</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0</v>
+        <v>1.745335732389643e-261</v>
       </c>
       <c r="DA2" t="n">
-        <v>0</v>
+        <v>1.340262943456179e-264</v>
       </c>
       <c r="DB2" t="n">
-        <v>0</v>
+        <v>1.177804910383589e-267</v>
       </c>
       <c r="DC2" t="n">
-        <v>0</v>
+        <v>5.460831399992054e-271</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>1.514182062815329e-273</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>1.073637170977804e-276</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>4.82390238027996e-280</v>
       </c>
       <c r="DG2" t="n">
-        <v>0</v>
+        <v>3.466355703170838e-283</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>1.264809174994922e-286</v>
       </c>
       <c r="DI2" t="n">
-        <v>0</v>
+        <v>1.581240424070338e-289</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0</v>
+        <v>1.352506447793223e-292</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>1.020117908225242e-295</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>3.353913096963402e-299</v>
       </c>
       <c r="DM2" t="n">
-        <v>0</v>
+        <v>1.9079021611638e-302</v>
       </c>
       <c r="DN2" t="n">
         <v>0</v>
@@ -15435,6 +15489,12 @@
         <v>0</v>
       </c>
       <c r="SD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="SE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="SF2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15445,391 +15505,391 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2880123128786422</v>
+        <v>0.33</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08640758436196419</v>
+        <v>0.3347730999449947</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0007513098635774631</v>
+        <v>0.3487807978433128</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0001652887933417891</v>
+        <v>0.4023101361888788</v>
       </c>
       <c r="F3" t="n">
-        <v>3.725220265838859e-05</v>
+        <v>0.220295815350855</v>
       </c>
       <c r="G3" t="n">
-        <v>2.800194861915776e-07</v>
+        <v>0.1971271018241854</v>
       </c>
       <c r="H3" t="n">
-        <v>2.148511183467105e-08</v>
+        <v>0.5480534220147836</v>
       </c>
       <c r="I3" t="n">
-        <v>8.793344001486176e-09</v>
+        <v>0.7285741153879662</v>
       </c>
       <c r="J3" t="n">
-        <v>3.70497847663138e-11</v>
+        <v>0.3307490819469984</v>
       </c>
       <c r="K3" t="n">
-        <v>4.55425228943252e-13</v>
+        <v>0.6689353817365178</v>
       </c>
       <c r="L3" t="n">
-        <v>4.689315333507888e-16</v>
+        <v>0.0381232465029433</v>
       </c>
       <c r="M3" t="n">
-        <v>2.786542928803788e-18</v>
+        <v>0.001237477563099213</v>
       </c>
       <c r="N3" t="n">
-        <v>1.638933875333533e-20</v>
+        <v>0.0004549266056320915</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33385143115293e-22</v>
+        <v>9.213498969754e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>3.698126528643583e-25</v>
+        <v>2.070795852525252e-06</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.932207997323664e-27</v>
+        <v>8.901166491706687e-09</v>
       </c>
       <c r="R3" t="n">
-        <v>5.349163338002408e-30</v>
+        <v>1.17814802297722e-09</v>
       </c>
       <c r="S3" t="n">
-        <v>1.522169562931405e-32</v>
+        <v>2.104689444942856e-09</v>
       </c>
       <c r="T3" t="n">
-        <v>2.425801409365475e-34</v>
+        <v>6.510958229812842e-13</v>
       </c>
       <c r="U3" t="n">
-        <v>1.119135727875857e-36</v>
+        <v>1.017394509658375e-13</v>
       </c>
       <c r="V3" t="n">
-        <v>6.675664401148835e-40</v>
+        <v>4.876522144306531e-17</v>
       </c>
       <c r="W3" t="n">
-        <v>3.827467070302628e-42</v>
+        <v>3.056179354321348e-18</v>
       </c>
       <c r="X3" t="n">
-        <v>7.841146778383343e-44</v>
+        <v>2.449944824191969e-17</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.607305076512329e-47</v>
+        <v>1.012529258573575e-22</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.715825926477711e-50</v>
+        <v>4.485143062788259e-25</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.530671589063199e-52</v>
+        <v>1.5998052991869e-27</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.094861082176226e-55</v>
+        <v>1.06038153882154e-29</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.173919301388736e-58</v>
+        <v>1.009284942321279e-31</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.155217084743556e-60</v>
+        <v>6.507602429905332e-35</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.241220077687361e-63</v>
+        <v>2.326704366374474e-37</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.905935432717345e-65</v>
+        <v>2.30061713597767e-39</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.44533059518885e-69</v>
+        <v>2.770998215891516e-42</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.633163400040654e-71</v>
+        <v>1.110036773130879e-43</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.961873573326411e-74</v>
+        <v>5.648477170160874e-45</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3.12517985604578e-77</v>
+        <v>1.108119528625119e-49</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.696366991805869e-80</v>
+        <v>1.655425796207647e-51</v>
       </c>
       <c r="AL3" t="n">
-        <v>3.058515899887899e-83</v>
+        <v>2.048672099248567e-52</v>
       </c>
       <c r="AM3" t="n">
-        <v>2.633335191396478e-86</v>
+        <v>3.924654318026694e-53</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.917696072333609e-89</v>
+        <v>3.084431386307886e-57</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.472921333215069e-92</v>
+        <v>3.450874144757713e-60</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.450739454326771e-95</v>
+        <v>1.227762365216286e-62</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.716644867231044e-98</v>
+        <v>1.270896691364435e-64</v>
       </c>
       <c r="AR3" t="n">
-        <v>5.44836798628599e-101</v>
+        <v>7.507359493956838e-67</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.427930051263847e-104</v>
+        <v>5.126244351732382e-70</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.330438945228347e-107</v>
+        <v>1.562462995013018e-72</v>
       </c>
       <c r="AU3" t="n">
-        <v>5.820706379217896e-110</v>
+        <v>1.412018724221601e-74</v>
       </c>
       <c r="AV3" t="n">
-        <v>3.193821625954999e-113</v>
+        <v>4.703243554101796e-76</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.783817354493265e-116</v>
+        <v>4.203330387067694e-78</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.642998413511032e-119</v>
+        <v>2.931244049561936e-81</v>
       </c>
       <c r="AY3" t="n">
-        <v>2.020711168245559e-122</v>
+        <v>3.45116123427265e-83</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1.897205475644527e-125</v>
+        <v>9.396214345634918e-86</v>
       </c>
       <c r="BA3" t="n">
-        <v>7.20856562145094e-128</v>
+        <v>3.693505056132215e-88</v>
       </c>
       <c r="BB3" t="n">
-        <v>6.010767835029918e-131</v>
+        <v>1.25671688343816e-90</v>
       </c>
       <c r="BC3" t="n">
-        <v>4.273454422931272e-134</v>
+        <v>1.856345267080499e-92</v>
       </c>
       <c r="BD3" t="n">
-        <v>2.777930448010886e-137</v>
+        <v>8.180388543635468e-95</v>
       </c>
       <c r="BE3" t="n">
-        <v>4.841398957281788e-139</v>
+        <v>7.161277453306006e-98</v>
       </c>
       <c r="BF3" t="n">
-        <v>5.259974468553134e-142</v>
+        <v>1.226404165943722e-99</v>
       </c>
       <c r="BG3" t="n">
-        <v>3.359312028768528e-145</v>
+        <v>4.171540832075322e-103</v>
       </c>
       <c r="BH3" t="n">
-        <v>2.268758428652116e-148</v>
+        <v>1.187335029613284e-105</v>
       </c>
       <c r="BI3" t="n">
-        <v>2.124489097169112e-151</v>
+        <v>1.258872798816957e-108</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1.942516843838318e-154</v>
+        <v>1.884014780341103e-111</v>
       </c>
       <c r="BK3" t="n">
-        <v>1.90918655199248e-157</v>
+        <v>3.972892370953544e-114</v>
       </c>
       <c r="BL3" t="n">
-        <v>1.182805599006173e-160</v>
+        <v>1.172670380737244e-117</v>
       </c>
       <c r="BM3" t="n">
-        <v>7.537893475957828e-164</v>
+        <v>1.922156065710426e-120</v>
       </c>
       <c r="BN3" t="n">
-        <v>1.244330812390581e-165</v>
+        <v>3.554223779618809e-123</v>
       </c>
       <c r="BO3" t="n">
-        <v>6.201825705061758e-169</v>
+        <v>2.75922997183012e-126</v>
       </c>
       <c r="BP3" t="n">
-        <v>3.48329248216053e-172</v>
+        <v>1.047894414473256e-128</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.728983009452851e-175</v>
+        <v>9.13538214259533e-132</v>
       </c>
       <c r="BR3" t="n">
-        <v>1.231295026276609e-178</v>
+        <v>9.625659031523266e-135</v>
       </c>
       <c r="BS3" t="n">
-        <v>6.946223798953441e-182</v>
+        <v>4.787192870315953e-137</v>
       </c>
       <c r="BT3" t="n">
-        <v>3.891883964149752e-185</v>
+        <v>2.458707307973499e-139</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.006115410710282e-187</v>
+        <v>3.000009492495257e-142</v>
       </c>
       <c r="BV3" t="n">
-        <v>8.705467632001048e-191</v>
+        <v>8.987245328080363e-145</v>
       </c>
       <c r="BW3" t="n">
-        <v>5.083507724147044e-193</v>
+        <v>1.552868181427783e-147</v>
       </c>
       <c r="BX3" t="n">
-        <v>2.624071319347205e-196</v>
+        <v>7.257184498759724e-150</v>
       </c>
       <c r="BY3" t="n">
-        <v>1.704259969217115e-199</v>
+        <v>3.010316266799833e-153</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1.127461625322862e-201</v>
+        <v>5.597187180572344e-156</v>
       </c>
       <c r="CA3" t="n">
-        <v>3.417343207728238e-205</v>
+        <v>9.07210537110057e-159</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.782482433126595e-208</v>
+        <v>1.531536272587352e-161</v>
       </c>
       <c r="CC3" t="n">
-        <v>7.728490225096308e-212</v>
+        <v>1.402557645979277e-164</v>
       </c>
       <c r="CD3" t="n">
-        <v>4.12410404980792e-215</v>
+        <v>4.003581108480205e-167</v>
       </c>
       <c r="CE3" t="n">
-        <v>2.33821054843361e-218</v>
+        <v>8.729202242148831e-170</v>
       </c>
       <c r="CF3" t="n">
-        <v>3.962904921371987e-220</v>
+        <v>1.702048659183331e-171</v>
       </c>
       <c r="CG3" t="n">
-        <v>4.717039628525777e-223</v>
+        <v>4.303417683263536e-175</v>
       </c>
       <c r="CH3" t="n">
-        <v>3.029586368296743e-226</v>
+        <v>3.117498095149417e-177</v>
       </c>
       <c r="CI3" t="n">
-        <v>3.048807638303756e-229</v>
+        <v>7.247882484143966e-180</v>
       </c>
       <c r="CJ3" t="n">
-        <v>1.147439510748055e-232</v>
+        <v>9.814151092246302e-183</v>
       </c>
       <c r="CK3" t="n">
-        <v>8.496524552555894e-236</v>
+        <v>9.576224936051629e-186</v>
       </c>
       <c r="CL3" t="n">
-        <v>3.450586604445736e-239</v>
+        <v>3.571075201568951e-189</v>
       </c>
       <c r="CM3" t="n">
-        <v>1.323358517665073e-242</v>
+        <v>9.245673010361075e-192</v>
       </c>
       <c r="CN3" t="n">
-        <v>1.066805298544873e-244</v>
+        <v>1.930174644172185e-194</v>
       </c>
       <c r="CO3" t="n">
-        <v>1.013420760008191e-247</v>
+        <v>1.760776745214765e-197</v>
       </c>
       <c r="CP3" t="n">
-        <v>3.589016238386244e-251</v>
+        <v>3.811040223491353e-200</v>
       </c>
       <c r="CQ3" t="n">
-        <v>8.185479578914165e-254</v>
+        <v>3.806442558771288e-202</v>
       </c>
       <c r="CR3" t="n">
-        <v>2.787220617633429e-257</v>
+        <v>1.942630942500464e-204</v>
       </c>
       <c r="CS3" t="n">
-        <v>1.295824137086182e-260</v>
+        <v>1.202185066994546e-207</v>
       </c>
       <c r="CT3" t="n">
-        <v>6.407039925261774e-264</v>
+        <v>1.6261018860204e-210</v>
       </c>
       <c r="CU3" t="n">
-        <v>5.204112735704181e-267</v>
+        <v>4.281263523401624e-213</v>
       </c>
       <c r="CV3" t="n">
-        <v>2.176834681036659e-270</v>
+        <v>3.533145932586071e-216</v>
       </c>
       <c r="CW3" t="n">
-        <v>1.346666326916021e-273</v>
+        <v>2.918866158830655e-219</v>
       </c>
       <c r="CX3" t="n">
-        <v>1.564904358869378e-275</v>
+        <v>7.230482462799681e-223</v>
       </c>
       <c r="CY3" t="n">
-        <v>1.614283109313448e-278</v>
+        <v>4.36999608226864e-226</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.021918315572864e-281</v>
+        <v>1.457087915818367e-228</v>
       </c>
       <c r="DA3" t="n">
-        <v>3.568658040697832e-285</v>
+        <v>1.612419727765966e-231</v>
       </c>
       <c r="DB3" t="n">
-        <v>2.067740473964277e-288</v>
+        <v>4.259472553416369e-234</v>
       </c>
       <c r="DC3" t="n">
-        <v>8.291897189077603e-292</v>
+        <v>3.937122798202396e-237</v>
       </c>
       <c r="DD3" t="n">
-        <v>5.329752585495632e-295</v>
+        <v>7.39415102430017e-240</v>
       </c>
       <c r="DE3" t="n">
-        <v>2.173545509620891e-298</v>
+        <v>1.032410688590381e-242</v>
       </c>
       <c r="DF3" t="n">
-        <v>9.259921647163151e-302</v>
+        <v>9.638493746439871e-246</v>
       </c>
       <c r="DG3" t="n">
-        <v>2.076610203997372e-304</v>
+        <v>1.887189242930257e-248</v>
       </c>
       <c r="DH3" t="n">
-        <v>1.770245822308336e-307</v>
+        <v>8.765119224288667e-252</v>
       </c>
       <c r="DI3" t="n">
-        <v>0</v>
+        <v>1.356748628415236e-254</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>3.492812514639693e-257</v>
       </c>
       <c r="DK3" t="n">
-        <v>0</v>
+        <v>6.467066755424593e-260</v>
       </c>
       <c r="DL3" t="n">
-        <v>0</v>
+        <v>2.092694605455837e-263</v>
       </c>
       <c r="DM3" t="n">
-        <v>0</v>
+        <v>2.2672616475387e-266</v>
       </c>
       <c r="DN3" t="n">
-        <v>0</v>
+        <v>3.643675229688036e-269</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>1.088577268008502e-272</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>2.499088651634405e-275</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0</v>
+        <v>3.551512197302196e-278</v>
       </c>
       <c r="DR3" t="n">
-        <v>0</v>
+        <v>4.038728466683379e-281</v>
       </c>
       <c r="DS3" t="n">
-        <v>0</v>
+        <v>7.946875614892771e-284</v>
       </c>
       <c r="DT3" t="n">
-        <v>0</v>
+        <v>1.028817493514364e-286</v>
       </c>
       <c r="DU3" t="n">
-        <v>0</v>
+        <v>4.499972024345346e-290</v>
       </c>
       <c r="DV3" t="n">
-        <v>0</v>
+        <v>6.468876953657543e-293</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>7.317506821287701e-296</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>9.007409755117837e-299</v>
       </c>
       <c r="DY3" t="n">
-        <v>0</v>
+        <v>3.495576878940115e-302</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0</v>
+        <v>1.372745663843555e-305</v>
       </c>
       <c r="EA3" t="n">
         <v>0</v>
@@ -16933,6 +16993,12 @@
         <v>0</v>
       </c>
       <c r="SD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="SE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="SF3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16943,64 +17009,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6666691637800989</v>
+        <v>0.33</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9122371725878681</v>
+        <v>0.2975697650710996</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9992480677638257</v>
+        <v>0.2506093502060628</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998346879965382</v>
+        <v>0.355342502919242</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999627474828142</v>
+        <v>0.7570192315674326</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9999997199803149</v>
+        <v>0.790184542074155</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9999999785148864</v>
+        <v>0.4209539068201664</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9999999912066559</v>
+        <v>0.2614769690731871</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9999999999629503</v>
+        <v>0.6691081735409615</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9999999999995445</v>
+        <v>0.3309811096693864</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9999999999999994</v>
+        <v>0.9618765741156619</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0.9987625212623549</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0.9995450732645849</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0.9999907865007404</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0.9999979292041394</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0.9999999910988335</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0.9999999988218519</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0.9999999978953106</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0.9999999999993489</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0.9999999999998983</v>
       </c>
       <c r="V4" t="n">
         <v>1</v>
@@ -18431,6 +18497,12 @@
         <v>1</v>
       </c>
       <c r="SD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="SE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="SF4" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Data/fake_nocalib.xlsx
+++ b/Data/fake_nocalib.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SF4"/>
+  <dimension ref="A1:SG4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1933,6 +1933,9 @@
       <c r="SF1" s="2" t="n">
         <v>2521</v>
       </c>
+      <c r="SG1" s="2" t="n">
+        <v>2522</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -1941,67 +1944,67 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.34</v>
+        <v>0.3400000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4191338609297701</v>
+        <v>0.4204531193381447</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5583096414636474</v>
+        <v>0.5629962637107235</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6075738260184688</v>
+        <v>0.7181255052401537</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5690193021793856</v>
+        <v>0.7353792558244767</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6067106011253892</v>
+        <v>0.6634561158807928</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2165607880480358</v>
+        <v>0.6785936953210321</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4167827895044908</v>
+        <v>0.244192668384428</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7277496845214747</v>
+        <v>0.454617067444382</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9460959484845357</v>
+        <v>0.720027980070397</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9999280391624003</v>
+        <v>0.9721146405848189</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9999955885782713</v>
+        <v>0.9984818907044347</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9999978859458895</v>
+        <v>0.9997485057136849</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9999999989567695</v>
+        <v>0.9999407806356677</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9999999999750734</v>
+        <v>0.9999992180687854</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.999999999998692</v>
+        <v>0.9999999354073765</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9999999999997918</v>
+        <v>0.9999999952658166</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9999999999999933</v>
+        <v>0.9999999995918449</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999921714</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0.9999999999999588</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0.9999999999999978</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
@@ -3435,6 +3438,9 @@
         <v>1</v>
       </c>
       <c r="SF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="SG2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3448,406 +3454,406 @@
         <v>0.33</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3234857030618779</v>
+        <v>0.3231932765123403</v>
       </c>
       <c r="D3" t="n">
-        <v>0.288299579686091</v>
+        <v>0.2862255244832053</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2803722436314497</v>
+        <v>0.2151322014019616</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3485631116229937</v>
+        <v>0.2303956107036899</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3646793575703084</v>
+        <v>0.314840728894836</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7329340126820582</v>
+        <v>0.3138150297263795</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5804020504524197</v>
+        <v>0.7417530179368523</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2721616033383013</v>
+        <v>0.5445840352473456</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05390112320007086</v>
+        <v>0.2799000403588172</v>
       </c>
       <c r="L3" t="n">
-        <v>7.196078596052048e-05</v>
+        <v>0.0278852300564981</v>
       </c>
       <c r="M3" t="n">
-        <v>4.411420983598544e-06</v>
+        <v>0.00151810744441949</v>
       </c>
       <c r="N3" t="n">
-        <v>2.114054005972167e-06</v>
+        <v>0.0002514941984627928</v>
       </c>
       <c r="O3" t="n">
-        <v>1.04323049911104e-09</v>
+        <v>5.921936358610329e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>2.492668347337439e-11</v>
+        <v>7.819312119487251e-07</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.308062193634111e-12</v>
+        <v>6.459262348630573e-08</v>
       </c>
       <c r="R3" t="n">
-        <v>2.082702511900697e-13</v>
+        <v>4.734183328161191e-09</v>
       </c>
       <c r="S3" t="n">
-        <v>6.651342602489323e-15</v>
+        <v>4.081550887759506e-10</v>
       </c>
       <c r="T3" t="n">
-        <v>9.114575554034432e-17</v>
+        <v>7.82862613173115e-12</v>
       </c>
       <c r="U3" t="n">
-        <v>1.481340228913605e-18</v>
+        <v>4.123440139089813e-14</v>
       </c>
       <c r="V3" t="n">
-        <v>4.069254003906313e-20</v>
+        <v>2.208922167862435e-15</v>
       </c>
       <c r="W3" t="n">
-        <v>4.572467076391615e-23</v>
+        <v>1.282976316709989e-17</v>
       </c>
       <c r="X3" t="n">
-        <v>3.040302373072632e-24</v>
+        <v>1.368673611229222e-19</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.784687452324598e-27</v>
+        <v>2.537509886178239e-21</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.264047686737349e-28</v>
+        <v>8.209096527001162e-23</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.751171783533423e-31</v>
+        <v>8.645180296812349e-25</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.773105531217298e-32</v>
+        <v>3.735173437339378e-26</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.919004159020582e-33</v>
+        <v>2.733229669308026e-28</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.575658962042758e-38</v>
+        <v>3.293333334420333e-30</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.282294285377687e-40</v>
+        <v>8.172600918564627e-33</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.199586038388624e-42</v>
+        <v>1.78361040953903e-34</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.781532972286441e-44</v>
+        <v>8.806497684535654e-37</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.506672334959914e-47</v>
+        <v>3.528733669652618e-39</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.106822682033676e-48</v>
+        <v>3.551414897126198e-41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.114448871497159e-51</v>
+        <v>1.845539572553126e-43</v>
       </c>
       <c r="AK3" t="n">
-        <v>8.996237137759929e-53</v>
+        <v>2.650369239295483e-45</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.038338781323308e-54</v>
+        <v>1.568473467610158e-46</v>
       </c>
       <c r="AM3" t="n">
-        <v>6.538081574269666e-57</v>
+        <v>4.322348666271413e-48</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.102538179529724e-59</v>
+        <v>1.998146904888979e-50</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.526564246499187e-62</v>
+        <v>1.001084982287456e-52</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.088944771442766e-63</v>
+        <v>8.967916306300224e-55</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.421709779127509e-67</v>
+        <v>8.35991108793775e-58</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.99749755211013e-70</v>
+        <v>1.323688413880276e-60</v>
       </c>
       <c r="AS3" t="n">
-        <v>4.035023766253999e-72</v>
+        <v>6.94524699348581e-63</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.289620342221218e-73</v>
+        <v>6.485154789932017e-65</v>
       </c>
       <c r="AU3" t="n">
-        <v>4.240685460583728e-76</v>
+        <v>1.132523146676326e-66</v>
       </c>
       <c r="AV3" t="n">
-        <v>6.656228495286984e-79</v>
+        <v>4.135364124334432e-69</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.060224854363575e-79</v>
+        <v>1.888953572971093e-71</v>
       </c>
       <c r="AX3" t="n">
-        <v>9.623894251470976e-83</v>
+        <v>3.155002739253613e-72</v>
       </c>
       <c r="AY3" t="n">
-        <v>1.764535093347632e-84</v>
+        <v>2.15594899571307e-74</v>
       </c>
       <c r="AZ3" t="n">
-        <v>6.926835365805598e-88</v>
+        <v>7.200430506691081e-77</v>
       </c>
       <c r="BA3" t="n">
-        <v>6.449401993761933e-90</v>
+        <v>4.355544394930296e-79</v>
       </c>
       <c r="BB3" t="n">
-        <v>3.445482512948137e-92</v>
+        <v>1.231977946848314e-81</v>
       </c>
       <c r="BC3" t="n">
-        <v>2.270697869347225e-95</v>
+        <v>5.733656429185987e-84</v>
       </c>
       <c r="BD3" t="n">
-        <v>1.725949465794997e-97</v>
+        <v>2.300102378911595e-86</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.689023167538591e-100</v>
+        <v>7.285723422891193e-89</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.228980764607718e-102</v>
+        <v>6.941279378485098e-92</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.771997520949944e-104</v>
+        <v>1.083419960604083e-93</v>
       </c>
       <c r="BH3" t="n">
-        <v>2.051379880551536e-107</v>
+        <v>1.436142765577422e-95</v>
       </c>
       <c r="BI3" t="n">
-        <v>6.892031351389175e-110</v>
+        <v>3.486778000871525e-98</v>
       </c>
       <c r="BJ3" t="n">
-        <v>3.848033896510568e-112</v>
+        <v>1.429008791055144e-100</v>
       </c>
       <c r="BK3" t="n">
-        <v>9.959347035988782e-116</v>
+        <v>2.360220845450451e-103</v>
       </c>
       <c r="BL3" t="n">
-        <v>3.820778863252351e-118</v>
+        <v>9.929566525307267e-106</v>
       </c>
       <c r="BM3" t="n">
-        <v>3.527909187648578e-120</v>
+        <v>2.065100316914139e-108</v>
       </c>
       <c r="BN3" t="n">
-        <v>1.896463127363947e-122</v>
+        <v>2.164521746161432e-110</v>
       </c>
       <c r="BO3" t="n">
-        <v>4.328144627282255e-125</v>
+        <v>3.754279788713721e-113</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.015393990986166e-128</v>
+        <v>2.062936492925158e-116</v>
       </c>
       <c r="BQ3" t="n">
-        <v>2.950568166403277e-131</v>
+        <v>5.701455711544083e-119</v>
       </c>
       <c r="BR3" t="n">
-        <v>2.049203460066984e-133</v>
+        <v>2.966293183778675e-121</v>
       </c>
       <c r="BS3" t="n">
-        <v>4.302941553204693e-136</v>
+        <v>9.545462129556182e-124</v>
       </c>
       <c r="BT3" t="n">
-        <v>2.313167626414338e-138</v>
+        <v>3.460507018349236e-126</v>
       </c>
       <c r="BU3" t="n">
-        <v>6.909476480860414e-141</v>
+        <v>1.633430866533558e-128</v>
       </c>
       <c r="BV3" t="n">
-        <v>1.516475489364675e-143</v>
+        <v>3.648468406062058e-131</v>
       </c>
       <c r="BW3" t="n">
-        <v>9.409170228132339e-146</v>
+        <v>9.736710488133254e-134</v>
       </c>
       <c r="BX3" t="n">
-        <v>6.423843551427064e-149</v>
+        <v>1.697406253819052e-136</v>
       </c>
       <c r="BY3" t="n">
-        <v>8.782315625315234e-152</v>
+        <v>2.017868414854885e-139</v>
       </c>
       <c r="BZ3" t="n">
-        <v>3.149715168426196e-154</v>
+        <v>1.109838387622664e-141</v>
       </c>
       <c r="CA3" t="n">
-        <v>8.429613061641768e-157</v>
+        <v>9.83941222376737e-145</v>
       </c>
       <c r="CB3" t="n">
-        <v>7.896810222126366e-160</v>
+        <v>2.545052624705583e-147</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.46679257177332e-162</v>
+        <v>3.789465879669885e-150</v>
       </c>
       <c r="CD3" t="n">
-        <v>9.958186530563662e-166</v>
+        <v>5.400217330243092e-153</v>
       </c>
       <c r="CE3" t="n">
-        <v>1.291414272148889e-168</v>
+        <v>1.020728191081044e-155</v>
       </c>
       <c r="CF3" t="n">
-        <v>6.925479061486237e-172</v>
+        <v>6.119703929619499e-159</v>
       </c>
       <c r="CG3" t="n">
-        <v>9.984643484709576e-175</v>
+        <v>9.290061487525068e-162</v>
       </c>
       <c r="CH3" t="n">
-        <v>3.407479320888232e-177</v>
+        <v>1.389278573541469e-164</v>
       </c>
       <c r="CI3" t="n">
-        <v>4.001678153682664e-180</v>
+        <v>3.018426688383909e-167</v>
       </c>
       <c r="CJ3" t="n">
-        <v>2.167387946851962e-182</v>
+        <v>1.544902461056762e-169</v>
       </c>
       <c r="CK3" t="n">
-        <v>2.426137163341782e-185</v>
+        <v>1.649573484296101e-172</v>
       </c>
       <c r="CL3" t="n">
-        <v>3.446113708678388e-188</v>
+        <v>1.239428902511692e-175</v>
       </c>
       <c r="CM3" t="n">
-        <v>1.203868782925009e-190</v>
+        <v>7.282688237073656e-178</v>
       </c>
       <c r="CN3" t="n">
-        <v>6.013532507205709e-193</v>
+        <v>1.233216867888955e-180</v>
       </c>
       <c r="CO3" t="n">
-        <v>4.81066479505085e-196</v>
+        <v>4.226822397837822e-183</v>
       </c>
       <c r="CP3" t="n">
-        <v>4.955113583294613e-198</v>
+        <v>1.158467395524725e-185</v>
       </c>
       <c r="CQ3" t="n">
-        <v>3.888582385705325e-201</v>
+        <v>8.111634033141904e-188</v>
       </c>
       <c r="CR3" t="n">
-        <v>1.056708804837002e-203</v>
+        <v>1.082752384146899e-190</v>
       </c>
       <c r="CS3" t="n">
-        <v>2.925188306728098e-206</v>
+        <v>3.04002607063479e-193</v>
       </c>
       <c r="CT3" t="n">
-        <v>2.264652184476244e-209</v>
+        <v>3.35179886341235e-196</v>
       </c>
       <c r="CU3" t="n">
-        <v>1.947253762467009e-212</v>
+        <v>2.861814717674259e-199</v>
       </c>
       <c r="CV3" t="n">
-        <v>8.79078154799603e-216</v>
+        <v>2.618498316119997e-202</v>
       </c>
       <c r="CW3" t="n">
-        <v>1.93297402524706e-218</v>
+        <v>5.756701258431772e-205</v>
       </c>
       <c r="CX3" t="n">
-        <v>8.37560088110331e-221</v>
+        <v>8.161322331772085e-208</v>
       </c>
       <c r="CY3" t="n">
-        <v>1.563889412666692e-223</v>
+        <v>2.69994902355047e-210</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.843074198370208e-226</v>
+        <v>3.977747956546883e-213</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.20883684771995e-229</v>
+        <v>2.646361419343663e-216</v>
       </c>
       <c r="DB3" t="n">
-        <v>1.080605946471258e-232</v>
+        <v>2.154474899975639e-219</v>
       </c>
       <c r="DC3" t="n">
-        <v>4.335203640161579e-235</v>
+        <v>2.426296952624667e-222</v>
       </c>
       <c r="DD3" t="n">
-        <v>1.807272497214012e-236</v>
+        <v>8.671071930744764e-225</v>
       </c>
       <c r="DE3" t="n">
-        <v>1.510512892024061e-239</v>
+        <v>4.721761411161403e-226</v>
       </c>
       <c r="DF3" t="n">
-        <v>1.220750433426468e-242</v>
+        <v>6.234361033281678e-229</v>
       </c>
       <c r="DG3" t="n">
-        <v>1.184334668916831e-245</v>
+        <v>3.850082666254173e-232</v>
       </c>
       <c r="DH3" t="n">
-        <v>2.774742215357097e-248</v>
+        <v>6.085885084523206e-235</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.629586098178897e-251</v>
+        <v>9.688910059125909e-238</v>
       </c>
       <c r="DJ3" t="n">
-        <v>2.907834819977946e-254</v>
+        <v>2.121238798306453e-240</v>
       </c>
       <c r="DK3" t="n">
-        <v>1.455259476826532e-257</v>
+        <v>1.223172945752218e-243</v>
       </c>
       <c r="DL3" t="n">
-        <v>4.889114804855755e-260</v>
+        <v>3.186345018273024e-246</v>
       </c>
       <c r="DM3" t="n">
-        <v>6.045134277724531e-263</v>
+        <v>2.986411475610899e-249</v>
       </c>
       <c r="DN3" t="n">
-        <v>2.981391265807844e-266</v>
+        <v>6.397579923031843e-252</v>
       </c>
       <c r="DO3" t="n">
-        <v>2.357874101890774e-269</v>
+        <v>4.594486726873716e-255</v>
       </c>
       <c r="DP3" t="n">
-        <v>1.296580024409511e-272</v>
+        <v>3.08900599329973e-258</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1.890306226988819e-275</v>
+        <v>2.182917711259896e-261</v>
       </c>
       <c r="DR3" t="n">
-        <v>3.249783805796397e-278</v>
+        <v>3.4977614158307e-264</v>
       </c>
       <c r="DS3" t="n">
-        <v>5.312629226643776e-281</v>
+        <v>9.472673393156493e-267</v>
       </c>
       <c r="DT3" t="n">
-        <v>3.822648077554142e-284</v>
+        <v>8.369157153832356e-270</v>
       </c>
       <c r="DU3" t="n">
-        <v>1.948770548110138e-287</v>
+        <v>5.419134085796373e-273</v>
       </c>
       <c r="DV3" t="n">
-        <v>2.289688688565028e-290</v>
+        <v>5.723154436853306e-276</v>
       </c>
       <c r="DW3" t="n">
-        <v>6.265432392356884e-293</v>
+        <v>1.218052859427839e-278</v>
       </c>
       <c r="DX3" t="n">
-        <v>1.184402853694744e-295</v>
+        <v>9.984567541440087e-282</v>
       </c>
       <c r="DY3" t="n">
-        <v>3.047732755217711e-299</v>
+        <v>9.773571585562611e-285</v>
       </c>
       <c r="DZ3" t="n">
-        <v>2.886823452113357e-302</v>
+        <v>7.007896300844706e-288</v>
       </c>
       <c r="EA3" t="n">
-        <v>5.962705892664113e-305</v>
+        <v>4.89641512129886e-291</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>1.927869326669561e-293</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>2.119235103382775e-296</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>8.310466174206517e-299</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>7.283824512438452e-302</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>4.137317069518141e-305</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
@@ -4939,6 +4945,9 @@
         <v>0</v>
       </c>
       <c r="SF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="SG3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4952,355 +4961,355 @@
         <v>0.33</v>
       </c>
       <c r="C4" t="n">
-        <v>0.257380436008352</v>
+        <v>0.256353604149515</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1533907788502616</v>
+        <v>0.1507782118060711</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1120539303500815</v>
+        <v>0.06674229335788452</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08241758619762067</v>
+        <v>0.03422513347183336</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0286100413043022</v>
+        <v>0.02170315522437116</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05050519926990599</v>
+        <v>0.007591274952588354</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002815160043089418</v>
+        <v>0.01405431367871977</v>
       </c>
       <c r="J4" t="n">
-        <v>8.871214022408411e-05</v>
+        <v>0.0007988973082724498</v>
       </c>
       <c r="K4" t="n">
-        <v>2.928315393474193e-06</v>
+        <v>7.197957078569808e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>5.163920156145053e-11</v>
+        <v>1.293586830273262e-07</v>
       </c>
       <c r="M4" t="n">
-        <v>7.450184611619742e-13</v>
+        <v>1.851145820024733e-09</v>
       </c>
       <c r="N4" t="n">
-        <v>1.045844258248846e-13</v>
+        <v>8.785225634490864e-11</v>
       </c>
       <c r="O4" t="n">
-        <v>5.780087600346684e-18</v>
+        <v>7.462552365327504e-13</v>
       </c>
       <c r="P4" t="n">
-        <v>2.587922458215427e-20</v>
+        <v>2.552966996833278e-15</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.886103721138013e-22</v>
+        <v>4.53565169696821e-17</v>
       </c>
       <c r="R4" t="n">
-        <v>1.336089337701366e-23</v>
+        <v>8.991790933644894e-19</v>
       </c>
       <c r="S4" t="n">
-        <v>9.110605811051798e-26</v>
+        <v>1.267831093961639e-20</v>
       </c>
       <c r="T4" t="n">
-        <v>3.085612646268759e-28</v>
+        <v>5.074810462491077e-23</v>
       </c>
       <c r="U4" t="n">
-        <v>8.733501072733999e-31</v>
+        <v>7.465837289856729e-26</v>
       </c>
       <c r="V4" t="n">
-        <v>4.943442603094118e-33</v>
+        <v>6.842204988639893e-28</v>
       </c>
       <c r="W4" t="n">
-        <v>3.664269943407732e-36</v>
+        <v>1.003861747773716e-30</v>
       </c>
       <c r="X4" t="n">
-        <v>3.842218911395243e-38</v>
+        <v>3.274118933796584e-33</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.903684069933693e-41</v>
+        <v>9.958024035456358e-36</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.443947326348998e-43</v>
+        <v>6.384661027688728e-38</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.247516777751882e-46</v>
+        <v>1.68222640900028e-40</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.713583442990786e-48</v>
+        <v>1.861505245999103e-42</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.076403799956477e-50</v>
+        <v>4.223535094532186e-45</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.174458301167994e-54</v>
+        <v>1.162172777263558e-47</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.178863022117241e-56</v>
+        <v>1.581619011069234e-50</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.737370529717939e-59</v>
+        <v>7.940247489624705e-53</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.641190914867157e-61</v>
+        <v>2.045492919934869e-55</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.676185603223421e-64</v>
+        <v>2.848384345847496e-58</v>
       </c>
       <c r="AI4" t="n">
-        <v>7.336435419556468e-67</v>
+        <v>9.417155315531184e-61</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.371274493221073e-69</v>
+        <v>1.55026341011521e-63</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.925469773047183e-71</v>
+        <v>9.087953013607001e-66</v>
       </c>
       <c r="AL4" t="n">
-        <v>9.105540324607929e-74</v>
+        <v>9.593843638430837e-68</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.183913682815772e-76</v>
+        <v>5.40276613173805e-70</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.178566128404293e-79</v>
+        <v>8.457403605425062e-73</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.488307346212303e-82</v>
+        <v>1.342498596565131e-75</v>
       </c>
       <c r="AP4" t="n">
-        <v>7.772603067444147e-85</v>
+        <v>3.584252498921526e-78</v>
       </c>
       <c r="AQ4" t="n">
-        <v>3.37806781793934e-88</v>
+        <v>2.436286471404693e-81</v>
       </c>
       <c r="AR4" t="n">
-        <v>3.20967296110021e-91</v>
+        <v>2.361220514559712e-84</v>
       </c>
       <c r="AS4" t="n">
-        <v>8.138420504487484e-94</v>
+        <v>4.165235010048621e-87</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.217252972741222e-95</v>
+        <v>1.002221547314689e-89</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.046601108860346e-98</v>
+        <v>5.32568790451684e-92</v>
       </c>
       <c r="AV4" t="n">
-        <v>8.843052887219143e-102</v>
+        <v>7.816831861167795e-95</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.819686804061328e-103</v>
+        <v>1.169698260549334e-97</v>
       </c>
       <c r="AX4" t="n">
-        <v>3.053042442922998e-106</v>
+        <v>3.996138233777963e-99</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.233173745737082e-108</v>
+        <v>8.35106108202985e-102</v>
       </c>
       <c r="AZ4" t="n">
-        <v>6.390880675791291e-112</v>
+        <v>1.211285242342639e-104</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.528607768399657e-114</v>
+        <v>2.417356518814763e-107</v>
       </c>
       <c r="BB4" t="n">
-        <v>2.674699033269893e-117</v>
+        <v>2.657657370461082e-110</v>
       </c>
       <c r="BC4" t="n">
-        <v>2.027772663856374e-120</v>
+        <v>4.585232555345257e-113</v>
       </c>
       <c r="BD4" t="n">
-        <v>4.132582093854624e-123</v>
+        <v>7.752857121028684e-116</v>
       </c>
       <c r="BE4" t="n">
-        <v>3.10771222041119e-126</v>
+        <v>9.46706459057224e-119</v>
       </c>
       <c r="BF4" t="n">
-        <v>7.300144744514906e-129</v>
+        <v>6.487153800606464e-122</v>
       </c>
       <c r="BG4" t="n">
-        <v>2.762748771546907e-131</v>
+        <v>2.627835884149546e-124</v>
       </c>
       <c r="BH4" t="n">
-        <v>3.304897192870537e-134</v>
+        <v>1.021936556736778e-126</v>
       </c>
       <c r="BI4" t="n">
-        <v>3.817889033892446e-137</v>
+        <v>1.528360940476105e-129</v>
       </c>
       <c r="BJ4" t="n">
-        <v>6.436531499554002e-140</v>
+        <v>2.028640123671117e-132</v>
       </c>
       <c r="BK4" t="n">
-        <v>3.513033781057269e-143</v>
+        <v>1.944508376844312e-135</v>
       </c>
       <c r="BL4" t="n">
-        <v>5.418267242384247e-146</v>
+        <v>3.54621353024024e-138</v>
       </c>
       <c r="BM4" t="n">
-        <v>4.263389992166138e-148</v>
+        <v>3.577737192292854e-141</v>
       </c>
       <c r="BN4" t="n">
-        <v>7.451817285206974e-151</v>
+        <v>1.785768207231026e-143</v>
       </c>
       <c r="BO4" t="n">
-        <v>6.58051246655233e-154</v>
+        <v>1.451834427262673e-146</v>
       </c>
       <c r="BP4" t="n">
-        <v>2.575763465030965e-157</v>
+        <v>7.179239155717839e-150</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3.271300590867878e-160</v>
+        <v>8.040239235048001e-153</v>
       </c>
       <c r="BR4" t="n">
-        <v>6.182802363628907e-163</v>
+        <v>1.394180549853944e-155</v>
       </c>
       <c r="BS4" t="n">
-        <v>6.082052047012701e-166</v>
+        <v>1.51295539451959e-158</v>
       </c>
       <c r="BT4" t="n">
-        <v>9.385542632306946e-169</v>
+        <v>1.965612126583086e-161</v>
       </c>
       <c r="BU4" t="n">
-        <v>1.251104767658341e-171</v>
+        <v>2.773733604064349e-164</v>
       </c>
       <c r="BV4" t="n">
-        <v>1.265197141396324e-174</v>
+        <v>2.901199788305986e-167</v>
       </c>
       <c r="BW4" t="n">
-        <v>2.219641175303755e-177</v>
+        <v>3.092418832732052e-170</v>
       </c>
       <c r="BX4" t="n">
-        <v>1.093280741301559e-180</v>
+        <v>2.873291305673903e-173</v>
       </c>
       <c r="BY4" t="n">
-        <v>1.847304186478146e-183</v>
+        <v>1.789000208805206e-176</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2.483829719992466e-186</v>
+        <v>4.50914064468463e-179</v>
       </c>
       <c r="CA4" t="n">
-        <v>2.664531863918213e-189</v>
+        <v>2.626422091865968e-182</v>
       </c>
       <c r="CB4" t="n">
-        <v>1.432952370970346e-192</v>
+        <v>2.981559357222825e-185</v>
       </c>
       <c r="CC4" t="n">
-        <v>1.138044521555616e-195</v>
+        <v>2.011964206699953e-188</v>
       </c>
       <c r="CD4" t="n">
-        <v>9.571594187885709e-199</v>
+        <v>1.506892153943804e-191</v>
       </c>
       <c r="CE4" t="n">
-        <v>5.812302961455871e-202</v>
+        <v>1.862690257122632e-194</v>
       </c>
       <c r="CF4" t="n">
-        <v>2.437987204254546e-205</v>
+        <v>8.084639132649444e-198</v>
       </c>
       <c r="CG4" t="n">
-        <v>1.562842481624089e-208</v>
+        <v>5.239379982384315e-201</v>
       </c>
       <c r="CH4" t="n">
-        <v>3.603072278917492e-211</v>
+        <v>3.348892900955869e-204</v>
       </c>
       <c r="CI4" t="n">
-        <v>2.462781008750336e-214</v>
+        <v>5.292158879840529e-207</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3.945277233624979e-217</v>
+        <v>8.54736883973549e-210</v>
       </c>
       <c r="CK4" t="n">
-        <v>2.120360188324329e-220</v>
+        <v>4.50531694617805e-213</v>
       </c>
       <c r="CL4" t="n">
-        <v>3.946061870691089e-223</v>
+        <v>2.076990875527825e-216</v>
       </c>
       <c r="CM4" t="n">
-        <v>4.749623136614965e-226</v>
+        <v>5.390700144018678e-219</v>
       </c>
       <c r="CN4" t="n">
-        <v>7.325506983791312e-229</v>
+        <v>3.842966667280099e-222</v>
       </c>
       <c r="CO4" t="n">
-        <v>3.332740677462081e-232</v>
+        <v>5.203757634805211e-225</v>
       </c>
       <c r="CP4" t="n">
-        <v>9.084221959426779e-235</v>
+        <v>4.824135981945217e-228</v>
       </c>
       <c r="CQ4" t="n">
-        <v>4.519774275980414e-238</v>
+        <v>1.212371419303675e-230</v>
       </c>
       <c r="CR4" t="n">
-        <v>7.361190262887773e-241</v>
+        <v>7.439436366918048e-234</v>
       </c>
       <c r="CS4" t="n">
-        <v>6.816784418715309e-244</v>
+        <v>1.03260464226071e-236</v>
       </c>
       <c r="CT4" t="n">
-        <v>3.115162607352926e-247</v>
+        <v>6.073038811201116e-240</v>
       </c>
       <c r="CU4" t="n">
-        <v>1.548532795543576e-250</v>
+        <v>3.003909717191947e-243</v>
       </c>
       <c r="CV4" t="n">
-        <v>6.078110356544677e-254</v>
+        <v>1.620913967207032e-246</v>
       </c>
       <c r="CW4" t="n">
-        <v>5.040049160054227e-257</v>
+        <v>1.348511731663008e-249</v>
       </c>
       <c r="CX4" t="n">
-        <v>1.312769605165485e-259</v>
+        <v>8.096856571938103e-253</v>
       </c>
       <c r="CY4" t="n">
-        <v>1.284078441206241e-262</v>
+        <v>1.57728688685453e-255</v>
       </c>
       <c r="CZ4" t="n">
-        <v>7.041343643232261e-266</v>
+        <v>1.234361760273162e-258</v>
       </c>
       <c r="DA4" t="n">
-        <v>3.001418150215576e-269</v>
+        <v>4.938588001378184e-262</v>
       </c>
       <c r="DB4" t="n">
-        <v>1.331100682122903e-272</v>
+        <v>2.191939935138384e-265</v>
       </c>
       <c r="DC4" t="n">
-        <v>1.9103275502714e-275</v>
+        <v>1.0959416957832e-268</v>
       </c>
       <c r="DD4" t="n">
-        <v>2.636056270627561e-277</v>
+        <v>1.614891576763922e-271</v>
       </c>
       <c r="DE4" t="n">
-        <v>1.202103301116029e-280</v>
+        <v>2.929986815596866e-273</v>
       </c>
       <c r="DF4" t="n">
-        <v>5.015925273512777e-284</v>
+        <v>1.704535370373279e-276</v>
       </c>
       <c r="DG4" t="n">
-        <v>4.541296840907018e-287</v>
+        <v>6.416723795986421e-280</v>
       </c>
       <c r="DH4" t="n">
-        <v>4.161559111554993e-290</v>
+        <v>6.650762384716971e-283</v>
       </c>
       <c r="DI4" t="n">
-        <v>2.218894670929109e-293</v>
+        <v>5.398769000528248e-286</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1.079398431187477e-296</v>
+        <v>4.585208900849863e-289</v>
       </c>
       <c r="DK4" t="n">
-        <v>3.96672595745341e-300</v>
+        <v>1.844707500609777e-292</v>
       </c>
       <c r="DL4" t="n">
-        <v>4.17982350927754e-303</v>
+        <v>1.584245601333634e-295</v>
       </c>
       <c r="DM4" t="n">
-        <v>2.940158594367175e-306</v>
+        <v>8.93579638656233e-299</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>9.030744194026781e-302</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>3.512685138125671e-305</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
@@ -6443,6 +6452,9 @@
         <v>0</v>
       </c>
       <c r="SF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SG4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6457,7 +6469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SF4"/>
+  <dimension ref="A1:SG4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7963,6 +7975,9 @@
       <c r="SF1" s="2" t="n">
         <v>2521</v>
       </c>
+      <c r="SG1" s="2" t="n">
+        <v>2522</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -7971,418 +7986,418 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3737990010649987</v>
+        <v>0.3886646214012456</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4967069968957108</v>
+        <v>0.4463821290676815</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4003900367609493</v>
+        <v>0.6041578606263894</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6248943208091761</v>
+        <v>0.4570422934613618</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5416850500010489</v>
+        <v>0.6339304040938666</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5051374094731473</v>
+        <v>0.4642045728974047</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4485402500012159</v>
+        <v>0.396543269094435</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05235529559516616</v>
+        <v>0.3263497035003734</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02340093209856329</v>
+        <v>0.05891997771326453</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0273650432317778</v>
+        <v>0.02312882481876145</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0008831283251668485</v>
+        <v>0.0257677007766999</v>
       </c>
       <c r="N2" t="n">
-        <v>7.838304533879286e-05</v>
+        <v>0.002532480842624122</v>
       </c>
       <c r="O2" t="n">
-        <v>1.520263762580036e-05</v>
+        <v>0.0001972777381398554</v>
       </c>
       <c r="P2" t="n">
-        <v>1.119728918709498e-06</v>
+        <v>4.418538298721034e-05</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.826789801905538e-07</v>
+        <v>7.354355272591708e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>1.169573124112852e-09</v>
+        <v>1.118240601225256e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>1.686931778649659e-10</v>
+        <v>1.169104925246798e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>6.394419611710038e-12</v>
+        <v>4.253747061385827e-10</v>
       </c>
       <c r="U2" t="n">
-        <v>1.516715113292629e-13</v>
+        <v>1.150307625037306e-11</v>
       </c>
       <c r="V2" t="n">
-        <v>1.020805052911603e-14</v>
+        <v>5.725574102911696e-13</v>
       </c>
       <c r="W2" t="n">
-        <v>2.418013164679917e-16</v>
+        <v>2.0232678523802e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>1.293735701960954e-17</v>
+        <v>7.401100408715972e-16</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.646108179712359e-20</v>
+        <v>3.78233310612607e-18</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.083792223258793e-21</v>
+        <v>4.463684189815293e-20</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.07780413621599e-23</v>
+        <v>2.241583043091277e-21</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.16140401255943e-25</v>
+        <v>8.898517004461279e-23</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.547283207544002e-27</v>
+        <v>1.338953186537166e-24</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.886730792672441e-28</v>
+        <v>1.317267140845874e-26</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.809573476807328e-30</v>
+        <v>4.700629922576633e-28</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.266534068393013e-33</v>
+        <v>1.012193283041124e-30</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.631725847752653e-35</v>
+        <v>8.130292969530914e-33</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.700927815063104e-37</v>
+        <v>8.557245077338672e-35</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.935025702710306e-39</v>
+        <v>1.577752925341245e-36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.37063142158157e-41</v>
+        <v>1.330698542813266e-38</v>
       </c>
       <c r="AK2" t="n">
-        <v>4.644896744531083e-43</v>
+        <v>7.057451313511805e-41</v>
       </c>
       <c r="AL2" t="n">
-        <v>5.05787387703171e-46</v>
+        <v>4.617888590820748e-43</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.726740615305811e-48</v>
+        <v>2.662311553348682e-45</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.55525903755116e-48</v>
+        <v>9.223305036749229e-48</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.370154473905442e-53</v>
+        <v>8.689408662193109e-49</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.916953109102302e-53</v>
+        <v>3.82211594450631e-51</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.682377690668892e-56</v>
+        <v>7.984703984320029e-53</v>
       </c>
       <c r="AR2" t="n">
-        <v>9.560072258567347e-60</v>
+        <v>2.894139938511865e-55</v>
       </c>
       <c r="AS2" t="n">
-        <v>5.262860844737634e-62</v>
+        <v>1.827351416115799e-57</v>
       </c>
       <c r="AT2" t="n">
-        <v>5.599989160100215e-64</v>
+        <v>8.86189353464205e-60</v>
       </c>
       <c r="AU2" t="n">
-        <v>5.765235600469575e-65</v>
+        <v>1.673850209763674e-61</v>
       </c>
       <c r="AV2" t="n">
-        <v>4.472814114687165e-68</v>
+        <v>5.770052124380065e-63</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.434150560030124e-69</v>
+        <v>3.05043931162489e-65</v>
       </c>
       <c r="AX2" t="n">
-        <v>8.695173080212812e-72</v>
+        <v>5.0226502392779e-67</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.319690966633378e-74</v>
+        <v>3.181484793274098e-69</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4.904843581416169e-77</v>
+        <v>1.18187676823107e-71</v>
       </c>
       <c r="BA2" t="n">
-        <v>9.661822289337311e-80</v>
+        <v>2.18267862766315e-74</v>
       </c>
       <c r="BB2" t="n">
-        <v>6.575603578804386e-81</v>
+        <v>8.70791576645501e-77</v>
       </c>
       <c r="BC2" t="n">
-        <v>7.593294516426209e-85</v>
+        <v>3.646242958938329e-79</v>
       </c>
       <c r="BD2" t="n">
-        <v>5.649863695002554e-87</v>
+        <v>5.138424868303154e-82</v>
       </c>
       <c r="BE2" t="n">
-        <v>9.323396025462571e-89</v>
+        <v>5.133640666892574e-84</v>
       </c>
       <c r="BF2" t="n">
-        <v>5.669227962683873e-92</v>
+        <v>4.068581180467672e-86</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.841622911259237e-94</v>
+        <v>3.625050985563531e-88</v>
       </c>
       <c r="BH2" t="n">
-        <v>4.024028036421313e-95</v>
+        <v>1.431798539310462e-90</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.637834746150178e-96</v>
+        <v>4.671506228279481e-92</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.15653713951882e-99</v>
+        <v>3.982240935939469e-94</v>
       </c>
       <c r="BK2" t="n">
-        <v>3.975011823781732e-102</v>
+        <v>1.38370831921821e-96</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.334765651855974e-104</v>
+        <v>3.874100067537786e-99</v>
       </c>
       <c r="BM2" t="n">
-        <v>2.044952074188779e-107</v>
+        <v>5.896517906161021e-102</v>
       </c>
       <c r="BN2" t="n">
-        <v>5.681929217017981e-110</v>
+        <v>1.388871502930474e-104</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.195450630640361e-112</v>
+        <v>2.671046045508126e-107</v>
       </c>
       <c r="BP2" t="n">
-        <v>2.809376641416066e-115</v>
+        <v>1.073490623118688e-109</v>
       </c>
       <c r="BQ2" t="n">
-        <v>3.120726719805123e-117</v>
+        <v>2.493504105341266e-112</v>
       </c>
       <c r="BR2" t="n">
-        <v>3.397168248219558e-120</v>
+        <v>1.265641775460008e-114</v>
       </c>
       <c r="BS2" t="n">
-        <v>9.721223479289832e-123</v>
+        <v>3.107059462100585e-117</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.838175754117392e-125</v>
+        <v>9.313438118223531e-120</v>
       </c>
       <c r="BU2" t="n">
-        <v>6.155565877695931e-128</v>
+        <v>3.129368130872864e-122</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.777618759435743e-130</v>
+        <v>5.608913225348151e-125</v>
       </c>
       <c r="BW2" t="n">
-        <v>8.386227445319385e-133</v>
+        <v>8.222020503797854e-128</v>
       </c>
       <c r="BX2" t="n">
-        <v>6.853479877040797e-136</v>
+        <v>4.242759001344459e-130</v>
       </c>
       <c r="BY2" t="n">
-        <v>8.638342247259386e-138</v>
+        <v>1.346207467252771e-132</v>
       </c>
       <c r="BZ2" t="n">
-        <v>6.728103924580017e-141</v>
+        <v>5.169059552169898e-135</v>
       </c>
       <c r="CA2" t="n">
-        <v>4.531120419247886e-143</v>
+        <v>9.211912249444266e-138</v>
       </c>
       <c r="CB2" t="n">
-        <v>3.564208470765192e-146</v>
+        <v>2.80731636776549e-140</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.048948899728364e-148</v>
+        <v>4.632776154742529e-143</v>
       </c>
       <c r="CD2" t="n">
-        <v>2.109267877752464e-151</v>
+        <v>1.665510477249076e-145</v>
       </c>
       <c r="CE2" t="n">
-        <v>2.514386498978565e-154</v>
+        <v>1.883726142519307e-148</v>
       </c>
       <c r="CF2" t="n">
-        <v>3.32318179952351e-157</v>
+        <v>3.114484504064593e-151</v>
       </c>
       <c r="CG2" t="n">
-        <v>5.152431627998352e-160</v>
+        <v>5.470873812152878e-154</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.045371278268696e-162</v>
+        <v>9.304637150116469e-157</v>
       </c>
       <c r="CI2" t="n">
-        <v>5.126610397212649e-165</v>
+        <v>1.832240526422285e-159</v>
       </c>
       <c r="CJ2" t="n">
-        <v>2.594183426041524e-167</v>
+        <v>1.160716938697965e-161</v>
       </c>
       <c r="CK2" t="n">
-        <v>2.852533120889667e-170</v>
+        <v>1.568176344308986e-164</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.285391738267445e-172</v>
+        <v>1.696741474581261e-167</v>
       </c>
       <c r="CM2" t="n">
-        <v>2.223963043624645e-175</v>
+        <v>4.300651463939555e-170</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.685649526911871e-178</v>
+        <v>1.047508751676931e-172</v>
       </c>
       <c r="CO2" t="n">
-        <v>2.670086915342163e-181</v>
+        <v>1.732939138909158e-175</v>
       </c>
       <c r="CP2" t="n">
-        <v>2.330661698602036e-184</v>
+        <v>1.523598167725165e-178</v>
       </c>
       <c r="CQ2" t="n">
-        <v>4.900750135356906e-187</v>
+        <v>3.151197171340903e-181</v>
       </c>
       <c r="CR2" t="n">
-        <v>5.046544752156317e-190</v>
+        <v>3.302267406095422e-184</v>
       </c>
       <c r="CS2" t="n">
-        <v>9.249710140435574e-193</v>
+        <v>5.134916248086702e-187</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.751824138533092e-195</v>
+        <v>1.005814877920144e-189</v>
       </c>
       <c r="CU2" t="n">
-        <v>2.634234804591644e-198</v>
+        <v>1.192711241181832e-192</v>
       </c>
       <c r="CV2" t="n">
-        <v>5.160943191261716e-201</v>
+        <v>2.85328819644691e-195</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.526587657135688e-203</v>
+        <v>4.316903310314282e-198</v>
       </c>
       <c r="CX2" t="n">
-        <v>2.552104786716484e-206</v>
+        <v>9.566071053159932e-201</v>
       </c>
       <c r="CY2" t="n">
-        <v>5.40436278756897e-209</v>
+        <v>2.438278671094978e-203</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.349116172050441e-211</v>
+        <v>4.348715588948986e-206</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.105545631806793e-214</v>
+        <v>6.61655663132059e-209</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.342261136627342e-217</v>
+        <v>8.032726191815989e-212</v>
       </c>
       <c r="DC2" t="n">
-        <v>9.544316092727889e-220</v>
+        <v>8.480139282890336e-215</v>
       </c>
       <c r="DD2" t="n">
-        <v>3.567005714088845e-222</v>
+        <v>5.43651098465913e-217</v>
       </c>
       <c r="DE2" t="n">
-        <v>2.397942911524217e-225</v>
+        <v>4.31755823222587e-220</v>
       </c>
       <c r="DF2" t="n">
-        <v>2.586948296380725e-228</v>
+        <v>4.558141521482147e-223</v>
       </c>
       <c r="DG2" t="n">
-        <v>9.06188210253464e-231</v>
+        <v>3.700890856332966e-226</v>
       </c>
       <c r="DH2" t="n">
-        <v>3.886614858212058e-233</v>
+        <v>1.785066964076756e-228</v>
       </c>
       <c r="DI2" t="n">
-        <v>8.791275100119018e-236</v>
+        <v>7.562644955200168e-231</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.414562812630237e-238</v>
+        <v>1.208275760238667e-233</v>
       </c>
       <c r="DK2" t="n">
-        <v>2.387324601335643e-241</v>
+        <v>1.390003135345403e-236</v>
       </c>
       <c r="DL2" t="n">
-        <v>2.897498312560437e-244</v>
+        <v>2.150474439561489e-239</v>
       </c>
       <c r="DM2" t="n">
-        <v>5.108776753395392e-247</v>
+        <v>1.369477406242299e-242</v>
       </c>
       <c r="DN2" t="n">
-        <v>3.511160701587145e-249</v>
+        <v>4.382132788123227e-245</v>
       </c>
       <c r="DO2" t="n">
-        <v>2.871754232587332e-252</v>
+        <v>1.157487734453493e-247</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.800672027790661e-255</v>
+        <v>2.150736566185093e-250</v>
       </c>
       <c r="DQ2" t="n">
-        <v>9.143291690508602e-258</v>
+        <v>2.582027569033155e-253</v>
       </c>
       <c r="DR2" t="n">
-        <v>7.117681272461723e-261</v>
+        <v>4.112244888211057e-256</v>
       </c>
       <c r="DS2" t="n">
-        <v>4.572417750726473e-264</v>
+        <v>4.171585755963235e-259</v>
       </c>
       <c r="DT2" t="n">
-        <v>4.466262677812194e-266</v>
+        <v>3.506042592803475e-262</v>
       </c>
       <c r="DU2" t="n">
-        <v>6.021315133415379e-269</v>
+        <v>1.76432180434712e-264</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.340466769810262e-271</v>
+        <v>7.376672162470656e-267</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.202469662596311e-274</v>
+        <v>5.658245753395952e-270</v>
       </c>
       <c r="DX2" t="n">
-        <v>8.785781265792055e-278</v>
+        <v>4.761898940410685e-273</v>
       </c>
       <c r="DY2" t="n">
-        <v>2.352839701462913e-280</v>
+        <v>4.223394674280097e-276</v>
       </c>
       <c r="DZ2" t="n">
-        <v>3.775816374673988e-283</v>
+        <v>1.315724126168327e-278</v>
       </c>
       <c r="EA2" t="n">
-        <v>3.130521832559127e-286</v>
+        <v>1.08717160814707e-281</v>
       </c>
       <c r="EB2" t="n">
-        <v>7.081626247678845e-289</v>
+        <v>1.052360080531971e-284</v>
       </c>
       <c r="EC2" t="n">
-        <v>8.087904774296174e-292</v>
+        <v>1.729816217465152e-287</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.157207881367494e-294</v>
+        <v>1.533692706770631e-290</v>
       </c>
       <c r="EE2" t="n">
-        <v>7.58025253922219e-298</v>
+        <v>2.624222753665482e-293</v>
       </c>
       <c r="EF2" t="n">
-        <v>1.36358826846082e-300</v>
+        <v>5.132561599015998e-296</v>
       </c>
       <c r="EG2" t="n">
-        <v>1.806331120430708e-303</v>
+        <v>3.057723759624186e-299</v>
       </c>
       <c r="EH2" t="n">
-        <v>2.506772969496655e-306</v>
+        <v>7.405948786680854e-302</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>5.491002418069827e-305</v>
       </c>
       <c r="EJ2" t="n">
         <v>0</v>
@@ -9465,6 +9480,9 @@
         <v>0</v>
       </c>
       <c r="SF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="SG2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9478,70 +9496,70 @@
         <v>0.33</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3327291070190232</v>
+        <v>0.3308648686140421</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3286702834046455</v>
+        <v>0.3427263105743406</v>
       </c>
       <c r="E3" t="n">
-        <v>0.400695257314418</v>
+        <v>0.3043853518361088</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3248977292540809</v>
+        <v>0.4355761493624736</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4156430742620588</v>
+        <v>0.3316908442446918</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4849786520966848</v>
+        <v>0.5126667448772062</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5502521606608423</v>
+        <v>0.6002088913501653</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9457124655483301</v>
+        <v>0.6731938052299796</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9764598068335671</v>
+        <v>0.9406048925350664</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9726335092367744</v>
+        <v>0.9768490249286601</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9991164317218874</v>
+        <v>0.9742303852881182</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9999215600965287</v>
+        <v>0.9974673014546422</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9999847961935276</v>
+        <v>0.9998027030722875</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9999988801002351</v>
+        <v>0.999955814504737</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9999998173178443</v>
+        <v>0.9999992645431238</v>
       </c>
       <c r="R3" t="n">
-        <v>0.999999998822563</v>
+        <v>0.999999888175658</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9999999998312392</v>
+        <v>0.9999999883087933</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9999999999936036</v>
+        <v>0.9999999995746203</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9999999999998483</v>
+        <v>0.9999999999884968</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9999999999999899</v>
+        <v>0.9999999999994273</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999798</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="Y3" t="n">
         <v>1</v>
@@ -10969,6 +10987,9 @@
         <v>1</v>
       </c>
       <c r="SF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="SG3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10982,403 +11003,403 @@
         <v>0.33</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2934718919159781</v>
+        <v>0.2804705099847123</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1746227196996436</v>
+        <v>0.2108915603579781</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1989147059246327</v>
+        <v>0.09145678753750179</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05020794993674293</v>
+        <v>0.1073815571761648</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04267187573689227</v>
+        <v>0.0343787516614418</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009883938430167825</v>
+        <v>0.02312868222538915</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001207589337941767</v>
+        <v>0.003247839555399664</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001932238856503659</v>
+        <v>0.0004564912696471053</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001392610678694548</v>
+        <v>0.0004751297516691026</v>
       </c>
       <c r="L4" t="n">
-        <v>1.447531447874394e-06</v>
+        <v>2.215025257828964e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>4.399529457649207e-07</v>
+        <v>1.913935181909412e-06</v>
       </c>
       <c r="N4" t="n">
-        <v>5.68581325138369e-08</v>
+        <v>2.177027335639375e-07</v>
       </c>
       <c r="O4" t="n">
-        <v>1.168846649693126e-09</v>
+        <v>1.918957272267653e-08</v>
       </c>
       <c r="P4" t="n">
-        <v>1.708460860463424e-10</v>
+        <v>1.122757762579345e-10</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.175444751622856e-12</v>
+        <v>2.13489996108615e-11</v>
       </c>
       <c r="R4" t="n">
-        <v>7.86388704955431e-12</v>
+        <v>2.820072538580712e-13</v>
       </c>
       <c r="S4" t="n">
-        <v>6.761626764408629e-14</v>
+        <v>1.572564502127937e-13</v>
       </c>
       <c r="T4" t="n">
-        <v>1.894693582123516e-15</v>
+        <v>4.967770626225244e-15</v>
       </c>
       <c r="U4" t="n">
-        <v>7.116882472480206e-17</v>
+        <v>1.344256626456365e-16</v>
       </c>
       <c r="V4" t="n">
-        <v>1.901975470578566e-19</v>
+        <v>1.17908679450393e-18</v>
       </c>
       <c r="W4" t="n">
-        <v>3.46359222055276e-21</v>
+        <v>8.521934193971309e-21</v>
       </c>
       <c r="X4" t="n">
-        <v>6.45963370310888e-24</v>
+        <v>5.300380818009627e-23</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.672361831083019e-25</v>
+        <v>1.545096108638721e-24</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.599429044236994e-28</v>
+        <v>2.095183162808199e-26</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.812413197120713e-29</v>
+        <v>5.245177423654955e-28</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.433487253497114e-31</v>
+        <v>3.009125137503684e-30</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.287534276494063e-32</v>
+        <v>1.518273689922616e-32</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.162112438690706e-35</v>
+        <v>4.573357970683252e-34</v>
       </c>
       <c r="AE4" t="n">
-        <v>7.043746047473071e-38</v>
+        <v>1.122649276578699e-36</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.147228571501236e-39</v>
+        <v>1.920699415382076e-38</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.983572724601819e-41</v>
+        <v>1.041732248319391e-40</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.099214109290753e-43</v>
+        <v>5.49698325190916e-43</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.753577324747715e-46</v>
+        <v>8.312324298133966e-46</v>
       </c>
       <c r="AJ4" t="n">
-        <v>4.128410444001617e-48</v>
+        <v>5.565941485502695e-48</v>
       </c>
       <c r="AK4" t="n">
-        <v>5.408322062599134e-51</v>
+        <v>1.028687214679252e-49</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.128194102924419e-52</v>
+        <v>6.069636463826136e-52</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.176073079430912e-54</v>
+        <v>3.469635383737044e-54</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.59473117229043e-57</v>
+        <v>4.440066211019457e-56</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.955841454995551e-58</v>
+        <v>1.155871542276966e-57</v>
       </c>
       <c r="AP4" t="n">
-        <v>5.588501152717967e-61</v>
+        <v>3.746892751824252e-59</v>
       </c>
       <c r="AQ4" t="n">
-        <v>8.374322135468768e-63</v>
+        <v>7.05083931988653e-61</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.170954020367575e-64</v>
+        <v>5.073104861072121e-63</v>
       </c>
       <c r="AS4" t="n">
-        <v>4.165203301552408e-67</v>
+        <v>9.68298386986609e-66</v>
       </c>
       <c r="AT4" t="n">
-        <v>6.840071322667045e-68</v>
+        <v>3.443647332802493e-68</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.509938836129474e-73</v>
+        <v>4.829372658707518e-70</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.794431073572376e-74</v>
+        <v>2.679761582948738e-72</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.934446767047143e-78</v>
+        <v>1.463061886216209e-74</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.890286845989091e-80</v>
+        <v>3.747759133527122e-77</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.922388487024399e-82</v>
+        <v>8.49739521846003e-80</v>
       </c>
       <c r="AZ4" t="n">
-        <v>6.759695188862616e-85</v>
+        <v>3.626162198437479e-82</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.022115541205165e-86</v>
+        <v>2.115813135098485e-84</v>
       </c>
       <c r="BB4" t="n">
-        <v>8.15597464979384e-90</v>
+        <v>1.476333154864625e-86</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.306667323894053e-91</v>
+        <v>1.775895683773194e-88</v>
       </c>
       <c r="BD4" t="n">
-        <v>3.323888211622727e-94</v>
+        <v>7.024100725948044e-91</v>
       </c>
       <c r="BE4" t="n">
-        <v>6.789449334868529e-97</v>
+        <v>1.281193379185666e-93</v>
       </c>
       <c r="BF4" t="n">
-        <v>3.304345423416374e-98</v>
+        <v>5.887829819755327e-96</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.047162245219669e-100</v>
+        <v>2.313051079923991e-98</v>
       </c>
       <c r="BH4" t="n">
-        <v>4.200837885334507e-100</v>
+        <v>2.6444413032289e-100</v>
       </c>
       <c r="BI4" t="n">
-        <v>8.0238037069988e-105</v>
+        <v>1.508473948521804e-101</v>
       </c>
       <c r="BJ4" t="n">
-        <v>8.021244705274809e-107</v>
+        <v>5.636156785015245e-104</v>
       </c>
       <c r="BK4" t="n">
-        <v>1.284578624691279e-109</v>
+        <v>1.474006247766875e-106</v>
       </c>
       <c r="BL4" t="n">
-        <v>1.362619168872853e-112</v>
+        <v>2.675973246790757e-109</v>
       </c>
       <c r="BM4" t="n">
-        <v>3.10840489727995e-115</v>
+        <v>6.138801967059162e-112</v>
       </c>
       <c r="BN4" t="n">
-        <v>3.94015670739698e-118</v>
+        <v>8.700240860880718e-115</v>
       </c>
       <c r="BO4" t="n">
-        <v>7.174904233602555e-121</v>
+        <v>1.624100989624688e-117</v>
       </c>
       <c r="BP4" t="n">
-        <v>1.65394283701487e-123</v>
+        <v>1.372197799115501e-120</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1.393700613642396e-126</v>
+        <v>2.890118629077044e-123</v>
       </c>
       <c r="BR4" t="n">
-        <v>3.681224700517526e-129</v>
+        <v>8.09601869632772e-126</v>
       </c>
       <c r="BS4" t="n">
-        <v>3.780670197610212e-132</v>
+        <v>9.035943404443166e-129</v>
       </c>
       <c r="BT4" t="n">
-        <v>7.824634245398888e-135</v>
+        <v>8.713774063127265e-132</v>
       </c>
       <c r="BU4" t="n">
-        <v>8.856594167187765e-138</v>
+        <v>9.162408161459281e-135</v>
       </c>
       <c r="BV4" t="n">
-        <v>8.447204974820219e-141</v>
+        <v>1.799044342400478e-137</v>
       </c>
       <c r="BW4" t="n">
-        <v>2.106507408812045e-143</v>
+        <v>3.668145500492888e-140</v>
       </c>
       <c r="BX4" t="n">
-        <v>7.125622997247849e-146</v>
+        <v>9.010816298859896e-143</v>
       </c>
       <c r="BY4" t="n">
-        <v>3.005642044490487e-149</v>
+        <v>8.117782583500878e-146</v>
       </c>
       <c r="BZ4" t="n">
-        <v>8.281568711863723e-152</v>
+        <v>2.499657077931179e-148</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.014054656588591e-154</v>
+        <v>2.884221014221378e-151</v>
       </c>
       <c r="CB4" t="n">
-        <v>2.707846781535603e-157</v>
+        <v>8.60690322354738e-154</v>
       </c>
       <c r="CC4" t="n">
-        <v>5.825999961756438e-159</v>
+        <v>1.038438255362965e-156</v>
       </c>
       <c r="CD4" t="n">
-        <v>5.450129234568065e-162</v>
+        <v>1.504311424436323e-158</v>
       </c>
       <c r="CE4" t="n">
-        <v>8.946829952066779e-165</v>
+        <v>2.519228714702654e-161</v>
       </c>
       <c r="CF4" t="n">
-        <v>1.182410964260344e-167</v>
+        <v>2.885996848234689e-164</v>
       </c>
       <c r="CG4" t="n">
-        <v>1.745824681547715e-170</v>
+        <v>2.803683361045745e-167</v>
       </c>
       <c r="CH4" t="n">
-        <v>5.262749043452874e-173</v>
+        <v>3.545635528037962e-170</v>
       </c>
       <c r="CI4" t="n">
-        <v>9.510175286545521e-175</v>
+        <v>9.742193991732929e-173</v>
       </c>
       <c r="CJ4" t="n">
-        <v>2.771205793643455e-178</v>
+        <v>3.482301309141829e-175</v>
       </c>
       <c r="CK4" t="n">
-        <v>4.110327655304359e-181</v>
+        <v>3.995402744496315e-178</v>
       </c>
       <c r="CL4" t="n">
-        <v>5.748867512423151e-184</v>
+        <v>5.722302575352594e-181</v>
       </c>
       <c r="CM4" t="n">
-        <v>1.286747940702386e-186</v>
+        <v>1.453530653136138e-183</v>
       </c>
       <c r="CN4" t="n">
-        <v>4.367074232609134e-189</v>
+        <v>2.502590547253381e-186</v>
       </c>
       <c r="CO4" t="n">
-        <v>4.68406775929644e-192</v>
+        <v>4.026978713256243e-189</v>
       </c>
       <c r="CP4" t="n">
-        <v>9.058775753730011e-195</v>
+        <v>6.894046423849462e-192</v>
       </c>
       <c r="CQ4" t="n">
-        <v>9.965445684509347e-198</v>
+        <v>5.842862561212546e-195</v>
       </c>
       <c r="CR4" t="n">
-        <v>1.690799731206525e-200</v>
+        <v>1.11531263409016e-197</v>
       </c>
       <c r="CS4" t="n">
-        <v>3.642096643563485e-203</v>
+        <v>1.230319541205045e-200</v>
       </c>
       <c r="CT4" t="n">
-        <v>5.856246746296492e-206</v>
+        <v>2.195983355506923e-203</v>
       </c>
       <c r="CU4" t="n">
-        <v>2.371559931838471e-208</v>
+        <v>5.020242574785584e-206</v>
       </c>
       <c r="CV4" t="n">
-        <v>1.654795909867353e-211</v>
+        <v>1.015337445206485e-208</v>
       </c>
       <c r="CW4" t="n">
-        <v>1.050879710266396e-214</v>
+        <v>8.353281793542779e-212</v>
       </c>
       <c r="CX4" t="n">
-        <v>5.729761813267457e-217</v>
+        <v>8.0054177265819e-215</v>
       </c>
       <c r="CY4" t="n">
-        <v>9.680732203962379e-220</v>
+        <v>2.110188573207284e-217</v>
       </c>
       <c r="CZ4" t="n">
-        <v>5.662604877710034e-223</v>
+        <v>3.912896999764731e-220</v>
       </c>
       <c r="DA4" t="n">
-        <v>8.549577750446851e-226</v>
+        <v>4.132203247108951e-223</v>
       </c>
       <c r="DB4" t="n">
-        <v>8.689352992265192e-229</v>
+        <v>4.150404092212378e-226</v>
       </c>
       <c r="DC4" t="n">
-        <v>3.383306040085875e-230</v>
+        <v>4.483929669178973e-229</v>
       </c>
       <c r="DD4" t="n">
-        <v>1.012716696497363e-233</v>
+        <v>1.974294023945881e-231</v>
       </c>
       <c r="DE4" t="n">
-        <v>1.480207697629124e-236</v>
+        <v>2.462321759305391e-234</v>
       </c>
       <c r="DF4" t="n">
-        <v>2.106788064684261e-239</v>
+        <v>2.196938746310341e-237</v>
       </c>
       <c r="DG4" t="n">
-        <v>5.121871843313264e-241</v>
+        <v>3.712595345497315e-240</v>
       </c>
       <c r="DH4" t="n">
-        <v>3.212664794471243e-243</v>
+        <v>2.830577356969342e-242</v>
       </c>
       <c r="DI4" t="n">
-        <v>2.429718214040557e-246</v>
+        <v>1.050059296160012e-244</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2.423632800281966e-249</v>
+        <v>1.017274284398029e-247</v>
       </c>
       <c r="DK4" t="n">
-        <v>7.17523289911708e-252</v>
+        <v>1.260121462500148e-250</v>
       </c>
       <c r="DL4" t="n">
-        <v>4.967049568737269e-255</v>
+        <v>3.598764063593689e-253</v>
       </c>
       <c r="DM4" t="n">
-        <v>9.431066031375601e-258</v>
+        <v>5.3004377428502e-256</v>
       </c>
       <c r="DN4" t="n">
-        <v>1.813645329375176e-260</v>
+        <v>6.491124034247331e-259</v>
       </c>
       <c r="DO4" t="n">
-        <v>3.555549705778225e-263</v>
+        <v>2.050590720231929e-261</v>
       </c>
       <c r="DP4" t="n">
-        <v>2.729454316992975e-266</v>
+        <v>1.706167261888081e-264</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2.201666110653078e-269</v>
+        <v>1.084229350154708e-267</v>
       </c>
       <c r="DR4" t="n">
-        <v>3.173827055327821e-272</v>
+        <v>1.998349583763482e-270</v>
       </c>
       <c r="DS4" t="n">
-        <v>3.57958060557292e-275</v>
+        <v>2.134066413449949e-273</v>
       </c>
       <c r="DT4" t="n">
-        <v>8.515301252240871e-278</v>
+        <v>1.738829847011345e-276</v>
       </c>
       <c r="DU4" t="n">
-        <v>1.482201934909117e-279</v>
+        <v>5.939312054580107e-279</v>
       </c>
       <c r="DV4" t="n">
-        <v>6.282589688810167e-283</v>
+        <v>1.829645733516766e-281</v>
       </c>
       <c r="DW4" t="n">
-        <v>4.786108627990092e-286</v>
+        <v>1.599977037332655e-284</v>
       </c>
       <c r="DX4" t="n">
-        <v>4.191674514531038e-289</v>
+        <v>1.314771344402366e-287</v>
       </c>
       <c r="DY4" t="n">
-        <v>3.414217685590051e-291</v>
+        <v>9.344301162476996e-291</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2.169606142166873e-294</v>
+        <v>2.80016225685532e-293</v>
       </c>
       <c r="EA4" t="n">
-        <v>1.623096623675233e-297</v>
+        <v>2.748448905437284e-296</v>
       </c>
       <c r="EB4" t="n">
-        <v>1.143468684840539e-300</v>
+        <v>1.771867372577223e-299</v>
       </c>
       <c r="EC4" t="n">
-        <v>1.085615662410139e-303</v>
+        <v>1.984807778282893e-302</v>
       </c>
       <c r="ED4" t="n">
-        <v>1.789013449720053e-306</v>
+        <v>2.680723363966801e-305</v>
       </c>
       <c r="EE4" t="n">
-        <v>0</v>
+        <v>3.947878587960706e-308</v>
       </c>
       <c r="EF4" t="n">
         <v>0</v>
@@ -12473,6 +12494,9 @@
         <v>0</v>
       </c>
       <c r="SF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SG4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12487,7 +12511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SF4"/>
+  <dimension ref="A1:SG4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13993,6 +14017,9 @@
       <c r="SF1" s="2" t="n">
         <v>2521</v>
       </c>
+      <c r="SG1" s="2" t="n">
+        <v>2522</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -14004,361 +14031,361 @@
         <v>0.34</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3676571349839057</v>
+        <v>0.2732288957993735</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4006098519506244</v>
+        <v>0.3570473787970924</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2423473608918792</v>
+        <v>0.3819773497471248</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02268495308171238</v>
+        <v>0.1954519946601752</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01268835610165971</v>
+        <v>0.08112531388741084</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03099267116505003</v>
+        <v>0.02617090090064152</v>
       </c>
       <c r="I2" t="n">
-        <v>0.009948915538846595</v>
+        <v>0.03700636277628283</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001427445120400899</v>
+        <v>0.009683288906800267</v>
       </c>
       <c r="K2" t="n">
-        <v>8.350859409576117e-05</v>
+        <v>0.001169065762425234</v>
       </c>
       <c r="L2" t="n">
-        <v>1.793813948076547e-07</v>
+        <v>0.0002342132859040842</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17454591044856e-09</v>
+        <v>2.216386837100766e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.297830605076371e-10</v>
+        <v>2.405287787064458e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>2.898115082402115e-13</v>
+        <v>3.365686794930939e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>7.952612939999262e-15</v>
+        <v>2.60528209927367e-10</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.68501052430758e-17</v>
+        <v>8.496950824326657e-12</v>
       </c>
       <c r="R2" t="n">
-        <v>4.739925619732459e-19</v>
+        <v>1.551792213526147e-13</v>
       </c>
       <c r="S2" t="n">
-        <v>6.828860165763027e-20</v>
+        <v>5.174627368328493e-16</v>
       </c>
       <c r="T2" t="n">
-        <v>5.53491882716184e-24</v>
+        <v>2.099109652167115e-17</v>
       </c>
       <c r="U2" t="n">
-        <v>1.724064382523975e-25</v>
+        <v>4.048487123401357e-19</v>
       </c>
       <c r="V2" t="n">
-        <v>6.10514466965823e-29</v>
+        <v>1.263839571931414e-21</v>
       </c>
       <c r="W2" t="n">
-        <v>6.915364553185056e-31</v>
+        <v>8.145144915245995e-24</v>
       </c>
       <c r="X2" t="n">
-        <v>5.218535497882964e-31</v>
+        <v>3.71903412569322e-26</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.007992384536384e-35</v>
+        <v>1.269210746385768e-27</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.948264647643314e-38</v>
+        <v>2.972646586770325e-30</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.536305262914061e-41</v>
+        <v>3.237813237451207e-33</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.237644436436907e-44</v>
+        <v>1.074233702000034e-35</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.026601603424991e-46</v>
+        <v>2.266732347037029e-38</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.112923196315193e-49</v>
+        <v>3.404238050425361e-41</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.016849996807437e-52</v>
+        <v>7.271862523439922e-44</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.196757741862006e-54</v>
+        <v>2.213964664094924e-46</v>
       </c>
       <c r="AG2" t="n">
-        <v>3.262048556706351e-57</v>
+        <v>2.346951180372658e-49</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.727778647377673e-59</v>
+        <v>2.152150751744109e-51</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.459594798044638e-61</v>
+        <v>4.279160877267557e-54</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3.28646640851716e-64</v>
+        <v>2.201770168264382e-56</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.268192410089393e-66</v>
+        <v>5.359671331779412e-58</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.62208814437253e-68</v>
+        <v>2.094613640534627e-60</v>
       </c>
       <c r="AM2" t="n">
-        <v>7.915067813405226e-70</v>
+        <v>4.039006964824344e-62</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.107747891773615e-73</v>
+        <v>3.949618669524015e-64</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.529583940486025e-76</v>
+        <v>2.750235900583203e-67</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.348285114831478e-79</v>
+        <v>4.691283516931374e-70</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6.067186801614679e-82</v>
+        <v>7.812689930107244e-73</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.247108575219159e-84</v>
+        <v>1.015621491055453e-75</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.039834771654614e-87</v>
+        <v>3.808739550477936e-78</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.398003788550672e-90</v>
+        <v>5.705054364428818e-81</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.759914847322812e-93</v>
+        <v>1.003446395548553e-83</v>
       </c>
       <c r="AV2" t="n">
-        <v>5.209797048475954e-95</v>
+        <v>5.194430533063578e-86</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.547695938174801e-97</v>
+        <v>9.550924596299756e-89</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.504278310471618e-100</v>
+        <v>5.909392806096315e-91</v>
       </c>
       <c r="AY2" t="n">
-        <v>4.341745189813476e-103</v>
+        <v>1.669203493140827e-93</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4.612284612856334e-106</v>
+        <v>2.55160843587683e-96</v>
       </c>
       <c r="BA2" t="n">
-        <v>6.040364678984049e-109</v>
+        <v>3.529773445046923e-99</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.101883142179365e-111</v>
+        <v>5.454402774068141e-102</v>
       </c>
       <c r="BC2" t="n">
-        <v>3.912839250382702e-114</v>
+        <v>8.251720193568128e-105</v>
       </c>
       <c r="BD2" t="n">
-        <v>7.555141229015933e-117</v>
+        <v>1.543250361797498e-107</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.48363813382798e-120</v>
+        <v>6.474361442546307e-110</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.987980286339206e-122</v>
+        <v>6.137635617908293e-113</v>
       </c>
       <c r="BG2" t="n">
-        <v>8.302644353621824e-126</v>
+        <v>1.675942097761349e-115</v>
       </c>
       <c r="BH2" t="n">
-        <v>9.849897356687213e-129</v>
+        <v>1.059022021050042e-118</v>
       </c>
       <c r="BI2" t="n">
-        <v>6.443259843621389e-132</v>
+        <v>1.459466549834281e-121</v>
       </c>
       <c r="BJ2" t="n">
-        <v>4.840809859530923e-135</v>
+        <v>1.701288733578674e-124</v>
       </c>
       <c r="BK2" t="n">
-        <v>4.445662207489315e-138</v>
+        <v>1.083007227530421e-127</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.968334626414918e-141</v>
+        <v>8.863121695831475e-131</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.782988283666289e-144</v>
+        <v>7.374772712806372e-134</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.517177203066844e-147</v>
+        <v>6.399129938889886e-137</v>
       </c>
       <c r="BO2" t="n">
-        <v>2.415114079337641e-150</v>
+        <v>3.09382681855717e-140</v>
       </c>
       <c r="BP2" t="n">
-        <v>2.985237358945942e-153</v>
+        <v>9.216975308199311e-143</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.64759079023519e-156</v>
+        <v>8.44727770657713e-146</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.057060650820365e-159</v>
+        <v>6.529388648923937e-149</v>
       </c>
       <c r="BS2" t="n">
-        <v>8.177208810045492e-162</v>
+        <v>3.669421667083298e-152</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.563622085342296e-164</v>
+        <v>1.998794669728862e-154</v>
       </c>
       <c r="BU2" t="n">
-        <v>9.895031976334979e-168</v>
+        <v>1.580077935610468e-157</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.064897740169398e-170</v>
+        <v>1.093076295887019e-160</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.068554129763722e-173</v>
+        <v>8.458646569849782e-164</v>
       </c>
       <c r="BX2" t="n">
-        <v>2.397476935727727e-176</v>
+        <v>1.081346629729683e-166</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.140530286446095e-179</v>
+        <v>5.338058331901286e-169</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.358536379958916e-182</v>
+        <v>3.836103278033798e-172</v>
       </c>
       <c r="CA2" t="n">
-        <v>9.425366739227779e-186</v>
+        <v>3.257102598085161e-175</v>
       </c>
       <c r="CB2" t="n">
-        <v>6.934391126967191e-189</v>
+        <v>3.226390391699587e-178</v>
       </c>
       <c r="CC2" t="n">
-        <v>4.352566155857013e-192</v>
+        <v>1.707408672471369e-181</v>
       </c>
       <c r="CD2" t="n">
-        <v>4.501671335829414e-195</v>
+        <v>1.815419688673355e-184</v>
       </c>
       <c r="CE2" t="n">
-        <v>7.754654973424365e-198</v>
+        <v>1.01908897445214e-187</v>
       </c>
       <c r="CF2" t="n">
-        <v>3.526402444046896e-200</v>
+        <v>1.863620545547416e-190</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.237659036374753e-203</v>
+        <v>2.813623098474391e-193</v>
       </c>
       <c r="CH2" t="n">
-        <v>7.067872064274835e-206</v>
+        <v>2.116979634197807e-196</v>
       </c>
       <c r="CI2" t="n">
-        <v>7.135507513572114e-209</v>
+        <v>7.053179952833195e-199</v>
       </c>
       <c r="CJ2" t="n">
-        <v>4.383979160069207e-212</v>
+        <v>3.929498916229202e-202</v>
       </c>
       <c r="CK2" t="n">
-        <v>2.279220168062485e-215</v>
+        <v>2.603176647103759e-205</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.244034213323286e-218</v>
+        <v>1.301990339927298e-208</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.2368448475627e-221</v>
+        <v>1.658665367937752e-211</v>
       </c>
       <c r="CN2" t="n">
-        <v>2.197601222411756e-224</v>
+        <v>8.140519286288745e-215</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.27597666434243e-227</v>
+        <v>9.785552576279905e-218</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.714124831361727e-230</v>
+        <v>5.919914396442165e-221</v>
       </c>
       <c r="CQ2" t="n">
-        <v>4.770512014101915e-233</v>
+        <v>6.846945039402231e-224</v>
       </c>
       <c r="CR2" t="n">
-        <v>9.165226396796583e-236</v>
+        <v>2.186941480778297e-226</v>
       </c>
       <c r="CS2" t="n">
-        <v>4.019966079031388e-239</v>
+        <v>3.840710551036565e-229</v>
       </c>
       <c r="CT2" t="n">
-        <v>2.311015185638442e-242</v>
+        <v>3.130977508039419e-232</v>
       </c>
       <c r="CU2" t="n">
-        <v>2.049122955059732e-245</v>
+        <v>2.482224887845293e-235</v>
       </c>
       <c r="CV2" t="n">
-        <v>9.041173188338012e-249</v>
+        <v>1.637702569899997e-238</v>
       </c>
       <c r="CW2" t="n">
-        <v>3.970902485286937e-252</v>
+        <v>7.871536317585233e-242</v>
       </c>
       <c r="CX2" t="n">
-        <v>2.397363876397826e-255</v>
+        <v>2.790542267515406e-245</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.585232506407631e-258</v>
+        <v>2.65793700460113e-248</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.745335732389643e-261</v>
+        <v>3.640543035864978e-251</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.340262943456179e-264</v>
+        <v>1.554454044193339e-254</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.177804910383589e-267</v>
+        <v>1.540910946095008e-257</v>
       </c>
       <c r="DC2" t="n">
-        <v>5.460831399992054e-271</v>
+        <v>8.810107713942819e-261</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.514182062815329e-273</v>
+        <v>3.165857263099195e-264</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.073637170977804e-276</v>
+        <v>1.565753511107612e-266</v>
       </c>
       <c r="DF2" t="n">
-        <v>4.82390238027996e-280</v>
+        <v>8.163079918199396e-270</v>
       </c>
       <c r="DG2" t="n">
-        <v>3.466355703170838e-283</v>
+        <v>6.096789591502077e-273</v>
       </c>
       <c r="DH2" t="n">
-        <v>1.264809174994922e-286</v>
+        <v>2.242494647074508e-276</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.581240424070338e-289</v>
+        <v>8.677582329531957e-280</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.352506447793223e-292</v>
+        <v>1.116021504607511e-282</v>
       </c>
       <c r="DK2" t="n">
-        <v>1.020117908225242e-295</v>
+        <v>5.620643995871633e-286</v>
       </c>
       <c r="DL2" t="n">
-        <v>3.353913096963402e-299</v>
+        <v>3.592899091022959e-289</v>
       </c>
       <c r="DM2" t="n">
-        <v>1.9079021611638e-302</v>
+        <v>1.643502448194804e-292</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>6.820462331047236e-296</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>4.170584735531864e-299</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>2.365164541023265e-302</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0</v>
+        <v>1.90366187513251e-305</v>
       </c>
       <c r="DR2" t="n">
         <v>0</v>
@@ -15495,6 +15522,9 @@
         <v>0</v>
       </c>
       <c r="SF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="SG2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15508,412 +15538,412 @@
         <v>0.33</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3347730999449947</v>
+        <v>0.327885617810503</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3487807978433128</v>
+        <v>0.3458002504664768</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4023101361888788</v>
+        <v>0.3943551133879112</v>
       </c>
       <c r="F3" t="n">
-        <v>0.220295815350855</v>
+        <v>0.4879872348472923</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1971271018241854</v>
+        <v>0.4054012763950544</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5480534220147836</v>
+        <v>0.4788562394286533</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7285741153879662</v>
+        <v>0.7759229425904722</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3307490819469984</v>
+        <v>0.9224705375289627</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6689353817365178</v>
+        <v>0.7651473950505274</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0381232465029433</v>
+        <v>0.9512635316275361</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001237477563099213</v>
+        <v>0.5764633518958928</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0004549266056320915</v>
+        <v>0.2107593778305738</v>
       </c>
       <c r="O3" t="n">
-        <v>9.213498969754e-06</v>
+        <v>0.03647887357944728</v>
       </c>
       <c r="P3" t="n">
-        <v>2.070795852525252e-06</v>
+        <v>0.001932275650069587</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.901166491706687e-09</v>
+        <v>0.0005768907031645145</v>
       </c>
       <c r="R3" t="n">
-        <v>1.17814802297722e-09</v>
+        <v>3.714842216578469e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>2.104689444942856e-09</v>
+        <v>9.471834488651051e-07</v>
       </c>
       <c r="T3" t="n">
-        <v>6.510958229812842e-13</v>
+        <v>1.273634333432807e-06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.017394509658375e-13</v>
+        <v>1.149633499378786e-07</v>
       </c>
       <c r="V3" t="n">
-        <v>4.876522144306531e-17</v>
+        <v>2.820399734832495e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>3.056179354321348e-18</v>
+        <v>7.642131975303347e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>2.449944824191969e-17</v>
+        <v>2.104358706579529e-12</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.012529258573575e-22</v>
+        <v>2.727292673673261e-12</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.485143062788259e-25</v>
+        <v>2.408484368714808e-14</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.5998052991869e-27</v>
+        <v>5.093587894881834e-17</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.06038153882154e-29</v>
+        <v>7.241056667325636e-19</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.009284942321279e-31</v>
+        <v>3.050211930372963e-21</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.507602429905332e-35</v>
+        <v>1.455047688322969e-23</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.326704366374474e-37</v>
+        <v>5.04629933536169e-26</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.30061713597767e-39</v>
+        <v>4.62587951838205e-28</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.770998215891516e-42</v>
+        <v>1.022223026860448e-30</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.110036773130879e-43</v>
+        <v>2.642552184227002e-32</v>
       </c>
       <c r="AI3" t="n">
-        <v>5.648477170160874e-45</v>
+        <v>1.874202076120459e-34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.108119528625119e-49</v>
+        <v>4.155732664602428e-36</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.655425796207647e-51</v>
+        <v>1.561658766739161e-37</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.048672099248567e-52</v>
+        <v>2.512874271080311e-39</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.924654318026694e-53</v>
+        <v>2.896731972549231e-40</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.084431386307886e-57</v>
+        <v>1.262347485932166e-41</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.450874144757713e-60</v>
+        <v>1.250024146394366e-44</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.227762365216286e-62</v>
+        <v>6.967764782884355e-47</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.270896691364435e-64</v>
+        <v>3.260522242269303e-49</v>
       </c>
       <c r="AR3" t="n">
-        <v>7.507359493956838e-67</v>
+        <v>9.968335997779824e-52</v>
       </c>
       <c r="AS3" t="n">
-        <v>5.126244351732382e-70</v>
+        <v>1.386354779577383e-53</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.562462995013018e-72</v>
+        <v>4.166500261990701e-56</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.412018724221601e-74</v>
+        <v>2.213530396767181e-58</v>
       </c>
       <c r="AV3" t="n">
-        <v>4.703243554101796e-76</v>
+        <v>3.164455967328136e-60</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.203330387067694e-78</v>
+        <v>1.492192806128458e-62</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.931244049561936e-81</v>
+        <v>3.589068792283606e-64</v>
       </c>
       <c r="AY3" t="n">
-        <v>3.45116123427265e-83</v>
+        <v>2.838745642468455e-66</v>
       </c>
       <c r="AZ3" t="n">
-        <v>9.396214345634918e-86</v>
+        <v>1.381983135000831e-68</v>
       </c>
       <c r="BA3" t="n">
-        <v>3.693505056132215e-88</v>
+        <v>5.947784668326823e-71</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.25671688343816e-90</v>
+        <v>3.040158183515843e-73</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.856345267080499e-92</v>
+        <v>9.714526167067421e-76</v>
       </c>
       <c r="BD3" t="n">
-        <v>8.180388543635468e-95</v>
+        <v>4.101422939817453e-78</v>
       </c>
       <c r="BE3" t="n">
-        <v>7.161277453306006e-98</v>
+        <v>5.589751911951992e-80</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.226404165943722e-99</v>
+        <v>1.330972212830238e-82</v>
       </c>
       <c r="BG3" t="n">
-        <v>4.171540832075322e-103</v>
+        <v>8.739540937513761e-85</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.187335029613284e-105</v>
+        <v>9.340904953684714e-88</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.258872798816957e-108</v>
+        <v>2.926115986622179e-90</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1.884014780341103e-111</v>
+        <v>9.453733803957785e-93</v>
       </c>
       <c r="BK3" t="n">
-        <v>3.972892370953544e-114</v>
+        <v>1.079752372214212e-95</v>
       </c>
       <c r="BL3" t="n">
-        <v>1.172670380737244e-117</v>
+        <v>1.436458932574614e-98</v>
       </c>
       <c r="BM3" t="n">
-        <v>1.922156065710426e-120</v>
+        <v>2.312324450868011e-101</v>
       </c>
       <c r="BN3" t="n">
-        <v>3.554223779618809e-123</v>
+        <v>4.244842804453696e-104</v>
       </c>
       <c r="BO3" t="n">
-        <v>2.75922997183012e-126</v>
+        <v>2.552804257962827e-107</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.047894414473256e-128</v>
+        <v>1.126847367787014e-109</v>
       </c>
       <c r="BQ3" t="n">
-        <v>9.13538214259533e-132</v>
+        <v>2.135170669153582e-112</v>
       </c>
       <c r="BR3" t="n">
-        <v>9.625659031523266e-135</v>
+        <v>3.767122073078351e-115</v>
       </c>
       <c r="BS3" t="n">
-        <v>4.787192870315953e-137</v>
+        <v>3.462138330252244e-118</v>
       </c>
       <c r="BT3" t="n">
-        <v>2.458707307973499e-139</v>
+        <v>3.848376429545151e-120</v>
       </c>
       <c r="BU3" t="n">
-        <v>3.000009492495257e-142</v>
+        <v>4.79765545849335e-123</v>
       </c>
       <c r="BV3" t="n">
-        <v>8.987245328080363e-145</v>
+        <v>7.478996672163857e-126</v>
       </c>
       <c r="BW3" t="n">
-        <v>1.552868181427783e-147</v>
+        <v>9.029779768103169e-129</v>
       </c>
       <c r="BX3" t="n">
-        <v>7.257184498759724e-150</v>
+        <v>2.056374240318799e-131</v>
       </c>
       <c r="BY3" t="n">
-        <v>3.010316266799833e-153</v>
+        <v>2.777995902053298e-133</v>
       </c>
       <c r="BZ3" t="n">
-        <v>5.597187180572344e-156</v>
+        <v>3.786273938096904e-136</v>
       </c>
       <c r="CA3" t="n">
-        <v>9.07210537110057e-159</v>
+        <v>5.051707657754018e-139</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.531536272587352e-161</v>
+        <v>1.441029475969088e-141</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.402557645979277e-164</v>
+        <v>1.4038614206813e-144</v>
       </c>
       <c r="CD3" t="n">
-        <v>4.003581108480205e-167</v>
+        <v>3.984738495679102e-147</v>
       </c>
       <c r="CE3" t="n">
-        <v>8.729202242148831e-170</v>
+        <v>4.468732740168959e-150</v>
       </c>
       <c r="CF3" t="n">
-        <v>1.702048659183331e-171</v>
+        <v>1.99774951906154e-152</v>
       </c>
       <c r="CG3" t="n">
-        <v>4.303417683263536e-175</v>
+        <v>4.653758665410819e-155</v>
       </c>
       <c r="CH3" t="n">
-        <v>3.117498095149417e-177</v>
+        <v>9.039787283555511e-158</v>
       </c>
       <c r="CI3" t="n">
-        <v>7.247882484143966e-180</v>
+        <v>5.333598879923594e-160</v>
       </c>
       <c r="CJ3" t="n">
-        <v>9.814151092246302e-183</v>
+        <v>4.939022697982675e-163</v>
       </c>
       <c r="CK3" t="n">
-        <v>9.576224936051629e-186</v>
+        <v>6.778214529155929e-166</v>
       </c>
       <c r="CL3" t="n">
-        <v>3.571075201568951e-189</v>
+        <v>4.774917216055685e-169</v>
       </c>
       <c r="CM3" t="n">
-        <v>9.245673010361075e-192</v>
+        <v>1.43413373585458e-171</v>
       </c>
       <c r="CN3" t="n">
-        <v>1.930174644172185e-194</v>
+        <v>1.225914648365171e-174</v>
       </c>
       <c r="CO3" t="n">
-        <v>1.760776745214765e-197</v>
+        <v>1.890145219269872e-177</v>
       </c>
       <c r="CP3" t="n">
-        <v>3.811040223491353e-200</v>
+        <v>2.31182098991998e-180</v>
       </c>
       <c r="CQ3" t="n">
-        <v>3.806442558771288e-202</v>
+        <v>5.646705671398009e-183</v>
       </c>
       <c r="CR3" t="n">
-        <v>1.942630942500464e-204</v>
+        <v>5.101670836482347e-185</v>
       </c>
       <c r="CS3" t="n">
-        <v>1.202185066994546e-207</v>
+        <v>1.884876221552207e-187</v>
       </c>
       <c r="CT3" t="n">
-        <v>1.6261018860204e-210</v>
+        <v>4.180278647039086e-190</v>
       </c>
       <c r="CU3" t="n">
-        <v>4.281263523401624e-213</v>
+        <v>9.424519057921695e-193</v>
       </c>
       <c r="CV3" t="n">
-        <v>3.533145932586071e-216</v>
+        <v>1.383322170467666e-195</v>
       </c>
       <c r="CW3" t="n">
-        <v>2.918866158830655e-219</v>
+        <v>1.345119668521655e-198</v>
       </c>
       <c r="CX3" t="n">
-        <v>7.230482462799681e-223</v>
+        <v>4.521368669206971e-202</v>
       </c>
       <c r="CY3" t="n">
-        <v>4.36999608226864e-226</v>
+        <v>3.5531800540029e-205</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.457087915818367e-228</v>
+        <v>1.289594554821995e-207</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.612419727765966e-231</v>
+        <v>1.039900790106077e-210</v>
       </c>
       <c r="DB3" t="n">
-        <v>4.259472553416369e-234</v>
+        <v>2.530147001790062e-213</v>
       </c>
       <c r="DC3" t="n">
-        <v>3.937122798202396e-237</v>
+        <v>3.408384417468145e-216</v>
       </c>
       <c r="DD3" t="n">
-        <v>7.39415102430017e-240</v>
+        <v>1.701200497943949e-219</v>
       </c>
       <c r="DE3" t="n">
-        <v>1.032410688590381e-242</v>
+        <v>1.24932966666873e-221</v>
       </c>
       <c r="DF3" t="n">
-        <v>9.638493746439871e-246</v>
+        <v>1.207556542009989e-224</v>
       </c>
       <c r="DG3" t="n">
-        <v>1.887189242930257e-248</v>
+        <v>2.559955232229153e-227</v>
       </c>
       <c r="DH3" t="n">
-        <v>8.765119224288667e-252</v>
+        <v>1.426099634350969e-230</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.356748628415236e-254</v>
+        <v>9.477010047172382e-234</v>
       </c>
       <c r="DJ3" t="n">
-        <v>3.492812514639693e-257</v>
+        <v>2.83412232296621e-236</v>
       </c>
       <c r="DK3" t="n">
-        <v>6.467066755424593e-260</v>
+        <v>3.210673891341249e-239</v>
       </c>
       <c r="DL3" t="n">
-        <v>2.092694605455837e-263</v>
+        <v>3.256037517581492e-242</v>
       </c>
       <c r="DM3" t="n">
-        <v>2.2672616475387e-266</v>
+        <v>3.107744568394687e-245</v>
       </c>
       <c r="DN3" t="n">
-        <v>3.643675229688036e-269</v>
+        <v>2.195850694465593e-248</v>
       </c>
       <c r="DO3" t="n">
-        <v>1.088577268008502e-272</v>
+        <v>2.035930002781598e-251</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.499088651634405e-275</v>
+        <v>2.352172562223392e-254</v>
       </c>
       <c r="DQ3" t="n">
-        <v>3.551512197302196e-278</v>
+        <v>2.910767654682732e-257</v>
       </c>
       <c r="DR3" t="n">
-        <v>4.038728466683379e-281</v>
+        <v>7.954766567232817e-260</v>
       </c>
       <c r="DS3" t="n">
-        <v>7.946875614892771e-284</v>
+        <v>6.957780778526225e-263</v>
       </c>
       <c r="DT3" t="n">
-        <v>1.028817493514364e-286</v>
+        <v>2.782687740704523e-265</v>
       </c>
       <c r="DU3" t="n">
-        <v>4.499972024345346e-290</v>
+        <v>1.51622362223081e-268</v>
       </c>
       <c r="DV3" t="n">
-        <v>6.468876953657543e-293</v>
+        <v>1.807987634949266e-271</v>
       </c>
       <c r="DW3" t="n">
-        <v>7.317506821287701e-296</v>
+        <v>2.802134179017095e-274</v>
       </c>
       <c r="DX3" t="n">
-        <v>9.007409755117837e-299</v>
+        <v>2.443605361180025e-277</v>
       </c>
       <c r="DY3" t="n">
-        <v>3.495576878940115e-302</v>
+        <v>9.089088334425414e-281</v>
       </c>
       <c r="DZ3" t="n">
-        <v>1.372745663843555e-305</v>
+        <v>9.334295612432178e-284</v>
       </c>
       <c r="EA3" t="n">
-        <v>0</v>
+        <v>9.826180336094973e-287</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>6.000493094402965e-290</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>7.07106316874169e-293</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>6.778437218129133e-296</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>4.865557400667559e-298</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>1.346603084280594e-300</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>2.004704832119067e-303</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>6.519348256947147e-307</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
@@ -16999,6 +17029,9 @@
         <v>0</v>
       </c>
       <c r="SF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="SG3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17012,76 +17045,76 @@
         <v>0.33</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2975697650710996</v>
+        <v>0.3988854863901236</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2506093502060628</v>
+        <v>0.2971523707364307</v>
       </c>
       <c r="E4" t="n">
-        <v>0.355342502919242</v>
+        <v>0.223667536864964</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7570192315674326</v>
+        <v>0.3165607704925325</v>
       </c>
       <c r="G4" t="n">
-        <v>0.790184542074155</v>
+        <v>0.5134734097175349</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4209539068201664</v>
+        <v>0.4949728596707051</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2614769690731871</v>
+        <v>0.1870706946332449</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6691081735409615</v>
+        <v>0.06784617356423693</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3309811096693864</v>
+        <v>0.2336835391870474</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9618765741156619</v>
+        <v>0.04850225508655991</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9987625212623549</v>
+        <v>0.4235144842357362</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9995450732645849</v>
+        <v>0.7892382168816392</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9999907865007404</v>
+        <v>0.9635210927636848</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9999979292041394</v>
+        <v>0.9980677240894021</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9999999910988335</v>
+        <v>0.9994231092883384</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9999999988218519</v>
+        <v>0.9999628515776791</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9999999978953106</v>
+        <v>0.9999990528165505</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9999999999993489</v>
+        <v>0.9999987263656666</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9999999999998983</v>
+        <v>0.99999988503665</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0.9999999971796002</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>0.9999999999235786</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>0.9999999999978956</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>0.9999999999972726</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0.9999999999999758</v>
       </c>
       <c r="AA4" t="n">
         <v>1</v>
@@ -18503,6 +18536,9 @@
         <v>1</v>
       </c>
       <c r="SF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="SG4" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Data/fake_nocalib.xlsx
+++ b/Data/fake_nocalib.xlsx
@@ -1944,73 +1944,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4204531193381447</v>
+        <v>0.3793476846011162</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5629962637107235</v>
+        <v>0.2443382457136077</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7181255052401537</v>
+        <v>0.4095524216894881</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7353792558244767</v>
+        <v>0.6635434669992045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6634561158807928</v>
+        <v>0.8677242659820423</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6785936953210321</v>
+        <v>0.9571203441474139</v>
       </c>
       <c r="I2" t="n">
-        <v>0.244192668384428</v>
+        <v>0.9762388172196976</v>
       </c>
       <c r="J2" t="n">
-        <v>0.454617067444382</v>
+        <v>0.9807121798149688</v>
       </c>
       <c r="K2" t="n">
-        <v>0.720027980070397</v>
+        <v>0.9818872557099124</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9721146405848189</v>
+        <v>0.996658946601905</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9984818907044347</v>
+        <v>0.9988826873923726</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9997485057136849</v>
+        <v>0.9999836269568585</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9999407806356677</v>
+        <v>0.9999975313527698</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9999992180687854</v>
+        <v>0.9999996380446543</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9999999354073765</v>
+        <v>0.9999999888121439</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9999999952658166</v>
+        <v>0.9999999997141267</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9999999995918449</v>
+        <v>0.9999999999693473</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9999999999921714</v>
+        <v>0.9999999999897953</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9999999999999588</v>
+        <v>0.999999999999273</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9999999999999978</v>
+        <v>0.9999999999999754</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
@@ -3454,412 +3454,412 @@
         <v>0.33</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3231932765123403</v>
+        <v>0.3296342073030863</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2862255244832053</v>
+        <v>0.3214936029049453</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2151322014019616</v>
+        <v>0.3280990912466611</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2303956107036899</v>
+        <v>0.2401513653268916</v>
       </c>
       <c r="G3" t="n">
-        <v>0.314840728894836</v>
+        <v>0.1220483975709383</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3138150297263795</v>
+        <v>0.04169547107543006</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7417530179368523</v>
+        <v>0.0235910464715743</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5445840352473456</v>
+        <v>0.0192529375272495</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2799000403588172</v>
+        <v>0.0181081705752914</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0278852300564981</v>
+        <v>0.003340920995463079</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00151810744441949</v>
+        <v>0.001117300590388375</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0002514941984627928</v>
+        <v>1.637302197906345e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>5.921936358610329e-05</v>
+        <v>2.468646314439176e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>7.819312119487251e-07</v>
+        <v>3.619553220963576e-07</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.459262348630573e-08</v>
+        <v>1.118785610012044e-08</v>
       </c>
       <c r="R3" t="n">
-        <v>4.734183328161191e-09</v>
+        <v>2.858733826074507e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>4.081550887759506e-10</v>
+        <v>3.065273871913303e-11</v>
       </c>
       <c r="T3" t="n">
-        <v>7.82862613173115e-12</v>
+        <v>1.020475990134383e-11</v>
       </c>
       <c r="U3" t="n">
-        <v>4.123440139089813e-14</v>
+        <v>7.269509111457317e-13</v>
       </c>
       <c r="V3" t="n">
-        <v>2.208922167862435e-15</v>
+        <v>2.465675334814873e-14</v>
       </c>
       <c r="W3" t="n">
-        <v>1.282976316709989e-17</v>
+        <v>1.062939060395602e-15</v>
       </c>
       <c r="X3" t="n">
-        <v>1.368673611229222e-19</v>
+        <v>6.644673182821444e-17</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.537509886178239e-21</v>
+        <v>2.520931580206053e-18</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.209096527001162e-23</v>
+        <v>1.297266635876832e-20</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.645180296812349e-25</v>
+        <v>4.396779080261565e-22</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.735173437339378e-26</v>
+        <v>6.124532202742192e-24</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.733229669308026e-28</v>
+        <v>3.151967707531632e-25</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.293333334420333e-30</v>
+        <v>9.263358699584408e-27</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.172600918564627e-33</v>
+        <v>2.068301886086068e-29</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.78361040953903e-34</v>
+        <v>6.486970928810728e-31</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.806497684535654e-37</v>
+        <v>3.933648137379379e-33</v>
       </c>
       <c r="AH3" t="n">
-        <v>3.528733669652618e-39</v>
+        <v>3.031273873584111e-35</v>
       </c>
       <c r="AI3" t="n">
-        <v>3.551414897126198e-41</v>
+        <v>5.507542086270659e-37</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.845539572553126e-43</v>
+        <v>2.274624694623524e-39</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.650369239295483e-45</v>
+        <v>6.154109012305736e-41</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.568473467610158e-46</v>
+        <v>1.003727369831053e-42</v>
       </c>
       <c r="AM3" t="n">
-        <v>4.322348666271413e-48</v>
+        <v>2.718431951714819e-44</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.998146904888979e-50</v>
+        <v>4.813886081518068e-46</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.001084982287456e-52</v>
+        <v>9.178677434698341e-49</v>
       </c>
       <c r="AP3" t="n">
-        <v>8.967916306300224e-55</v>
+        <v>5.449626853517709e-51</v>
       </c>
       <c r="AQ3" t="n">
-        <v>8.35991108793775e-58</v>
+        <v>8.20595186809358e-53</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.323688413880276e-60</v>
+        <v>3.835679834072938e-55</v>
       </c>
       <c r="AS3" t="n">
-        <v>6.94524699348581e-63</v>
+        <v>3.234895888913618e-57</v>
       </c>
       <c r="AT3" t="n">
-        <v>6.485154789932017e-65</v>
+        <v>1.187025698392477e-60</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.132523146676326e-66</v>
+        <v>2.615360518692618e-63</v>
       </c>
       <c r="AV3" t="n">
-        <v>4.135364124334432e-69</v>
+        <v>2.076181926814557e-65</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.888953572971093e-71</v>
+        <v>1.035154921040368e-67</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.155002739253613e-72</v>
+        <v>1.212833259527395e-69</v>
       </c>
       <c r="AY3" t="n">
-        <v>2.15594899571307e-74</v>
+        <v>2.629894751960169e-71</v>
       </c>
       <c r="AZ3" t="n">
-        <v>7.200430506691081e-77</v>
+        <v>9.03232060590459e-74</v>
       </c>
       <c r="BA3" t="n">
-        <v>4.355544394930296e-79</v>
+        <v>6.127576116742845e-76</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.231977946848314e-81</v>
+        <v>2.59490365776871e-78</v>
       </c>
       <c r="BC3" t="n">
-        <v>5.733656429185987e-84</v>
+        <v>1.264538222878302e-80</v>
       </c>
       <c r="BD3" t="n">
-        <v>2.300102378911595e-86</v>
+        <v>7.71869210033123e-83</v>
       </c>
       <c r="BE3" t="n">
-        <v>7.285723422891193e-89</v>
+        <v>7.956241909484133e-85</v>
       </c>
       <c r="BF3" t="n">
-        <v>6.941279378485098e-92</v>
+        <v>1.063136796035789e-87</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.083419960604083e-93</v>
+        <v>3.583682309043511e-90</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.436142765577422e-95</v>
+        <v>2.908896322153387e-93</v>
       </c>
       <c r="BI3" t="n">
-        <v>3.486778000871525e-98</v>
+        <v>2.645129056339503e-96</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1.429008791055144e-100</v>
+        <v>5.38581463183456e-99</v>
       </c>
       <c r="BK3" t="n">
-        <v>2.360220845450451e-103</v>
+        <v>1.179563186519831e-101</v>
       </c>
       <c r="BL3" t="n">
-        <v>9.929566525307267e-106</v>
+        <v>1.453516746796217e-103</v>
       </c>
       <c r="BM3" t="n">
-        <v>2.065100316914139e-108</v>
+        <v>2.355633655299669e-105</v>
       </c>
       <c r="BN3" t="n">
-        <v>2.164521746161432e-110</v>
+        <v>4.551495678445881e-108</v>
       </c>
       <c r="BO3" t="n">
-        <v>3.754279788713721e-113</v>
+        <v>8.566009224309254e-111</v>
       </c>
       <c r="BP3" t="n">
-        <v>2.062936492925158e-116</v>
+        <v>3.316515953792697e-113</v>
       </c>
       <c r="BQ3" t="n">
-        <v>5.701455711544083e-119</v>
+        <v>1.569670905295456e-115</v>
       </c>
       <c r="BR3" t="n">
-        <v>2.966293183778675e-121</v>
+        <v>8.426312649475215e-118</v>
       </c>
       <c r="BS3" t="n">
-        <v>9.545462129556182e-124</v>
+        <v>3.167625832011999e-120</v>
       </c>
       <c r="BT3" t="n">
-        <v>3.460507018349236e-126</v>
+        <v>2.580271855207091e-123</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.633430866533558e-128</v>
+        <v>3.66723778858186e-125</v>
       </c>
       <c r="BV3" t="n">
-        <v>3.648468406062058e-131</v>
+        <v>6.3111680146318e-127</v>
       </c>
       <c r="BW3" t="n">
-        <v>9.736710488133254e-134</v>
+        <v>1.03789910889218e-129</v>
       </c>
       <c r="BX3" t="n">
-        <v>1.697406253819052e-136</v>
+        <v>2.006964115787512e-132</v>
       </c>
       <c r="BY3" t="n">
-        <v>2.017868414854885e-139</v>
+        <v>1.162337655114935e-134</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1.109838387622664e-141</v>
+        <v>2.921839297535298e-137</v>
       </c>
       <c r="CA3" t="n">
-        <v>9.83941222376737e-145</v>
+        <v>1.050788414802883e-139</v>
       </c>
       <c r="CB3" t="n">
-        <v>2.545052624705583e-147</v>
+        <v>3.475277884235044e-142</v>
       </c>
       <c r="CC3" t="n">
-        <v>3.789465879669885e-150</v>
+        <v>1.955756862480445e-144</v>
       </c>
       <c r="CD3" t="n">
-        <v>5.400217330243092e-153</v>
+        <v>1.145645820147438e-146</v>
       </c>
       <c r="CE3" t="n">
-        <v>1.020728191081044e-155</v>
+        <v>9.468539978473212e-149</v>
       </c>
       <c r="CF3" t="n">
-        <v>6.119703929619499e-159</v>
+        <v>1.37613766624853e-151</v>
       </c>
       <c r="CG3" t="n">
-        <v>9.290061487525068e-162</v>
+        <v>2.059994325789272e-154</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.389278573541469e-164</v>
+        <v>3.080055979023925e-157</v>
       </c>
       <c r="CI3" t="n">
-        <v>3.018426688383909e-167</v>
+        <v>1.074209948838355e-159</v>
       </c>
       <c r="CJ3" t="n">
-        <v>1.544902461056762e-169</v>
+        <v>3.737270064115036e-162</v>
       </c>
       <c r="CK3" t="n">
-        <v>1.649573484296101e-172</v>
+        <v>2.356765990164629e-164</v>
       </c>
       <c r="CL3" t="n">
-        <v>1.239428902511692e-175</v>
+        <v>5.601475385343265e-167</v>
       </c>
       <c r="CM3" t="n">
-        <v>7.282688237073656e-178</v>
+        <v>2.476541497654852e-169</v>
       </c>
       <c r="CN3" t="n">
-        <v>1.233216867888955e-180</v>
+        <v>3.708856347554187e-172</v>
       </c>
       <c r="CO3" t="n">
-        <v>4.226822397837822e-183</v>
+        <v>4.874052877048397e-175</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.158467395524725e-185</v>
+        <v>4.420360412564045e-178</v>
       </c>
       <c r="CQ3" t="n">
-        <v>8.111634033141904e-188</v>
+        <v>1.015398811900328e-180</v>
       </c>
       <c r="CR3" t="n">
-        <v>1.082752384146899e-190</v>
+        <v>1.967651738616531e-183</v>
       </c>
       <c r="CS3" t="n">
-        <v>3.04002607063479e-193</v>
+        <v>4.199827959280762e-186</v>
       </c>
       <c r="CT3" t="n">
-        <v>3.35179886341235e-196</v>
+        <v>5.902052327130323e-189</v>
       </c>
       <c r="CU3" t="n">
-        <v>2.861814717674259e-199</v>
+        <v>2.234507089248548e-191</v>
       </c>
       <c r="CV3" t="n">
-        <v>2.618498316119997e-202</v>
+        <v>3.697412300075998e-194</v>
       </c>
       <c r="CW3" t="n">
-        <v>5.756701258431772e-205</v>
+        <v>7.039511272337362e-197</v>
       </c>
       <c r="CX3" t="n">
-        <v>8.161322331772085e-208</v>
+        <v>7.726470825086164e-200</v>
       </c>
       <c r="CY3" t="n">
-        <v>2.69994902355047e-210</v>
+        <v>2.151620053319313e-202</v>
       </c>
       <c r="CZ3" t="n">
-        <v>3.977747956546883e-213</v>
+        <v>1.654916868437297e-205</v>
       </c>
       <c r="DA3" t="n">
-        <v>2.646361419343663e-216</v>
+        <v>1.527338356625677e-208</v>
       </c>
       <c r="DB3" t="n">
-        <v>2.154474899975639e-219</v>
+        <v>1.731412047493001e-211</v>
       </c>
       <c r="DC3" t="n">
-        <v>2.426296952624667e-222</v>
+        <v>1.966266242998464e-214</v>
       </c>
       <c r="DD3" t="n">
-        <v>8.671071930744764e-225</v>
+        <v>2.668812108121044e-217</v>
       </c>
       <c r="DE3" t="n">
-        <v>4.721761411161403e-226</v>
+        <v>4.496418066993332e-220</v>
       </c>
       <c r="DF3" t="n">
-        <v>6.234361033281678e-229</v>
+        <v>1.880938801269126e-223</v>
       </c>
       <c r="DG3" t="n">
-        <v>3.850082666254173e-232</v>
+        <v>6.957876432928298e-226</v>
       </c>
       <c r="DH3" t="n">
-        <v>6.085885084523206e-235</v>
+        <v>1.15435353881347e-228</v>
       </c>
       <c r="DI3" t="n">
-        <v>9.688910059125909e-238</v>
+        <v>1.399054055317152e-231</v>
       </c>
       <c r="DJ3" t="n">
-        <v>2.121238798306453e-240</v>
+        <v>1.132308441187853e-234</v>
       </c>
       <c r="DK3" t="n">
-        <v>1.223172945752218e-243</v>
+        <v>1.605326867785111e-237</v>
       </c>
       <c r="DL3" t="n">
-        <v>3.186345018273024e-246</v>
+        <v>5.163779547941914e-240</v>
       </c>
       <c r="DM3" t="n">
-        <v>2.986411475610899e-249</v>
+        <v>5.244825610201538e-243</v>
       </c>
       <c r="DN3" t="n">
-        <v>6.397579923031843e-252</v>
+        <v>1.11341600576241e-245</v>
       </c>
       <c r="DO3" t="n">
-        <v>4.594486726873716e-255</v>
+        <v>4.814933658750475e-248</v>
       </c>
       <c r="DP3" t="n">
-        <v>3.08900599329973e-258</v>
+        <v>8.341310293478246e-251</v>
       </c>
       <c r="DQ3" t="n">
-        <v>2.182917711259896e-261</v>
+        <v>5.672208180152159e-254</v>
       </c>
       <c r="DR3" t="n">
-        <v>3.4977614158307e-264</v>
+        <v>3.382990806315404e-257</v>
       </c>
       <c r="DS3" t="n">
-        <v>9.472673393156493e-267</v>
+        <v>2.247958680111657e-260</v>
       </c>
       <c r="DT3" t="n">
-        <v>8.369157153832356e-270</v>
+        <v>1.597581536725054e-263</v>
       </c>
       <c r="DU3" t="n">
-        <v>5.419134085796373e-273</v>
+        <v>2.832188042282474e-266</v>
       </c>
       <c r="DV3" t="n">
-        <v>5.723154436853306e-276</v>
+        <v>1.285180611913135e-269</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.218052859427839e-278</v>
+        <v>5.834652141737865e-272</v>
       </c>
       <c r="DX3" t="n">
-        <v>9.984567541440087e-282</v>
+        <v>2.429031838470496e-275</v>
       </c>
       <c r="DY3" t="n">
-        <v>9.773571585562611e-285</v>
+        <v>3.47442820843071e-278</v>
       </c>
       <c r="DZ3" t="n">
-        <v>7.007896300844706e-288</v>
+        <v>8.899497899751342e-281</v>
       </c>
       <c r="EA3" t="n">
-        <v>4.89641512129886e-291</v>
+        <v>8.387398452567341e-284</v>
       </c>
       <c r="EB3" t="n">
-        <v>1.927869326669561e-293</v>
+        <v>5.114260369772167e-287</v>
       </c>
       <c r="EC3" t="n">
-        <v>2.119235103382775e-296</v>
+        <v>6.838337296065189e-290</v>
       </c>
       <c r="ED3" t="n">
-        <v>8.310466174206517e-299</v>
+        <v>4.725897561815482e-293</v>
       </c>
       <c r="EE3" t="n">
-        <v>7.283824512438452e-302</v>
+        <v>3.872354068427063e-296</v>
       </c>
       <c r="EF3" t="n">
-        <v>4.137317069518141e-305</v>
+        <v>3.956039584689241e-299</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>2.433203239533613e-302</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>2.086398602478703e-305</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
@@ -4961,358 +4961,358 @@
         <v>0.33</v>
       </c>
       <c r="C4" t="n">
-        <v>0.256353604149515</v>
+        <v>0.2910181080957974</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1507782118060711</v>
+        <v>0.4341681513814472</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06674229335788452</v>
+        <v>0.2623484870638508</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03422513347183336</v>
+        <v>0.09630516767390387</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02170315522437116</v>
+        <v>0.01022733644701928</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007591274952588354</v>
+        <v>0.001184184777156025</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01405431367871977</v>
+        <v>0.0001701363087279929</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0007988973082724498</v>
+        <v>3.488265778167575e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>7.197957078569808e-05</v>
+        <v>4.573714796075296e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>1.293586830273262e-07</v>
+        <v>1.324026319897256e-07</v>
       </c>
       <c r="M4" t="n">
-        <v>1.851145820024733e-09</v>
+        <v>1.201723901533555e-08</v>
       </c>
       <c r="N4" t="n">
-        <v>8.785225634490864e-11</v>
+        <v>2.1162533247175e-11</v>
       </c>
       <c r="O4" t="n">
-        <v>7.462552365327504e-13</v>
+        <v>9.158427493097828e-13</v>
       </c>
       <c r="P4" t="n">
-        <v>2.552966996833278e-15</v>
+        <v>2.359140804809958e-14</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.53565169696821e-17</v>
+        <v>1.972630577103956e-17</v>
       </c>
       <c r="R4" t="n">
-        <v>8.991790933644894e-19</v>
+        <v>8.035036170079241e-20</v>
       </c>
       <c r="S4" t="n">
-        <v>1.267831093961639e-20</v>
+        <v>1.68319929423848e-21</v>
       </c>
       <c r="T4" t="n">
-        <v>5.074810462491077e-23</v>
+        <v>5.246018683308309e-23</v>
       </c>
       <c r="U4" t="n">
-        <v>7.465837289856729e-26</v>
+        <v>8.94300705166614e-25</v>
       </c>
       <c r="V4" t="n">
-        <v>6.842204988639893e-28</v>
+        <v>8.166563970103888e-27</v>
       </c>
       <c r="W4" t="n">
-        <v>1.003861747773716e-30</v>
+        <v>6.718720282941334e-29</v>
       </c>
       <c r="X4" t="n">
-        <v>3.274118933796584e-33</v>
+        <v>6.667886547680513e-31</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.958024035456358e-36</v>
+        <v>2.74882434558528e-33</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.384661027688728e-38</v>
+        <v>4.379336774327872e-36</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.68222640900028e-40</v>
+        <v>1.558019271311049e-38</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.861505245999103e-42</v>
+        <v>9.152232055572501e-41</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.223535094532186e-45</v>
+        <v>6.319174066535789e-43</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.162172777263558e-47</v>
+        <v>7.062283647913324e-45</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.581619011069234e-50</v>
+        <v>7.549658774148404e-48</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.940247489624705e-53</v>
+        <v>5.846101968866361e-50</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.045492919934869e-55</v>
+        <v>1.556655103666182e-52</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.848384345847496e-58</v>
+        <v>3.361255176871854e-55</v>
       </c>
       <c r="AI4" t="n">
-        <v>9.417155315531184e-61</v>
+        <v>1.753465999620108e-57</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.55026341011521e-63</v>
+        <v>2.910862206830405e-60</v>
       </c>
       <c r="AK4" t="n">
-        <v>9.087953013607001e-66</v>
+        <v>1.674440719998849e-62</v>
       </c>
       <c r="AL4" t="n">
-        <v>9.593843638430837e-68</v>
+        <v>6.503503789131282e-65</v>
       </c>
       <c r="AM4" t="n">
-        <v>5.40276613173805e-70</v>
+        <v>4.035877157571222e-67</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.457403605425062e-73</v>
+        <v>1.770431944368552e-69</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.342498596565131e-75</v>
+        <v>1.671863692828231e-72</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.584252498921526e-78</v>
+        <v>2.943874003160284e-75</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.436286471404693e-81</v>
+        <v>1.614987983618917e-77</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.361220514559712e-84</v>
+        <v>2.502968187465843e-80</v>
       </c>
       <c r="AS4" t="n">
-        <v>4.165235010048621e-87</v>
+        <v>6.664666904912363e-83</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.002221547314689e-89</v>
+        <v>3.14987528658118e-86</v>
       </c>
       <c r="AU4" t="n">
-        <v>5.32568790451684e-92</v>
+        <v>3.31871534270077e-89</v>
       </c>
       <c r="AV4" t="n">
-        <v>7.816831861167795e-95</v>
+        <v>7.065934777287236e-92</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.169698260549334e-97</v>
+        <v>1.089961266820835e-94</v>
       </c>
       <c r="AX4" t="n">
-        <v>3.996138233777963e-99</v>
+        <v>3.795728253158791e-97</v>
       </c>
       <c r="AY4" t="n">
-        <v>8.35106108202985e-102</v>
+        <v>1.76363593056806e-99</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.211285242342639e-104</v>
+        <v>2.841816520387164e-102</v>
       </c>
       <c r="BA4" t="n">
-        <v>2.417356518814763e-107</v>
+        <v>6.678466729927062e-105</v>
       </c>
       <c r="BB4" t="n">
-        <v>2.657657370461082e-110</v>
+        <v>1.007845355031097e-107</v>
       </c>
       <c r="BC4" t="n">
-        <v>4.585232555345257e-113</v>
+        <v>2.025845879238848e-110</v>
       </c>
       <c r="BD4" t="n">
-        <v>7.752857121028684e-116</v>
+        <v>3.522549679423013e-113</v>
       </c>
       <c r="BE4" t="n">
-        <v>9.46706459057224e-119</v>
+        <v>1.123682374063724e-115</v>
       </c>
       <c r="BF4" t="n">
-        <v>6.487153800606464e-122</v>
+        <v>8.412813872536072e-119</v>
       </c>
       <c r="BG4" t="n">
-        <v>2.627835884149546e-124</v>
+        <v>9.811927896197844e-122</v>
       </c>
       <c r="BH4" t="n">
-        <v>1.021936556736778e-126</v>
+        <v>5.612100424223407e-125</v>
       </c>
       <c r="BI4" t="n">
-        <v>1.528360940476105e-129</v>
+        <v>4.570073028816219e-128</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2.028640123671117e-132</v>
+        <v>3.913683570550743e-131</v>
       </c>
       <c r="BK4" t="n">
-        <v>1.944508376844312e-135</v>
+        <v>5.494468049361286e-134</v>
       </c>
       <c r="BL4" t="n">
-        <v>3.54621353024024e-138</v>
+        <v>2.210469460073515e-136</v>
       </c>
       <c r="BM4" t="n">
-        <v>3.577737192292854e-141</v>
+        <v>1.127639088953914e-138</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.785768207231026e-143</v>
+        <v>9.406758146462197e-142</v>
       </c>
       <c r="BO4" t="n">
-        <v>1.451834427262673e-146</v>
+        <v>8.495379419321814e-145</v>
       </c>
       <c r="BP4" t="n">
-        <v>7.179239155717839e-150</v>
+        <v>1.046467574119693e-147</v>
       </c>
       <c r="BQ4" t="n">
-        <v>8.040239235048001e-153</v>
+        <v>2.767898651137675e-150</v>
       </c>
       <c r="BR4" t="n">
-        <v>1.394180549853944e-155</v>
+        <v>4.27965372219424e-153</v>
       </c>
       <c r="BS4" t="n">
-        <v>1.51295539451959e-158</v>
+        <v>5.378867727922191e-156</v>
       </c>
       <c r="BT4" t="n">
-        <v>1.965612126583086e-161</v>
+        <v>2.8592130689566e-159</v>
       </c>
       <c r="BU4" t="n">
-        <v>2.773733604064349e-164</v>
+        <v>9.794650465048489e-162</v>
       </c>
       <c r="BV4" t="n">
-        <v>2.901199788305986e-167</v>
+        <v>3.974024412726013e-164</v>
       </c>
       <c r="BW4" t="n">
-        <v>3.092418832732052e-170</v>
+        <v>2.831765004077773e-167</v>
       </c>
       <c r="BX4" t="n">
-        <v>2.873291305673903e-173</v>
+        <v>2.179791889978291e-170</v>
       </c>
       <c r="BY4" t="n">
-        <v>1.789000208805206e-176</v>
+        <v>3.60354379909673e-173</v>
       </c>
       <c r="BZ4" t="n">
-        <v>4.50914064468463e-179</v>
+        <v>3.419565227069598e-176</v>
       </c>
       <c r="CA4" t="n">
-        <v>2.626422091865968e-182</v>
+        <v>5.754876036105853e-179</v>
       </c>
       <c r="CB4" t="n">
-        <v>2.981559357222825e-185</v>
+        <v>6.297444139975329e-182</v>
       </c>
       <c r="CC4" t="n">
-        <v>2.011964206699953e-188</v>
+        <v>1.303517518877018e-184</v>
       </c>
       <c r="CD4" t="n">
-        <v>1.506892153943804e-191</v>
+        <v>2.123854039453688e-187</v>
       </c>
       <c r="CE4" t="n">
-        <v>1.862690257122632e-194</v>
+        <v>4.615384621893259e-190</v>
       </c>
       <c r="CF4" t="n">
-        <v>8.084639132649444e-198</v>
+        <v>2.989263056337442e-193</v>
       </c>
       <c r="CG4" t="n">
-        <v>5.239379982384315e-201</v>
+        <v>2.018360515793767e-196</v>
       </c>
       <c r="CH4" t="n">
-        <v>3.348892900955869e-204</v>
+        <v>1.288088565106835e-199</v>
       </c>
       <c r="CI4" t="n">
-        <v>5.292158879840529e-207</v>
+        <v>1.428208210687579e-202</v>
       </c>
       <c r="CJ4" t="n">
-        <v>8.54736883973549e-210</v>
+        <v>1.677606321366678e-205</v>
       </c>
       <c r="CK4" t="n">
-        <v>4.50531694617805e-213</v>
+        <v>4.185596368516794e-208</v>
       </c>
       <c r="CL4" t="n">
-        <v>2.076990875527825e-216</v>
+        <v>3.505928005651271e-211</v>
       </c>
       <c r="CM4" t="n">
-        <v>5.390700144018678e-219</v>
+        <v>6.515925194768374e-214</v>
       </c>
       <c r="CN4" t="n">
-        <v>3.842966667280099e-222</v>
+        <v>4.996596719488723e-217</v>
       </c>
       <c r="CO4" t="n">
-        <v>5.203757634805211e-225</v>
+        <v>2.924442573316592e-220</v>
       </c>
       <c r="CP4" t="n">
-        <v>4.824135981945217e-228</v>
+        <v>1.387726974057733e-223</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1.212371419303675e-230</v>
+        <v>1.389459324730104e-226</v>
       </c>
       <c r="CR4" t="n">
-        <v>7.439436366918048e-234</v>
+        <v>1.012638689859469e-229</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.03260464226071e-236</v>
+        <v>1.012901352903687e-232</v>
       </c>
       <c r="CT4" t="n">
-        <v>6.073038811201116e-240</v>
+        <v>7.682682980060789e-236</v>
       </c>
       <c r="CU4" t="n">
-        <v>3.003909717191947e-243</v>
+        <v>1.158886994839584e-238</v>
       </c>
       <c r="CV4" t="n">
-        <v>1.620913967207032e-246</v>
+        <v>8.847872588336288e-242</v>
       </c>
       <c r="CW4" t="n">
-        <v>1.348511731663008e-249</v>
+        <v>6.753118531143666e-245</v>
       </c>
       <c r="CX4" t="n">
-        <v>8.096856571938103e-253</v>
+        <v>3.683030423345442e-248</v>
       </c>
       <c r="CY4" t="n">
-        <v>1.57728688685453e-255</v>
+        <v>4.672224316432154e-251</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1.234361760273162e-258</v>
+        <v>1.994760272877952e-254</v>
       </c>
       <c r="DA4" t="n">
-        <v>4.938588001378184e-262</v>
+        <v>9.265281398669763e-258</v>
       </c>
       <c r="DB4" t="n">
-        <v>2.191939935138384e-265</v>
+        <v>7.670556413778959e-261</v>
       </c>
       <c r="DC4" t="n">
-        <v>1.0959416957832e-268</v>
+        <v>3.946028003768054e-264</v>
       </c>
       <c r="DD4" t="n">
-        <v>1.614891576763922e-271</v>
+        <v>2.928208494721857e-267</v>
       </c>
       <c r="DE4" t="n">
-        <v>2.929986815596866e-273</v>
+        <v>1.871474431611791e-270</v>
       </c>
       <c r="DF4" t="n">
-        <v>1.704535370373279e-276</v>
+        <v>7.978617885234363e-274</v>
       </c>
       <c r="DG4" t="n">
-        <v>6.416723795986421e-280</v>
+        <v>9.053910662227748e-277</v>
       </c>
       <c r="DH4" t="n">
-        <v>6.650762384716971e-283</v>
+        <v>8.289159263251626e-280</v>
       </c>
       <c r="DI4" t="n">
-        <v>5.398769000528248e-286</v>
+        <v>4.269364396683114e-283</v>
       </c>
       <c r="DJ4" t="n">
-        <v>4.585208900849863e-289</v>
+        <v>1.772375824045154e-286</v>
       </c>
       <c r="DK4" t="n">
-        <v>1.844707500609777e-292</v>
+        <v>1.171824515122871e-289</v>
       </c>
       <c r="DL4" t="n">
-        <v>1.584245601333634e-295</v>
+        <v>1.628029297081753e-292</v>
       </c>
       <c r="DM4" t="n">
-        <v>8.93579638656233e-299</v>
+        <v>7.902699225195599e-296</v>
       </c>
       <c r="DN4" t="n">
-        <v>9.030744194026781e-302</v>
+        <v>6.675286003317417e-299</v>
       </c>
       <c r="DO4" t="n">
-        <v>3.512685138125671e-305</v>
+        <v>1.433743958235714e-301</v>
       </c>
       <c r="DP4" t="n">
-        <v>0</v>
+        <v>9.531532521972479e-305</v>
       </c>
       <c r="DQ4" t="n">
         <v>0</v>
@@ -7989,415 +7989,415 @@
         <v>0.34</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3886646214012456</v>
+        <v>0.3925771446703679</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4463821290676815</v>
+        <v>0.2641042929582498</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6041578606263894</v>
+        <v>0.1040129123073458</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4570422934613618</v>
+        <v>0.4759377613820385</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6339304040938666</v>
+        <v>0.2216070367593811</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4642045728974047</v>
+        <v>0.04474710449445327</v>
       </c>
       <c r="I2" t="n">
-        <v>0.396543269094435</v>
+        <v>0.03737477951466373</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3263497035003734</v>
+        <v>0.004579290109903504</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05891997771326453</v>
+        <v>0.0007624948999256349</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02312882481876145</v>
+        <v>0.004050269072348509</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0257677007766999</v>
+        <v>0.001251431187995805</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002532480842624122</v>
+        <v>5.322658619785729e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001972777381398554</v>
+        <v>1.251971591204427e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>4.418538298721034e-05</v>
+        <v>1.152198619473596e-08</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.354355272591708e-07</v>
+        <v>6.906555496690303e-10</v>
       </c>
       <c r="R2" t="n">
-        <v>1.118240601225256e-07</v>
+        <v>1.741111677951821e-11</v>
       </c>
       <c r="S2" t="n">
-        <v>1.169104925246798e-08</v>
+        <v>3.119125858117397e-12</v>
       </c>
       <c r="T2" t="n">
-        <v>4.253747061385827e-10</v>
+        <v>1.858185732208768e-13</v>
       </c>
       <c r="U2" t="n">
-        <v>1.150307625037306e-11</v>
+        <v>4.053774357307213e-15</v>
       </c>
       <c r="V2" t="n">
-        <v>5.725574102911696e-13</v>
+        <v>7.194728746606701e-17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.0232678523802e-14</v>
+        <v>1.56042817390213e-18</v>
       </c>
       <c r="X2" t="n">
-        <v>7.401100408715972e-16</v>
+        <v>6.750125375479974e-20</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.78233310612607e-18</v>
+        <v>1.035311835910705e-21</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.463684189815293e-20</v>
+        <v>1.610303451663393e-23</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.241583043091277e-21</v>
+        <v>2.329662682751806e-25</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.898517004461279e-23</v>
+        <v>6.267020761052599e-28</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.338953186537166e-24</v>
+        <v>2.780588964484502e-30</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.317267140845874e-26</v>
+        <v>1.262025766930035e-31</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.700629922576633e-28</v>
+        <v>1.308550400514769e-33</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.012193283041124e-30</v>
+        <v>5.327892726900952e-35</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.130292969530914e-33</v>
+        <v>5.436971068593053e-38</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.557245077338672e-35</v>
+        <v>1.437142463192435e-39</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.577752925341245e-36</v>
+        <v>2.032100745479471e-41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.330698542813266e-38</v>
+        <v>2.721979860261748e-43</v>
       </c>
       <c r="AK2" t="n">
-        <v>7.057451313511805e-41</v>
+        <v>7.943803984692056e-45</v>
       </c>
       <c r="AL2" t="n">
-        <v>4.617888590820748e-43</v>
+        <v>1.571253490989273e-47</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.662311553348682e-45</v>
+        <v>6.157977711370059e-49</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.223305036749229e-48</v>
+        <v>9.211059187836741e-51</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.689408662193109e-49</v>
+        <v>4.87947835108862e-53</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.82211594450631e-51</v>
+        <v>1.075344037152151e-55</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7.984703984320029e-53</v>
+        <v>1.328777227288501e-58</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.894139938511865e-55</v>
+        <v>1.34085632501782e-60</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.827351416115799e-57</v>
+        <v>1.683045517502776e-62</v>
       </c>
       <c r="AT2" t="n">
-        <v>8.86189353464205e-60</v>
+        <v>1.40835876055952e-65</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.673850209763674e-61</v>
+        <v>8.911910956006411e-68</v>
       </c>
       <c r="AV2" t="n">
-        <v>5.770052124380065e-63</v>
+        <v>3.293017548484962e-70</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.05043931162489e-65</v>
+        <v>1.158615884101406e-72</v>
       </c>
       <c r="AX2" t="n">
-        <v>5.0226502392779e-67</v>
+        <v>1.056727553962261e-74</v>
       </c>
       <c r="AY2" t="n">
-        <v>3.181484793274098e-69</v>
+        <v>2.668446568666848e-77</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.18187676823107e-71</v>
+        <v>2.113867171613934e-79</v>
       </c>
       <c r="BA2" t="n">
-        <v>2.18267862766315e-74</v>
+        <v>6.297059057269665e-82</v>
       </c>
       <c r="BB2" t="n">
-        <v>8.70791576645501e-77</v>
+        <v>5.712629238953375e-84</v>
       </c>
       <c r="BC2" t="n">
-        <v>3.646242958938329e-79</v>
+        <v>2.874559110049833e-87</v>
       </c>
       <c r="BD2" t="n">
-        <v>5.138424868303154e-82</v>
+        <v>1.442110787276206e-89</v>
       </c>
       <c r="BE2" t="n">
-        <v>5.133640666892574e-84</v>
+        <v>6.622776011545789e-92</v>
       </c>
       <c r="BF2" t="n">
-        <v>4.068581180467672e-86</v>
+        <v>6.958637263134361e-95</v>
       </c>
       <c r="BG2" t="n">
-        <v>3.625050985563531e-88</v>
+        <v>9.070403479613576e-98</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.431798539310462e-90</v>
+        <v>9.019828074651109e-100</v>
       </c>
       <c r="BI2" t="n">
-        <v>4.671506228279481e-92</v>
+        <v>2.975640064354632e-102</v>
       </c>
       <c r="BJ2" t="n">
-        <v>3.982240935939469e-94</v>
+        <v>7.210492313824905e-105</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.38370831921821e-96</v>
+        <v>1.364820299626642e-107</v>
       </c>
       <c r="BL2" t="n">
-        <v>3.874100067537786e-99</v>
+        <v>1.650119106846655e-110</v>
       </c>
       <c r="BM2" t="n">
-        <v>5.896517906161021e-102</v>
+        <v>3.137871319526548e-113</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.388871502930474e-104</v>
+        <v>1.092440979330077e-115</v>
       </c>
       <c r="BO2" t="n">
-        <v>2.671046045508126e-107</v>
+        <v>1.248169127550239e-118</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.073490623118688e-109</v>
+        <v>6.531427262427118e-121</v>
       </c>
       <c r="BQ2" t="n">
-        <v>2.493504105341266e-112</v>
+        <v>4.805750183836632e-124</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.265641775460008e-114</v>
+        <v>8.449553233272415e-127</v>
       </c>
       <c r="BS2" t="n">
-        <v>3.107059462100585e-117</v>
+        <v>5.359881467062627e-129</v>
       </c>
       <c r="BT2" t="n">
-        <v>9.313438118223531e-120</v>
+        <v>7.461390772466175e-132</v>
       </c>
       <c r="BU2" t="n">
-        <v>3.129368130872864e-122</v>
+        <v>1.077519123084041e-134</v>
       </c>
       <c r="BV2" t="n">
-        <v>5.608913225348151e-125</v>
+        <v>1.674115273894376e-137</v>
       </c>
       <c r="BW2" t="n">
-        <v>8.222020503797854e-128</v>
+        <v>4.757544270125393e-140</v>
       </c>
       <c r="BX2" t="n">
-        <v>4.242759001344459e-130</v>
+        <v>2.286905001959445e-142</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.346207467252771e-132</v>
+        <v>8.398148000500088e-145</v>
       </c>
       <c r="BZ2" t="n">
-        <v>5.169059552169898e-135</v>
+        <v>4.183921166910779e-147</v>
       </c>
       <c r="CA2" t="n">
-        <v>9.211912249444266e-138</v>
+        <v>1.557382570073384e-149</v>
       </c>
       <c r="CB2" t="n">
-        <v>2.80731636776549e-140</v>
+        <v>2.203521812236706e-152</v>
       </c>
       <c r="CC2" t="n">
-        <v>4.632776154742529e-143</v>
+        <v>4.985321277610684e-155</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.665510477249076e-145</v>
+        <v>1.34470046673957e-157</v>
       </c>
       <c r="CE2" t="n">
-        <v>1.883726142519307e-148</v>
+        <v>8.65609357726795e-161</v>
       </c>
       <c r="CF2" t="n">
-        <v>3.114484504064593e-151</v>
+        <v>1.665548677562721e-163</v>
       </c>
       <c r="CG2" t="n">
-        <v>5.470873812152878e-154</v>
+        <v>1.018295439359033e-165</v>
       </c>
       <c r="CH2" t="n">
-        <v>9.304637150116469e-157</v>
+        <v>7.636026321750887e-169</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.832240526422285e-159</v>
+        <v>1.204273785622652e-171</v>
       </c>
       <c r="CJ2" t="n">
-        <v>1.160716938697965e-161</v>
+        <v>3.1991888623125e-174</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.568176344308986e-164</v>
+        <v>1.184506922305404e-176</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.696741474581261e-167</v>
+        <v>3.034375331456541e-179</v>
       </c>
       <c r="CM2" t="n">
-        <v>4.300651463939555e-170</v>
+        <v>3.613668286557026e-182</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.047508751676931e-172</v>
+        <v>2.829726694217513e-184</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.732939138909158e-175</v>
+        <v>7.096411439555469e-186</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.523598167725165e-178</v>
+        <v>5.252220428485966e-189</v>
       </c>
       <c r="CQ2" t="n">
-        <v>3.151197171340903e-181</v>
+        <v>2.105504655119263e-191</v>
       </c>
       <c r="CR2" t="n">
-        <v>3.302267406095422e-184</v>
+        <v>2.166058585981365e-194</v>
       </c>
       <c r="CS2" t="n">
-        <v>5.134916248086702e-187</v>
+        <v>2.909585147169821e-197</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.005814877920144e-189</v>
+        <v>2.827164891451268e-200</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.192711241181832e-192</v>
+        <v>4.506701023672686e-203</v>
       </c>
       <c r="CV2" t="n">
-        <v>2.85328819644691e-195</v>
+        <v>9.330660139268737e-206</v>
       </c>
       <c r="CW2" t="n">
-        <v>4.316903310314282e-198</v>
+        <v>1.91710277576105e-208</v>
       </c>
       <c r="CX2" t="n">
-        <v>9.566071053159932e-201</v>
+        <v>2.175303121675498e-211</v>
       </c>
       <c r="CY2" t="n">
-        <v>2.438278671094978e-203</v>
+        <v>2.767407942000269e-214</v>
       </c>
       <c r="CZ2" t="n">
-        <v>4.348715588948986e-206</v>
+        <v>7.401868342012091e-217</v>
       </c>
       <c r="DA2" t="n">
-        <v>6.61655663132059e-209</v>
+        <v>8.017764992087336e-220</v>
       </c>
       <c r="DB2" t="n">
-        <v>8.032726191815989e-212</v>
+        <v>1.007705739112626e-222</v>
       </c>
       <c r="DC2" t="n">
-        <v>8.480139282890336e-215</v>
+        <v>2.191175748491649e-225</v>
       </c>
       <c r="DD2" t="n">
-        <v>5.43651098465913e-217</v>
+        <v>2.247233844510049e-228</v>
       </c>
       <c r="DE2" t="n">
-        <v>4.31755823222587e-220</v>
+        <v>6.731323900464772e-231</v>
       </c>
       <c r="DF2" t="n">
-        <v>4.558141521482147e-223</v>
+        <v>9.61617217998588e-234</v>
       </c>
       <c r="DG2" t="n">
-        <v>3.700890856332966e-226</v>
+        <v>2.222998864493182e-236</v>
       </c>
       <c r="DH2" t="n">
-        <v>1.785066964076756e-228</v>
+        <v>4.750936430977525e-239</v>
       </c>
       <c r="DI2" t="n">
-        <v>7.562644955200168e-231</v>
+        <v>4.910703312536163e-242</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.208275760238667e-233</v>
+        <v>4.16524636655914e-245</v>
       </c>
       <c r="DK2" t="n">
-        <v>1.390003135345403e-236</v>
+        <v>3.589685602008726e-248</v>
       </c>
       <c r="DL2" t="n">
-        <v>2.150474439561489e-239</v>
+        <v>1.78317794447061e-251</v>
       </c>
       <c r="DM2" t="n">
-        <v>1.369477406242299e-242</v>
+        <v>7.071153414971812e-255</v>
       </c>
       <c r="DN2" t="n">
-        <v>4.382132788123227e-245</v>
+        <v>5.018512450061782e-258</v>
       </c>
       <c r="DO2" t="n">
-        <v>1.157487734453493e-247</v>
+        <v>9.544802560113963e-261</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.150736566185093e-250</v>
+        <v>1.840276702798644e-263</v>
       </c>
       <c r="DQ2" t="n">
-        <v>2.582027569033155e-253</v>
+        <v>2.398739417253233e-266</v>
       </c>
       <c r="DR2" t="n">
-        <v>4.112244888211057e-256</v>
+        <v>1.965620448344101e-269</v>
       </c>
       <c r="DS2" t="n">
-        <v>4.171585755963235e-259</v>
+        <v>1.371986973745637e-272</v>
       </c>
       <c r="DT2" t="n">
-        <v>3.506042592803475e-262</v>
+        <v>1.530876665252467e-275</v>
       </c>
       <c r="DU2" t="n">
-        <v>1.76432180434712e-264</v>
+        <v>1.393398593635052e-278</v>
       </c>
       <c r="DV2" t="n">
-        <v>7.376672162470656e-267</v>
+        <v>9.656352654822589e-282</v>
       </c>
       <c r="DW2" t="n">
-        <v>5.658245753395952e-270</v>
+        <v>1.348521274290809e-284</v>
       </c>
       <c r="DX2" t="n">
-        <v>4.761898940410685e-273</v>
+        <v>1.016942927228563e-287</v>
       </c>
       <c r="DY2" t="n">
-        <v>4.223394674280097e-276</v>
+        <v>1.145485396386367e-290</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1.315724126168327e-278</v>
+        <v>1.985651319784211e-293</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.08717160814707e-281</v>
+        <v>2.230011295570651e-296</v>
       </c>
       <c r="EB2" t="n">
-        <v>1.052360080531971e-284</v>
+        <v>2.394368408945091e-299</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.729816217465152e-287</v>
+        <v>1.605868239217025e-302</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.533692706770631e-290</v>
+        <v>1.482228177027413e-305</v>
       </c>
       <c r="EE2" t="n">
-        <v>2.624222753665482e-293</v>
+        <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>5.132561599015998e-296</v>
+        <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>3.057723759624186e-299</v>
+        <v>0</v>
       </c>
       <c r="EH2" t="n">
-        <v>7.405948786680854e-302</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>5.491002418069827e-305</v>
+        <v>0</v>
       </c>
       <c r="EJ2" t="n">
         <v>0</v>
@@ -9496,70 +9496,70 @@
         <v>0.33</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3308648686140421</v>
+        <v>0.3305615703995133</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3427263105743406</v>
+        <v>0.3485987952389695</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3043853518361088</v>
+        <v>0.3010523034014769</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4355761493624736</v>
+        <v>0.3497995859382714</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3316908442446918</v>
+        <v>0.5204021500315056</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5126667448772062</v>
+        <v>0.6023668800705113</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6002088913501653</v>
+        <v>0.8531472104367155</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6731938052299796</v>
+        <v>0.7512883020416568</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9406048925350664</v>
+        <v>0.7427894261640088</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9768490249286601</v>
+        <v>0.9812679276753076</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9742303852881182</v>
+        <v>0.997613113798099</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9974673014546422</v>
+        <v>0.9993346002084348</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9998027030722875</v>
+        <v>0.9998419450315696</v>
       </c>
       <c r="P3" t="n">
-        <v>0.999955814504737</v>
+        <v>0.9999943160066167</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9999992645431238</v>
+        <v>0.9999896785808866</v>
       </c>
       <c r="R3" t="n">
-        <v>0.999999888175658</v>
+        <v>0.9999993298791189</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9999999883087933</v>
+        <v>0.9999999817421024</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9999999995746203</v>
+        <v>0.9999999991867171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9999999999884968</v>
+        <v>0.9999999999780633</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9999999999994273</v>
+        <v>0.9999999999994413</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9999999999999798</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Y3" t="n">
         <v>1</v>
@@ -11003,406 +11003,406 @@
         <v>0.33</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2804705099847123</v>
+        <v>0.2768612849301187</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2108915603579781</v>
+        <v>0.3872969118027807</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09145678753750179</v>
+        <v>0.5949347842911773</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1073815571761648</v>
+        <v>0.1742626526796901</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0343787516614418</v>
+        <v>0.2579908132091134</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02312868222538915</v>
+        <v>0.3528860154350354</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003247839555399664</v>
+        <v>0.1094780100486208</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0004564912696471053</v>
+        <v>0.2441324078484397</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0004751297516691026</v>
+        <v>0.2564480789360655</v>
       </c>
       <c r="L4" t="n">
-        <v>2.215025257828964e-05</v>
+        <v>0.01468180325234387</v>
       </c>
       <c r="M4" t="n">
-        <v>1.913935181909412e-06</v>
+        <v>0.001135455013905196</v>
       </c>
       <c r="N4" t="n">
-        <v>2.177027335639375e-07</v>
+        <v>0.0006600771329454382</v>
       </c>
       <c r="O4" t="n">
-        <v>1.918957272267653e-08</v>
+        <v>0.0001579297712712685</v>
       </c>
       <c r="P4" t="n">
-        <v>1.122757762579345e-10</v>
+        <v>5.67247139696512e-06</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.13489996108615e-11</v>
+        <v>1.032072845789091e-05</v>
       </c>
       <c r="R4" t="n">
-        <v>2.820072538580712e-13</v>
+        <v>6.701034700979659e-07</v>
       </c>
       <c r="S4" t="n">
-        <v>1.572564502127937e-13</v>
+        <v>1.825477860987426e-08</v>
       </c>
       <c r="T4" t="n">
-        <v>4.967770626225244e-15</v>
+        <v>8.130970392862968e-10</v>
       </c>
       <c r="U4" t="n">
-        <v>1.344256626456365e-16</v>
+        <v>2.193255542420798e-11</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17908679450393e-18</v>
+        <v>5.586486450805573e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>8.521934193971309e-21</v>
+        <v>8.235791871634196e-15</v>
       </c>
       <c r="X4" t="n">
-        <v>5.300380818009627e-23</v>
+        <v>2.630961826999917e-16</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.545096108638721e-24</v>
+        <v>3.302272858013397e-18</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.095183162808199e-26</v>
+        <v>3.23730749098599e-20</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.245177423654955e-28</v>
+        <v>4.402399636649791e-22</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.009125137503684e-30</v>
+        <v>3.931430626426097e-23</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.518273689922616e-32</v>
+        <v>1.592950858951379e-23</v>
       </c>
       <c r="AD4" t="n">
-        <v>4.573357970683252e-34</v>
+        <v>5.114822407152378e-27</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.122649276578699e-36</v>
+        <v>7.506480198132974e-29</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.920699415382076e-38</v>
+        <v>1.459705290995046e-31</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.041732248319391e-40</v>
+        <v>3.304051231929837e-33</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.49698325190916e-43</v>
+        <v>2.051908697931438e-36</v>
       </c>
       <c r="AI4" t="n">
-        <v>8.312324298133966e-46</v>
+        <v>3.61511607076776e-39</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5.565941485502695e-48</v>
+        <v>6.012283383023403e-42</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.028687214679252e-49</v>
+        <v>1.935000950687124e-44</v>
       </c>
       <c r="AL4" t="n">
-        <v>6.069636463826136e-52</v>
+        <v>1.90733557337855e-46</v>
       </c>
       <c r="AM4" t="n">
-        <v>3.469635383737044e-54</v>
+        <v>7.863870476116458e-51</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.440066211019457e-56</v>
+        <v>1.00304261928638e-52</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.155871542276966e-57</v>
+        <v>4.311459007918548e-55</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.746892751824252e-59</v>
+        <v>2.842253668542076e-57</v>
       </c>
       <c r="AQ4" t="n">
-        <v>7.05083931988653e-61</v>
+        <v>2.547416038397266e-59</v>
       </c>
       <c r="AR4" t="n">
-        <v>5.073104861072121e-63</v>
+        <v>1.125528238528579e-61</v>
       </c>
       <c r="AS4" t="n">
-        <v>9.68298386986609e-66</v>
+        <v>5.254707365110555e-63</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.443647332802493e-68</v>
+        <v>6.285409193232922e-65</v>
       </c>
       <c r="AU4" t="n">
-        <v>4.829372658707518e-70</v>
+        <v>1.253988207549946e-67</v>
       </c>
       <c r="AV4" t="n">
-        <v>2.679761582948738e-72</v>
+        <v>3.475594580915174e-70</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.463061886216209e-74</v>
+        <v>1.040447368043583e-72</v>
       </c>
       <c r="AX4" t="n">
-        <v>3.747759133527122e-77</v>
+        <v>1.217945401878728e-75</v>
       </c>
       <c r="AY4" t="n">
-        <v>8.49739521846003e-80</v>
+        <v>3.708393925723882e-78</v>
       </c>
       <c r="AZ4" t="n">
-        <v>3.626162198437479e-82</v>
+        <v>2.987367216820788e-81</v>
       </c>
       <c r="BA4" t="n">
-        <v>2.115813135098485e-84</v>
+        <v>7.174206696069925e-84</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.476333154864625e-86</v>
+        <v>1.038033071487114e-86</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.775895683773194e-88</v>
+        <v>9.104589670795908e-89</v>
       </c>
       <c r="BD4" t="n">
-        <v>7.024100725948044e-91</v>
+        <v>3.377227074333916e-91</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.281193379185666e-93</v>
+        <v>2.526467305923611e-92</v>
       </c>
       <c r="BF4" t="n">
-        <v>5.887829819755327e-96</v>
+        <v>3.813051717885848e-94</v>
       </c>
       <c r="BG4" t="n">
-        <v>2.313051079923991e-98</v>
+        <v>1.389167696942116e-96</v>
       </c>
       <c r="BH4" t="n">
-        <v>2.6444413032289e-100</v>
+        <v>4.783990437221084e-99</v>
       </c>
       <c r="BI4" t="n">
-        <v>1.508473948521804e-101</v>
+        <v>2.395336481677466e-101</v>
       </c>
       <c r="BJ4" t="n">
-        <v>5.636156785015245e-104</v>
+        <v>7.25438392366949e-104</v>
       </c>
       <c r="BK4" t="n">
-        <v>1.474006247766875e-106</v>
+        <v>1.538157712118432e-106</v>
       </c>
       <c r="BL4" t="n">
-        <v>2.675973246790757e-109</v>
+        <v>7.449252252407989e-109</v>
       </c>
       <c r="BM4" t="n">
-        <v>6.138801967059162e-112</v>
+        <v>2.561192041226369e-111</v>
       </c>
       <c r="BN4" t="n">
-        <v>8.700240860880718e-115</v>
+        <v>3.228329764111998e-114</v>
       </c>
       <c r="BO4" t="n">
-        <v>1.624100989624688e-117</v>
+        <v>8.954211213403187e-117</v>
       </c>
       <c r="BP4" t="n">
-        <v>1.372197799115501e-120</v>
+        <v>2.952980936604704e-119</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2.890118629077044e-123</v>
+        <v>1.922743195927384e-121</v>
       </c>
       <c r="BR4" t="n">
-        <v>8.09601869632772e-126</v>
+        <v>5.197484157892574e-124</v>
       </c>
       <c r="BS4" t="n">
-        <v>9.035943404443166e-129</v>
+        <v>1.927059267152449e-126</v>
       </c>
       <c r="BT4" t="n">
-        <v>8.713774063127265e-132</v>
+        <v>6.126441065845733e-129</v>
       </c>
       <c r="BU4" t="n">
-        <v>9.162408161459281e-135</v>
+        <v>1.074403639168505e-131</v>
       </c>
       <c r="BV4" t="n">
-        <v>1.799044342400478e-137</v>
+        <v>1.70555522993795e-134</v>
       </c>
       <c r="BW4" t="n">
-        <v>3.668145500492888e-140</v>
+        <v>1.436368742288604e-137</v>
       </c>
       <c r="BX4" t="n">
-        <v>9.010816298859896e-143</v>
+        <v>2.803373230801011e-139</v>
       </c>
       <c r="BY4" t="n">
-        <v>8.117782583500878e-146</v>
+        <v>2.10207453924444e-142</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2.499657077931179e-148</v>
+        <v>1.384004891775871e-144</v>
       </c>
       <c r="CA4" t="n">
-        <v>2.884221014221378e-151</v>
+        <v>7.566336847053272e-147</v>
       </c>
       <c r="CB4" t="n">
-        <v>8.60690322354738e-154</v>
+        <v>4.069312548826448e-149</v>
       </c>
       <c r="CC4" t="n">
-        <v>1.038438255362965e-156</v>
+        <v>3.698783422012895e-152</v>
       </c>
       <c r="CD4" t="n">
-        <v>1.504311424436323e-158</v>
+        <v>1.562844121207056e-154</v>
       </c>
       <c r="CE4" t="n">
-        <v>2.519228714702654e-161</v>
+        <v>6.105386910723577e-157</v>
       </c>
       <c r="CF4" t="n">
-        <v>2.885996848234689e-164</v>
+        <v>6.096376446367742e-160</v>
       </c>
       <c r="CG4" t="n">
-        <v>2.803683361045745e-167</v>
+        <v>7.63819347680882e-163</v>
       </c>
       <c r="CH4" t="n">
-        <v>3.545635528037962e-170</v>
+        <v>1.754020725432861e-165</v>
       </c>
       <c r="CI4" t="n">
-        <v>9.742193991732929e-173</v>
+        <v>6.441772421876906e-168</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3.482301309141829e-175</v>
+        <v>6.485924476316043e-171</v>
       </c>
       <c r="CK4" t="n">
-        <v>3.995402744496315e-178</v>
+        <v>1.010104800008117e-173</v>
       </c>
       <c r="CL4" t="n">
-        <v>5.722302575352594e-181</v>
+        <v>8.361233845241426e-177</v>
       </c>
       <c r="CM4" t="n">
-        <v>1.453530653136138e-183</v>
+        <v>1.044215886413163e-179</v>
       </c>
       <c r="CN4" t="n">
-        <v>2.502590547253381e-186</v>
+        <v>8.873921708347255e-182</v>
       </c>
       <c r="CO4" t="n">
-        <v>4.026978713256243e-189</v>
+        <v>6.346653645417758e-183</v>
       </c>
       <c r="CP4" t="n">
-        <v>6.894046423849462e-192</v>
+        <v>3.502608785403903e-185</v>
       </c>
       <c r="CQ4" t="n">
-        <v>5.842862561212546e-195</v>
+        <v>6.868448030160575e-188</v>
       </c>
       <c r="CR4" t="n">
-        <v>1.11531263409016e-197</v>
+        <v>1.215188533017188e-190</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.230319541205045e-200</v>
+        <v>1.814548819365799e-193</v>
       </c>
       <c r="CT4" t="n">
-        <v>2.195983355506923e-203</v>
+        <v>2.34046011261414e-196</v>
       </c>
       <c r="CU4" t="n">
-        <v>5.020242574785584e-206</v>
+        <v>2.070632275150373e-199</v>
       </c>
       <c r="CV4" t="n">
-        <v>1.015337445206485e-208</v>
+        <v>1.293276309299701e-202</v>
       </c>
       <c r="CW4" t="n">
-        <v>8.353281793542779e-212</v>
+        <v>9.317028162136367e-206</v>
       </c>
       <c r="CX4" t="n">
-        <v>8.0054177265819e-215</v>
+        <v>1.029371079260296e-208</v>
       </c>
       <c r="CY4" t="n">
-        <v>2.110188573207284e-217</v>
+        <v>1.372493360347672e-211</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3.912896999764731e-220</v>
+        <v>3.152227749446149e-214</v>
       </c>
       <c r="DA4" t="n">
-        <v>4.132203247108951e-223</v>
+        <v>2.942541258590683e-217</v>
       </c>
       <c r="DB4" t="n">
-        <v>4.150404092212378e-226</v>
+        <v>2.442908014267043e-220</v>
       </c>
       <c r="DC4" t="n">
-        <v>4.483929669178973e-229</v>
+        <v>2.154261380852871e-223</v>
       </c>
       <c r="DD4" t="n">
-        <v>1.974294023945881e-231</v>
+        <v>1.013181775401219e-225</v>
       </c>
       <c r="DE4" t="n">
-        <v>2.462321759305391e-234</v>
+        <v>7.664555743920786e-228</v>
       </c>
       <c r="DF4" t="n">
-        <v>2.196938746310341e-237</v>
+        <v>8.405159114886139e-231</v>
       </c>
       <c r="DG4" t="n">
-        <v>3.712595345497315e-240</v>
+        <v>1.06793830689566e-233</v>
       </c>
       <c r="DH4" t="n">
-        <v>2.830577356969342e-242</v>
+        <v>1.153409750566206e-236</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.050059296160012e-244</v>
+        <v>1.308757982013104e-239</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1.017274284398029e-247</v>
+        <v>1.334184742741483e-242</v>
       </c>
       <c r="DK4" t="n">
-        <v>1.260121462500148e-250</v>
+        <v>1.693458077806157e-245</v>
       </c>
       <c r="DL4" t="n">
-        <v>3.598764063593689e-253</v>
+        <v>3.431688796062558e-248</v>
       </c>
       <c r="DM4" t="n">
-        <v>5.3004377428502e-256</v>
+        <v>8.594507585631001e-251</v>
       </c>
       <c r="DN4" t="n">
-        <v>6.491124034247331e-259</v>
+        <v>1.070551499727055e-253</v>
       </c>
       <c r="DO4" t="n">
-        <v>2.050590720231929e-261</v>
+        <v>1.829268712232274e-256</v>
       </c>
       <c r="DP4" t="n">
-        <v>1.706167261888081e-264</v>
+        <v>8.860889239908945e-260</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1.084229350154708e-267</v>
+        <v>5.275608585399463e-263</v>
       </c>
       <c r="DR4" t="n">
-        <v>1.998349583763482e-270</v>
+        <v>4.681320214813319e-266</v>
       </c>
       <c r="DS4" t="n">
-        <v>2.134066413449949e-273</v>
+        <v>6.945845357426457e-269</v>
       </c>
       <c r="DT4" t="n">
-        <v>1.738829847011345e-276</v>
+        <v>5.637112194274442e-272</v>
       </c>
       <c r="DU4" t="n">
-        <v>5.939312054580107e-279</v>
+        <v>4.570451562350641e-275</v>
       </c>
       <c r="DV4" t="n">
-        <v>1.829645733516766e-281</v>
+        <v>5.130246499585773e-278</v>
       </c>
       <c r="DW4" t="n">
-        <v>1.599977037332655e-284</v>
+        <v>6.234329055014477e-281</v>
       </c>
       <c r="DX4" t="n">
-        <v>1.314771344402366e-287</v>
+        <v>5.290789108665233e-284</v>
       </c>
       <c r="DY4" t="n">
-        <v>9.344301162476996e-291</v>
+        <v>3.378995804991621e-287</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2.80016225685532e-293</v>
+        <v>3.785350855176243e-290</v>
       </c>
       <c r="EA4" t="n">
-        <v>2.748448905437284e-296</v>
+        <v>1.407591137801778e-292</v>
       </c>
       <c r="EB4" t="n">
-        <v>1.771867372577223e-299</v>
+        <v>2.104685462034886e-295</v>
       </c>
       <c r="EC4" t="n">
-        <v>1.984807778282893e-302</v>
+        <v>1.856013131545712e-298</v>
       </c>
       <c r="ED4" t="n">
-        <v>2.680723363966801e-305</v>
+        <v>1.247922634318774e-301</v>
       </c>
       <c r="EE4" t="n">
-        <v>3.947878587960706e-308</v>
+        <v>1.104449574301207e-304</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>1.078714190986368e-307</v>
       </c>
       <c r="EG4" t="n">
         <v>0</v>
@@ -14031,361 +14031,361 @@
         <v>0.34</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2732288957993735</v>
+        <v>0.3045859194679809</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3570473787970924</v>
+        <v>0.1712255876923016</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3819773497471248</v>
+        <v>0.0318820718510463</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1954519946601752</v>
+        <v>0.006744471856317846</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08112531388741084</v>
+        <v>0.0009139791816944766</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02617090090064152</v>
+        <v>4.080671638372934e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03700636277628283</v>
+        <v>2.699457780828986e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.009683288906800267</v>
+        <v>5.372826505084906e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001169065762425234</v>
+        <v>1.159782700103099e-08</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002342132859040842</v>
+        <v>5.464449599227583e-10</v>
       </c>
       <c r="M2" t="n">
-        <v>2.216386837100766e-05</v>
+        <v>3.413510291353302e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>2.405287787064458e-06</v>
+        <v>2.461848418918224e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>3.365686794930939e-08</v>
+        <v>8.223138082971664e-15</v>
       </c>
       <c r="P2" t="n">
-        <v>2.60528209927367e-10</v>
+        <v>8.811349891937464e-17</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.496950824326657e-12</v>
+        <v>1.112250854754959e-18</v>
       </c>
       <c r="R2" t="n">
-        <v>1.551792213526147e-13</v>
+        <v>9.77856994372596e-21</v>
       </c>
       <c r="S2" t="n">
-        <v>5.174627368328493e-16</v>
+        <v>4.013771526900482e-23</v>
       </c>
       <c r="T2" t="n">
-        <v>2.099109652167115e-17</v>
+        <v>9.541091072217902e-26</v>
       </c>
       <c r="U2" t="n">
-        <v>4.048487123401357e-19</v>
+        <v>1.341871693089978e-27</v>
       </c>
       <c r="V2" t="n">
-        <v>1.263839571931414e-21</v>
+        <v>4.458666112471643e-30</v>
       </c>
       <c r="W2" t="n">
-        <v>8.145144915245995e-24</v>
+        <v>3.40935386072898e-33</v>
       </c>
       <c r="X2" t="n">
-        <v>3.71903412569322e-26</v>
+        <v>3.764621711186246e-35</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.269210746385768e-27</v>
+        <v>1.320364381715856e-36</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.972646586770325e-30</v>
+        <v>2.221784896638098e-38</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.237813237451207e-33</v>
+        <v>1.383448677056633e-41</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.074233702000034e-35</v>
+        <v>2.1556313941178e-44</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.266732347037029e-38</v>
+        <v>5.461313114583715e-47</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.404238050425361e-41</v>
+        <v>7.199893629535289e-50</v>
       </c>
       <c r="AE2" t="n">
-        <v>7.271862523439922e-44</v>
+        <v>4.729845068183446e-52</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.213964664094924e-46</v>
+        <v>1.836240103671468e-54</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.346951180372658e-49</v>
+        <v>2.89161224543344e-57</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.152150751744109e-51</v>
+        <v>3.658008462058647e-60</v>
       </c>
       <c r="AI2" t="n">
-        <v>4.279160877267557e-54</v>
+        <v>2.373008063668738e-63</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.201770168264382e-56</v>
+        <v>5.826642479851055e-66</v>
       </c>
       <c r="AK2" t="n">
-        <v>5.359671331779412e-58</v>
+        <v>2.829768673573505e-68</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.094613640534627e-60</v>
+        <v>1.956619042385718e-71</v>
       </c>
       <c r="AM2" t="n">
-        <v>4.039006964824344e-62</v>
+        <v>9.144204160073489e-74</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.949618669524015e-64</v>
+        <v>5.736791104223973e-76</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.750235900583203e-67</v>
+        <v>2.959496769878785e-78</v>
       </c>
       <c r="AP2" t="n">
-        <v>4.691283516931374e-70</v>
+        <v>3.640929553796568e-81</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7.812689930107244e-73</v>
+        <v>4.463928389090611e-84</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.015621491055453e-75</v>
+        <v>5.692031321661619e-87</v>
       </c>
       <c r="AS2" t="n">
-        <v>3.808739550477936e-78</v>
+        <v>1.299567645260021e-89</v>
       </c>
       <c r="AT2" t="n">
-        <v>5.705054364428818e-81</v>
+        <v>1.987332620518682e-92</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.003446395548553e-83</v>
+        <v>1.405682029287321e-94</v>
       </c>
       <c r="AV2" t="n">
-        <v>5.194430533063578e-86</v>
+        <v>6.163311259693969e-98</v>
       </c>
       <c r="AW2" t="n">
-        <v>9.550924596299756e-89</v>
+        <v>4.485490014960889e-101</v>
       </c>
       <c r="AX2" t="n">
-        <v>5.909392806096315e-91</v>
+        <v>2.560753875931678e-103</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.669203493140827e-93</v>
+        <v>2.851706648881999e-106</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2.55160843587683e-96</v>
+        <v>2.935830929694612e-109</v>
       </c>
       <c r="BA2" t="n">
-        <v>3.529773445046923e-99</v>
+        <v>4.705064489291355e-112</v>
       </c>
       <c r="BB2" t="n">
-        <v>5.454402774068141e-102</v>
+        <v>3.380142371131849e-114</v>
       </c>
       <c r="BC2" t="n">
-        <v>8.251720193568128e-105</v>
+        <v>7.905520852611883e-117</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.543250361797498e-107</v>
+        <v>8.645608063811563e-120</v>
       </c>
       <c r="BE2" t="n">
-        <v>6.474361442546307e-110</v>
+        <v>4.81043824260678e-123</v>
       </c>
       <c r="BF2" t="n">
-        <v>6.137635617908293e-113</v>
+        <v>3.405177999535924e-126</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.675942097761349e-115</v>
+        <v>1.650898815541479e-129</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.059022021050042e-118</v>
+        <v>1.382001103642538e-132</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.459466549834281e-121</v>
+        <v>1.117653913948613e-135</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.701288733578674e-124</v>
+        <v>9.874183609826823e-139</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.083007227530421e-127</v>
+        <v>9.87323508709034e-142</v>
       </c>
       <c r="BL2" t="n">
-        <v>8.863121695831475e-131</v>
+        <v>6.052594082980776e-145</v>
       </c>
       <c r="BM2" t="n">
-        <v>7.374772712806372e-134</v>
+        <v>3.203228507356625e-148</v>
       </c>
       <c r="BN2" t="n">
-        <v>6.399129938889886e-137</v>
+        <v>2.153866493705476e-151</v>
       </c>
       <c r="BO2" t="n">
-        <v>3.09382681855717e-140</v>
+        <v>2.016017877836612e-154</v>
       </c>
       <c r="BP2" t="n">
-        <v>9.216975308199311e-143</v>
+        <v>2.613388876620287e-157</v>
       </c>
       <c r="BQ2" t="n">
-        <v>8.44727770657713e-146</v>
+        <v>3.677019910239031e-160</v>
       </c>
       <c r="BR2" t="n">
-        <v>6.529388648923937e-149</v>
+        <v>1.787453486359559e-163</v>
       </c>
       <c r="BS2" t="n">
-        <v>3.669421667083298e-152</v>
+        <v>6.128080680696191e-167</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.998794669728862e-154</v>
+        <v>4.205603270505069e-170</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.580077935610468e-157</v>
+        <v>3.56969555408563e-173</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.093076295887019e-160</v>
+        <v>1.955459807878256e-176</v>
       </c>
       <c r="BW2" t="n">
-        <v>8.458646569849782e-164</v>
+        <v>1.199421549414217e-178</v>
       </c>
       <c r="BX2" t="n">
-        <v>1.081346629729683e-166</v>
+        <v>7.989739228612226e-182</v>
       </c>
       <c r="BY2" t="n">
-        <v>5.338058331901286e-169</v>
+        <v>3.594978533699011e-185</v>
       </c>
       <c r="BZ2" t="n">
-        <v>3.836103278033798e-172</v>
+        <v>1.692413185675818e-188</v>
       </c>
       <c r="CA2" t="n">
-        <v>3.257102598085161e-175</v>
+        <v>5.43685201851316e-192</v>
       </c>
       <c r="CB2" t="n">
-        <v>3.226390391699587e-178</v>
+        <v>3.845942230952949e-195</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.707408672471369e-181</v>
+        <v>3.964076546956254e-198</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.815419688673355e-184</v>
+        <v>3.904721793930747e-201</v>
       </c>
       <c r="CE2" t="n">
-        <v>1.01908897445214e-187</v>
+        <v>2.766966335782504e-204</v>
       </c>
       <c r="CF2" t="n">
-        <v>1.863620545547416e-190</v>
+        <v>9.718321290696634e-208</v>
       </c>
       <c r="CG2" t="n">
-        <v>2.813623098474391e-193</v>
+        <v>6.917844298617122e-211</v>
       </c>
       <c r="CH2" t="n">
-        <v>2.116979634197807e-196</v>
+        <v>1.212888493749262e-213</v>
       </c>
       <c r="CI2" t="n">
-        <v>7.053179952833195e-199</v>
+        <v>1.312047036212104e-216</v>
       </c>
       <c r="CJ2" t="n">
-        <v>3.929498916229202e-202</v>
+        <v>2.90540909733428e-219</v>
       </c>
       <c r="CK2" t="n">
-        <v>2.603176647103759e-205</v>
+        <v>1.968596833920156e-222</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.301990339927298e-208</v>
+        <v>5.366481616340782e-225</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.658665367937752e-211</v>
+        <v>3.210182005639906e-228</v>
       </c>
       <c r="CN2" t="n">
-        <v>8.140519286288745e-215</v>
+        <v>1.746645433885775e-231</v>
       </c>
       <c r="CO2" t="n">
-        <v>9.785552576279905e-218</v>
+        <v>1.467446656793903e-234</v>
       </c>
       <c r="CP2" t="n">
-        <v>5.919914396442165e-221</v>
+        <v>8.415444671432234e-237</v>
       </c>
       <c r="CQ2" t="n">
-        <v>6.846945039402231e-224</v>
+        <v>3.637832805227105e-238</v>
       </c>
       <c r="CR2" t="n">
-        <v>2.186941480778297e-226</v>
+        <v>3.803056450464288e-239</v>
       </c>
       <c r="CS2" t="n">
-        <v>3.840710551036565e-229</v>
+        <v>1.468717755692397e-242</v>
       </c>
       <c r="CT2" t="n">
-        <v>3.130977508039419e-232</v>
+        <v>6.128650371826036e-246</v>
       </c>
       <c r="CU2" t="n">
-        <v>2.482224887845293e-235</v>
+        <v>6.726203095961811e-249</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.637702569899997e-238</v>
+        <v>2.219266172581739e-252</v>
       </c>
       <c r="CW2" t="n">
-        <v>7.871536317585233e-242</v>
+        <v>1.082195923138427e-255</v>
       </c>
       <c r="CX2" t="n">
-        <v>2.790542267515406e-245</v>
+        <v>6.476974777478503e-259</v>
       </c>
       <c r="CY2" t="n">
-        <v>2.65793700460113e-248</v>
+        <v>5.477473564946099e-262</v>
       </c>
       <c r="CZ2" t="n">
-        <v>3.640543035864978e-251</v>
+        <v>3.526680006020289e-265</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.554454044193339e-254</v>
+        <v>1.338321049337788e-268</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.540910946095008e-257</v>
+        <v>9.319933766661828e-272</v>
       </c>
       <c r="DC2" t="n">
-        <v>8.810107713942819e-261</v>
+        <v>1.337685115890873e-274</v>
       </c>
       <c r="DD2" t="n">
-        <v>3.165857263099195e-264</v>
+        <v>1.552788148718383e-277</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.565753511107612e-266</v>
+        <v>2.181374177333988e-280</v>
       </c>
       <c r="DF2" t="n">
-        <v>8.163079918199396e-270</v>
+        <v>4.306268033925935e-283</v>
       </c>
       <c r="DG2" t="n">
-        <v>6.096789591502077e-273</v>
+        <v>2.425315793171477e-286</v>
       </c>
       <c r="DH2" t="n">
-        <v>2.242494647074508e-276</v>
+        <v>1.527441473409627e-289</v>
       </c>
       <c r="DI2" t="n">
-        <v>8.677582329531957e-280</v>
+        <v>5.789652549523663e-293</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.116021504607511e-282</v>
+        <v>1.907741476306189e-296</v>
       </c>
       <c r="DK2" t="n">
-        <v>5.620643995871633e-286</v>
+        <v>8.828294257763906e-300</v>
       </c>
       <c r="DL2" t="n">
-        <v>3.592899091022959e-289</v>
+        <v>6.43162797794563e-303</v>
       </c>
       <c r="DM2" t="n">
-        <v>1.643502448194804e-292</v>
+        <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>6.820462331047236e-296</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>4.170584735531864e-299</v>
+        <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.365164541023265e-302</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.90366187513251e-305</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
         <v>0</v>
@@ -15538,412 +15538,412 @@
         <v>0.33</v>
       </c>
       <c r="C3" t="n">
-        <v>0.327885617810503</v>
+        <v>0.3350218769697578</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3458002504664768</v>
+        <v>0.3032870103500024</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3943551133879112</v>
+        <v>0.1911758966261369</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4879872348472923</v>
+        <v>0.1325395965273276</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4054012763950544</v>
+        <v>0.05887004172015317</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4788562394286533</v>
+        <v>0.01436961132929153</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7759229425904722</v>
+        <v>0.003422905849885958</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9224705375289627</v>
+        <v>0.003565308416825071</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7651473950505274</v>
+        <v>0.0006023380346275528</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9512635316275361</v>
+        <v>8.748959792452005e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5764633518958928</v>
+        <v>5.671979416800272e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2107593778305738</v>
+        <v>1.6685548480358e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03647887357944728</v>
+        <v>2.218599794074805e-07</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001932275650069587</v>
+        <v>1.383528722870443e-08</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0005768907031645145</v>
+        <v>1.029273569357486e-09</v>
       </c>
       <c r="R3" t="n">
-        <v>3.714842216578469e-05</v>
+        <v>3.500472413053997e-11</v>
       </c>
       <c r="S3" t="n">
-        <v>9.471834488651051e-07</v>
+        <v>1.735133079045604e-12</v>
       </c>
       <c r="T3" t="n">
-        <v>1.273634333432807e-06</v>
+        <v>1.499730538743105e-14</v>
       </c>
       <c r="U3" t="n">
-        <v>1.149633499378786e-07</v>
+        <v>6.415933359028328e-16</v>
       </c>
       <c r="V3" t="n">
-        <v>2.820399734832495e-09</v>
+        <v>7.802456796170959e-18</v>
       </c>
       <c r="W3" t="n">
-        <v>7.642131975303347e-11</v>
+        <v>3.782420741303013e-20</v>
       </c>
       <c r="X3" t="n">
-        <v>2.104358706579529e-12</v>
+        <v>5.575890538085173e-21</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.727292673673261e-12</v>
+        <v>2.884249862406355e-21</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.408484368714808e-14</v>
+        <v>1.667065014344743e-22</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.093587894881834e-17</v>
+        <v>2.189050709091671e-25</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.241056667325636e-19</v>
+        <v>1.11233652052827e-27</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.050211930372963e-21</v>
+        <v>1.140682754598053e-29</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.455047688322969e-23</v>
+        <v>4.091027726428458e-32</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.04629933536169e-26</v>
+        <v>8.418108140574581e-34</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.62587951838205e-28</v>
+        <v>1.540216734626991e-35</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.022223026860448e-30</v>
+        <v>7.596781964264094e-38</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.642552184227002e-32</v>
+        <v>2.333232009214209e-40</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.874202076120459e-34</v>
+        <v>2.099585043266254e-43</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4.155732664602428e-36</v>
+        <v>5.100900284233442e-46</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.561658766739161e-37</v>
+        <v>8.812180536363671e-48</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.512874271080311e-39</v>
+        <v>8.908960180646753e-51</v>
       </c>
       <c r="AM3" t="n">
-        <v>2.896731972549231e-40</v>
+        <v>1.695306484811273e-52</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.262347485932166e-41</v>
+        <v>3.925042978942907e-54</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.250024146394366e-44</v>
+        <v>8.257382049240504e-56</v>
       </c>
       <c r="AP3" t="n">
-        <v>6.967764782884355e-47</v>
+        <v>2.617019018728566e-58</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3.260522242269303e-49</v>
+        <v>7.477166594974172e-61</v>
       </c>
       <c r="AR3" t="n">
-        <v>9.968335997779824e-52</v>
+        <v>2.62313755857875e-63</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.386354779577383e-53</v>
+        <v>1.913263407744964e-65</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.166500261990701e-56</v>
+        <v>6.111139009441882e-68</v>
       </c>
       <c r="AU3" t="n">
-        <v>2.213530396767181e-58</v>
+        <v>1.476847774579703e-69</v>
       </c>
       <c r="AV3" t="n">
-        <v>3.164455967328136e-60</v>
+        <v>5.04510284041744e-73</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.492192806128458e-62</v>
+        <v>4.432386715180571e-76</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.589068792283606e-64</v>
+        <v>8.017112344037956e-78</v>
       </c>
       <c r="AY3" t="n">
-        <v>2.838745642468455e-66</v>
+        <v>2.204131107276549e-80</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1.381983135000831e-68</v>
+        <v>4.880958812616704e-83</v>
       </c>
       <c r="BA3" t="n">
-        <v>5.947784668326823e-71</v>
+        <v>9.105924576832689e-86</v>
       </c>
       <c r="BB3" t="n">
-        <v>3.040158183515843e-73</v>
+        <v>2.476778621341535e-87</v>
       </c>
       <c r="BC3" t="n">
-        <v>9.714526167067421e-76</v>
+        <v>1.757241168539404e-89</v>
       </c>
       <c r="BD3" t="n">
-        <v>4.101422939817453e-78</v>
+        <v>4.476689721707815e-92</v>
       </c>
       <c r="BE3" t="n">
-        <v>5.589751911951992e-80</v>
+        <v>3.107229803788468e-95</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.330972212830238e-82</v>
+        <v>3.157064471789808e-98</v>
       </c>
       <c r="BG3" t="n">
-        <v>8.739540937513761e-85</v>
+        <v>1.585246946723147e-101</v>
       </c>
       <c r="BH3" t="n">
-        <v>9.340904953684714e-88</v>
+        <v>1.485231532447764e-104</v>
       </c>
       <c r="BI3" t="n">
-        <v>2.926115986622179e-90</v>
+        <v>1.710842935234424e-107</v>
       </c>
       <c r="BJ3" t="n">
-        <v>9.453733803957785e-93</v>
+        <v>2.585255845260844e-110</v>
       </c>
       <c r="BK3" t="n">
-        <v>1.079752372214212e-95</v>
+        <v>5.167109411089019e-113</v>
       </c>
       <c r="BL3" t="n">
-        <v>1.436458932574614e-98</v>
+        <v>5.340723789829516e-116</v>
       </c>
       <c r="BM3" t="n">
-        <v>2.312324450868011e-101</v>
+        <v>3.441744573879464e-119</v>
       </c>
       <c r="BN3" t="n">
-        <v>4.244842804453696e-104</v>
+        <v>4.612584668238229e-122</v>
       </c>
       <c r="BO3" t="n">
-        <v>2.552804257962827e-107</v>
+        <v>9.54371195950204e-125</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.126847367787014e-109</v>
+        <v>3.332729012448659e-127</v>
       </c>
       <c r="BQ3" t="n">
-        <v>2.135170669153582e-112</v>
+        <v>1.230365553688111e-129</v>
       </c>
       <c r="BR3" t="n">
-        <v>3.767122073078351e-115</v>
+        <v>4.175755391391657e-133</v>
       </c>
       <c r="BS3" t="n">
-        <v>3.462138330252244e-118</v>
+        <v>8.784848700860875e-137</v>
       </c>
       <c r="BT3" t="n">
-        <v>3.848376429545151e-120</v>
+        <v>4.764318651113657e-140</v>
       </c>
       <c r="BU3" t="n">
-        <v>4.79765545849335e-123</v>
+        <v>1.029229466341156e-142</v>
       </c>
       <c r="BV3" t="n">
-        <v>7.478996672163857e-126</v>
+        <v>8.062214003992389e-146</v>
       </c>
       <c r="BW3" t="n">
-        <v>9.029779768103169e-129</v>
+        <v>5.382838045803583e-148</v>
       </c>
       <c r="BX3" t="n">
-        <v>2.056374240318799e-131</v>
+        <v>5.842558035898871e-151</v>
       </c>
       <c r="BY3" t="n">
-        <v>2.777995902053298e-133</v>
+        <v>2.513246013589534e-154</v>
       </c>
       <c r="BZ3" t="n">
-        <v>3.786273938096904e-136</v>
+        <v>1.50755698019652e-157</v>
       </c>
       <c r="CA3" t="n">
-        <v>5.051707657754018e-139</v>
+        <v>2.595139209930919e-161</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.441029475969088e-141</v>
+        <v>4.066495330535554e-164</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.4038614206813e-144</v>
+        <v>6.976793940252256e-167</v>
       </c>
       <c r="CD3" t="n">
-        <v>3.984738495679102e-147</v>
+        <v>1.491500329787516e-169</v>
       </c>
       <c r="CE3" t="n">
-        <v>4.468732740168959e-150</v>
+        <v>1.969047971019873e-172</v>
       </c>
       <c r="CF3" t="n">
-        <v>1.99774951906154e-152</v>
+        <v>5.613018774002939e-176</v>
       </c>
       <c r="CG3" t="n">
-        <v>4.653758665410819e-155</v>
+        <v>3.820408173039742e-179</v>
       </c>
       <c r="CH3" t="n">
-        <v>9.039787283555511e-158</v>
+        <v>1.353138410154463e-181</v>
       </c>
       <c r="CI3" t="n">
-        <v>5.333598879923594e-160</v>
+        <v>2.344994285706655e-184</v>
       </c>
       <c r="CJ3" t="n">
-        <v>4.939022697982675e-163</v>
+        <v>1.70166155609836e-186</v>
       </c>
       <c r="CK3" t="n">
-        <v>6.778214529155929e-166</v>
+        <v>2.765877529966644e-189</v>
       </c>
       <c r="CL3" t="n">
-        <v>4.774917216055685e-169</v>
+        <v>2.179923262398447e-191</v>
       </c>
       <c r="CM3" t="n">
-        <v>1.43413373585458e-171</v>
+        <v>2.971493803521223e-194</v>
       </c>
       <c r="CN3" t="n">
-        <v>1.225914648365171e-174</v>
+        <v>2.032813824099344e-197</v>
       </c>
       <c r="CO3" t="n">
-        <v>1.890145219269872e-177</v>
+        <v>4.460350090617057e-200</v>
       </c>
       <c r="CP3" t="n">
-        <v>2.31182098991998e-180</v>
+        <v>9.069435262845212e-202</v>
       </c>
       <c r="CQ3" t="n">
-        <v>5.646705671398009e-183</v>
+        <v>2.075912049122082e-202</v>
       </c>
       <c r="CR3" t="n">
-        <v>5.101670836482347e-185</v>
+        <v>6.411721410531528e-203</v>
       </c>
       <c r="CS3" t="n">
-        <v>1.884876221552207e-187</v>
+        <v>3.385808969215521e-206</v>
       </c>
       <c r="CT3" t="n">
-        <v>4.180278647039086e-190</v>
+        <v>2.065580335729534e-209</v>
       </c>
       <c r="CU3" t="n">
-        <v>9.424519057921695e-193</v>
+        <v>5.430933594612317e-212</v>
       </c>
       <c r="CV3" t="n">
-        <v>1.383322170467666e-195</v>
+        <v>1.291641357218833e-215</v>
       </c>
       <c r="CW3" t="n">
-        <v>1.345119668521655e-198</v>
+        <v>1.237987976879164e-218</v>
       </c>
       <c r="CX3" t="n">
-        <v>4.521368669206971e-202</v>
+        <v>1.369416281474608e-221</v>
       </c>
       <c r="CY3" t="n">
-        <v>3.5531800540029e-205</v>
+        <v>2.940833686185743e-224</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.289594554821995e-207</v>
+        <v>4.654116248910678e-227</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.039900790106077e-210</v>
+        <v>2.678913647238924e-230</v>
       </c>
       <c r="DB3" t="n">
-        <v>2.530147001790062e-213</v>
+        <v>5.091324953680711e-233</v>
       </c>
       <c r="DC3" t="n">
-        <v>3.408384417468145e-216</v>
+        <v>1.648709665084844e-235</v>
       </c>
       <c r="DD3" t="n">
-        <v>1.701200497943949e-219</v>
+        <v>6.203156590879761e-238</v>
       </c>
       <c r="DE3" t="n">
-        <v>1.24932966666873e-221</v>
+        <v>2.023834418247484e-240</v>
       </c>
       <c r="DF3" t="n">
-        <v>1.207556542009989e-224</v>
+        <v>8.384834960860981e-243</v>
       </c>
       <c r="DG3" t="n">
-        <v>2.559955232229153e-227</v>
+        <v>9.900040973311751e-246</v>
       </c>
       <c r="DH3" t="n">
-        <v>1.426099634350969e-230</v>
+        <v>1.603307264857988e-248</v>
       </c>
       <c r="DI3" t="n">
-        <v>9.477010047172382e-234</v>
+        <v>1.010933488951469e-251</v>
       </c>
       <c r="DJ3" t="n">
-        <v>2.83412232296621e-236</v>
+        <v>3.028848774079391e-255</v>
       </c>
       <c r="DK3" t="n">
-        <v>3.210673891341249e-239</v>
+        <v>3.08370631359843e-258</v>
       </c>
       <c r="DL3" t="n">
-        <v>3.256037517581492e-242</v>
+        <v>5.87038309837235e-261</v>
       </c>
       <c r="DM3" t="n">
-        <v>3.107744568394687e-245</v>
+        <v>9.591965161655266e-265</v>
       </c>
       <c r="DN3" t="n">
-        <v>2.195850694465593e-248</v>
+        <v>9.745790491724164e-268</v>
       </c>
       <c r="DO3" t="n">
-        <v>2.035930002781598e-251</v>
+        <v>4.121145692255298e-271</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.352172562223392e-254</v>
+        <v>3.036267003362949e-274</v>
       </c>
       <c r="DQ3" t="n">
-        <v>2.910767654682732e-257</v>
+        <v>1.772446135072692e-276</v>
       </c>
       <c r="DR3" t="n">
-        <v>7.954766567232817e-260</v>
+        <v>1.679472583374582e-279</v>
       </c>
       <c r="DS3" t="n">
-        <v>6.957780778526225e-263</v>
+        <v>4.013966279681825e-284</v>
       </c>
       <c r="DT3" t="n">
-        <v>2.782687740704523e-265</v>
+        <v>2.016092624994513e-284</v>
       </c>
       <c r="DU3" t="n">
-        <v>1.51622362223081e-268</v>
+        <v>1.336548520551277e-286</v>
       </c>
       <c r="DV3" t="n">
-        <v>1.807987634949266e-271</v>
+        <v>7.384560157818079e-290</v>
       </c>
       <c r="DW3" t="n">
-        <v>2.802134179017095e-274</v>
+        <v>9.89906463557997e-294</v>
       </c>
       <c r="DX3" t="n">
-        <v>2.443605361180025e-277</v>
+        <v>1.634894950735166e-297</v>
       </c>
       <c r="DY3" t="n">
-        <v>9.089088334425414e-281</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>9.334295612432178e-284</v>
+        <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>9.826180336094973e-287</v>
+        <v>0</v>
       </c>
       <c r="EB3" t="n">
-        <v>6.000493094402965e-290</v>
+        <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>7.07106316874169e-293</v>
+        <v>0</v>
       </c>
       <c r="ED3" t="n">
-        <v>6.778437218129133e-296</v>
+        <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>4.865557400667559e-298</v>
+        <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>1.346603084280594e-300</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>2.004704832119067e-303</v>
+        <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>6.519348256947147e-307</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
@@ -17045,76 +17045,76 @@
         <v>0.33</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3988854863901236</v>
+        <v>0.3603922035622612</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2971523707364307</v>
+        <v>0.5254874019576962</v>
       </c>
       <c r="E4" t="n">
-        <v>0.223667536864964</v>
+        <v>0.7769420315228167</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3165607704925325</v>
+        <v>0.8607159316163546</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5134734097175349</v>
+        <v>0.9402159790981524</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4949728596707051</v>
+        <v>0.9855895819543247</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1870706946332449</v>
+        <v>0.9965743946923332</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06784617356423693</v>
+        <v>0.9964341543005245</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2336835391870474</v>
+        <v>0.9993976503675454</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04850225508655991</v>
+        <v>0.9999125098556306</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4235144842357362</v>
+        <v>0.9999943280171698</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7892382168816392</v>
+        <v>0.9999983314449058</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9635210927636848</v>
+        <v>0.9999997781400123</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9980677240894021</v>
+        <v>0.9999999861647128</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9994231092883384</v>
+        <v>0.9999999989707264</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9999628515776791</v>
+        <v>0.9999999999649953</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9999990528165505</v>
+        <v>0.9999999999982649</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9999987263656666</v>
+        <v>0.999999999999985</v>
       </c>
       <c r="U4" t="n">
-        <v>0.99999988503665</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9999999971796002</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9999999999235786</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9999999999978956</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9999999999972726</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.9999999999999758</v>
+        <v>1</v>
       </c>
       <c r="AA4" t="n">
         <v>1</v>

--- a/Data/fake_nocalib.xlsx
+++ b/Data/fake_nocalib.xlsx
@@ -1947,70 +1947,70 @@
         <v>0.34</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3793476846011162</v>
+        <v>0.4134729222092933</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2443382457136077</v>
+        <v>0.3148516220154865</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4095524216894881</v>
+        <v>0.5184442243970022</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6635434669992045</v>
+        <v>0.7426728380853828</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8677242659820423</v>
+        <v>0.9017559669997968</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9571203441474139</v>
+        <v>0.9817719297869234</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9762388172196976</v>
+        <v>0.9892366239606815</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9807121798149688</v>
+        <v>0.9974164484240446</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9818872557099124</v>
+        <v>0.9994825563714519</v>
       </c>
       <c r="L2" t="n">
-        <v>0.996658946601905</v>
+        <v>0.9995677872345328</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9988826873923726</v>
+        <v>0.999953551684027</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9999836269568585</v>
+        <v>0.9999965945406329</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9999975313527698</v>
+        <v>0.9999994762692455</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9999996380446543</v>
+        <v>0.9999999878953059</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9999999888121439</v>
+        <v>0.999999997440012</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9999999997141267</v>
+        <v>0.9999999998650512</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9999999999693473</v>
+        <v>0.9999999999957376</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9999999999897953</v>
+        <v>0.9999999999996964</v>
       </c>
       <c r="U2" t="n">
-        <v>0.999999999999273</v>
+        <v>0.9999999999999969</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9999999999999754</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
@@ -3454,412 +3454,412 @@
         <v>0.33</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3296342073030863</v>
+        <v>0.3238913712641429</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3214936029049453</v>
+        <v>0.346971043644298</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3280990912466611</v>
+        <v>0.3118554100622305</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2401513653268916</v>
+        <v>0.2076143605737778</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1220483975709383</v>
+        <v>0.09152907144408082</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04169547107543006</v>
+        <v>0.01783195665552409</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0235910464715743</v>
+        <v>0.010695973698828</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0192529375272495</v>
+        <v>0.002580658210104013</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0181081705752914</v>
+        <v>0.0005173944011975248</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003340920995463079</v>
+        <v>0.0004322104256413149</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001117300590388375</v>
+        <v>4.644826351756854e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>1.637302197906345e-05</v>
+        <v>3.405458907623032e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>2.468646314439176e-06</v>
+        <v>5.237307366346747e-07</v>
       </c>
       <c r="P3" t="n">
-        <v>3.619553220963576e-07</v>
+        <v>1.210469396916834e-08</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.118785610012044e-08</v>
+        <v>2.559987964567466e-09</v>
       </c>
       <c r="R3" t="n">
-        <v>2.858733826074507e-10</v>
+        <v>1.349488262082123e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>3.065273871913303e-11</v>
+        <v>4.262335667827678e-12</v>
       </c>
       <c r="T3" t="n">
-        <v>1.020475990134383e-11</v>
+        <v>3.036518409434327e-13</v>
       </c>
       <c r="U3" t="n">
-        <v>7.269509111457317e-13</v>
+        <v>3.179948358446813e-15</v>
       </c>
       <c r="V3" t="n">
-        <v>2.465675334814873e-14</v>
+        <v>7.991463611895485e-18</v>
       </c>
       <c r="W3" t="n">
-        <v>1.062939060395602e-15</v>
+        <v>1.739383418761408e-19</v>
       </c>
       <c r="X3" t="n">
-        <v>6.644673182821444e-17</v>
+        <v>5.229496522160526e-21</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.520931580206053e-18</v>
+        <v>7.337325008081183e-23</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.297266635876832e-20</v>
+        <v>3.87367870774309e-24</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.396779080261565e-22</v>
+        <v>5.793917337585768e-26</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.124532202742192e-24</v>
+        <v>2.931003050926347e-28</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.151967707531632e-25</v>
+        <v>1.084437412996843e-29</v>
       </c>
       <c r="AD3" t="n">
-        <v>9.263358699584408e-27</v>
+        <v>3.412661199995948e-31</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.068301886086068e-29</v>
+        <v>2.125150085535124e-33</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.486970928810728e-31</v>
+        <v>2.642105109601428e-35</v>
       </c>
       <c r="AG3" t="n">
-        <v>3.933648137379379e-33</v>
+        <v>5.752300971465767e-37</v>
       </c>
       <c r="AH3" t="n">
-        <v>3.031273873584111e-35</v>
+        <v>1.114307920034986e-38</v>
       </c>
       <c r="AI3" t="n">
-        <v>5.507542086270659e-37</v>
+        <v>2.366107190737057e-40</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2.274624694623524e-39</v>
+        <v>4.299290417874735e-43</v>
       </c>
       <c r="AK3" t="n">
-        <v>6.154109012305736e-41</v>
+        <v>3.004754248809688e-45</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.003727369831053e-42</v>
+        <v>9.211493134638012e-48</v>
       </c>
       <c r="AM3" t="n">
-        <v>2.718431951714819e-44</v>
+        <v>1.334534713144316e-49</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.813886081518068e-46</v>
+        <v>6.963705036339118e-52</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.178677434698341e-49</v>
+        <v>1.131553273195349e-54</v>
       </c>
       <c r="AP3" t="n">
-        <v>5.449626853517709e-51</v>
+        <v>4.149347984095797e-57</v>
       </c>
       <c r="AQ3" t="n">
-        <v>8.20595186809358e-53</v>
+        <v>2.320724163630703e-59</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.835679834072938e-55</v>
+        <v>1.139813683419914e-61</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.234895888913618e-57</v>
+        <v>1.36676225081503e-63</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.187025698392477e-60</v>
+        <v>4.184657216301016e-66</v>
       </c>
       <c r="AU3" t="n">
-        <v>2.615360518692618e-63</v>
+        <v>1.283599482024632e-67</v>
       </c>
       <c r="AV3" t="n">
-        <v>2.076181926814557e-65</v>
+        <v>7.289398500578876e-71</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.035154921040368e-67</v>
+        <v>1.572122981491581e-72</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.212833259527395e-69</v>
+        <v>1.844126817646362e-74</v>
       </c>
       <c r="AY3" t="n">
-        <v>2.629894751960169e-71</v>
+        <v>4.015253911942237e-77</v>
       </c>
       <c r="AZ3" t="n">
-        <v>9.03232060590459e-74</v>
+        <v>9.407406577664602e-79</v>
       </c>
       <c r="BA3" t="n">
-        <v>6.127576116742845e-76</v>
+        <v>7.585040545887094e-81</v>
       </c>
       <c r="BB3" t="n">
-        <v>2.59490365776871e-78</v>
+        <v>2.775359278820781e-83</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.264538222878302e-80</v>
+        <v>9.555601586571923e-86</v>
       </c>
       <c r="BD3" t="n">
-        <v>7.71869210033123e-83</v>
+        <v>3.042299121825293e-88</v>
       </c>
       <c r="BE3" t="n">
-        <v>7.956241909484133e-85</v>
+        <v>2.063292168676506e-91</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.063136796035789e-87</v>
+        <v>1.402572875605826e-93</v>
       </c>
       <c r="BG3" t="n">
-        <v>3.583682309043511e-90</v>
+        <v>2.906974458932894e-96</v>
       </c>
       <c r="BH3" t="n">
-        <v>2.908896322153387e-93</v>
+        <v>7.954029841692747e-99</v>
       </c>
       <c r="BI3" t="n">
-        <v>2.645129056339503e-96</v>
+        <v>1.593719787154235e-101</v>
       </c>
       <c r="BJ3" t="n">
-        <v>5.38581463183456e-99</v>
+        <v>2.369060550870311e-103</v>
       </c>
       <c r="BK3" t="n">
-        <v>1.179563186519831e-101</v>
+        <v>1.236933130684744e-105</v>
       </c>
       <c r="BL3" t="n">
-        <v>1.453516746796217e-103</v>
+        <v>2.64491472151359e-108</v>
       </c>
       <c r="BM3" t="n">
-        <v>2.355633655299669e-105</v>
+        <v>1.743332222204575e-110</v>
       </c>
       <c r="BN3" t="n">
-        <v>4.551495678445881e-108</v>
+        <v>9.263703958547095e-113</v>
       </c>
       <c r="BO3" t="n">
-        <v>8.566009224309254e-111</v>
+        <v>1.170919060754808e-115</v>
       </c>
       <c r="BP3" t="n">
-        <v>3.316515953792697e-113</v>
+        <v>2.620927850771567e-118</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.569670905295456e-115</v>
+        <v>9.526643316473373e-121</v>
       </c>
       <c r="BR3" t="n">
-        <v>8.426312649475215e-118</v>
+        <v>2.207308411747047e-123</v>
       </c>
       <c r="BS3" t="n">
-        <v>3.167625832011999e-120</v>
+        <v>5.73365716801828e-126</v>
       </c>
       <c r="BT3" t="n">
-        <v>2.580271855207091e-123</v>
+        <v>7.970755799863635e-130</v>
       </c>
       <c r="BU3" t="n">
-        <v>3.66723778858186e-125</v>
+        <v>5.460856746551707e-133</v>
       </c>
       <c r="BV3" t="n">
-        <v>6.3111680146318e-127</v>
+        <v>2.507245564237229e-135</v>
       </c>
       <c r="BW3" t="n">
-        <v>1.03789910889218e-129</v>
+        <v>1.604665201687269e-137</v>
       </c>
       <c r="BX3" t="n">
-        <v>2.006964115787512e-132</v>
+        <v>2.288751142186686e-140</v>
       </c>
       <c r="BY3" t="n">
-        <v>1.162337655114935e-134</v>
+        <v>1.188756847800705e-142</v>
       </c>
       <c r="BZ3" t="n">
-        <v>2.921839297535298e-137</v>
+        <v>1.349312432626645e-145</v>
       </c>
       <c r="CA3" t="n">
-        <v>1.050788414802883e-139</v>
+        <v>4.108973314528757e-148</v>
       </c>
       <c r="CB3" t="n">
-        <v>3.475277884235044e-142</v>
+        <v>8.845937516776042e-151</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.955756862480445e-144</v>
+        <v>1.291785968343453e-153</v>
       </c>
       <c r="CD3" t="n">
-        <v>1.145645820147438e-146</v>
+        <v>1.445144359523524e-156</v>
       </c>
       <c r="CE3" t="n">
-        <v>9.468539978473212e-149</v>
+        <v>2.538837726756556e-159</v>
       </c>
       <c r="CF3" t="n">
-        <v>1.37613766624853e-151</v>
+        <v>2.454023395019151e-162</v>
       </c>
       <c r="CG3" t="n">
-        <v>2.059994325789272e-154</v>
+        <v>2.729745166856882e-164</v>
       </c>
       <c r="CH3" t="n">
-        <v>3.080055979023925e-157</v>
+        <v>3.600091936829097e-167</v>
       </c>
       <c r="CI3" t="n">
-        <v>1.074209948838355e-159</v>
+        <v>5.247852639003933e-170</v>
       </c>
       <c r="CJ3" t="n">
-        <v>3.737270064115036e-162</v>
+        <v>1.256814599309971e-172</v>
       </c>
       <c r="CK3" t="n">
-        <v>2.356765990164629e-164</v>
+        <v>2.180027070081369e-175</v>
       </c>
       <c r="CL3" t="n">
-        <v>5.601475385343265e-167</v>
+        <v>5.245257717101454e-178</v>
       </c>
       <c r="CM3" t="n">
-        <v>2.476541497654852e-169</v>
+        <v>1.506871377046599e-180</v>
       </c>
       <c r="CN3" t="n">
-        <v>3.708856347554187e-172</v>
+        <v>3.157003249592201e-183</v>
       </c>
       <c r="CO3" t="n">
-        <v>4.874052877048397e-175</v>
+        <v>7.642261726118649e-186</v>
       </c>
       <c r="CP3" t="n">
-        <v>4.420360412564045e-178</v>
+        <v>1.252309577855435e-188</v>
       </c>
       <c r="CQ3" t="n">
-        <v>1.015398811900328e-180</v>
+        <v>2.163615559638571e-191</v>
       </c>
       <c r="CR3" t="n">
-        <v>1.967651738616531e-183</v>
+        <v>5.002277773745974e-194</v>
       </c>
       <c r="CS3" t="n">
-        <v>4.199827959280762e-186</v>
+        <v>5.732516129811213e-197</v>
       </c>
       <c r="CT3" t="n">
-        <v>5.902052327130323e-189</v>
+        <v>6.489998841593866e-200</v>
       </c>
       <c r="CU3" t="n">
-        <v>2.234507089248548e-191</v>
+        <v>1.931906093172392e-202</v>
       </c>
       <c r="CV3" t="n">
-        <v>3.697412300075998e-194</v>
+        <v>1.995748760992808e-205</v>
       </c>
       <c r="CW3" t="n">
-        <v>7.039511272337362e-197</v>
+        <v>4.899395792346514e-208</v>
       </c>
       <c r="CX3" t="n">
-        <v>7.726470825086164e-200</v>
+        <v>1.008339872156832e-210</v>
       </c>
       <c r="CY3" t="n">
-        <v>2.151620053319313e-202</v>
+        <v>1.31738701191174e-213</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.654916868437297e-205</v>
+        <v>9.760302394763777e-217</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.527338356625677e-208</v>
+        <v>9.231191547907403e-219</v>
       </c>
       <c r="DB3" t="n">
-        <v>1.731412047493001e-211</v>
+        <v>1.01188115175349e-221</v>
       </c>
       <c r="DC3" t="n">
-        <v>1.966266242998464e-214</v>
+        <v>1.919845914252238e-224</v>
       </c>
       <c r="DD3" t="n">
-        <v>2.668812108121044e-217</v>
+        <v>7.778026891879213e-227</v>
       </c>
       <c r="DE3" t="n">
-        <v>4.496418066993332e-220</v>
+        <v>2.348630123124016e-229</v>
       </c>
       <c r="DF3" t="n">
-        <v>1.880938801269126e-223</v>
+        <v>2.175657902973006e-232</v>
       </c>
       <c r="DG3" t="n">
-        <v>6.957876432928298e-226</v>
+        <v>2.121201924362402e-235</v>
       </c>
       <c r="DH3" t="n">
-        <v>1.15435353881347e-228</v>
+        <v>4.061848511525641e-238</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.399054055317152e-231</v>
+        <v>8.663041790488455e-241</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.132308441187853e-234</v>
+        <v>5.532874198739064e-244</v>
       </c>
       <c r="DK3" t="n">
-        <v>1.605326867785111e-237</v>
+        <v>6.133931189287446e-247</v>
       </c>
       <c r="DL3" t="n">
-        <v>5.163779547941914e-240</v>
+        <v>3.267046344159638e-250</v>
       </c>
       <c r="DM3" t="n">
-        <v>5.244825610201538e-243</v>
+        <v>3.685064332305458e-253</v>
       </c>
       <c r="DN3" t="n">
-        <v>1.11341600576241e-245</v>
+        <v>3.70619556983325e-256</v>
       </c>
       <c r="DO3" t="n">
-        <v>4.814933658750475e-248</v>
+        <v>4.771537375331669e-259</v>
       </c>
       <c r="DP3" t="n">
-        <v>8.341310293478246e-251</v>
+        <v>5.01988920996503e-262</v>
       </c>
       <c r="DQ3" t="n">
-        <v>5.672208180152159e-254</v>
+        <v>4.484600417015255e-265</v>
       </c>
       <c r="DR3" t="n">
-        <v>3.382990806315404e-257</v>
+        <v>7.680102557563853e-268</v>
       </c>
       <c r="DS3" t="n">
-        <v>2.247958680111657e-260</v>
+        <v>7.09208488574741e-271</v>
       </c>
       <c r="DT3" t="n">
-        <v>1.597581536725054e-263</v>
+        <v>7.252240051709596e-274</v>
       </c>
       <c r="DU3" t="n">
-        <v>2.832188042282474e-266</v>
+        <v>5.661261791373291e-277</v>
       </c>
       <c r="DV3" t="n">
-        <v>1.285180611913135e-269</v>
+        <v>2.345080580167921e-279</v>
       </c>
       <c r="DW3" t="n">
-        <v>5.834652141737865e-272</v>
+        <v>5.648484843269416e-282</v>
       </c>
       <c r="DX3" t="n">
-        <v>2.429031838470496e-275</v>
+        <v>3.351741002185249e-285</v>
       </c>
       <c r="DY3" t="n">
-        <v>3.47442820843071e-278</v>
+        <v>4.755586660906908e-288</v>
       </c>
       <c r="DZ3" t="n">
-        <v>8.899497899751342e-281</v>
+        <v>1.944970971090205e-290</v>
       </c>
       <c r="EA3" t="n">
-        <v>8.387398452567341e-284</v>
+        <v>2.148589165045607e-293</v>
       </c>
       <c r="EB3" t="n">
-        <v>5.114260369772167e-287</v>
+        <v>4.439760652452647e-296</v>
       </c>
       <c r="EC3" t="n">
-        <v>6.838337296065189e-290</v>
+        <v>4.936176312773659e-299</v>
       </c>
       <c r="ED3" t="n">
-        <v>4.725897561815482e-293</v>
+        <v>5.077607141855647e-301</v>
       </c>
       <c r="EE3" t="n">
-        <v>3.872354068427063e-296</v>
+        <v>1.22475988176604e-303</v>
       </c>
       <c r="EF3" t="n">
-        <v>3.956039584689241e-299</v>
+        <v>1.199365404545551e-306</v>
       </c>
       <c r="EG3" t="n">
-        <v>2.433203239533613e-302</v>
+        <v>2.931110620610382e-309</v>
       </c>
       <c r="EH3" t="n">
-        <v>2.086398602478703e-305</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
@@ -4961,358 +4961,358 @@
         <v>0.33</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2910181080957974</v>
+        <v>0.2626357065265637</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4341681513814472</v>
+        <v>0.3381773343402155</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2623484870638508</v>
+        <v>0.1697003655407672</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09630516767390387</v>
+        <v>0.0497128013408394</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01022733644701928</v>
+        <v>0.006714961556122422</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001184184777156025</v>
+        <v>0.0003961135575524163</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001701363087279929</v>
+        <v>6.740234049054058e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>3.488265778167575e-05</v>
+        <v>2.893365851323486e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>4.573714796075296e-06</v>
+        <v>4.92273506366127e-08</v>
       </c>
       <c r="L4" t="n">
-        <v>1.324026319897256e-07</v>
+        <v>2.339825882018101e-09</v>
       </c>
       <c r="M4" t="n">
-        <v>1.201723901533555e-08</v>
+        <v>5.245533851134595e-11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.1162533247175e-11</v>
+        <v>4.594798754857723e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>9.158427493097828e-13</v>
+        <v>1.797647586614073e-14</v>
       </c>
       <c r="P4" t="n">
-        <v>2.359140804809958e-14</v>
+        <v>2.068490053285387e-16</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.972630577103956e-17</v>
+        <v>7.718245899416173e-19</v>
       </c>
       <c r="R4" t="n">
-        <v>8.035036170079241e-20</v>
+        <v>3.838788716418731e-21</v>
       </c>
       <c r="S4" t="n">
-        <v>1.68319929423848e-21</v>
+        <v>2.167593209145511e-23</v>
       </c>
       <c r="T4" t="n">
-        <v>5.246018683308309e-23</v>
+        <v>5.614237685855212e-25</v>
       </c>
       <c r="U4" t="n">
-        <v>8.94300705166614e-25</v>
+        <v>1.019178684253575e-27</v>
       </c>
       <c r="V4" t="n">
-        <v>8.166563970103888e-27</v>
+        <v>1.182291092015376e-30</v>
       </c>
       <c r="W4" t="n">
-        <v>6.718720282941334e-29</v>
+        <v>5.068745889138589e-33</v>
       </c>
       <c r="X4" t="n">
-        <v>6.667886547680513e-31</v>
+        <v>2.331452996464962e-35</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.74882434558528e-33</v>
+        <v>1.126791257362285e-37</v>
       </c>
       <c r="Z4" t="n">
-        <v>4.379336774327872e-36</v>
+        <v>8.638521091695406e-40</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.558019271311049e-38</v>
+        <v>3.055488294332223e-42</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.152232055572501e-41</v>
+        <v>1.409646711586404e-45</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.319174066535789e-43</v>
+        <v>1.376039551297375e-47</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.062283647913324e-45</v>
+        <v>7.685663354107247e-50</v>
       </c>
       <c r="AE4" t="n">
-        <v>7.549658774148404e-48</v>
+        <v>1.396092367885963e-52</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.846101968866361e-50</v>
+        <v>4.215480401073299e-55</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.556655103666182e-52</v>
+        <v>1.863760939755453e-57</v>
       </c>
       <c r="AH4" t="n">
-        <v>3.361255176871854e-55</v>
+        <v>1.057732074076018e-59</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.753465999620108e-57</v>
+        <v>7.882643636207841e-62</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2.910862206830405e-60</v>
+        <v>8.506231070650356e-65</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.674440719998849e-62</v>
+        <v>1.750173615965085e-67</v>
       </c>
       <c r="AL4" t="n">
-        <v>6.503503789131282e-65</v>
+        <v>2.362912842232858e-70</v>
       </c>
       <c r="AM4" t="n">
-        <v>4.035877157571222e-67</v>
+        <v>7.910242514800917e-73</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.770431944368552e-69</v>
+        <v>1.293006702582129e-75</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.671863692828231e-72</v>
+        <v>1.140925504285831e-78</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.943874003160284e-75</v>
+        <v>1.546258590095463e-81</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.614987983618917e-77</v>
+        <v>3.06452992352614e-84</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.502968187465843e-80</v>
+        <v>4.771675175812473e-87</v>
       </c>
       <c r="AS4" t="n">
-        <v>6.664666904912363e-83</v>
+        <v>1.784821864885308e-89</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.14987528658118e-86</v>
+        <v>2.180994708556797e-92</v>
       </c>
       <c r="AU4" t="n">
-        <v>3.31871534270077e-89</v>
+        <v>2.403913436274239e-94</v>
       </c>
       <c r="AV4" t="n">
-        <v>7.065934777287236e-92</v>
+        <v>1.343931821717673e-97</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.089961266820835e-94</v>
+        <v>1.023085255477853e-99</v>
       </c>
       <c r="AX4" t="n">
-        <v>3.795728253158791e-97</v>
+        <v>3.838627206977492e-102</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.76363593056806e-99</v>
+        <v>3.847862106943567e-105</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2.841816520387164e-102</v>
+        <v>2.088144416855563e-107</v>
       </c>
       <c r="BA4" t="n">
-        <v>6.678466729927062e-105</v>
+        <v>4.593668598309616e-110</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.007845355031097e-107</v>
+        <v>5.857916853551355e-113</v>
       </c>
       <c r="BC4" t="n">
-        <v>2.025845879238848e-110</v>
+        <v>9.131402564100937e-116</v>
       </c>
       <c r="BD4" t="n">
-        <v>3.522549679423013e-113</v>
+        <v>1.046067489207804e-118</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.123682374063724e-115</v>
+        <v>6.116625216989292e-122</v>
       </c>
       <c r="BF4" t="n">
-        <v>8.412813872536072e-119</v>
+        <v>1.442328740437949e-124</v>
       </c>
       <c r="BG4" t="n">
-        <v>9.811927896197844e-122</v>
+        <v>1.916192358577037e-127</v>
       </c>
       <c r="BH4" t="n">
-        <v>5.612100424223407e-125</v>
+        <v>1.963068142404605e-130</v>
       </c>
       <c r="BI4" t="n">
-        <v>4.570073028816219e-128</v>
+        <v>2.177093289235725e-133</v>
       </c>
       <c r="BJ4" t="n">
-        <v>3.913683570550743e-131</v>
+        <v>9.510652075070467e-136</v>
       </c>
       <c r="BK4" t="n">
-        <v>5.494468049361286e-134</v>
+        <v>2.368141256224355e-138</v>
       </c>
       <c r="BL4" t="n">
-        <v>2.210469460073515e-136</v>
+        <v>3.318801005855029e-141</v>
       </c>
       <c r="BM4" t="n">
-        <v>1.127639088953914e-138</v>
+        <v>7.112929544992371e-144</v>
       </c>
       <c r="BN4" t="n">
-        <v>9.406758146462197e-142</v>
+        <v>1.472486367662227e-146</v>
       </c>
       <c r="BO4" t="n">
-        <v>8.495379419321814e-145</v>
+        <v>9.563010292753347e-150</v>
       </c>
       <c r="BP4" t="n">
-        <v>1.046467574119693e-147</v>
+        <v>8.338232207584473e-153</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2.767898651137675e-150</v>
+        <v>1.100046747812065e-155</v>
       </c>
       <c r="BR4" t="n">
-        <v>4.27965372219424e-153</v>
+        <v>1.105661120829729e-158</v>
       </c>
       <c r="BS4" t="n">
-        <v>5.378867727922191e-156</v>
+        <v>1.044426764637114e-161</v>
       </c>
       <c r="BT4" t="n">
-        <v>2.8592130689566e-159</v>
+        <v>3.210112049647308e-165</v>
       </c>
       <c r="BU4" t="n">
-        <v>9.794650465048489e-162</v>
+        <v>1.577513451368769e-168</v>
       </c>
       <c r="BV4" t="n">
-        <v>3.974024412726013e-164</v>
+        <v>2.745405640149464e-171</v>
       </c>
       <c r="BW4" t="n">
-        <v>2.831765004077773e-167</v>
+        <v>7.80292113955404e-174</v>
       </c>
       <c r="BX4" t="n">
-        <v>2.179791889978291e-170</v>
+        <v>5.094642920699995e-177</v>
       </c>
       <c r="BY4" t="n">
-        <v>3.60354379909673e-173</v>
+        <v>1.130295385562191e-179</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3.419565227069598e-176</v>
+        <v>6.789682094805333e-183</v>
       </c>
       <c r="CA4" t="n">
-        <v>5.754876036105853e-179</v>
+        <v>7.153925381341391e-186</v>
       </c>
       <c r="CB4" t="n">
-        <v>6.297444139975329e-182</v>
+        <v>5.78442140846515e-189</v>
       </c>
       <c r="CC4" t="n">
-        <v>1.303517518877018e-184</v>
+        <v>4.30787868732137e-192</v>
       </c>
       <c r="CD4" t="n">
-        <v>2.123854039453688e-187</v>
+        <v>2.50915722164179e-195</v>
       </c>
       <c r="CE4" t="n">
-        <v>4.615384621893259e-190</v>
+        <v>1.973157792063805e-198</v>
       </c>
       <c r="CF4" t="n">
-        <v>2.989263056337442e-193</v>
+        <v>1.020064337957308e-201</v>
       </c>
       <c r="CG4" t="n">
-        <v>2.018360515793767e-196</v>
+        <v>4.846228990686695e-204</v>
       </c>
       <c r="CH4" t="n">
-        <v>1.288088565106835e-199</v>
+        <v>3.263736774597176e-207</v>
       </c>
       <c r="CI4" t="n">
-        <v>1.428208210687579e-202</v>
+        <v>2.369728916213322e-210</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1.677606321366678e-205</v>
+        <v>2.0550094663523e-213</v>
       </c>
       <c r="CK4" t="n">
-        <v>4.185596368516794e-208</v>
+        <v>1.919521910041102e-216</v>
       </c>
       <c r="CL4" t="n">
-        <v>3.505928005651271e-211</v>
+        <v>1.87057070816429e-219</v>
       </c>
       <c r="CM4" t="n">
-        <v>6.515925194768374e-214</v>
+        <v>2.221004932414495e-222</v>
       </c>
       <c r="CN4" t="n">
-        <v>4.996596719488723e-217</v>
+        <v>2.954206502733543e-225</v>
       </c>
       <c r="CO4" t="n">
-        <v>2.924442573316592e-220</v>
+        <v>2.856855976143522e-228</v>
       </c>
       <c r="CP4" t="n">
-        <v>1.387726974057733e-223</v>
+        <v>1.941308869106715e-231</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1.389459324730104e-226</v>
+        <v>1.324208466502881e-234</v>
       </c>
       <c r="CR4" t="n">
-        <v>1.012638689859469e-229</v>
+        <v>1.083148474301798e-237</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.012901352903687e-232</v>
+        <v>6.071283918378519e-241</v>
       </c>
       <c r="CT4" t="n">
-        <v>7.682682980060789e-236</v>
+        <v>3.500985642811487e-244</v>
       </c>
       <c r="CU4" t="n">
-        <v>1.158886994839584e-238</v>
+        <v>5.236227472760818e-247</v>
       </c>
       <c r="CV4" t="n">
-        <v>8.847872588336288e-242</v>
+        <v>2.988781181103822e-250</v>
       </c>
       <c r="CW4" t="n">
-        <v>6.753118531143666e-245</v>
+        <v>2.9569297699306e-253</v>
       </c>
       <c r="CX4" t="n">
-        <v>3.683030423345442e-248</v>
+        <v>2.272186418475074e-256</v>
       </c>
       <c r="CY4" t="n">
-        <v>4.672224316432154e-251</v>
+        <v>1.367882223213384e-259</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1.994760272877952e-254</v>
+        <v>5.881923323659856e-263</v>
       </c>
       <c r="DA4" t="n">
-        <v>9.265281398669763e-258</v>
+        <v>2.153016850598014e-265</v>
       </c>
       <c r="DB4" t="n">
-        <v>7.670556413778959e-261</v>
+        <v>1.575645051216273e-268</v>
       </c>
       <c r="DC4" t="n">
-        <v>3.946028003768054e-264</v>
+        <v>1.636809857818098e-271</v>
       </c>
       <c r="DD4" t="n">
-        <v>2.928208494721857e-267</v>
+        <v>2.36172961198797e-274</v>
       </c>
       <c r="DE4" t="n">
-        <v>1.871474431611791e-270</v>
+        <v>2.985605137752702e-277</v>
       </c>
       <c r="DF4" t="n">
-        <v>7.978617885234363e-274</v>
+        <v>1.369947879982662e-280</v>
       </c>
       <c r="DG4" t="n">
-        <v>9.053910662227748e-277</v>
+        <v>8.122512235599629e-284</v>
       </c>
       <c r="DH4" t="n">
-        <v>8.289159263251626e-280</v>
+        <v>6.24400969661142e-287</v>
       </c>
       <c r="DI4" t="n">
-        <v>4.269364396683114e-283</v>
+        <v>5.097586970613722e-290</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1.772375824045154e-286</v>
+        <v>2.187531039780645e-293</v>
       </c>
       <c r="DK4" t="n">
-        <v>1.171824515122871e-289</v>
+        <v>1.052028321815234e-296</v>
       </c>
       <c r="DL4" t="n">
-        <v>1.628029297081753e-292</v>
+        <v>3.850159779615958e-300</v>
       </c>
       <c r="DM4" t="n">
-        <v>7.902699225195599e-296</v>
+        <v>1.892504806405581e-303</v>
       </c>
       <c r="DN4" t="n">
-        <v>6.675286003317417e-299</v>
+        <v>9.150596134173357e-307</v>
       </c>
       <c r="DO4" t="n">
-        <v>1.433743958235714e-301</v>
+        <v>0</v>
       </c>
       <c r="DP4" t="n">
-        <v>9.531532521972479e-305</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
         <v>0</v>
@@ -7989,406 +7989,406 @@
         <v>0.34</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3925771446703679</v>
+        <v>0.3983534103749182</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2641042929582498</v>
+        <v>0.2993842514686983</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1040129123073458</v>
+        <v>0.3474288530580328</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4759377613820385</v>
+        <v>0.1503125367397898</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2216070367593811</v>
+        <v>0.142244983591932</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04474710449445327</v>
+        <v>0.04230019321744257</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03737477951466373</v>
+        <v>0.009084861432574193</v>
       </c>
       <c r="J2" t="n">
-        <v>0.004579290109903504</v>
+        <v>0.0392755218451666</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0007624948999256349</v>
+        <v>0.01308800018157634</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004050269072348509</v>
+        <v>0.0004632902883087516</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001251431187995805</v>
+        <v>8.775179495915411e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>5.322658619785729e-06</v>
+        <v>9.54101208158023e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>1.251971591204427e-07</v>
+        <v>4.735420230756632e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.152198619473596e-08</v>
+        <v>4.321203192556066e-06</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.906555496690303e-10</v>
+        <v>6.024206535748842e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>1.741111677951821e-11</v>
+        <v>4.809976692057623e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>3.119125858117397e-12</v>
+        <v>9.180561395162216e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>1.858185732208768e-13</v>
+        <v>4.905987197121682e-09</v>
       </c>
       <c r="U2" t="n">
-        <v>4.053774357307213e-15</v>
+        <v>2.699606701498829e-10</v>
       </c>
       <c r="V2" t="n">
-        <v>7.194728746606701e-17</v>
+        <v>2.257176687942088e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>1.56042817390213e-18</v>
+        <v>4.111300508567876e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>6.750125375479974e-20</v>
+        <v>7.412470351976482e-16</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.035311835910705e-21</v>
+        <v>1.032592032208691e-17</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.610303451663393e-23</v>
+        <v>9.456193231921413e-20</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.329662682751806e-25</v>
+        <v>7.104536009324723e-21</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.267020761052599e-28</v>
+        <v>3.911913531070513e-22</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.780588964484502e-30</v>
+        <v>4.097741810929901e-24</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.262025766930035e-31</v>
+        <v>4.711026437113261e-26</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.308550400514769e-33</v>
+        <v>5.663115626161951e-27</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.327892726900952e-35</v>
+        <v>3.237381342659806e-28</v>
       </c>
       <c r="AG2" t="n">
-        <v>5.436971068593053e-38</v>
+        <v>1.362243936180798e-30</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.437142463192435e-39</v>
+        <v>9.813188789069204e-33</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.032100745479471e-41</v>
+        <v>4.157077998680706e-35</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.721979860261748e-43</v>
+        <v>9.552760099459816e-38</v>
       </c>
       <c r="AK2" t="n">
-        <v>7.943803984692056e-45</v>
+        <v>2.556760719637492e-39</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.571253490989273e-47</v>
+        <v>8.842769576122316e-42</v>
       </c>
       <c r="AM2" t="n">
-        <v>6.157977711370059e-49</v>
+        <v>2.223992523248406e-43</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.211059187836741e-51</v>
+        <v>2.027259051315703e-45</v>
       </c>
       <c r="AO2" t="n">
-        <v>4.87947835108862e-53</v>
+        <v>6.581789549527179e-47</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.075344037152151e-55</v>
+        <v>1.689695002832824e-49</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.328777227288501e-58</v>
+        <v>7.872972869704414e-51</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.34085632501782e-60</v>
+        <v>4.879507123306028e-53</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.683045517502776e-62</v>
+        <v>1.595835456363527e-55</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.40835876055952e-65</v>
+        <v>3.998906885799369e-58</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.911910956006411e-68</v>
+        <v>1.918403593070394e-60</v>
       </c>
       <c r="AV2" t="n">
-        <v>3.293017548484962e-70</v>
+        <v>4.80592782478427e-63</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.158615884101406e-72</v>
+        <v>4.521503440877799e-66</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.056727553962261e-74</v>
+        <v>3.161186963837202e-68</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.668446568666848e-77</v>
+        <v>1.63996021387863e-71</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2.113867171613934e-79</v>
+        <v>9.765440623519572e-75</v>
       </c>
       <c r="BA2" t="n">
-        <v>6.297059057269665e-82</v>
+        <v>2.827279334741199e-76</v>
       </c>
       <c r="BB2" t="n">
-        <v>5.712629238953375e-84</v>
+        <v>1.416374541607604e-78</v>
       </c>
       <c r="BC2" t="n">
-        <v>2.874559110049833e-87</v>
+        <v>1.813427049540136e-80</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.442110787276206e-89</v>
+        <v>4.500190661233895e-83</v>
       </c>
       <c r="BE2" t="n">
-        <v>6.622776011545789e-92</v>
+        <v>1.162503051923948e-85</v>
       </c>
       <c r="BF2" t="n">
-        <v>6.958637263134361e-95</v>
+        <v>1.870681173597895e-88</v>
       </c>
       <c r="BG2" t="n">
-        <v>9.070403479613576e-98</v>
+        <v>4.988698634473065e-91</v>
       </c>
       <c r="BH2" t="n">
-        <v>9.019828074651109e-100</v>
+        <v>9.899795713697924e-94</v>
       </c>
       <c r="BI2" t="n">
-        <v>2.975640064354632e-102</v>
+        <v>8.592483650652344e-97</v>
       </c>
       <c r="BJ2" t="n">
-        <v>7.210492313824905e-105</v>
+        <v>8.398036927409644e-100</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.364820299626642e-107</v>
+        <v>2.714045757029234e-100</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.650119106846655e-110</v>
+        <v>5.835532510628536e-103</v>
       </c>
       <c r="BM2" t="n">
-        <v>3.137871319526548e-113</v>
+        <v>1.443428984811357e-105</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.092440979330077e-115</v>
+        <v>8.985305257412556e-109</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.248169127550239e-118</v>
+        <v>1.758165595720286e-111</v>
       </c>
       <c r="BP2" t="n">
-        <v>6.531427262427118e-121</v>
+        <v>1.445367092292349e-114</v>
       </c>
       <c r="BQ2" t="n">
-        <v>4.805750183836632e-124</v>
+        <v>6.293666788890633e-118</v>
       </c>
       <c r="BR2" t="n">
-        <v>8.449553233272415e-127</v>
+        <v>9.697912194147156e-120</v>
       </c>
       <c r="BS2" t="n">
-        <v>5.359881467062627e-129</v>
+        <v>1.572507240086733e-123</v>
       </c>
       <c r="BT2" t="n">
-        <v>7.461390772466175e-132</v>
+        <v>4.757855208103798e-126</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.077519123084041e-134</v>
+        <v>6.400649081838913e-129</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.674115273894376e-137</v>
+        <v>2.664535142510359e-131</v>
       </c>
       <c r="BW2" t="n">
-        <v>4.757544270125393e-140</v>
+        <v>5.696133826993412e-134</v>
       </c>
       <c r="BX2" t="n">
-        <v>2.286905001959445e-142</v>
+        <v>6.468528904344235e-136</v>
       </c>
       <c r="BY2" t="n">
-        <v>8.398148000500088e-145</v>
+        <v>8.234863427215775e-139</v>
       </c>
       <c r="BZ2" t="n">
-        <v>4.183921166910779e-147</v>
+        <v>1.525457054777327e-141</v>
       </c>
       <c r="CA2" t="n">
-        <v>1.557382570073384e-149</v>
+        <v>2.26092828117204e-144</v>
       </c>
       <c r="CB2" t="n">
-        <v>2.203521812236706e-152</v>
+        <v>5.202589143094408e-147</v>
       </c>
       <c r="CC2" t="n">
-        <v>4.985321277610684e-155</v>
+        <v>9.969141010832851e-150</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.34470046673957e-157</v>
+        <v>1.029189468740009e-152</v>
       </c>
       <c r="CE2" t="n">
-        <v>8.65609357726795e-161</v>
+        <v>5.94889210439519e-156</v>
       </c>
       <c r="CF2" t="n">
-        <v>1.665548677562721e-163</v>
+        <v>5.804820073306149e-159</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.018295439359033e-165</v>
+        <v>1.286894145886571e-161</v>
       </c>
       <c r="CH2" t="n">
-        <v>7.636026321750887e-169</v>
+        <v>7.061740998711026e-165</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.204273785622652e-171</v>
+        <v>2.768784800045261e-167</v>
       </c>
       <c r="CJ2" t="n">
-        <v>3.1991888623125e-174</v>
+        <v>7.342068336982988e-170</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.184506922305404e-176</v>
+        <v>4.995043069668622e-173</v>
       </c>
       <c r="CL2" t="n">
-        <v>3.034375331456541e-179</v>
+        <v>1.667701459845792e-175</v>
       </c>
       <c r="CM2" t="n">
-        <v>3.613668286557026e-182</v>
+        <v>2.071008893549235e-178</v>
       </c>
       <c r="CN2" t="n">
-        <v>2.829726694217513e-184</v>
+        <v>3.945333961078166e-181</v>
       </c>
       <c r="CO2" t="n">
-        <v>7.096411439555469e-186</v>
+        <v>2.009765696504531e-183</v>
       </c>
       <c r="CP2" t="n">
-        <v>5.252220428485966e-189</v>
+        <v>8.01110924116687e-186</v>
       </c>
       <c r="CQ2" t="n">
-        <v>2.105504655119263e-191</v>
+        <v>4.939893959715528e-188</v>
       </c>
       <c r="CR2" t="n">
-        <v>2.166058585981365e-194</v>
+        <v>9.071497189520061e-191</v>
       </c>
       <c r="CS2" t="n">
-        <v>2.909585147169821e-197</v>
+        <v>7.62373525275171e-194</v>
       </c>
       <c r="CT2" t="n">
-        <v>2.827164891451268e-200</v>
+        <v>1.434945342901609e-196</v>
       </c>
       <c r="CU2" t="n">
-        <v>4.506701023672686e-203</v>
+        <v>1.485334113072204e-199</v>
       </c>
       <c r="CV2" t="n">
-        <v>9.330660139268737e-206</v>
+        <v>4.897524626288757e-202</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.91710277576105e-208</v>
+        <v>1.267330198561001e-204</v>
       </c>
       <c r="CX2" t="n">
-        <v>2.175303121675498e-211</v>
+        <v>2.044245070922229e-207</v>
       </c>
       <c r="CY2" t="n">
-        <v>2.767407942000269e-214</v>
+        <v>1.960838289527498e-210</v>
       </c>
       <c r="CZ2" t="n">
-        <v>7.401868342012091e-217</v>
+        <v>1.893869474958355e-213</v>
       </c>
       <c r="DA2" t="n">
-        <v>8.017764992087336e-220</v>
+        <v>1.604689466080361e-216</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.007705739112626e-222</v>
+        <v>8.360628150664957e-219</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.191175748491649e-225</v>
+        <v>5.269650271825097e-222</v>
       </c>
       <c r="DD2" t="n">
-        <v>2.247233844510049e-228</v>
+        <v>7.974998980330498e-225</v>
       </c>
       <c r="DE2" t="n">
-        <v>6.731323900464772e-231</v>
+        <v>8.195118422267474e-228</v>
       </c>
       <c r="DF2" t="n">
-        <v>9.61617217998588e-234</v>
+        <v>1.782469253104421e-229</v>
       </c>
       <c r="DG2" t="n">
-        <v>2.222998864493182e-236</v>
+        <v>8.018387435145224e-232</v>
       </c>
       <c r="DH2" t="n">
-        <v>4.750936430977525e-239</v>
+        <v>1.082173793802196e-234</v>
       </c>
       <c r="DI2" t="n">
-        <v>4.910703312536163e-242</v>
+        <v>6.50911869559934e-238</v>
       </c>
       <c r="DJ2" t="n">
-        <v>4.16524636655914e-245</v>
+        <v>6.36988328344818e-241</v>
       </c>
       <c r="DK2" t="n">
-        <v>3.589685602008726e-248</v>
+        <v>7.406587567436265e-244</v>
       </c>
       <c r="DL2" t="n">
-        <v>1.78317794447061e-251</v>
+        <v>6.556795528702183e-247</v>
       </c>
       <c r="DM2" t="n">
-        <v>7.071153414971812e-255</v>
+        <v>3.744610036437142e-250</v>
       </c>
       <c r="DN2" t="n">
-        <v>5.018512450061782e-258</v>
+        <v>5.453288541061133e-253</v>
       </c>
       <c r="DO2" t="n">
-        <v>9.544802560113963e-261</v>
+        <v>1.0244341232959e-255</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.840276702798644e-263</v>
+        <v>1.301743516315124e-258</v>
       </c>
       <c r="DQ2" t="n">
-        <v>2.398739417253233e-266</v>
+        <v>6.904081430714674e-262</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.965620448344101e-269</v>
+        <v>8.364629505878663e-265</v>
       </c>
       <c r="DS2" t="n">
-        <v>1.371986973745637e-272</v>
+        <v>1.128773439459029e-267</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.530876665252467e-275</v>
+        <v>1.276694082777191e-270</v>
       </c>
       <c r="DU2" t="n">
-        <v>1.393398593635052e-278</v>
+        <v>7.023267208878277e-274</v>
       </c>
       <c r="DV2" t="n">
-        <v>9.656352654822589e-282</v>
+        <v>8.059276784407549e-277</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.348521274290809e-284</v>
+        <v>4.461998796038864e-280</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.016942927228563e-287</v>
+        <v>5.73957784457709e-283</v>
       </c>
       <c r="DY2" t="n">
-        <v>1.145485396386367e-290</v>
+        <v>1.129149494305384e-285</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1.985651319784211e-293</v>
+        <v>7.015136646508926e-289</v>
       </c>
       <c r="EA2" t="n">
-        <v>2.230011295570651e-296</v>
+        <v>6.087373861680749e-292</v>
       </c>
       <c r="EB2" t="n">
-        <v>2.394368408945091e-299</v>
+        <v>1.87179373352082e-294</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.605868239217025e-302</v>
+        <v>1.290349112346127e-297</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.482228177027413e-305</v>
+        <v>2.656674643434255e-300</v>
       </c>
       <c r="EE2" t="n">
-        <v>0</v>
+        <v>1.450858062526849e-302</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>1.243685201381335e-305</v>
       </c>
       <c r="EG2" t="n">
         <v>0</v>
@@ -9496,70 +9496,70 @@
         <v>0.33</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3305615703995133</v>
+        <v>0.3288989279373133</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3485987952389695</v>
+        <v>0.3584533749022983</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3010523034014769</v>
+        <v>0.4094612068829042</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3497995859382714</v>
+        <v>0.4490699348652544</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5204021500315056</v>
+        <v>0.6214557226477999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6023668800705113</v>
+        <v>0.7477115139846826</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8531472104367155</v>
+        <v>0.6512189114261069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7512883020416568</v>
+        <v>0.8557708290115413</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7427894261640088</v>
+        <v>0.9649218186898812</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9812679276753076</v>
+        <v>0.9622268088152028</v>
       </c>
       <c r="M3" t="n">
-        <v>0.997613113798099</v>
+        <v>0.9964562106457194</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9993346002084348</v>
+        <v>0.9993472199420147</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9998419450315696</v>
+        <v>0.9998857349013551</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9999943160066167</v>
+        <v>0.9999277617652941</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9999896785808866</v>
+        <v>0.999996942260755</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9999993298791189</v>
+        <v>0.9999997821062729</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9999999817421024</v>
+        <v>0.9999998909008458</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9999999991867171</v>
+        <v>0.9999999947639142</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9999999999780633</v>
+        <v>0.9999999997274656</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9999999999994413</v>
+        <v>0.9999999999976343</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9999999999999918</v>
+        <v>0.9999999999999508</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="Y3" t="n">
         <v>1</v>
@@ -11003,418 +11003,418 @@
         <v>0.33</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2768612849301187</v>
+        <v>0.2727476616877684</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3872969118027807</v>
+        <v>0.3421623736290035</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5949347842911773</v>
+        <v>0.2431099400590631</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1742626526796901</v>
+        <v>0.4006175283949558</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2579908132091134</v>
+        <v>0.2362992937602681</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3528860154350354</v>
+        <v>0.2099882927978749</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1094780100486208</v>
+        <v>0.3396962271413189</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2441324078484397</v>
+        <v>0.104953649143292</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2564480789360655</v>
+        <v>0.02199018112854246</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01468180325234387</v>
+        <v>0.03730990089648854</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001135455013905196</v>
+        <v>0.003456037559321431</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0006600771329454382</v>
+        <v>0.0006432390459038363</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0001579297712712685</v>
+        <v>6.691089633739827e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>5.67247139696512e-06</v>
+        <v>6.791703151338701e-05</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.032072845789091e-05</v>
+        <v>2.455318591373659e-06</v>
       </c>
       <c r="R4" t="n">
-        <v>6.701034700979659e-07</v>
+        <v>1.697939602529744e-07</v>
       </c>
       <c r="S4" t="n">
-        <v>1.825477860987426e-08</v>
+        <v>1.729354027436673e-08</v>
       </c>
       <c r="T4" t="n">
-        <v>8.130970392862968e-10</v>
+        <v>3.300985285034017e-10</v>
       </c>
       <c r="U4" t="n">
-        <v>2.193255542420798e-11</v>
+        <v>2.573880021112827e-12</v>
       </c>
       <c r="V4" t="n">
-        <v>5.586486450805573e-13</v>
+        <v>1.084285732189158e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>8.235791871634196e-15</v>
+        <v>8.047084018070523e-15</v>
       </c>
       <c r="X4" t="n">
-        <v>2.630961826999917e-16</v>
+        <v>1.186163015817793e-16</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.302272858013397e-18</v>
+        <v>5.334749531285333e-18</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.23730749098599e-20</v>
+        <v>1.16764735507186e-19</v>
       </c>
       <c r="AA4" t="n">
-        <v>4.402399636649791e-22</v>
+        <v>5.378425611695341e-23</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.931430626426097e-23</v>
+        <v>8.154772044693154e-25</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.592950858951379e-23</v>
+        <v>2.216972889103239e-26</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.114822407152378e-27</v>
+        <v>7.254900163008118e-28</v>
       </c>
       <c r="AE4" t="n">
-        <v>7.506480198132974e-29</v>
+        <v>1.298273936746601e-29</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.459705290995046e-31</v>
+        <v>2.910860549652099e-31</v>
       </c>
       <c r="AG4" t="n">
-        <v>3.304051231929837e-33</v>
+        <v>7.483403644234569e-33</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.051908697931438e-36</v>
+        <v>4.351618459702129e-35</v>
       </c>
       <c r="AI4" t="n">
-        <v>3.61511607076776e-39</v>
+        <v>3.643657431575391e-37</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6.012283383023403e-42</v>
+        <v>5.510297334949041e-39</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.935000950687124e-44</v>
+        <v>5.981223780097715e-41</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.90733557337855e-46</v>
+        <v>4.069602301217289e-43</v>
       </c>
       <c r="AM4" t="n">
-        <v>7.863870476116458e-51</v>
+        <v>1.737494888172116e-46</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.00304261928638e-52</v>
+        <v>2.965605554160888e-49</v>
       </c>
       <c r="AO4" t="n">
-        <v>4.311459007918548e-55</v>
+        <v>9.046080605260536e-52</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.842253668542076e-57</v>
+        <v>1.907801143217474e-53</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.547416038397266e-59</v>
+        <v>8.019711350213705e-54</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.125528238528579e-61</v>
+        <v>4.209426834239899e-56</v>
       </c>
       <c r="AS4" t="n">
-        <v>5.254707365110555e-63</v>
+        <v>6.646855405591267e-58</v>
       </c>
       <c r="AT4" t="n">
-        <v>6.285409193232922e-65</v>
+        <v>3.210375971684498e-60</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.253988207549946e-67</v>
+        <v>1.425054081068747e-62</v>
       </c>
       <c r="AV4" t="n">
-        <v>3.475594580915174e-70</v>
+        <v>8.607360318678202e-65</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.040447368043583e-72</v>
+        <v>7.43458718249407e-67</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.217945401878728e-75</v>
+        <v>1.749406387572831e-69</v>
       </c>
       <c r="AY4" t="n">
-        <v>3.708393925723882e-78</v>
+        <v>3.330340107899299e-71</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2.987367216820788e-81</v>
+        <v>2.832289229473595e-73</v>
       </c>
       <c r="BA4" t="n">
-        <v>7.174206696069925e-84</v>
+        <v>2.090931705425166e-76</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.038033071487114e-86</v>
+        <v>1.813749953175348e-78</v>
       </c>
       <c r="BC4" t="n">
-        <v>9.104589670795908e-89</v>
+        <v>1.954390779264597e-80</v>
       </c>
       <c r="BD4" t="n">
-        <v>3.377227074333916e-91</v>
+        <v>1.233793871881911e-82</v>
       </c>
       <c r="BE4" t="n">
-        <v>2.526467305923611e-92</v>
+        <v>3.709417097463786e-85</v>
       </c>
       <c r="BF4" t="n">
-        <v>3.813051717885848e-94</v>
+        <v>1.822202535861137e-87</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.389167696942116e-96</v>
+        <v>3.355825907278394e-90</v>
       </c>
       <c r="BH4" t="n">
-        <v>4.783990437221084e-99</v>
+        <v>7.568739508464392e-93</v>
       </c>
       <c r="BI4" t="n">
-        <v>2.395336481677466e-101</v>
+        <v>4.084863664885006e-95</v>
       </c>
       <c r="BJ4" t="n">
-        <v>7.25438392366949e-104</v>
+        <v>1.689134570437182e-97</v>
       </c>
       <c r="BK4" t="n">
-        <v>1.538157712118432e-106</v>
+        <v>6.842153430388088e-99</v>
       </c>
       <c r="BL4" t="n">
-        <v>7.449252252407989e-109</v>
+        <v>1.758811995774029e-101</v>
       </c>
       <c r="BM4" t="n">
-        <v>2.561192041226369e-111</v>
+        <v>3.798558739458404e-104</v>
       </c>
       <c r="BN4" t="n">
-        <v>3.228329764111998e-114</v>
+        <v>1.839022313306852e-106</v>
       </c>
       <c r="BO4" t="n">
-        <v>8.954211213403187e-117</v>
+        <v>4.097320188625688e-109</v>
       </c>
       <c r="BP4" t="n">
-        <v>2.952980936604704e-119</v>
+        <v>1.476650651323366e-111</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1.922743195927384e-121</v>
+        <v>8.48562816275476e-114</v>
       </c>
       <c r="BR4" t="n">
-        <v>5.197484157892574e-124</v>
+        <v>3.91292207599053e-116</v>
       </c>
       <c r="BS4" t="n">
-        <v>1.927059267152449e-126</v>
+        <v>3.73650777279895e-118</v>
       </c>
       <c r="BT4" t="n">
-        <v>6.126441065845733e-129</v>
+        <v>9.668457213673208e-121</v>
       </c>
       <c r="BU4" t="n">
-        <v>1.074403639168505e-131</v>
+        <v>1.909650539008124e-123</v>
       </c>
       <c r="BV4" t="n">
-        <v>1.70555522993795e-134</v>
+        <v>1.33755693794026e-125</v>
       </c>
       <c r="BW4" t="n">
-        <v>1.436368742288604e-137</v>
+        <v>1.52803648491599e-128</v>
       </c>
       <c r="BX4" t="n">
-        <v>2.803373230801011e-139</v>
+        <v>1.388393186342523e-132</v>
       </c>
       <c r="BY4" t="n">
-        <v>2.10207453924444e-142</v>
+        <v>4.389760408197892e-134</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1.384004891775871e-144</v>
+        <v>1.021872833620648e-136</v>
       </c>
       <c r="CA4" t="n">
-        <v>7.566336847053272e-147</v>
+        <v>1.940464771047897e-139</v>
       </c>
       <c r="CB4" t="n">
-        <v>4.069312548826448e-149</v>
+        <v>3.472114044671798e-142</v>
       </c>
       <c r="CC4" t="n">
-        <v>3.698783422012895e-152</v>
+        <v>3.620011875734963e-145</v>
       </c>
       <c r="CD4" t="n">
-        <v>1.562844121207056e-154</v>
+        <v>1.548952902502893e-147</v>
       </c>
       <c r="CE4" t="n">
-        <v>6.105386910723577e-157</v>
+        <v>1.091363483179254e-149</v>
       </c>
       <c r="CF4" t="n">
-        <v>6.096376446367742e-160</v>
+        <v>5.147240165507225e-152</v>
       </c>
       <c r="CG4" t="n">
-        <v>7.63819347680882e-163</v>
+        <v>4.74761326429536e-155</v>
       </c>
       <c r="CH4" t="n">
-        <v>1.754020725432861e-165</v>
+        <v>1.462652519834636e-157</v>
       </c>
       <c r="CI4" t="n">
-        <v>6.441772421876906e-168</v>
+        <v>3.671285963297792e-160</v>
       </c>
       <c r="CJ4" t="n">
-        <v>6.485924476316043e-171</v>
+        <v>2.649564200412053e-163</v>
       </c>
       <c r="CK4" t="n">
-        <v>1.010104800008117e-173</v>
+        <v>7.230951681170006e-166</v>
       </c>
       <c r="CL4" t="n">
-        <v>8.361233845241426e-177</v>
+        <v>1.015396455818419e-168</v>
       </c>
       <c r="CM4" t="n">
-        <v>1.044215886413163e-179</v>
+        <v>2.587639268035549e-171</v>
       </c>
       <c r="CN4" t="n">
-        <v>8.873921708347255e-182</v>
+        <v>4.190154719039941e-174</v>
       </c>
       <c r="CO4" t="n">
-        <v>6.346653645417758e-183</v>
+        <v>5.501567736510365e-176</v>
       </c>
       <c r="CP4" t="n">
-        <v>3.502608785403903e-185</v>
+        <v>1.130331787841692e-178</v>
       </c>
       <c r="CQ4" t="n">
-        <v>6.868448030160575e-188</v>
+        <v>8.845367728894275e-182</v>
       </c>
       <c r="CR4" t="n">
-        <v>1.215188533017188e-190</v>
+        <v>7.863070518784313e-185</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.814548819365799e-193</v>
+        <v>1.287542263993433e-187</v>
       </c>
       <c r="CT4" t="n">
-        <v>2.34046011261414e-196</v>
+        <v>1.730781112896081e-190</v>
       </c>
       <c r="CU4" t="n">
-        <v>2.070632275150373e-199</v>
+        <v>1.98045395746083e-193</v>
       </c>
       <c r="CV4" t="n">
-        <v>1.293276309299701e-202</v>
+        <v>9.817448794573717e-197</v>
       </c>
       <c r="CW4" t="n">
-        <v>9.317028162136367e-206</v>
+        <v>4.29184742185682e-199</v>
       </c>
       <c r="CX4" t="n">
-        <v>1.029371079260296e-208</v>
+        <v>3.014665003451396e-202</v>
       </c>
       <c r="CY4" t="n">
-        <v>1.372493360347672e-211</v>
+        <v>3.31530671719386e-205</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3.152227749446149e-214</v>
+        <v>3.537493486000198e-208</v>
       </c>
       <c r="DA4" t="n">
-        <v>2.942541258590683e-217</v>
+        <v>4.237564523959302e-211</v>
       </c>
       <c r="DB4" t="n">
-        <v>2.442908014267043e-220</v>
+        <v>1.190678883153973e-213</v>
       </c>
       <c r="DC4" t="n">
-        <v>2.154261380852871e-223</v>
+        <v>2.370277958920283e-216</v>
       </c>
       <c r="DD4" t="n">
-        <v>1.013181775401219e-225</v>
+        <v>2.305003173645163e-219</v>
       </c>
       <c r="DE4" t="n">
-        <v>7.664555743920786e-228</v>
+        <v>2.92582829134155e-222</v>
       </c>
       <c r="DF4" t="n">
-        <v>8.405159114886139e-231</v>
+        <v>1.494847642793206e-223</v>
       </c>
       <c r="DG4" t="n">
-        <v>1.06793830689566e-233</v>
+        <v>5.924075745732207e-226</v>
       </c>
       <c r="DH4" t="n">
-        <v>1.153409750566206e-236</v>
+        <v>5.727429214683895e-229</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.308757982013104e-239</v>
+        <v>8.756048123585795e-232</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1.334184742741483e-242</v>
+        <v>9.051920745910445e-235</v>
       </c>
       <c r="DK4" t="n">
-        <v>1.693458077806157e-245</v>
+        <v>2.232891807418428e-237</v>
       </c>
       <c r="DL4" t="n">
-        <v>3.431688796062558e-248</v>
+        <v>4.006703271071203e-240</v>
       </c>
       <c r="DM4" t="n">
-        <v>8.594507585631001e-251</v>
+        <v>6.234572073756217e-243</v>
       </c>
       <c r="DN4" t="n">
-        <v>1.070551499727055e-253</v>
+        <v>5.814415911915811e-246</v>
       </c>
       <c r="DO4" t="n">
-        <v>1.829268712232274e-256</v>
+        <v>2.551613539146742e-248</v>
       </c>
       <c r="DP4" t="n">
-        <v>8.860889239908945e-260</v>
+        <v>1.067402657096579e-250</v>
       </c>
       <c r="DQ4" t="n">
-        <v>5.275608585399463e-263</v>
+        <v>1.726248865306078e-253</v>
       </c>
       <c r="DR4" t="n">
-        <v>4.681320214813319e-266</v>
+        <v>4.646121524787654e-256</v>
       </c>
       <c r="DS4" t="n">
-        <v>6.945845357426457e-269</v>
+        <v>5.918141267318983e-259</v>
       </c>
       <c r="DT4" t="n">
-        <v>5.637112194274442e-272</v>
+        <v>1.170262484275202e-261</v>
       </c>
       <c r="DU4" t="n">
-        <v>4.570451562350641e-275</v>
+        <v>1.647136664063987e-264</v>
       </c>
       <c r="DV4" t="n">
-        <v>5.130246499585773e-278</v>
+        <v>2.218972967508641e-267</v>
       </c>
       <c r="DW4" t="n">
-        <v>6.234329055014477e-281</v>
+        <v>3.186151336475318e-270</v>
       </c>
       <c r="DX4" t="n">
-        <v>5.290789108665233e-284</v>
+        <v>4.093827698204328e-273</v>
       </c>
       <c r="DY4" t="n">
-        <v>3.378995804991621e-287</v>
+        <v>1.803731831944553e-276</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3.785350855176243e-290</v>
+        <v>1.853073409512141e-279</v>
       </c>
       <c r="EA4" t="n">
-        <v>1.407591137801778e-292</v>
+        <v>1.823177675585615e-282</v>
       </c>
       <c r="EB4" t="n">
-        <v>2.104685462034886e-295</v>
+        <v>1.315723699820679e-285</v>
       </c>
       <c r="EC4" t="n">
-        <v>1.856013131545712e-298</v>
+        <v>1.166386188444006e-288</v>
       </c>
       <c r="ED4" t="n">
-        <v>1.247922634318774e-301</v>
+        <v>4.595315924893445e-291</v>
       </c>
       <c r="EE4" t="n">
-        <v>1.104449574301207e-304</v>
+        <v>6.570415466293599e-293</v>
       </c>
       <c r="EF4" t="n">
-        <v>1.078714190986368e-307</v>
+        <v>7.277848562151511e-296</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>1.45186262776108e-298</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>2.426309484529844e-301</v>
       </c>
       <c r="EI4" t="n">
-        <v>0</v>
+        <v>4.400606063767493e-304</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0</v>
+        <v>7.233982686752084e-307</v>
       </c>
       <c r="EK4" t="n">
         <v>0</v>
@@ -14031,355 +14031,355 @@
         <v>0.34</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3045859194679809</v>
+        <v>0.4158425317036401</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1712255876923016</v>
+        <v>0.3603479012134986</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0318820718510463</v>
+        <v>0.3411270826640587</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006744471856317846</v>
+        <v>0.1130809480297337</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0009139791816944766</v>
+        <v>0.01199935959981422</v>
       </c>
       <c r="H2" t="n">
-        <v>4.080671638372934e-05</v>
+        <v>0.0001693174083542642</v>
       </c>
       <c r="I2" t="n">
-        <v>2.699457780828986e-06</v>
+        <v>8.814975787703539e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>5.372826505084906e-07</v>
+        <v>4.108338379673741e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>1.159782700103099e-08</v>
+        <v>2.278258580952265e-08</v>
       </c>
       <c r="L2" t="n">
-        <v>5.464449599227583e-10</v>
+        <v>1.507872703326936e-09</v>
       </c>
       <c r="M2" t="n">
-        <v>3.413510291353302e-12</v>
+        <v>1.926367659018656e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>2.461848418918224e-13</v>
+        <v>6.866828623713299e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>8.223138082971664e-15</v>
+        <v>1.974259136591594e-15</v>
       </c>
       <c r="P2" t="n">
-        <v>8.811349891937464e-17</v>
+        <v>1.691049214805185e-17</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.112250854754959e-18</v>
+        <v>2.241223228706059e-19</v>
       </c>
       <c r="R2" t="n">
-        <v>9.77856994372596e-21</v>
+        <v>2.194972141336284e-21</v>
       </c>
       <c r="S2" t="n">
-        <v>4.013771526900482e-23</v>
+        <v>1.188764263394126e-23</v>
       </c>
       <c r="T2" t="n">
-        <v>9.541091072217902e-26</v>
+        <v>2.925743898910854e-25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.341871693089978e-27</v>
+        <v>4.8137645282646e-28</v>
       </c>
       <c r="V2" t="n">
-        <v>4.458666112471643e-30</v>
+        <v>7.437207737938861e-30</v>
       </c>
       <c r="W2" t="n">
-        <v>3.40935386072898e-33</v>
+        <v>2.80680635393858e-32</v>
       </c>
       <c r="X2" t="n">
-        <v>3.764621711186246e-35</v>
+        <v>6.345667945452481e-35</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.320364381715856e-36</v>
+        <v>1.626012927409169e-37</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.221784896638098e-38</v>
+        <v>7.068861825595488e-40</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.383448677056633e-41</v>
+        <v>5.786145839321402e-42</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.1556313941178e-44</v>
+        <v>4.088516697069681e-44</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.461313114583715e-47</v>
+        <v>9.731019168888299e-46</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.199893629535289e-50</v>
+        <v>3.526501407488386e-48</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.729845068183446e-52</v>
+        <v>2.136229824542289e-50</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.836240103671468e-54</v>
+        <v>2.51327277858222e-52</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.89161224543344e-57</v>
+        <v>2.301369372440277e-54</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.658008462058647e-60</v>
+        <v>3.115363639126722e-57</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.373008063668738e-63</v>
+        <v>9.631194556077706e-60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>5.826642479851055e-66</v>
+        <v>3.659563906278765e-62</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.829768673573505e-68</v>
+        <v>8.003243562042192e-65</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.956619042385718e-71</v>
+        <v>1.213504995518633e-67</v>
       </c>
       <c r="AM2" t="n">
-        <v>9.144204160073489e-74</v>
+        <v>1.933648193932098e-70</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.736791104223973e-76</v>
+        <v>2.654632231537081e-73</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.959496769878785e-78</v>
+        <v>5.458939683256856e-76</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.640929553796568e-81</v>
+        <v>8.959150622466159e-78</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4.463928389090611e-84</v>
+        <v>3.693916035724347e-80</v>
       </c>
       <c r="AR2" t="n">
-        <v>5.692031321661619e-87</v>
+        <v>1.063896294179002e-82</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.299567645260021e-89</v>
+        <v>2.351661474007683e-85</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.987332620518682e-92</v>
+        <v>7.043097315467174e-88</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.405682029287321e-94</v>
+        <v>8.776457442494151e-91</v>
       </c>
       <c r="AV2" t="n">
-        <v>6.163311259693969e-98</v>
+        <v>6.923999897524037e-94</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.485490014960889e-101</v>
+        <v>5.72410511363787e-97</v>
       </c>
       <c r="AX2" t="n">
-        <v>2.560753875931678e-103</v>
+        <v>6.38260805462944e-100</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.851706648881999e-106</v>
+        <v>1.378913030080491e-102</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2.935830929694612e-109</v>
+        <v>1.296226226327778e-105</v>
       </c>
       <c r="BA2" t="n">
-        <v>4.705064489291355e-112</v>
+        <v>6.525783564363765e-108</v>
       </c>
       <c r="BB2" t="n">
-        <v>3.380142371131849e-114</v>
+        <v>2.32945789172824e-110</v>
       </c>
       <c r="BC2" t="n">
-        <v>7.905520852611883e-117</v>
+        <v>1.643160026892777e-112</v>
       </c>
       <c r="BD2" t="n">
-        <v>8.645608063811563e-120</v>
+        <v>3.13055935352939e-115</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.81043824260678e-123</v>
+        <v>2.619387709000958e-118</v>
       </c>
       <c r="BF2" t="n">
-        <v>3.405177999535924e-126</v>
+        <v>8.417854201525699e-121</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.650898815541479e-129</v>
+        <v>1.103584103104534e-123</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.382001103642538e-132</v>
+        <v>2.115818363867436e-126</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.117653913948613e-135</v>
+        <v>2.033862203596462e-129</v>
       </c>
       <c r="BJ2" t="n">
-        <v>9.874183609826823e-139</v>
+        <v>3.311563848878187e-132</v>
       </c>
       <c r="BK2" t="n">
-        <v>9.87323508709034e-142</v>
+        <v>5.378116790293347e-135</v>
       </c>
       <c r="BL2" t="n">
-        <v>6.052594082980776e-145</v>
+        <v>4.927909436863373e-138</v>
       </c>
       <c r="BM2" t="n">
-        <v>3.203228507356625e-148</v>
+        <v>8.428945355416131e-141</v>
       </c>
       <c r="BN2" t="n">
-        <v>2.153866493705476e-151</v>
+        <v>8.577073061305151e-144</v>
       </c>
       <c r="BO2" t="n">
-        <v>2.016017877836612e-154</v>
+        <v>8.069611661963724e-147</v>
       </c>
       <c r="BP2" t="n">
-        <v>2.613388876620287e-157</v>
+        <v>1.23589993612784e-148</v>
       </c>
       <c r="BQ2" t="n">
-        <v>3.677019910239031e-160</v>
+        <v>9.989389905433649e-152</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.787453486359559e-163</v>
+        <v>1.270092754177344e-154</v>
       </c>
       <c r="BS2" t="n">
-        <v>6.128080680696191e-167</v>
+        <v>1.832828473788249e-157</v>
       </c>
       <c r="BT2" t="n">
-        <v>4.205603270505069e-170</v>
+        <v>8.550041805057677e-161</v>
       </c>
       <c r="BU2" t="n">
-        <v>3.56969555408563e-173</v>
+        <v>2.357372104677711e-163</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.955459807878256e-176</v>
+        <v>1.184897671134506e-166</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.199421549414217e-178</v>
+        <v>1.624095761260671e-168</v>
       </c>
       <c r="BX2" t="n">
-        <v>7.989739228612226e-182</v>
+        <v>1.238571855194137e-171</v>
       </c>
       <c r="BY2" t="n">
-        <v>3.594978533699011e-185</v>
+        <v>1.176271220894444e-174</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.692413185675818e-188</v>
+        <v>8.726983569480345e-178</v>
       </c>
       <c r="CA2" t="n">
-        <v>5.43685201851316e-192</v>
+        <v>2.855850985893586e-181</v>
       </c>
       <c r="CB2" t="n">
-        <v>3.845942230952949e-195</v>
+        <v>1.786982865153539e-184</v>
       </c>
       <c r="CC2" t="n">
-        <v>3.964076546956254e-198</v>
+        <v>2.319486928484353e-187</v>
       </c>
       <c r="CD2" t="n">
-        <v>3.904721793930747e-201</v>
+        <v>8.595971764666071e-191</v>
       </c>
       <c r="CE2" t="n">
-        <v>2.766966335782504e-204</v>
+        <v>2.350031046629715e-194</v>
       </c>
       <c r="CF2" t="n">
-        <v>9.718321290696634e-208</v>
+        <v>3.392331366194396e-197</v>
       </c>
       <c r="CG2" t="n">
-        <v>6.917844298617122e-211</v>
+        <v>4.505557267382181e-200</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.212888493749262e-213</v>
+        <v>5.824055953481293e-203</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.312047036212104e-216</v>
+        <v>3.279004554981724e-206</v>
       </c>
       <c r="CJ2" t="n">
-        <v>2.90540909733428e-219</v>
+        <v>1.494562009431417e-209</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.968596833920156e-222</v>
+        <v>7.606628401528476e-213</v>
       </c>
       <c r="CL2" t="n">
-        <v>5.366481616340782e-225</v>
+        <v>3.985118326498072e-216</v>
       </c>
       <c r="CM2" t="n">
-        <v>3.210182005639906e-228</v>
+        <v>2.579487811840967e-219</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.746645433885775e-231</v>
+        <v>1.752143565492972e-222</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.467446656793903e-234</v>
+        <v>1.459459541079347e-225</v>
       </c>
       <c r="CP2" t="n">
-        <v>8.415444671432234e-237</v>
+        <v>2.581187377764144e-228</v>
       </c>
       <c r="CQ2" t="n">
-        <v>3.637832805227105e-238</v>
+        <v>2.815789162415551e-231</v>
       </c>
       <c r="CR2" t="n">
-        <v>3.803056450464288e-239</v>
+        <v>4.364056148327057e-234</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.468717755692397e-242</v>
+        <v>1.426934473789661e-237</v>
       </c>
       <c r="CT2" t="n">
-        <v>6.128650371826036e-246</v>
+        <v>6.500490230632939e-241</v>
       </c>
       <c r="CU2" t="n">
-        <v>6.726203095961811e-249</v>
+        <v>2.991608647956435e-244</v>
       </c>
       <c r="CV2" t="n">
-        <v>2.219266172581739e-252</v>
+        <v>1.816406987810303e-247</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.082195923138427e-255</v>
+        <v>2.126868493730805e-250</v>
       </c>
       <c r="CX2" t="n">
-        <v>6.476974777478503e-259</v>
+        <v>1.922509426621688e-253</v>
       </c>
       <c r="CY2" t="n">
-        <v>5.477473564946099e-262</v>
+        <v>6.539801096818018e-257</v>
       </c>
       <c r="CZ2" t="n">
-        <v>3.526680006020289e-265</v>
+        <v>2.534265447766144e-260</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.338321049337788e-268</v>
+        <v>1.168053009287131e-263</v>
       </c>
       <c r="DB2" t="n">
-        <v>9.319933766661828e-272</v>
+        <v>6.647809456255135e-267</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.337685115890873e-274</v>
+        <v>2.720967088329355e-270</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.552788148718383e-277</v>
+        <v>1.51815025580737e-273</v>
       </c>
       <c r="DE2" t="n">
-        <v>2.181374177333988e-280</v>
+        <v>7.510098811012955e-277</v>
       </c>
       <c r="DF2" t="n">
-        <v>4.306268033925935e-283</v>
+        <v>2.479335114796192e-280</v>
       </c>
       <c r="DG2" t="n">
-        <v>2.425315793171477e-286</v>
+        <v>2.493752910482472e-283</v>
       </c>
       <c r="DH2" t="n">
-        <v>1.527441473409627e-289</v>
+        <v>2.198536111676374e-286</v>
       </c>
       <c r="DI2" t="n">
-        <v>5.789652549523663e-293</v>
+        <v>3.194035227778481e-288</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.907741476306189e-296</v>
+        <v>1.865244843260671e-290</v>
       </c>
       <c r="DK2" t="n">
-        <v>8.828294257763906e-300</v>
+        <v>2.051834692160349e-293</v>
       </c>
       <c r="DL2" t="n">
-        <v>6.43162797794563e-303</v>
+        <v>8.570488344659521e-297</v>
       </c>
       <c r="DM2" t="n">
-        <v>0</v>
+        <v>4.332112388975373e-300</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>1.84063598477725e-303</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>1.784919733412263e-306</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
@@ -15538,400 +15538,400 @@
         <v>0.33</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3350218769697578</v>
+        <v>0.328229207788913</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3032870103500024</v>
+        <v>0.3569935492681603</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1911758966261369</v>
+        <v>0.4018214148224775</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1325395965273276</v>
+        <v>0.3296798103717973</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05887004172015317</v>
+        <v>0.1570305282011649</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01436961132929153</v>
+        <v>0.01232726424687926</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003422905849885958</v>
+        <v>0.002708823039694786</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003565308416825071</v>
+        <v>0.0005326757974563483</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0006023380346275528</v>
+        <v>9.275231210618214e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>8.748959792452005e-05</v>
+        <v>2.096382190501461e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>5.671979416800272e-06</v>
+        <v>2.031595246983662e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.6685548480358e-06</v>
+        <v>8.441278638749493e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>2.218599794074805e-07</v>
+        <v>5.109994038996841e-08</v>
       </c>
       <c r="P3" t="n">
-        <v>1.383528722870443e-08</v>
+        <v>2.621334304005141e-09</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.029273569357486e-09</v>
+        <v>1.362525479931791e-10</v>
       </c>
       <c r="R3" t="n">
-        <v>3.500472413053997e-11</v>
+        <v>1.1376461827326e-11</v>
       </c>
       <c r="S3" t="n">
-        <v>1.735133079045604e-12</v>
+        <v>3.12029302826992e-13</v>
       </c>
       <c r="T3" t="n">
-        <v>1.499730538743105e-14</v>
+        <v>1.394566083193646e-13</v>
       </c>
       <c r="U3" t="n">
-        <v>6.415933359028328e-16</v>
+        <v>1.325970940452262e-15</v>
       </c>
       <c r="V3" t="n">
-        <v>7.802456796170959e-18</v>
+        <v>1.547673298748952e-16</v>
       </c>
       <c r="W3" t="n">
-        <v>3.782420741303013e-20</v>
+        <v>3.581845613336708e-18</v>
       </c>
       <c r="X3" t="n">
-        <v>5.575890538085173e-21</v>
+        <v>3.215610600099427e-20</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.884249862406355e-21</v>
+        <v>1.874399798685014e-22</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.667065014344743e-22</v>
+        <v>5.027524981202254e-24</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.189050709091671e-25</v>
+        <v>1.401979156442342e-25</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.11233652052827e-27</v>
+        <v>3.616621927560088e-27</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.140682754598053e-29</v>
+        <v>5.990073735087221e-28</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.091027726428458e-32</v>
+        <v>1.025563266780511e-29</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.418108140574581e-34</v>
+        <v>2.020585468769135e-31</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.540216734626991e-35</v>
+        <v>5.999107495759676e-33</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.596781964264094e-38</v>
+        <v>3.303637357123108e-34</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.333232009214209e-40</v>
+        <v>1.260715951589948e-36</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.099585043266254e-43</v>
+        <v>6.169840501507733e-39</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.100900284233442e-46</v>
+        <v>1.033185686161622e-40</v>
       </c>
       <c r="AK3" t="n">
-        <v>8.812180536363671e-48</v>
+        <v>7.900512223522328e-43</v>
       </c>
       <c r="AL3" t="n">
-        <v>8.908960180646753e-51</v>
+        <v>3.018733407430083e-45</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.695306484811273e-52</v>
+        <v>1.512285880570088e-47</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.925042978942907e-54</v>
+        <v>5.673720803148824e-50</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.257382049240504e-56</v>
+        <v>3.615461138189798e-52</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.617019018728566e-58</v>
+        <v>6.282610800564306e-54</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7.477166594974172e-61</v>
+        <v>9.311524579260442e-56</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.62313755857875e-63</v>
+        <v>3.788216231821823e-58</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.913263407744964e-65</v>
+        <v>1.684936804911409e-60</v>
       </c>
       <c r="AT3" t="n">
-        <v>6.111139009441882e-68</v>
+        <v>1.609456909381457e-62</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.476847774579703e-69</v>
+        <v>4.437408408905018e-65</v>
       </c>
       <c r="AV3" t="n">
-        <v>5.04510284041744e-73</v>
+        <v>4.933674641900645e-68</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.432386715180571e-76</v>
+        <v>3.997964712209923e-71</v>
       </c>
       <c r="AX3" t="n">
-        <v>8.017112344037956e-78</v>
+        <v>1.116707570087112e-73</v>
       </c>
       <c r="AY3" t="n">
-        <v>2.204131107276549e-80</v>
+        <v>5.263636365171236e-76</v>
       </c>
       <c r="AZ3" t="n">
-        <v>4.880958812616704e-83</v>
+        <v>9.268576645495878e-79</v>
       </c>
       <c r="BA3" t="n">
-        <v>9.105924576832689e-86</v>
+        <v>1.666860860285373e-80</v>
       </c>
       <c r="BB3" t="n">
-        <v>2.476778621341535e-87</v>
+        <v>1.431534139146028e-82</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.757241168539404e-89</v>
+        <v>1.401262248991111e-84</v>
       </c>
       <c r="BD3" t="n">
-        <v>4.476689721707815e-92</v>
+        <v>6.852377021956398e-87</v>
       </c>
       <c r="BE3" t="n">
-        <v>3.107229803788468e-95</v>
+        <v>1.281850248962762e-89</v>
       </c>
       <c r="BF3" t="n">
-        <v>3.157064471789808e-98</v>
+        <v>1.615640853181932e-91</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.585246946723147e-101</v>
+        <v>6.502947801381931e-94</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.485231532447764e-104</v>
+        <v>3.174153287963732e-96</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.710842935234424e-107</v>
+        <v>6.655798875163701e-99</v>
       </c>
       <c r="BJ3" t="n">
-        <v>2.585255845260844e-110</v>
+        <v>1.459146284703664e-101</v>
       </c>
       <c r="BK3" t="n">
-        <v>5.167109411089019e-113</v>
+        <v>4.07617215638257e-104</v>
       </c>
       <c r="BL3" t="n">
-        <v>5.340723789829516e-116</v>
+        <v>6.16243957354792e-107</v>
       </c>
       <c r="BM3" t="n">
-        <v>3.441744573879464e-119</v>
+        <v>2.784670839890039e-109</v>
       </c>
       <c r="BN3" t="n">
-        <v>4.612584668238229e-122</v>
+        <v>7.798459827470066e-112</v>
       </c>
       <c r="BO3" t="n">
-        <v>9.54371195950204e-125</v>
+        <v>1.849572457352975e-114</v>
       </c>
       <c r="BP3" t="n">
-        <v>3.332729012448659e-127</v>
+        <v>9.929349548175647e-116</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.230365553688111e-129</v>
+        <v>1.971411785424784e-118</v>
       </c>
       <c r="BR3" t="n">
-        <v>4.175755391391657e-133</v>
+        <v>5.393477438504436e-121</v>
       </c>
       <c r="BS3" t="n">
-        <v>8.784848700860875e-137</v>
+        <v>1.935984319965078e-123</v>
       </c>
       <c r="BT3" t="n">
-        <v>4.764318651113657e-140</v>
+        <v>5.175572186551127e-127</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.029229466341156e-142</v>
+        <v>2.625588115292746e-129</v>
       </c>
       <c r="BV3" t="n">
-        <v>8.062214003992389e-146</v>
+        <v>1.844739984016514e-132</v>
       </c>
       <c r="BW3" t="n">
-        <v>5.382838045803583e-148</v>
+        <v>9.586159373010113e-134</v>
       </c>
       <c r="BX3" t="n">
-        <v>5.842558035898871e-151</v>
+        <v>1.305884614682686e-136</v>
       </c>
       <c r="BY3" t="n">
-        <v>2.513246013589534e-154</v>
+        <v>1.643091086667884e-139</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1.50755698019652e-157</v>
+        <v>1.714094788101671e-142</v>
       </c>
       <c r="CA3" t="n">
-        <v>2.595139209930919e-161</v>
+        <v>3.381234562512994e-146</v>
       </c>
       <c r="CB3" t="n">
-        <v>4.066495330535554e-164</v>
+        <v>3.617755508899625e-149</v>
       </c>
       <c r="CC3" t="n">
-        <v>6.976793940252256e-167</v>
+        <v>1.285562069764307e-151</v>
       </c>
       <c r="CD3" t="n">
-        <v>1.491500329787516e-169</v>
+        <v>3.778704570945728e-155</v>
       </c>
       <c r="CE3" t="n">
-        <v>1.969047971019873e-172</v>
+        <v>3.330891357293978e-159</v>
       </c>
       <c r="CF3" t="n">
-        <v>5.613018774002939e-176</v>
+        <v>9.760961278433364e-162</v>
       </c>
       <c r="CG3" t="n">
-        <v>3.820408173039742e-179</v>
+        <v>3.835214034387334e-164</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.353138410154463e-181</v>
+        <v>1.330425899758792e-166</v>
       </c>
       <c r="CI3" t="n">
-        <v>2.344994285706655e-184</v>
+        <v>1.365827071672194e-169</v>
       </c>
       <c r="CJ3" t="n">
-        <v>1.70166155609836e-186</v>
+        <v>1.010238869539637e-172</v>
       </c>
       <c r="CK3" t="n">
-        <v>2.765877529966644e-189</v>
+        <v>9.812641597126772e-176</v>
       </c>
       <c r="CL3" t="n">
-        <v>2.179923262398447e-191</v>
+        <v>1.052815274422063e-178</v>
       </c>
       <c r="CM3" t="n">
-        <v>2.971493803521223e-194</v>
+        <v>1.459415507200943e-181</v>
       </c>
       <c r="CN3" t="n">
-        <v>2.032813824099344e-197</v>
+        <v>2.27453187085906e-184</v>
       </c>
       <c r="CO3" t="n">
-        <v>4.460350090617057e-200</v>
+        <v>3.661739282289355e-187</v>
       </c>
       <c r="CP3" t="n">
-        <v>9.069435262845212e-202</v>
+        <v>2.066400357826358e-189</v>
       </c>
       <c r="CQ3" t="n">
-        <v>2.075912049122082e-202</v>
+        <v>7.00303013468193e-192</v>
       </c>
       <c r="CR3" t="n">
-        <v>6.411721410531528e-203</v>
+        <v>5.023988514794785e-195</v>
       </c>
       <c r="CS3" t="n">
-        <v>3.385808969215521e-206</v>
+        <v>5.01892504581648e-199</v>
       </c>
       <c r="CT3" t="n">
-        <v>2.065580335729534e-209</v>
+        <v>2.92778334368263e-202</v>
       </c>
       <c r="CU3" t="n">
-        <v>5.430933594612317e-212</v>
+        <v>2.630902059312385e-205</v>
       </c>
       <c r="CV3" t="n">
-        <v>1.291641357218833e-215</v>
+        <v>3.749367283185076e-208</v>
       </c>
       <c r="CW3" t="n">
-        <v>1.237987976879164e-218</v>
+        <v>6.573163138670578e-211</v>
       </c>
       <c r="CX3" t="n">
-        <v>1.369416281474608e-221</v>
+        <v>8.228032205160864e-214</v>
       </c>
       <c r="CY3" t="n">
-        <v>2.940833686185743e-224</v>
+        <v>1.661773693973084e-217</v>
       </c>
       <c r="CZ3" t="n">
-        <v>4.654116248910678e-227</v>
+        <v>5.883532754425045e-221</v>
       </c>
       <c r="DA3" t="n">
-        <v>2.678913647238924e-230</v>
+        <v>2.907544371466584e-224</v>
       </c>
       <c r="DB3" t="n">
-        <v>5.091324953680711e-233</v>
+        <v>4.076346057980186e-227</v>
       </c>
       <c r="DC3" t="n">
-        <v>1.648709665084844e-235</v>
+        <v>3.027490525920994e-230</v>
       </c>
       <c r="DD3" t="n">
-        <v>6.203156590879761e-238</v>
+        <v>3.36690236123496e-233</v>
       </c>
       <c r="DE3" t="n">
-        <v>2.023834418247484e-240</v>
+        <v>2.0019607435046e-236</v>
       </c>
       <c r="DF3" t="n">
-        <v>8.384834960860981e-243</v>
+        <v>6.735642627774767e-240</v>
       </c>
       <c r="DG3" t="n">
-        <v>9.900040973311751e-246</v>
+        <v>1.041257351860191e-242</v>
       </c>
       <c r="DH3" t="n">
-        <v>1.603307264857988e-248</v>
+        <v>1.663187162739999e-245</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.010933488951469e-251</v>
+        <v>4.900874693187659e-247</v>
       </c>
       <c r="DJ3" t="n">
-        <v>3.028848774079391e-255</v>
+        <v>5.909012129052039e-249</v>
       </c>
       <c r="DK3" t="n">
-        <v>3.08370631359843e-258</v>
+        <v>9.069441140790591e-252</v>
       </c>
       <c r="DL3" t="n">
-        <v>5.87038309837235e-261</v>
+        <v>6.098186706772386e-255</v>
       </c>
       <c r="DM3" t="n">
-        <v>9.591965161655266e-265</v>
+        <v>2.288468353110277e-258</v>
       </c>
       <c r="DN3" t="n">
-        <v>9.745790491724164e-268</v>
+        <v>1.33719538989369e-261</v>
       </c>
       <c r="DO3" t="n">
-        <v>4.121145692255298e-271</v>
+        <v>2.841431610248587e-264</v>
       </c>
       <c r="DP3" t="n">
-        <v>3.036267003362949e-274</v>
+        <v>1.837227414995387e-266</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1.772446135072692e-276</v>
+        <v>1.277889643315337e-269</v>
       </c>
       <c r="DR3" t="n">
-        <v>1.679472583374582e-279</v>
+        <v>2.350803295586734e-272</v>
       </c>
       <c r="DS3" t="n">
-        <v>4.013966279681825e-284</v>
+        <v>1.154323963982935e-274</v>
       </c>
       <c r="DT3" t="n">
-        <v>2.016092624994513e-284</v>
+        <v>2.311701322031346e-275</v>
       </c>
       <c r="DU3" t="n">
-        <v>1.336548520551277e-286</v>
+        <v>7.169789773574453e-278</v>
       </c>
       <c r="DV3" t="n">
-        <v>7.384560157818079e-290</v>
+        <v>3.673655884151272e-281</v>
       </c>
       <c r="DW3" t="n">
-        <v>9.89906463557997e-294</v>
+        <v>5.990428569506685e-284</v>
       </c>
       <c r="DX3" t="n">
-        <v>1.634894950735166e-297</v>
+        <v>4.729284329889444e-287</v>
       </c>
       <c r="DY3" t="n">
-        <v>0</v>
+        <v>3.985393677777776e-290</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0</v>
+        <v>7.275631159737624e-293</v>
       </c>
       <c r="EA3" t="n">
-        <v>0</v>
+        <v>8.444507065462692e-296</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>5.558186393063001e-299</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>4.59579233633572e-301</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>3.870277276431486e-306</v>
       </c>
       <c r="EE3" t="n">
         <v>0</v>
@@ -17045,64 +17045,64 @@
         <v>0.33</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3603922035622612</v>
+        <v>0.255928260507447</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5254874019576962</v>
+        <v>0.2826585495183411</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7769420315228167</v>
+        <v>0.2570515025134637</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8607159316163546</v>
+        <v>0.5572392415984689</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9402159790981524</v>
+        <v>0.8309701121990208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9855895819543247</v>
+        <v>0.9875034183447664</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9965743946923332</v>
+        <v>0.9972823619845175</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9964341543005245</v>
+        <v>0.9994669133687056</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9993976503675454</v>
+        <v>0.999907224905308</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9999125098556306</v>
+        <v>0.9999790346702223</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9999943280171698</v>
+        <v>0.9999979683854894</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9999983314449058</v>
+        <v>0.9999991558714494</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9999997781400123</v>
+        <v>0.9999999489000576</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9999999861647128</v>
+        <v>0.9999999973786656</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9999999989707264</v>
+        <v>0.9999999998637474</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9999999999649953</v>
+        <v>0.9999999999886235</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9999999999982649</v>
+        <v>0.999999999999688</v>
       </c>
       <c r="T4" t="n">
-        <v>0.999999999999985</v>
+        <v>0.9999999999998604</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="W4" t="n">
         <v>1</v>
